--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\давид\pycharmprojects\binance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{598BD36E-441D-4E00-A284-BFB2883088F3}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{AB2131D3-1607-41A2-AEFA-E93154C923F2}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="825" firstSheet="2" activeTab="11" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="825" firstSheet="2" activeTab="13" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-05-06 рынок" sheetId="102" r:id="rId1"/>
@@ -24,8 +24,10 @@
     <sheet name="2021-05-11" sheetId="113" r:id="rId9"/>
     <sheet name="2021-05-10" sheetId="111" r:id="rId10"/>
     <sheet name="2021-05-12" sheetId="114" r:id="rId11"/>
-    <sheet name="Портфель" sheetId="94" r:id="rId12"/>
-    <sheet name="Расчет" sheetId="49" r:id="rId13"/>
+    <sheet name="2021-05-17" sheetId="116" r:id="rId12"/>
+    <sheet name="2021-05-16" sheetId="115" r:id="rId13"/>
+    <sheet name="Портфель" sheetId="94" r:id="rId14"/>
+    <sheet name="Расчет" sheetId="49" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -37,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2535" uniqueCount="370">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2772" uniqueCount="377">
   <si>
     <t>asset</t>
   </si>
@@ -1147,6 +1149,27 @@
   </si>
   <si>
     <t>[None, 'бел. зонтик', 'бел. молот']</t>
+  </si>
+  <si>
+    <t>Удар</t>
+  </si>
+  <si>
+    <t>UP</t>
+  </si>
+  <si>
+    <t>USD</t>
+  </si>
+  <si>
+    <t>['бел. доджи', 'Б. бел.', 'Б. крас.']</t>
+  </si>
+  <si>
+    <t>['бел. доджи', 'Б. бел.', 'бел. молот']</t>
+  </si>
+  <si>
+    <t>['крас. доджи', None, 'Б. бел.']</t>
+  </si>
+  <si>
+    <t>['крас. доджи', 'Б. бел.', 'Б. крас.']</t>
   </si>
 </sst>
 </file>
@@ -1239,7 +1262,7 @@
     </xdr:from>
     <xdr:to>
       <xdr:col>20</xdr:col>
-      <xdr:colOff>521543</xdr:colOff>
+      <xdr:colOff>523448</xdr:colOff>
       <xdr:row>20</xdr:row>
       <xdr:rowOff>75211</xdr:rowOff>
     </xdr:to>
@@ -5648,7 +5671,7 @@
   <dimension ref="L1:AA15"/>
   <sheetViews>
     <sheetView topLeftCell="D1" workbookViewId="0">
-      <selection activeCell="AA3" sqref="AA3"/>
+      <selection activeCell="S35" sqref="S35"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6146,11 +6169,2387 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1E75F2CB-FB83-4A60-976D-B474F4758348}">
+  <dimension ref="L1:AI12"/>
+  <sheetViews>
+    <sheetView topLeftCell="E1" workbookViewId="0">
+      <selection activeCell="G11" sqref="G11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>357</v>
+      </c>
+      <c r="S1" t="s">
+        <v>358</v>
+      </c>
+      <c r="T1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>359</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>65</v>
+      </c>
+      <c r="N2">
+        <v>0.53</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2">
+        <v>2348.4529000000002</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>263.78318496361902</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>8.6946553909096025</v>
+      </c>
+      <c r="W2">
+        <v>19704.354304030072</v>
+      </c>
+      <c r="X2">
+        <v>0.59</v>
+      </c>
+      <c r="Z2">
+        <v>8.3098591549295761E-2</v>
+      </c>
+      <c r="AA2">
+        <v>-8.8423011808318547E-2</v>
+      </c>
+      <c r="AB2">
+        <v>-0.21157792677089027</v>
+      </c>
+      <c r="AC2">
+        <v>251.96138120189656</v>
+      </c>
+      <c r="AD2">
+        <v>-11.821803761722464</v>
+      </c>
+    </row>
+    <row r="3" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>58</v>
+      </c>
+      <c r="N3">
+        <v>0.59</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3">
+        <v>366.67466000000002</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>385.20455294286018</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>12.696870133361561</v>
+      </c>
+      <c r="W3">
+        <v>28774.415593467293</v>
+      </c>
+      <c r="X3">
+        <v>0.87</v>
+      </c>
+      <c r="Z3">
+        <v>0.12253521126760562</v>
+      </c>
+      <c r="AA3">
+        <v>2.2541084999275377E-2</v>
+      </c>
+      <c r="AB3">
+        <v>-8.5875064639198501E-2</v>
+      </c>
+      <c r="AC3">
+        <v>371.53627397567794</v>
+      </c>
+      <c r="AD3">
+        <v>-13.668278967182232</v>
+      </c>
+    </row>
+    <row r="4" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>18</v>
+      </c>
+      <c r="N4">
+        <v>0.61</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4">
+        <v>449.76159999999999</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>294.531798889664</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>9.7081718585038406</v>
+      </c>
+      <c r="W4">
+        <v>22001.246667507246</v>
+      </c>
+      <c r="X4">
+        <v>0.53</v>
+      </c>
+      <c r="Z4">
+        <v>7.464788732394366E-2</v>
+      </c>
+      <c r="AA4">
+        <v>0.16446010773144931</v>
+      </c>
+      <c r="AB4">
+        <v>5.6421832120234175E-2</v>
+      </c>
+      <c r="AC4">
+        <v>226.3381898932291</v>
+      </c>
+      <c r="AD4">
+        <v>-68.193608996434904</v>
+      </c>
+    </row>
+    <row r="5" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>182</v>
+      </c>
+      <c r="N5">
+        <v>0.62</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>1035.7585999999999</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>311.38185835003395</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>10.263572917689849</v>
+      </c>
+      <c r="W5">
+        <v>23259.930164322614</v>
+      </c>
+      <c r="X5">
+        <v>0.67</v>
+      </c>
+      <c r="Z5">
+        <v>9.4366197183098591E-2</v>
+      </c>
+      <c r="AA5">
+        <v>-1.744962808553998E-2</v>
+      </c>
+      <c r="AB5">
+        <v>-0.11361017276902446</v>
+      </c>
+      <c r="AC5">
+        <v>286.12563628011986</v>
+      </c>
+      <c r="AD5">
+        <v>-25.256222069914088</v>
+      </c>
+    </row>
+    <row r="6" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>4</v>
+      </c>
+      <c r="N6">
+        <v>0.67</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>5683.23</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>272.13413718329997</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>8.9699142242051799</v>
+      </c>
+      <c r="W6">
+        <v>20328.162532501174</v>
+      </c>
+      <c r="X6">
+        <v>0.71</v>
+      </c>
+      <c r="Z6">
+        <v>9.9999999999999992E-2</v>
+      </c>
+      <c r="AA6">
+        <v>-0.14139465995108655</v>
+      </c>
+      <c r="AB6">
+        <v>-0.21192270957080075</v>
+      </c>
+      <c r="AC6">
+        <v>303.20776381923145</v>
+      </c>
+      <c r="AD6">
+        <v>31.073626635931475</v>
+      </c>
+    </row>
+    <row r="7" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>12</v>
+      </c>
+      <c r="N7">
+        <v>0.71</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7">
+        <v>1040.2175999999999</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>295.04981658624001</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>9.7252464319219403</v>
+      </c>
+      <c r="W7">
+        <v>22039.94209925169</v>
+      </c>
+      <c r="X7">
+        <v>0.61</v>
+      </c>
+      <c r="Z7">
+        <v>8.5915492957746475E-2</v>
+      </c>
+      <c r="AA7">
+        <v>-0.23475611772589641</v>
+      </c>
+      <c r="AB7">
+        <v>-0.35008652535263546</v>
+      </c>
+      <c r="AC7">
+        <v>260.50244497145235</v>
+      </c>
+      <c r="AD7">
+        <v>-34.547371614787664</v>
+      </c>
+    </row>
+    <row r="8" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>350</v>
+      </c>
+      <c r="N8">
+        <v>0.73</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8">
+        <v>15.631354</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>236.41881642473686</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>7.7926882906630732</v>
+      </c>
+      <c r="W8">
+        <v>17660.261868530237</v>
+      </c>
+      <c r="X8">
+        <v>0.62</v>
+      </c>
+      <c r="Z8">
+        <v>8.7323943661971826E-2</v>
+      </c>
+      <c r="AA8">
+        <v>6.8367946861245699E-2</v>
+      </c>
+      <c r="AB8">
+        <v>-2.7167295235136897E-2</v>
+      </c>
+      <c r="AC8">
+        <v>264.77297685623029</v>
+      </c>
+      <c r="AD8">
+        <v>28.354160431493426</v>
+      </c>
+    </row>
+    <row r="9" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9">
+        <v>0.87</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>148</v>
+      </c>
+      <c r="R9">
+        <v>12.623279</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>423.25091157318866</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>13.95093027072509</v>
+      </c>
+      <c r="W9">
+        <v>31616.442580644587</v>
+      </c>
+      <c r="X9">
+        <v>0.9</v>
+      </c>
+      <c r="Z9">
+        <v>0.12676056338028169</v>
+      </c>
+      <c r="AA9">
+        <v>-4.3150011360774176E-2</v>
+      </c>
+      <c r="AB9">
+        <v>-0.16875420764932753</v>
+      </c>
+      <c r="AC9">
+        <v>384.3478696300117</v>
+      </c>
+      <c r="AD9">
+        <v>-38.903041943176959</v>
+      </c>
+    </row>
+    <row r="10" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10">
+        <v>0.87</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>258</v>
+      </c>
+      <c r="R10">
+        <v>211.27483000000001</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>365.85199098891428</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>12.058983161362208</v>
+      </c>
+      <c r="W10">
+        <v>27328.797528449861</v>
+      </c>
+      <c r="X10">
+        <v>0.87</v>
+      </c>
+      <c r="Z10">
+        <v>0.12253521126760562</v>
+      </c>
+      <c r="AA10">
+        <v>-0.11166038313163829</v>
+      </c>
+      <c r="AB10">
+        <v>-0.22204854017345663</v>
+      </c>
+      <c r="AC10">
+        <v>371.53627397567794</v>
+      </c>
+      <c r="AD10">
+        <v>5.6842829867636624</v>
+      </c>
+    </row>
+    <row r="11" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>350</v>
+      </c>
+      <c r="R11">
+        <v>17.916066000000001</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>184.46879888975789</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>6.0803444955851198</v>
+      </c>
+      <c r="W11">
+        <v>13779.644717929899</v>
+      </c>
+      <c r="X11">
+        <v>0.73</v>
+      </c>
+      <c r="Z11">
+        <v>0.10281690140845069</v>
+      </c>
+      <c r="AA11">
+        <v>0.13921738344316825</v>
+      </c>
+      <c r="AB11">
+        <v>1.1911370092348722E-2</v>
+      </c>
+      <c r="AC11">
+        <v>311.74882758878721</v>
+      </c>
+      <c r="AD11">
+        <v>127.28002869902932</v>
+      </c>
+    </row>
+    <row r="12" spans="12:35" x14ac:dyDescent="0.25">
+      <c r="Q12" t="s">
+        <v>372</v>
+      </c>
+      <c r="T12">
+        <v>1.7714E-3</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>-1.7714E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7B85A25C-8192-4C09-A99D-4268462E8FB2}">
+  <dimension ref="A1:AI48"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B25" sqref="B25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="27" max="28" width="13" bestFit="1" customWidth="1"/>
+    <col min="29" max="29" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="30" max="30" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C1" t="s">
+        <v>9</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>11</v>
+      </c>
+      <c r="F1" t="s">
+        <v>34</v>
+      </c>
+      <c r="G1" t="s">
+        <v>35</v>
+      </c>
+      <c r="H1" t="s">
+        <v>36</v>
+      </c>
+      <c r="I1" t="s">
+        <v>91</v>
+      </c>
+      <c r="L1" t="s">
+        <v>353</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>363</v>
+      </c>
+      <c r="O1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>0</v>
+      </c>
+      <c r="R1" t="s">
+        <v>357</v>
+      </c>
+      <c r="S1" t="s">
+        <v>358</v>
+      </c>
+      <c r="T1" t="s">
+        <v>128</v>
+      </c>
+      <c r="U1" t="s">
+        <v>7</v>
+      </c>
+      <c r="V1" t="s">
+        <v>359</v>
+      </c>
+      <c r="W1" t="s">
+        <v>22</v>
+      </c>
+      <c r="X1" t="s">
+        <v>363</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>370</v>
+      </c>
+      <c r="Z1" t="s">
+        <v>360</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AC1" t="s">
+        <v>361</v>
+      </c>
+      <c r="AD1" t="s">
+        <v>362</v>
+      </c>
+      <c r="AF1" t="s">
+        <v>353</v>
+      </c>
+      <c r="AG1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>363</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>370</v>
+      </c>
+    </row>
+    <row r="2" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>162</v>
+      </c>
+      <c r="B2">
+        <v>0.23</v>
+      </c>
+      <c r="C2">
+        <v>0.13</v>
+      </c>
+      <c r="D2">
+        <v>0</v>
+      </c>
+      <c r="E2">
+        <v>-0.13</v>
+      </c>
+      <c r="F2" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G2" t="s">
+        <v>174</v>
+      </c>
+      <c r="H2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I2">
+        <v>3.55</v>
+      </c>
+      <c r="L2">
+        <v>5</v>
+      </c>
+      <c r="M2" t="s">
+        <v>58</v>
+      </c>
+      <c r="N2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q2" t="s">
+        <v>58</v>
+      </c>
+      <c r="R2">
+        <v>2348.4529000000002</v>
+      </c>
+      <c r="S2">
+        <v>0</v>
+      </c>
+      <c r="T2">
+        <v>300.78552627866401</v>
+      </c>
+      <c r="U2">
+        <v>0</v>
+      </c>
+      <c r="V2">
+        <v>8.5176107800572183</v>
+      </c>
+      <c r="W2">
+        <v>22429.500189801365</v>
+      </c>
+      <c r="X2">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z2">
+        <v>8.2014388489208626E-2</v>
+      </c>
+      <c r="AA2">
+        <v>-2.6726804687417987E-2</v>
+      </c>
+      <c r="AB2">
+        <v>-0.14989487037178301</v>
+      </c>
+      <c r="AC2">
+        <v>289.47942365965076</v>
+      </c>
+      <c r="AD2">
+        <v>-11.306102619013245</v>
+      </c>
+      <c r="AF2">
+        <v>3</v>
+      </c>
+      <c r="AG2" t="s">
+        <v>306</v>
+      </c>
+      <c r="AH2">
+        <v>0.4</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="3" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>67</v>
+      </c>
+      <c r="B3">
+        <v>0.18</v>
+      </c>
+      <c r="C3">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D3">
+        <v>0.12</v>
+      </c>
+      <c r="E3">
+        <v>0.03</v>
+      </c>
+      <c r="F3" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G3" t="s">
+        <v>37</v>
+      </c>
+      <c r="H3" t="s">
+        <v>38</v>
+      </c>
+      <c r="I3">
+        <v>0.94</v>
+      </c>
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Q3" t="s">
+        <v>153</v>
+      </c>
+      <c r="R3">
+        <v>366.67466000000002</v>
+      </c>
+      <c r="S3">
+        <v>0</v>
+      </c>
+      <c r="T3">
+        <v>465.94025194273041</v>
+      </c>
+      <c r="U3">
+        <v>0</v>
+      </c>
+      <c r="V3">
+        <v>13.194443768325339</v>
+      </c>
+      <c r="W3">
+        <v>34745.046075466329</v>
+      </c>
+      <c r="X3">
+        <v>0.86</v>
+      </c>
+      <c r="Z3">
+        <v>0.12374100719424459</v>
+      </c>
+      <c r="AA3">
+        <v>0.22125783819716743</v>
+      </c>
+      <c r="AB3">
+        <v>0.10417412804127794</v>
+      </c>
+      <c r="AC3">
+        <v>436.75842867947307</v>
+      </c>
+      <c r="AD3">
+        <v>-29.181823263257343</v>
+      </c>
+      <c r="AF3">
+        <v>16</v>
+      </c>
+      <c r="AG3" t="s">
+        <v>350</v>
+      </c>
+      <c r="AH3">
+        <v>0.63</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="4" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>67</v>
+      </c>
+      <c r="B4">
+        <v>0.18</v>
+      </c>
+      <c r="C4">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D4">
+        <v>0.12</v>
+      </c>
+      <c r="E4">
+        <v>0.03</v>
+      </c>
+      <c r="F4" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G4" t="s">
+        <v>37</v>
+      </c>
+      <c r="H4" t="s">
+        <v>38</v>
+      </c>
+      <c r="I4">
+        <v>0.94</v>
+      </c>
+      <c r="L4">
+        <v>7</v>
+      </c>
+      <c r="M4" t="s">
+        <v>182</v>
+      </c>
+      <c r="N4">
+        <v>0.59</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>65</v>
+      </c>
+      <c r="R4">
+        <v>449.76159999999999</v>
+      </c>
+      <c r="S4">
+        <v>0</v>
+      </c>
+      <c r="T4">
+        <v>338.21149858958398</v>
+      </c>
+      <c r="U4">
+        <v>0</v>
+      </c>
+      <c r="V4">
+        <v>9.5774352641458567</v>
+      </c>
+      <c r="W4">
+        <v>25220.345425730611</v>
+      </c>
+      <c r="X4">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="Z4">
+        <v>8.2014388489208626E-2</v>
+      </c>
+      <c r="AA4">
+        <v>0.14056537577525519</v>
+      </c>
+      <c r="AB4">
+        <v>3.1901897751413458E-2</v>
+      </c>
+      <c r="AC4">
+        <v>289.47942365965076</v>
+      </c>
+      <c r="AD4">
+        <v>-48.732074929933219</v>
+      </c>
+    </row>
+    <row r="5" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>169</v>
+      </c>
+      <c r="B5">
+        <v>0.26</v>
+      </c>
+      <c r="C5">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D5">
+        <v>0.19</v>
+      </c>
+      <c r="E5">
+        <v>0.06</v>
+      </c>
+      <c r="F5" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G5" t="s">
+        <v>56</v>
+      </c>
+      <c r="H5" t="s">
+        <v>38</v>
+      </c>
+      <c r="I5">
+        <v>0.69</v>
+      </c>
+      <c r="L5">
+        <v>8</v>
+      </c>
+      <c r="M5" t="s">
+        <v>18</v>
+      </c>
+      <c r="N5">
+        <v>0.63</v>
+      </c>
+      <c r="Q5" t="s">
+        <v>4</v>
+      </c>
+      <c r="R5">
+        <v>1035.7585999999999</v>
+      </c>
+      <c r="S5">
+        <v>0</v>
+      </c>
+      <c r="T5">
+        <v>352.76917693778995</v>
+      </c>
+      <c r="U5">
+        <v>0</v>
+      </c>
+      <c r="V5">
+        <v>9.9896779659984958</v>
+      </c>
+      <c r="W5">
+        <v>26305.907797410844</v>
+      </c>
+      <c r="X5">
+        <v>0.64</v>
+      </c>
+      <c r="Z5">
+        <v>9.2086330935251801E-2</v>
+      </c>
+      <c r="AA5">
+        <v>1.1533789300713184E-2</v>
+      </c>
+      <c r="AB5">
+        <v>-8.4902127183258111E-2</v>
+      </c>
+      <c r="AC5">
+        <v>325.02952831960789</v>
+      </c>
+      <c r="AD5">
+        <v>-27.739648618182059</v>
+      </c>
+    </row>
+    <row r="6" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>169</v>
+      </c>
+      <c r="B6">
+        <v>0.26</v>
+      </c>
+      <c r="C6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D6">
+        <v>0.19</v>
+      </c>
+      <c r="E6">
+        <v>0.06</v>
+      </c>
+      <c r="F6" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G6" t="s">
+        <v>56</v>
+      </c>
+      <c r="H6" t="s">
+        <v>38</v>
+      </c>
+      <c r="I6">
+        <v>0.69</v>
+      </c>
+      <c r="L6">
+        <v>9</v>
+      </c>
+      <c r="M6" t="s">
+        <v>350</v>
+      </c>
+      <c r="N6">
+        <v>0.63</v>
+      </c>
+      <c r="O6" t="s">
+        <v>371</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>12</v>
+      </c>
+      <c r="R6">
+        <v>5683.23</v>
+      </c>
+      <c r="S6">
+        <v>0</v>
+      </c>
+      <c r="T6">
+        <v>332.71032177809997</v>
+      </c>
+      <c r="U6">
+        <v>0</v>
+      </c>
+      <c r="V6">
+        <v>9.4216535565211146</v>
+      </c>
+      <c r="W6">
+        <v>24810.124070122572</v>
+      </c>
+      <c r="X6">
+        <v>0.68</v>
+      </c>
+      <c r="Z6">
+        <v>9.7841726618705036E-2</v>
+      </c>
+      <c r="AA6">
+        <v>-7.8806252512400837E-2</v>
+      </c>
+      <c r="AB6">
+        <v>-0.14976954349380514</v>
+      </c>
+      <c r="AC6">
+        <v>345.34387383958341</v>
+      </c>
+      <c r="AD6">
+        <v>12.633552061483442</v>
+      </c>
+    </row>
+    <row r="7" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>272</v>
+      </c>
+      <c r="B7">
+        <v>0.19</v>
+      </c>
+      <c r="C7">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="D7">
+        <v>0.09</v>
+      </c>
+      <c r="E7">
+        <v>0</v>
+      </c>
+      <c r="F7" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G7" t="s">
+        <v>37</v>
+      </c>
+      <c r="H7" t="s">
+        <v>38</v>
+      </c>
+      <c r="I7">
+        <v>1.1200000000000001</v>
+      </c>
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7">
+        <v>0.64</v>
+      </c>
+      <c r="Q7" t="s">
+        <v>18</v>
+      </c>
+      <c r="R7">
+        <v>1040.2175999999999</v>
+      </c>
+      <c r="S7">
+        <v>0</v>
+      </c>
+      <c r="T7">
+        <v>343.901514126336</v>
+      </c>
+      <c r="U7">
+        <v>0</v>
+      </c>
+      <c r="V7">
+        <v>9.7385644856019145</v>
+      </c>
+      <c r="W7">
+        <v>25644.648437050757</v>
+      </c>
+      <c r="X7">
+        <v>0.63</v>
+      </c>
+      <c r="Z7">
+        <v>9.0647482014388492E-2</v>
+      </c>
+      <c r="AA7">
+        <v>-0.23426969642126483</v>
+      </c>
+      <c r="AB7">
+        <v>-0.34971398121058478</v>
+      </c>
+      <c r="AC7">
+        <v>319.95094193961404</v>
+      </c>
+      <c r="AD7">
+        <v>-23.950572186721956</v>
+      </c>
+    </row>
+    <row r="8" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>132</v>
+      </c>
+      <c r="B8">
+        <v>0.22</v>
+      </c>
+      <c r="C8">
+        <v>0.18</v>
+      </c>
+      <c r="D8">
+        <v>0.06</v>
+      </c>
+      <c r="E8">
+        <v>-0.01</v>
+      </c>
+      <c r="F8" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G8" t="s">
+        <v>37</v>
+      </c>
+      <c r="H8" t="s">
+        <v>38</v>
+      </c>
+      <c r="I8">
+        <v>0.98</v>
+      </c>
+      <c r="L8">
+        <v>11</v>
+      </c>
+      <c r="M8" t="s">
+        <v>12</v>
+      </c>
+      <c r="N8">
+        <v>0.68</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>182</v>
+      </c>
+      <c r="R8">
+        <v>15.631354</v>
+      </c>
+      <c r="S8">
+        <v>0</v>
+      </c>
+      <c r="T8">
+        <v>265.94846182591124</v>
+      </c>
+      <c r="U8">
+        <v>0</v>
+      </c>
+      <c r="V8">
+        <v>7.5310986981779529</v>
+      </c>
+      <c r="W8">
+        <v>19831.709154366938</v>
+      </c>
+      <c r="X8">
+        <v>0.59</v>
+      </c>
+      <c r="Z8">
+        <v>8.4892086330935243E-2</v>
+      </c>
+      <c r="AA8">
+        <v>0.22001647566210386</v>
+      </c>
+      <c r="AB8">
+        <v>0.12060101917849793</v>
+      </c>
+      <c r="AC8">
+        <v>299.63659641963852</v>
+      </c>
+      <c r="AD8">
+        <v>33.688134593727284</v>
+      </c>
+    </row>
+    <row r="9" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>105</v>
+      </c>
+      <c r="B9">
+        <v>0.26</v>
+      </c>
+      <c r="C9">
+        <v>0.19</v>
+      </c>
+      <c r="D9">
+        <v>0.15</v>
+      </c>
+      <c r="E9">
+        <v>0.02</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G9" t="s">
+        <v>373</v>
+      </c>
+      <c r="H9" t="s">
+        <v>38</v>
+      </c>
+      <c r="I9">
+        <v>1.21</v>
+      </c>
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>153</v>
+      </c>
+      <c r="N9">
+        <v>0.86</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>148</v>
+      </c>
+      <c r="R9">
+        <v>12.623279</v>
+      </c>
+      <c r="S9">
+        <v>0</v>
+      </c>
+      <c r="T9">
+        <v>464.50016395918459</v>
+      </c>
+      <c r="U9">
+        <v>0</v>
+      </c>
+      <c r="V9">
+        <v>13.153663518408937</v>
+      </c>
+      <c r="W9">
+        <v>34637.659080819692</v>
+      </c>
+      <c r="X9">
+        <v>0.9</v>
+      </c>
+      <c r="Z9">
+        <v>0.12949640287769784</v>
+      </c>
+      <c r="AA9">
+        <v>0.14795897529604768</v>
+      </c>
+      <c r="AB9">
+        <v>3.8075787193435733E-2</v>
+      </c>
+      <c r="AC9">
+        <v>457.07277419944859</v>
+      </c>
+      <c r="AD9">
+        <v>-7.4273897597360019</v>
+      </c>
+    </row>
+    <row r="10" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>105</v>
+      </c>
+      <c r="B10">
+        <v>0.26</v>
+      </c>
+      <c r="C10">
+        <v>0.19</v>
+      </c>
+      <c r="D10">
+        <v>0.15</v>
+      </c>
+      <c r="E10">
+        <v>0.02</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G10" t="s">
+        <v>373</v>
+      </c>
+      <c r="H10" t="s">
+        <v>38</v>
+      </c>
+      <c r="I10">
+        <v>1.21</v>
+      </c>
+      <c r="L10">
+        <v>13</v>
+      </c>
+      <c r="M10" t="s">
+        <v>258</v>
+      </c>
+      <c r="N10">
+        <v>0.88</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>258</v>
+      </c>
+      <c r="R10">
+        <v>211.27483000000001</v>
+      </c>
+      <c r="S10">
+        <v>0</v>
+      </c>
+      <c r="T10">
+        <v>431.62615979994291</v>
+      </c>
+      <c r="U10">
+        <v>0</v>
+      </c>
+      <c r="V10">
+        <v>12.222741157633545</v>
+      </c>
+      <c r="W10">
+        <v>32186.252952167997</v>
+      </c>
+      <c r="X10">
+        <v>0.88</v>
+      </c>
+      <c r="Z10">
+        <v>0.12661870503597122</v>
+      </c>
+      <c r="AA10">
+        <v>9.718169928366982E-2</v>
+      </c>
+      <c r="AB10">
+        <v>-1.380120763569088E-2</v>
+      </c>
+      <c r="AC10">
+        <v>446.91560143946083</v>
+      </c>
+      <c r="AD10">
+        <v>15.289441639517918</v>
+      </c>
+    </row>
+    <row r="11" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>127</v>
+      </c>
+      <c r="B11">
+        <v>0.25</v>
+      </c>
+      <c r="C11">
+        <v>0.19</v>
+      </c>
+      <c r="D11">
+        <v>0.27</v>
+      </c>
+      <c r="E11">
+        <v>0.16</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G11" t="s">
+        <v>109</v>
+      </c>
+      <c r="H11" t="s">
+        <v>38</v>
+      </c>
+      <c r="I11">
+        <v>0.68</v>
+      </c>
+      <c r="L11">
+        <v>14</v>
+      </c>
+      <c r="M11" t="s">
+        <v>148</v>
+      </c>
+      <c r="N11">
+        <v>0.9</v>
+      </c>
+      <c r="Q11" t="s">
+        <v>350</v>
+      </c>
+      <c r="R11">
+        <v>17.916066000000001</v>
+      </c>
+      <c r="S11">
+        <v>0</v>
+      </c>
+      <c r="T11">
+        <v>233.22268745749889</v>
+      </c>
+      <c r="U11">
+        <v>0</v>
+      </c>
+      <c r="V11">
+        <v>6.6043738919854347</v>
+      </c>
+      <c r="W11">
+        <v>17391.356483515137</v>
+      </c>
+      <c r="X11">
+        <v>0.63</v>
+      </c>
+      <c r="Y11" t="s">
+        <v>371</v>
+      </c>
+      <c r="Z11">
+        <v>9.0647482014388492E-2</v>
+      </c>
+      <c r="AA11">
+        <v>-7.3593286928477331E-2</v>
+      </c>
+      <c r="AB11">
+        <v>-0.26082059727895412</v>
+      </c>
+      <c r="AC11">
+        <v>319.95094193961404</v>
+      </c>
+      <c r="AD11">
+        <v>86.728254482115148</v>
+      </c>
+    </row>
+    <row r="12" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>127</v>
+      </c>
+      <c r="B12">
+        <v>0.25</v>
+      </c>
+      <c r="C12">
+        <v>0.19</v>
+      </c>
+      <c r="D12">
+        <v>0.27</v>
+      </c>
+      <c r="E12">
+        <v>0.16</v>
+      </c>
+      <c r="F12" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G12" t="s">
+        <v>109</v>
+      </c>
+      <c r="H12" t="s">
+        <v>38</v>
+      </c>
+      <c r="I12">
+        <v>0.68</v>
+      </c>
+      <c r="Q12" t="s">
+        <v>372</v>
+      </c>
+      <c r="T12">
+        <v>1.7714E-3</v>
+      </c>
+      <c r="AC12">
+        <v>0</v>
+      </c>
+      <c r="AD12">
+        <v>-1.7714E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>194</v>
+      </c>
+      <c r="B13">
+        <v>0.37</v>
+      </c>
+      <c r="C13">
+        <v>0.22</v>
+      </c>
+      <c r="D13">
+        <v>0.26</v>
+      </c>
+      <c r="E13">
+        <v>0.04</v>
+      </c>
+      <c r="F13" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G13" t="s">
+        <v>136</v>
+      </c>
+      <c r="H13" t="s">
+        <v>38</v>
+      </c>
+      <c r="I13">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="14" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>194</v>
+      </c>
+      <c r="B14">
+        <v>0.37</v>
+      </c>
+      <c r="C14">
+        <v>0.22</v>
+      </c>
+      <c r="D14">
+        <v>0.26</v>
+      </c>
+      <c r="E14">
+        <v>0.04</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G14" t="s">
+        <v>136</v>
+      </c>
+      <c r="H14" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14">
+        <v>1.69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>0.4</v>
+      </c>
+      <c r="C15">
+        <v>0.25</v>
+      </c>
+      <c r="D15">
+        <v>0.11</v>
+      </c>
+      <c r="E15">
+        <v>-0.06</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G15" t="s">
+        <v>109</v>
+      </c>
+      <c r="H15" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:35" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16">
+        <v>0.4</v>
+      </c>
+      <c r="C16">
+        <v>0.25</v>
+      </c>
+      <c r="D16">
+        <v>0.11</v>
+      </c>
+      <c r="E16">
+        <v>-0.06</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G16" t="s">
+        <v>109</v>
+      </c>
+      <c r="H16" t="s">
+        <v>38</v>
+      </c>
+      <c r="I16">
+        <v>3.14</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>201</v>
+      </c>
+      <c r="B17">
+        <v>0.38</v>
+      </c>
+      <c r="C17">
+        <v>0.25</v>
+      </c>
+      <c r="D17">
+        <v>0.09</v>
+      </c>
+      <c r="E17">
+        <v>-0.1</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G17" t="s">
+        <v>115</v>
+      </c>
+      <c r="H17" t="s">
+        <v>38</v>
+      </c>
+      <c r="I17">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>201</v>
+      </c>
+      <c r="B18">
+        <v>0.38</v>
+      </c>
+      <c r="C18">
+        <v>0.25</v>
+      </c>
+      <c r="D18">
+        <v>0.09</v>
+      </c>
+      <c r="E18">
+        <v>-0.1</v>
+      </c>
+      <c r="F18" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G18" t="s">
+        <v>115</v>
+      </c>
+      <c r="H18" t="s">
+        <v>38</v>
+      </c>
+      <c r="I18">
+        <v>1.76</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>191</v>
+      </c>
+      <c r="B19">
+        <v>0.35</v>
+      </c>
+      <c r="C19">
+        <v>0.26</v>
+      </c>
+      <c r="D19">
+        <v>0.16</v>
+      </c>
+      <c r="E19">
+        <v>0.05</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G19" t="s">
+        <v>374</v>
+      </c>
+      <c r="H19" t="s">
+        <v>38</v>
+      </c>
+      <c r="I19">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>191</v>
+      </c>
+      <c r="B20">
+        <v>0.35</v>
+      </c>
+      <c r="C20">
+        <v>0.26</v>
+      </c>
+      <c r="D20">
+        <v>0.16</v>
+      </c>
+      <c r="E20">
+        <v>0.05</v>
+      </c>
+      <c r="F20" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G20" t="s">
+        <v>374</v>
+      </c>
+      <c r="H20" t="s">
+        <v>38</v>
+      </c>
+      <c r="I20">
+        <v>1.84</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>288</v>
+      </c>
+      <c r="B21">
+        <v>0.36</v>
+      </c>
+      <c r="C21">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="D21">
+        <v>-0.02</v>
+      </c>
+      <c r="E21">
+        <v>-0.11</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G21" t="s">
+        <v>115</v>
+      </c>
+      <c r="H21" t="s">
+        <v>38</v>
+      </c>
+      <c r="I21">
+        <v>1.5</v>
+      </c>
+    </row>
+    <row r="22" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>249</v>
+      </c>
+      <c r="B22">
+        <v>0.39</v>
+      </c>
+      <c r="C22">
+        <v>0.3</v>
+      </c>
+      <c r="D22">
+        <v>0.2</v>
+      </c>
+      <c r="E22">
+        <v>0.08</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G22" t="s">
+        <v>136</v>
+      </c>
+      <c r="H22" t="s">
+        <v>38</v>
+      </c>
+      <c r="I22">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>163</v>
+      </c>
+      <c r="B23">
+        <v>0.45</v>
+      </c>
+      <c r="C23">
+        <v>0.34</v>
+      </c>
+      <c r="D23">
+        <v>0.1</v>
+      </c>
+      <c r="E23">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G23" t="s">
+        <v>123</v>
+      </c>
+      <c r="H23" t="s">
+        <v>38</v>
+      </c>
+      <c r="I23">
+        <v>2.88</v>
+      </c>
+    </row>
+    <row r="24" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>19</v>
+      </c>
+      <c r="B24">
+        <v>0.45</v>
+      </c>
+      <c r="C24">
+        <v>0.34</v>
+      </c>
+      <c r="D24">
+        <v>0.27</v>
+      </c>
+      <c r="E24">
+        <v>0.16</v>
+      </c>
+      <c r="G24" t="s">
+        <v>146</v>
+      </c>
+      <c r="H24" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>20</v>
+      </c>
+      <c r="B25">
+        <v>-0.69</v>
+      </c>
+      <c r="C25">
+        <v>-1</v>
+      </c>
+      <c r="D25">
+        <v>-0.69</v>
+      </c>
+      <c r="E25">
+        <v>-1</v>
+      </c>
+      <c r="G25" t="s">
+        <v>146</v>
+      </c>
+      <c r="H25" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>121</v>
+      </c>
+      <c r="B26">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="C26">
+        <v>-0.22</v>
+      </c>
+      <c r="D26">
+        <v>-0.01</v>
+      </c>
+      <c r="E26">
+        <v>-0.16</v>
+      </c>
+      <c r="G26" t="s">
+        <v>146</v>
+      </c>
+      <c r="H26" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="30" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>8</v>
+      </c>
+      <c r="C30" t="s">
+        <v>9</v>
+      </c>
+      <c r="D30" t="s">
+        <v>10</v>
+      </c>
+      <c r="E30" t="s">
+        <v>11</v>
+      </c>
+      <c r="F30" t="s">
+        <v>34</v>
+      </c>
+      <c r="G30" t="s">
+        <v>35</v>
+      </c>
+      <c r="H30" t="s">
+        <v>36</v>
+      </c>
+      <c r="I30" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="31" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>177</v>
+      </c>
+      <c r="B31">
+        <v>7.990845071218404E-2</v>
+      </c>
+      <c r="C31">
+        <v>2.6018907716058245E-2</v>
+      </c>
+      <c r="D31">
+        <v>-0.14473457733563272</v>
+      </c>
+      <c r="E31">
+        <v>-0.16221340612968232</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G31" t="s">
+        <v>136</v>
+      </c>
+      <c r="H31" t="s">
+        <v>38</v>
+      </c>
+      <c r="I31">
+        <v>2.06854152486682</v>
+      </c>
+    </row>
+    <row r="32" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>234</v>
+      </c>
+      <c r="B32">
+        <v>0.18759724843724879</v>
+      </c>
+      <c r="C32">
+        <v>9.4945576190888128E-2</v>
+      </c>
+      <c r="D32">
+        <v>4.8560981920152931E-3</v>
+      </c>
+      <c r="E32">
+        <v>-0.10705150745599838</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G32" t="s">
+        <v>375</v>
+      </c>
+      <c r="H32" t="s">
+        <v>38</v>
+      </c>
+      <c r="I32">
+        <v>2.1233463726491335</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>241</v>
+      </c>
+      <c r="B33">
+        <v>0.11962006970903899</v>
+      </c>
+      <c r="C33">
+        <v>4.4784908341073446E-2</v>
+      </c>
+      <c r="D33">
+        <v>-0.26052106834237126</v>
+      </c>
+      <c r="E33">
+        <v>-0.28674050712448323</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G33" t="s">
+        <v>279</v>
+      </c>
+      <c r="H33" t="s">
+        <v>38</v>
+      </c>
+      <c r="I33">
+        <v>2.5129989987468275</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>294</v>
+      </c>
+      <c r="B34">
+        <v>0.20385333320463819</v>
+      </c>
+      <c r="C34">
+        <v>7.2563361709912483E-2</v>
+      </c>
+      <c r="D34">
+        <v>2.9207481554423377E-3</v>
+      </c>
+      <c r="E34">
+        <v>-0.15888042573978295</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" t="s">
+        <v>38</v>
+      </c>
+      <c r="I34">
+        <v>2.5152659654403102</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>294</v>
+      </c>
+      <c r="B35">
+        <v>0.20385333320463819</v>
+      </c>
+      <c r="C35">
+        <v>7.2563361709912483E-2</v>
+      </c>
+      <c r="D35">
+        <v>2.9207481554423377E-3</v>
+      </c>
+      <c r="E35">
+        <v>-0.15888042573978295</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G35" t="s">
+        <v>109</v>
+      </c>
+      <c r="H35" t="s">
+        <v>38</v>
+      </c>
+      <c r="I35">
+        <v>2.5152659654403102</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>181</v>
+      </c>
+      <c r="B36">
+        <v>0.20942387127419831</v>
+      </c>
+      <c r="C36">
+        <v>8.4656108731877663E-2</v>
+      </c>
+      <c r="D36">
+        <v>8.6901687987687951E-2</v>
+      </c>
+      <c r="E36">
+        <v>-7.4830265692858403E-2</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G36" t="s">
+        <v>376</v>
+      </c>
+      <c r="H36" t="s">
+        <v>38</v>
+      </c>
+      <c r="I36">
+        <v>2.6402108338361896</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>181</v>
+      </c>
+      <c r="B37">
+        <v>0.20942387127419831</v>
+      </c>
+      <c r="C37">
+        <v>8.4656108731877663E-2</v>
+      </c>
+      <c r="D37">
+        <v>8.6901687987687951E-2</v>
+      </c>
+      <c r="E37">
+        <v>-7.4830265692858403E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G37" t="s">
+        <v>376</v>
+      </c>
+      <c r="H37" t="s">
+        <v>38</v>
+      </c>
+      <c r="I37">
+        <v>2.6402108338361896</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>163</v>
+      </c>
+      <c r="B38">
+        <v>0.44673116278454938</v>
+      </c>
+      <c r="C38">
+        <v>0.33594166601595343</v>
+      </c>
+      <c r="D38">
+        <v>9.7608752847681599E-2</v>
+      </c>
+      <c r="E38">
+        <v>-6.7605927146212677E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G38" t="s">
+        <v>123</v>
+      </c>
+      <c r="H38" t="s">
+        <v>38</v>
+      </c>
+      <c r="I38">
+        <v>2.8764349090454329</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>26</v>
+      </c>
+      <c r="B39">
+        <v>0.40363022742335564</v>
+      </c>
+      <c r="C39">
+        <v>0.2498172997263913</v>
+      </c>
+      <c r="D39">
+        <v>0.11024056324349261</v>
+      </c>
+      <c r="E39">
+        <v>-6.2281019729307885E-2</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G39" t="s">
+        <v>109</v>
+      </c>
+      <c r="H39" t="s">
+        <v>38</v>
+      </c>
+      <c r="I39">
+        <v>3.1354582428965538</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>26</v>
+      </c>
+      <c r="B40">
+        <v>0.40363022742335564</v>
+      </c>
+      <c r="C40">
+        <v>0.2498172997263913</v>
+      </c>
+      <c r="D40">
+        <v>0.11024056324349261</v>
+      </c>
+      <c r="E40">
+        <v>-6.2281019729307885E-2</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G40" t="s">
+        <v>109</v>
+      </c>
+      <c r="H40" t="s">
+        <v>38</v>
+      </c>
+      <c r="I40">
+        <v>3.1354582428965538</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>162</v>
+      </c>
+      <c r="B41">
+        <v>0.23380974080308395</v>
+      </c>
+      <c r="C41">
+        <v>0.13342689520406201</v>
+      </c>
+      <c r="D41">
+        <v>-2.9253726125657671E-3</v>
+      </c>
+      <c r="E41">
+        <v>-0.1342703759149097</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G41" t="s">
+        <v>174</v>
+      </c>
+      <c r="H41" t="s">
+        <v>38</v>
+      </c>
+      <c r="I41">
+        <v>3.54810385494326</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>221</v>
+      </c>
+      <c r="B42">
+        <v>0.15327908219684766</v>
+      </c>
+      <c r="C42">
+        <v>2.1819083524339828E-2</v>
+      </c>
+      <c r="D42">
+        <v>7.7844956467304688E-2</v>
+      </c>
+      <c r="E42">
+        <v>-2.5024752512613626E-2</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G42" t="s">
+        <v>135</v>
+      </c>
+      <c r="H42" t="s">
+        <v>38</v>
+      </c>
+      <c r="I42">
+        <v>5.4147752011943791</v>
+      </c>
+    </row>
+    <row r="47" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>0</v>
+      </c>
+      <c r="B47" t="s">
+        <v>8</v>
+      </c>
+      <c r="C47" t="s">
+        <v>9</v>
+      </c>
+      <c r="D47" t="s">
+        <v>10</v>
+      </c>
+      <c r="E47" t="s">
+        <v>11</v>
+      </c>
+      <c r="F47" t="s">
+        <v>34</v>
+      </c>
+      <c r="G47" t="s">
+        <v>35</v>
+      </c>
+      <c r="H47" t="s">
+        <v>36</v>
+      </c>
+      <c r="I47" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="48" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>162</v>
+      </c>
+      <c r="B48">
+        <v>0.23380974080308395</v>
+      </c>
+      <c r="C48">
+        <v>0.13342689520406201</v>
+      </c>
+      <c r="D48">
+        <v>-2.9253726125657671E-3</v>
+      </c>
+      <c r="E48">
+        <v>-0.1342703759149097</v>
+      </c>
+      <c r="F48" s="1">
+        <v>44329</v>
+      </c>
+      <c r="G48" t="s">
+        <v>174</v>
+      </c>
+      <c r="H48" t="s">
+        <v>38</v>
+      </c>
+      <c r="I48">
+        <v>3.54810385494326</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2424A2F-A1CE-497F-AA92-8E7EC6DEE16F}">
   <dimension ref="A1:Q31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A12" sqref="A12"/>
+      <selection activeCell="A7" sqref="A7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -6200,7 +8599,7 @@
     </row>
     <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>170</v>
+        <v>330</v>
       </c>
       <c r="C3" t="s">
         <v>113</v>
@@ -6208,6 +8607,9 @@
       <c r="D3" t="s">
         <v>345</v>
       </c>
+      <c r="F3" t="s">
+        <v>170</v>
+      </c>
       <c r="N3" t="s">
         <v>257</v>
       </c>
@@ -6220,13 +8622,16 @@
     </row>
     <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>258</v>
+        <v>214</v>
       </c>
       <c r="C4" t="s">
         <v>122</v>
       </c>
       <c r="D4" t="s">
         <v>278</v>
+      </c>
+      <c r="F4" t="s">
+        <v>258</v>
       </c>
       <c r="J4" s="2"/>
       <c r="N4" t="s">
@@ -6241,7 +8646,7 @@
     </row>
     <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>105</v>
+        <v>183</v>
       </c>
       <c r="C5" t="s">
         <v>153</v>
@@ -6249,13 +8654,16 @@
       <c r="D5" t="s">
         <v>288</v>
       </c>
+      <c r="F5" t="s">
+        <v>105</v>
+      </c>
       <c r="N5" t="s">
         <v>257</v>
       </c>
     </row>
     <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>1</v>
+        <v>191</v>
       </c>
       <c r="C6" t="s">
         <v>330</v>
@@ -6263,60 +8671,63 @@
       <c r="D6" t="s">
         <v>346</v>
       </c>
+      <c r="F6" t="s">
+        <v>1</v>
+      </c>
     </row>
     <row r="7" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>15</v>
-      </c>
       <c r="C7" t="s">
         <v>142</v>
       </c>
       <c r="D7" t="s">
         <v>347</v>
       </c>
+      <c r="F7" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="8" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>57</v>
-      </c>
       <c r="C8" t="s">
         <v>138</v>
       </c>
       <c r="D8" t="s">
         <v>148</v>
       </c>
+      <c r="F8" t="s">
+        <v>57</v>
+      </c>
     </row>
     <row r="9" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>258</v>
-      </c>
       <c r="C9" t="s">
         <v>118</v>
       </c>
       <c r="D9" t="s">
         <v>149</v>
       </c>
+      <c r="F9" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="10" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>163</v>
-      </c>
       <c r="C10" t="s">
         <v>215</v>
       </c>
       <c r="D10" t="s">
         <v>348</v>
       </c>
+      <c r="F10" t="s">
+        <v>163</v>
+      </c>
     </row>
     <row r="11" spans="1:17" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>319</v>
-      </c>
       <c r="C11" t="s">
         <v>364</v>
       </c>
       <c r="D11" t="s">
         <v>349</v>
+      </c>
+      <c r="F11" t="s">
+        <v>319</v>
       </c>
       <c r="J11" s="2"/>
     </row>
@@ -6463,7 +8874,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02CF27A-4FD7-4A86-8D8E-5E36547C57CD}">
   <dimension ref="A1:I10"/>
   <sheetViews>

--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\давид\pycharmprojects\binance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DFD98C2D-6CA5-49EC-9C68-EAACAA397373}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B0C2A6-1D7D-4682-A1CE-FABC23323FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="38640" windowHeight="21240" tabRatio="825" activeTab="6" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="825" activeTab="10" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-05-24" sheetId="128" r:id="rId1"/>
@@ -19,8 +19,12 @@
     <sheet name="Лист5" sheetId="126" r:id="rId4"/>
     <sheet name="2021-05-25" sheetId="129" r:id="rId5"/>
     <sheet name="2021-05-26" sheetId="130" r:id="rId6"/>
-    <sheet name="Портфель" sheetId="94" r:id="rId7"/>
-    <sheet name="Расчет" sheetId="49" r:id="rId8"/>
+    <sheet name="2021-05-27" sheetId="131" r:id="rId7"/>
+    <sheet name="2021-05-29" sheetId="133" r:id="rId8"/>
+    <sheet name="2021-05-28" sheetId="132" r:id="rId9"/>
+    <sheet name="2021-05-30" sheetId="134" r:id="rId10"/>
+    <sheet name="Портфель" sheetId="94" r:id="rId11"/>
+    <sheet name="Расчет" sheetId="49" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -32,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="276" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="142">
   <si>
     <t>asset</t>
   </si>
@@ -422,13 +426,49 @@
   </si>
   <si>
     <t>ETC</t>
+  </si>
+  <si>
+    <t>ETC/USD</t>
+  </si>
+  <si>
+    <t>XRP</t>
+  </si>
+  <si>
+    <t>XRP/USD</t>
+  </si>
+  <si>
+    <t>DOT</t>
+  </si>
+  <si>
+    <t>x1</t>
+  </si>
+  <si>
+    <t>x2</t>
+  </si>
+  <si>
+    <t>x3</t>
+  </si>
+  <si>
+    <t>DOT/USD</t>
+  </si>
+  <si>
+    <t>0.15_0.25_0.6  21507.497059</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 0.45_0.15_0.4  24066.196494</t>
+  </si>
+  <si>
+    <t>0.25_0.15_0.6  44563.064208</t>
+  </si>
+  <si>
+    <t>0.15_0.35_0.5</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -445,8 +485,16 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -459,6 +507,11 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -469,18 +522,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -1523,6 +1579,1211 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{728A9E5B-A740-4529-A087-84652B86244C}">
+  <dimension ref="L1:AN23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J19" sqref="J19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2">
+        <v>-0.95</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q2">
+        <v>-4.0913696418260745E-2</v>
+      </c>
+      <c r="R2">
+        <v>-4.0913696418260745E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3">
+        <v>-0.43</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q3">
+        <v>-0.24517733730834179</v>
+      </c>
+      <c r="R3">
+        <v>-0.24517733730834179</v>
+      </c>
+    </row>
+    <row r="4" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>4</v>
+      </c>
+      <c r="M4" t="s">
+        <v>125</v>
+      </c>
+      <c r="N4">
+        <v>-0.06</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q4">
+        <v>-2.5842074528341013E-2</v>
+      </c>
+      <c r="R4">
+        <v>-2.5842074528341013E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>17</v>
+      </c>
+      <c r="M5" t="s">
+        <v>119</v>
+      </c>
+      <c r="N5">
+        <v>0.03</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q5">
+        <v>-4.8384672716251957E-2</v>
+      </c>
+      <c r="R5">
+        <v>-4.8384672716251957E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6">
+        <v>0.25</v>
+      </c>
+      <c r="O6" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q6">
+        <v>-0.29495295502981622</v>
+      </c>
+      <c r="R6">
+        <v>-0.29495295502981622</v>
+      </c>
+    </row>
+    <row r="7" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7">
+        <v>0.32</v>
+      </c>
+      <c r="O7" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q7">
+        <v>-0.19945108620407928</v>
+      </c>
+      <c r="R7">
+        <v>-0.19945108620407928</v>
+      </c>
+    </row>
+    <row r="8" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8">
+        <v>0.37</v>
+      </c>
+      <c r="O8" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q8">
+        <v>-0.41518753253117102</v>
+      </c>
+      <c r="R8">
+        <v>-0.41518753253117102</v>
+      </c>
+    </row>
+    <row r="9" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>23</v>
+      </c>
+      <c r="M9" t="s">
+        <v>137</v>
+      </c>
+      <c r="N9">
+        <v>0.37</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q9">
+        <v>-0.31478838076996263</v>
+      </c>
+      <c r="R9">
+        <v>-0.31478838076996263</v>
+      </c>
+    </row>
+    <row r="10" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>116</v>
+      </c>
+      <c r="N10">
+        <v>0.38</v>
+      </c>
+      <c r="O10" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q10">
+        <v>-0.16680439023467544</v>
+      </c>
+      <c r="R10">
+        <v>-0.16680439023467544</v>
+      </c>
+    </row>
+    <row r="11" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>16</v>
+      </c>
+      <c r="M11" t="s">
+        <v>118</v>
+      </c>
+      <c r="N11">
+        <v>0.43</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q11">
+        <v>-0.21271148571682982</v>
+      </c>
+      <c r="R11">
+        <v>-0.21271148571682982</v>
+      </c>
+    </row>
+    <row r="12" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>22</v>
+      </c>
+      <c r="M12" t="s">
+        <v>132</v>
+      </c>
+      <c r="N12">
+        <v>0.45</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q12">
+        <v>-0.26694221045872663</v>
+      </c>
+      <c r="R12">
+        <v>-0.26694221045872663</v>
+      </c>
+    </row>
+    <row r="13" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>19</v>
+      </c>
+      <c r="M13" t="s">
+        <v>113</v>
+      </c>
+      <c r="N13">
+        <v>0.45</v>
+      </c>
+      <c r="O13" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q13">
+        <v>-0.26708129932385527</v>
+      </c>
+      <c r="R13">
+        <v>-0.26708129932385527</v>
+      </c>
+    </row>
+    <row r="14" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>10</v>
+      </c>
+      <c r="M14" t="s">
+        <v>114</v>
+      </c>
+      <c r="N14">
+        <v>0.47</v>
+      </c>
+      <c r="O14" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q14">
+        <v>-0.21328232326590285</v>
+      </c>
+      <c r="R14">
+        <v>-0.21328232326590285</v>
+      </c>
+    </row>
+    <row r="15" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>12</v>
+      </c>
+      <c r="M15" t="s">
+        <v>117</v>
+      </c>
+      <c r="N15">
+        <v>0.47</v>
+      </c>
+      <c r="O15" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q15">
+        <v>-0.30862527613004614</v>
+      </c>
+      <c r="R15">
+        <v>-0.30862527613004614</v>
+      </c>
+    </row>
+    <row r="16" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>9</v>
+      </c>
+      <c r="M16" t="s">
+        <v>115</v>
+      </c>
+      <c r="N16">
+        <v>0.48</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q16">
+        <v>-0.34400712862501936</v>
+      </c>
+      <c r="R16">
+        <v>-0.34400712862501936</v>
+      </c>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17">
+        <v>0.5</v>
+      </c>
+      <c r="O17" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q17">
+        <v>-0.24102262618801487</v>
+      </c>
+      <c r="R17">
+        <v>-0.24102262618801487</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>7</v>
+      </c>
+      <c r="M18" t="s">
+        <v>120</v>
+      </c>
+      <c r="N18">
+        <v>0.51</v>
+      </c>
+      <c r="O18" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q18">
+        <v>-0.29424242484737556</v>
+      </c>
+      <c r="R18">
+        <v>-0.29424242484737556</v>
+      </c>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>11</v>
+      </c>
+      <c r="M19" t="s">
+        <v>123</v>
+      </c>
+      <c r="N19">
+        <v>0.54</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q19">
+        <v>-0.35938059092934121</v>
+      </c>
+      <c r="R19">
+        <v>-0.35938059092934121</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q20">
+        <v>-0.1936577901645368</v>
+      </c>
+      <c r="R20">
+        <v>-0.1936577901645368</v>
+      </c>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>8</v>
+      </c>
+      <c r="M21" t="s">
+        <v>122</v>
+      </c>
+      <c r="N21">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O21" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q21">
+        <v>-0.14496348410733462</v>
+      </c>
+      <c r="R21">
+        <v>-0.14496348410733462</v>
+      </c>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>126</v>
+      </c>
+      <c r="N22">
+        <v>0.71</v>
+      </c>
+      <c r="O22" s="1">
+        <v>44345</v>
+      </c>
+      <c r="Q22">
+        <v>-0.261755128785222</v>
+      </c>
+      <c r="R22">
+        <v>-0.261755128785222</v>
+      </c>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>127</v>
+      </c>
+      <c r="N23">
+        <v>0.8</v>
+      </c>
+      <c r="O23" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q23">
+        <v>5.6028539882428232E-3</v>
+      </c>
+      <c r="R23">
+        <v>5.6028539882428232E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2424A2F-A1CE-497F-AA92-8E7EC6DEE16F}">
+  <dimension ref="A1:Y25"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D27" sqref="D27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" customWidth="1"/>
+    <col min="15" max="15" width="11.7109375" customWidth="1"/>
+    <col min="16" max="16" width="11.28515625" customWidth="1"/>
+    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>49</v>
+      </c>
+      <c r="J1" t="s">
+        <v>0</v>
+      </c>
+      <c r="K1" t="s">
+        <v>61</v>
+      </c>
+      <c r="L1" t="s">
+        <v>62</v>
+      </c>
+      <c r="M1" t="s">
+        <v>25</v>
+      </c>
+      <c r="N1" t="s">
+        <v>3</v>
+      </c>
+      <c r="O1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P1" t="s">
+        <v>7</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>65</v>
+      </c>
+      <c r="R1" t="s">
+        <v>73</v>
+      </c>
+      <c r="S1" t="s">
+        <v>74</v>
+      </c>
+      <c r="T1" t="s">
+        <v>63</v>
+      </c>
+      <c r="U1" t="s">
+        <v>64</v>
+      </c>
+      <c r="X1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>3</v>
+      </c>
+      <c r="B2">
+        <v>-3.625967888274393E-2</v>
+      </c>
+      <c r="C2">
+        <v>0.89</v>
+      </c>
+      <c r="D2">
+        <v>-3.625967888274393E-2</v>
+      </c>
+      <c r="J2" s="5" t="s">
+        <v>3</v>
+      </c>
+      <c r="K2" s="5">
+        <v>0.16461866</v>
+      </c>
+      <c r="L2" s="5">
+        <v>0</v>
+      </c>
+      <c r="M2" s="5">
+        <v>56.514236285908282</v>
+      </c>
+      <c r="N2" s="5">
+        <v>0</v>
+      </c>
+      <c r="O2" s="5">
+        <v>3.1897484000083161</v>
+      </c>
+      <c r="P2" s="5">
+        <v>4185.8777396655933</v>
+      </c>
+      <c r="Q2" s="5">
+        <v>0.01</v>
+      </c>
+      <c r="R2" s="5">
+        <v>-0.2335123974794435</v>
+      </c>
+      <c r="S2" s="5">
+        <v>-0.2335123974794435</v>
+      </c>
+      <c r="T2" s="5">
+        <v>9.9438752666799957</v>
+      </c>
+      <c r="U2" s="5">
+        <v>46.570361019228287</v>
+      </c>
+      <c r="X2" t="s">
+        <v>3</v>
+      </c>
+      <c r="Y2">
+        <v>12.171553529207525</v>
+      </c>
+    </row>
+    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>1</v>
+      </c>
+      <c r="B3">
+        <v>0.13440471515608041</v>
+      </c>
+      <c r="C3">
+        <v>0.9</v>
+      </c>
+      <c r="D3">
+        <v>0.13440471515608041</v>
+      </c>
+      <c r="J3" t="s">
+        <v>129</v>
+      </c>
+      <c r="K3">
+        <v>2.7949999999999999</v>
+      </c>
+      <c r="L3">
+        <v>0</v>
+      </c>
+      <c r="M3">
+        <v>194.88369652699998</v>
+      </c>
+      <c r="N3">
+        <v>0</v>
+      </c>
+      <c r="O3">
+        <v>10.999528615052817</v>
+      </c>
+      <c r="P3" s="2">
+        <v>14434.581102523405</v>
+      </c>
+      <c r="Q3">
+        <v>0.59</v>
+      </c>
+      <c r="R3">
+        <v>-0.159861339631722</v>
+      </c>
+      <c r="S3">
+        <v>-0.159861339631722</v>
+      </c>
+      <c r="T3">
+        <v>586.68864073411964</v>
+      </c>
+      <c r="U3">
+        <v>-391.80494420711966</v>
+      </c>
+      <c r="X3" t="s">
+        <v>40</v>
+      </c>
+      <c r="Y3">
+        <v>22.29242450045469</v>
+      </c>
+    </row>
+    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>48</v>
+      </c>
+      <c r="J4" t="s">
+        <v>40</v>
+      </c>
+      <c r="K4">
+        <v>296.55196000000001</v>
+      </c>
+      <c r="L4">
+        <v>0</v>
+      </c>
+      <c r="M4">
+        <v>457.79237617331</v>
+      </c>
+      <c r="N4">
+        <v>0</v>
+      </c>
+      <c r="O4">
+        <v>25.838489474534921</v>
+      </c>
+      <c r="P4">
+        <v>33907.614129615205</v>
+      </c>
+      <c r="Q4">
+        <v>0.84</v>
+      </c>
+      <c r="R4">
+        <v>-0.1679657142329464</v>
+      </c>
+      <c r="S4">
+        <v>-0.1679657142329464</v>
+      </c>
+      <c r="T4">
+        <v>835.28552240111969</v>
+      </c>
+      <c r="U4">
+        <v>-377.49314622780969</v>
+      </c>
+      <c r="X4" t="s">
+        <v>10</v>
+      </c>
+      <c r="Y4">
+        <v>17.892052296024406</v>
+      </c>
+    </row>
+    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="J5" s="5" t="s">
+        <v>10</v>
+      </c>
+      <c r="K5" s="5">
+        <v>790.1</v>
+      </c>
+      <c r="L5" s="5">
+        <v>0</v>
+      </c>
+      <c r="M5" s="5">
+        <v>311.763441532</v>
+      </c>
+      <c r="N5" s="5">
+        <v>0</v>
+      </c>
+      <c r="O5" s="5">
+        <v>17.596397017148519</v>
+      </c>
+      <c r="P5" s="5">
+        <v>23091.591353163782</v>
+      </c>
+      <c r="Q5" s="5">
+        <v>0.02</v>
+      </c>
+      <c r="R5" s="5">
+        <v>-0.29647696049062278</v>
+      </c>
+      <c r="S5" s="5">
+        <v>-0.29647696049062278</v>
+      </c>
+      <c r="T5" s="5">
+        <v>19.887750533359991</v>
+      </c>
+      <c r="U5" s="5">
+        <v>291.87569099864004</v>
+      </c>
+      <c r="X5" t="s">
+        <v>43</v>
+      </c>
+      <c r="Y5">
+        <v>20.410240135879398</v>
+      </c>
+    </row>
+    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" t="s">
+        <v>138</v>
+      </c>
+      <c r="J6" t="s">
+        <v>43</v>
+      </c>
+      <c r="K6">
+        <v>52.42</v>
+      </c>
+      <c r="L6">
+        <v>0</v>
+      </c>
+      <c r="M6">
+        <v>379.1513810582</v>
+      </c>
+      <c r="N6">
+        <v>0</v>
+      </c>
+      <c r="O6">
+        <v>21.399873564121712</v>
+      </c>
+      <c r="P6">
+        <v>28082.85894382195</v>
+      </c>
+      <c r="Q6">
+        <v>0.4</v>
+      </c>
+      <c r="R6">
+        <v>-0.129873411892204</v>
+      </c>
+      <c r="S6">
+        <v>-0.129873411892204</v>
+      </c>
+      <c r="T6">
+        <v>397.75501066719983</v>
+      </c>
+      <c r="U6">
+        <v>-18.603629608999825</v>
+      </c>
+      <c r="X6" t="s">
+        <v>36</v>
+      </c>
+      <c r="Y6">
+        <v>8.609034086555889</v>
+      </c>
+    </row>
+    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>38</v>
+      </c>
+      <c r="J7" t="s">
+        <v>36</v>
+      </c>
+      <c r="K7">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="L7">
+        <v>0</v>
+      </c>
+      <c r="M7">
+        <v>35.710380132000004</v>
+      </c>
+      <c r="N7">
+        <v>0</v>
+      </c>
+      <c r="O7">
+        <v>2.0155475040567485</v>
+      </c>
+      <c r="P7">
+        <v>2644.9846108388033</v>
+      </c>
+      <c r="Q7">
+        <v>0.02</v>
+      </c>
+      <c r="R7">
+        <v>1.6884372034335599E-2</v>
+      </c>
+      <c r="S7">
+        <v>1.6884372034335599E-2</v>
+      </c>
+      <c r="T7">
+        <v>19.887750533359991</v>
+      </c>
+      <c r="U7">
+        <v>15.822629598640013</v>
+      </c>
+      <c r="X7" t="s">
+        <v>1</v>
+      </c>
+      <c r="Y7">
+        <v>8.809601359325649</v>
+      </c>
+    </row>
+    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>40</v>
+      </c>
+      <c r="J8" t="s">
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <v>758</v>
+      </c>
+      <c r="L8">
+        <v>0</v>
+      </c>
+      <c r="M8">
+        <v>165.70817646</v>
+      </c>
+      <c r="N8">
+        <v>0</v>
+      </c>
+      <c r="O8">
+        <v>9.3528184306965141</v>
+      </c>
+      <c r="P8">
+        <v>12273.61834309081</v>
+      </c>
+      <c r="Q8">
+        <v>0.06</v>
+      </c>
+      <c r="R8">
+        <v>-4.9628178450734299E-2</v>
+      </c>
+      <c r="S8">
+        <v>-4.9628178450734299E-2</v>
+      </c>
+      <c r="T8">
+        <v>59.663251600079967</v>
+      </c>
+      <c r="U8">
+        <v>106.04492485992003</v>
+      </c>
+      <c r="X8" t="s">
+        <v>35</v>
+      </c>
+      <c r="Y8">
+        <v>9.7331902148310618</v>
+      </c>
+    </row>
+    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>28</v>
+      </c>
+      <c r="J9" t="s">
+        <v>35</v>
+      </c>
+      <c r="K9">
+        <v>15.071913</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>168.47133826062114</v>
+      </c>
+      <c r="N9">
+        <v>0</v>
+      </c>
+      <c r="O9">
+        <v>9.5087754339532857</v>
+      </c>
+      <c r="P9">
+        <v>12478.27929637345</v>
+      </c>
+      <c r="Q9">
+        <v>-0.16</v>
+      </c>
+      <c r="R9">
+        <v>-0.109052934071344</v>
+      </c>
+      <c r="S9">
+        <v>-0.109052934071344</v>
+      </c>
+      <c r="T9">
+        <v>-159.10200426687993</v>
+      </c>
+      <c r="U9">
+        <v>327.57334252750104</v>
+      </c>
+    </row>
+    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>47</v>
+      </c>
+      <c r="J10" t="s">
+        <v>70</v>
+      </c>
+      <c r="M10">
+        <v>1.4771039999999999E-2</v>
+      </c>
+      <c r="T10">
+        <v>0</v>
+      </c>
+      <c r="U10">
+        <v>1.4771039999999999E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>6</v>
+      </c>
+      <c r="J14" s="3"/>
+    </row>
+    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>35</v>
+      </c>
+      <c r="J15" s="2"/>
+    </row>
+    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>129</v>
+      </c>
+      <c r="B17" t="s">
+        <v>140</v>
+      </c>
+      <c r="J17" s="2"/>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>131</v>
+      </c>
+      <c r="B18" t="s">
+        <v>141</v>
+      </c>
+      <c r="G18" t="s">
+        <v>134</v>
+      </c>
+      <c r="H18">
+        <v>0.1</v>
+      </c>
+      <c r="J18" s="2"/>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>133</v>
+      </c>
+      <c r="G19" t="s">
+        <v>135</v>
+      </c>
+      <c r="H19">
+        <v>0.9</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>131</v>
+      </c>
+      <c r="B20" t="s">
+        <v>139</v>
+      </c>
+      <c r="G20" t="s">
+        <v>136</v>
+      </c>
+      <c r="H20">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="H21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="J25" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02CF27A-4FD7-4A86-8D8E-5E36547C57CD}">
+  <dimension ref="A1:I10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C36" sqref="C36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>17</v>
+      </c>
+      <c r="B1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>18</v>
+      </c>
+      <c r="B3" t="s">
+        <v>19</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
+        <v>21</v>
+      </c>
+      <c r="E3" t="s">
+        <v>12</v>
+      </c>
+      <c r="F3" t="s">
+        <v>13</v>
+      </c>
+      <c r="G3" t="s">
+        <v>14</v>
+      </c>
+      <c r="H3" t="s">
+        <v>15</v>
+      </c>
+      <c r="I3" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.5965999999999996</v>
+      </c>
+      <c r="B4">
+        <v>6.2557</v>
+      </c>
+      <c r="C4">
+        <v>6.3556999999999997</v>
+      </c>
+      <c r="D4">
+        <v>5.3640999999999996</v>
+      </c>
+      <c r="E4">
+        <f>(A4-B4)</f>
+        <v>-0.65910000000000046</v>
+      </c>
+      <c r="F4">
+        <f>C4-D4</f>
+        <v>0.99160000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.32907399999999998</v>
+      </c>
+      <c r="H6">
+        <f>E6/G6</f>
+        <v>2.0028929663236843</v>
+      </c>
+      <c r="I6">
+        <f>$B$1*E6</f>
+        <v>1.0545600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8">
+        <f>F6-E6</f>
+        <v>0.3327</v>
+      </c>
+      <c r="I8">
+        <f>1.5*E4</f>
+        <v>-0.98865000000000069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f>E4/F4</f>
+        <v>-0.66468334005647478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>E8/E6</f>
+        <v>0.50477924442421485</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C665CEA6-188D-4170-817E-9AE89450D7FA}">
   <dimension ref="L1:AN4"/>
@@ -3677,592 +4938,1420 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2424A2F-A1CE-497F-AA92-8E7EC6DEE16F}">
-  <dimension ref="A1:Y25"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{816078CC-1511-4690-BA94-30C2EEBCC49A}">
+  <dimension ref="L1:AN21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J16" sqref="J16"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="11.7109375" customWidth="1"/>
-    <col min="16" max="16" width="11.28515625" customWidth="1"/>
-    <col min="18" max="18" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="12.42578125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="13" bestFit="1" customWidth="1"/>
+    <col min="13" max="13" width="13.85546875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" t="s">
-        <v>49</v>
-      </c>
-      <c r="D1" t="s">
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" t="s">
         <v>0</v>
       </c>
-      <c r="E1" t="s">
-        <v>49</v>
-      </c>
-      <c r="J1" t="s">
-        <v>0</v>
-      </c>
-      <c r="K1" t="s">
-        <v>61</v>
-      </c>
-      <c r="L1" t="s">
-        <v>62</v>
-      </c>
-      <c r="M1" t="s">
-        <v>25</v>
-      </c>
-      <c r="N1" t="s">
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L2">
         <v>3</v>
       </c>
-      <c r="P1" t="s">
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2">
+        <v>-0.98</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q2">
+        <v>-4.0877739554338273E-2</v>
+      </c>
+      <c r="R2">
+        <v>-4.0877739554338273E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3">
+        <v>-0.61</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q3">
+        <v>-2.5539653069364288E-2</v>
+      </c>
+      <c r="R3">
+        <v>-2.5539653069364288E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4">
+        <v>-0.34</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q4">
+        <v>-0.29225392698802205</v>
+      </c>
+      <c r="R4">
+        <v>-0.29225392698802205</v>
+      </c>
+    </row>
+    <row r="5" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5">
+        <v>-0.21</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q5">
+        <v>-0.3610077835740329</v>
+      </c>
+      <c r="R5">
+        <v>-0.3610077835740329</v>
+      </c>
+    </row>
+    <row r="6" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6">
+        <v>-0.17</v>
+      </c>
+      <c r="O6" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q6">
+        <v>-0.21732713297165818</v>
+      </c>
+      <c r="R6">
+        <v>-0.21732713297165818</v>
+      </c>
+    </row>
+    <row r="7" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7">
+        <v>-0.1</v>
+      </c>
+      <c r="O7" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q7">
+        <v>-0.19992959725256304</v>
+      </c>
+      <c r="R7">
+        <v>-0.19992959725256304</v>
+      </c>
+    </row>
+    <row r="8" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>9</v>
+      </c>
+      <c r="M8" t="s">
+        <v>115</v>
+      </c>
+      <c r="N8">
+        <v>-0.08</v>
+      </c>
+      <c r="O8" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q8">
+        <v>-0.13737174063739652</v>
+      </c>
+      <c r="R8">
+        <v>-0.13737174063739652</v>
+      </c>
+    </row>
+    <row r="9" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9">
+        <v>-0.06</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q9">
+        <v>-0.23175657847143039</v>
+      </c>
+      <c r="R9">
+        <v>-0.23175657847143039</v>
+      </c>
+    </row>
+    <row r="10" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>12</v>
+      </c>
+      <c r="M10" t="s">
+        <v>117</v>
+      </c>
+      <c r="N10">
+        <v>-0.06</v>
+      </c>
+      <c r="O10" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q10">
+        <v>-0.28239957719867442</v>
+      </c>
+      <c r="R10">
+        <v>-0.28239957719867442</v>
+      </c>
+    </row>
+    <row r="11" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>20</v>
+      </c>
+      <c r="M11" t="s">
+        <v>116</v>
+      </c>
+      <c r="N11">
+        <v>-0.04</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q11">
+        <v>-6.7413615409983349E-2</v>
+      </c>
+      <c r="R11">
+        <v>-6.7413615409983349E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>17</v>
+      </c>
+      <c r="M12" t="s">
+        <v>119</v>
+      </c>
+      <c r="N12">
+        <v>0.02</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q12">
+        <v>0.10830133587860973</v>
+      </c>
+      <c r="R12">
+        <v>0.10830133587860973</v>
+      </c>
+    </row>
+    <row r="13" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L13">
         <v>7</v>
       </c>
-      <c r="Q1" t="s">
-        <v>65</v>
-      </c>
-      <c r="R1" t="s">
-        <v>73</v>
-      </c>
-      <c r="S1" t="s">
-        <v>74</v>
-      </c>
-      <c r="T1" t="s">
-        <v>63</v>
-      </c>
-      <c r="U1" t="s">
-        <v>64</v>
-      </c>
-      <c r="X1" t="s">
-        <v>0</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="2" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
-        <v>3</v>
-      </c>
-      <c r="B2">
-        <v>-3.625967888274393E-2</v>
-      </c>
-      <c r="C2">
-        <v>0.89</v>
-      </c>
-      <c r="D2">
-        <v>-3.625967888274393E-2</v>
-      </c>
-      <c r="J2" t="s">
-        <v>3</v>
-      </c>
-      <c r="K2">
-        <v>0.66186557999999995</v>
-      </c>
-      <c r="L2">
-        <v>0</v>
-      </c>
-      <c r="M2">
-        <v>248.43487008042501</v>
-      </c>
-      <c r="N2">
-        <v>0</v>
-      </c>
-      <c r="P2">
-        <v>18465.362680684586</v>
-      </c>
-      <c r="Q2">
+      <c r="M13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13">
         <v>0.03</v>
       </c>
-      <c r="R2">
-        <v>-0.29130292557208209</v>
-      </c>
-      <c r="S2">
-        <v>-0.29130292557208209</v>
-      </c>
-      <c r="T2">
-        <v>37.083692963062305</v>
-      </c>
-      <c r="U2">
-        <v>-211.35117711736271</v>
-      </c>
-      <c r="X2" t="s">
-        <v>3</v>
-      </c>
-      <c r="Y2">
-        <v>12.171553529207525</v>
-      </c>
-    </row>
-    <row r="3" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>1</v>
-      </c>
-      <c r="B3">
-        <v>0.13440471515608041</v>
-      </c>
-      <c r="C3">
-        <v>0.9</v>
-      </c>
-      <c r="D3">
-        <v>0.13440471515608041</v>
-      </c>
-      <c r="J3" t="s">
-        <v>40</v>
-      </c>
-      <c r="K3">
-        <v>255.85195999999999</v>
-      </c>
-      <c r="L3">
-        <v>0</v>
-      </c>
-      <c r="M3">
-        <v>455.0130409613152</v>
-      </c>
-      <c r="N3">
-        <v>0</v>
-      </c>
-      <c r="P3" s="2">
-        <v>33819.651899396937</v>
-      </c>
-      <c r="Q3">
+      <c r="O13" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q13">
+        <v>-0.27526091735241726</v>
+      </c>
+      <c r="R13">
+        <v>-0.27526091735241726</v>
+      </c>
+    </row>
+    <row r="14" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>14</v>
+      </c>
+      <c r="M14" t="s">
+        <v>121</v>
+      </c>
+      <c r="N14">
+        <v>0.03</v>
+      </c>
+      <c r="O14" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q14">
+        <v>-0.23337507301672691</v>
+      </c>
+      <c r="R14">
+        <v>-0.23337507301672691</v>
+      </c>
+    </row>
+    <row r="15" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15">
+        <v>0.12</v>
+      </c>
+      <c r="O15" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q15">
+        <v>-0.26151898632497816</v>
+      </c>
+      <c r="R15">
+        <v>-0.26151898632497816</v>
+      </c>
+    </row>
+    <row r="16" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16">
+        <v>0.16</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q16">
+        <v>-7.5374555455038017E-2</v>
+      </c>
+      <c r="R16">
+        <v>-7.5374555455038017E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>18</v>
+      </c>
+      <c r="M17" t="s">
+        <v>124</v>
+      </c>
+      <c r="N17">
+        <v>0.48</v>
+      </c>
+      <c r="O17" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q17">
+        <v>-0.21800403581626868</v>
+      </c>
+      <c r="R17">
+        <v>-0.21800403581626868</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>21</v>
+      </c>
+      <c r="M18" t="s">
+        <v>130</v>
+      </c>
+      <c r="N18">
+        <v>0.54</v>
+      </c>
+      <c r="O18" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q18">
+        <v>-9.5221697464737201E-2</v>
+      </c>
+      <c r="R18">
+        <v>-9.5221697464737201E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q19">
+        <v>0.1135939337526992</v>
+      </c>
+      <c r="R19">
+        <v>0.1135939337526992</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>13</v>
+      </c>
+      <c r="M20" t="s">
+        <v>126</v>
+      </c>
+      <c r="N20">
         <v>0.84</v>
       </c>
-      <c r="R3">
-        <v>-3.64033261684222E-2</v>
-      </c>
-      <c r="S3">
-        <v>-3.64033261684222E-2</v>
-      </c>
-      <c r="T3">
-        <v>1038.3434029657444</v>
-      </c>
-      <c r="U3">
-        <v>583.33036200442916</v>
-      </c>
-      <c r="X3" t="s">
-        <v>40</v>
-      </c>
-      <c r="Y3">
-        <v>22.29242450045469</v>
-      </c>
-    </row>
-    <row r="4" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>48</v>
-      </c>
-      <c r="J4" t="s">
-        <v>10</v>
-      </c>
-      <c r="K4">
-        <v>790.1</v>
-      </c>
-      <c r="L4">
-        <v>0</v>
-      </c>
-      <c r="M4">
-        <v>365.19657716400002</v>
-      </c>
-      <c r="N4">
-        <v>0</v>
-      </c>
-      <c r="P4">
-        <v>27143.883807030903</v>
-      </c>
-      <c r="Q4">
-        <v>0.17</v>
-      </c>
-      <c r="R4">
-        <v>-0.19597012365110739</v>
-      </c>
-      <c r="S4">
-        <v>-0.19597012365110739</v>
-      </c>
-      <c r="T4">
-        <v>210.14092679068642</v>
-      </c>
-      <c r="U4">
-        <v>-155.0556503733136</v>
-      </c>
-      <c r="X4" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y4">
-        <v>17.892052296024406</v>
-      </c>
-    </row>
-    <row r="5" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>30</v>
-      </c>
-      <c r="J5" t="s">
-        <v>43</v>
-      </c>
-      <c r="K5">
-        <v>52.42</v>
-      </c>
-      <c r="L5">
-        <v>0</v>
-      </c>
-      <c r="M5">
-        <v>416.59557625899998</v>
-      </c>
-      <c r="N5">
-        <v>0</v>
-      </c>
-      <c r="P5">
-        <v>30964.205645934209</v>
-      </c>
-      <c r="Q5">
-        <v>0.47</v>
-      </c>
-      <c r="R5">
-        <v>-0.1424093355529967</v>
-      </c>
-      <c r="S5">
-        <v>-0.1424093355529967</v>
-      </c>
-      <c r="T5">
-        <v>580.97785642130941</v>
-      </c>
-      <c r="U5">
-        <v>164.38228016230943</v>
-      </c>
-      <c r="X5" t="s">
-        <v>43</v>
-      </c>
-      <c r="Y5">
-        <v>20.410240135879398</v>
-      </c>
-    </row>
-    <row r="6" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>10</v>
-      </c>
-      <c r="J6" t="s">
-        <v>36</v>
-      </c>
-      <c r="K6">
-        <v>78.3</v>
-      </c>
-      <c r="L6">
-        <v>0</v>
-      </c>
-      <c r="M6">
-        <v>175.71990787199999</v>
-      </c>
-      <c r="N6">
-        <v>0</v>
-      </c>
-      <c r="P6">
-        <v>13060.694048394074</v>
-      </c>
-      <c r="Q6">
-        <v>0.02</v>
-      </c>
-      <c r="R6">
-        <v>8.2642620344688195E-2</v>
-      </c>
-      <c r="S6">
-        <v>8.2642620344688195E-2</v>
-      </c>
-      <c r="T6">
-        <v>24.72246197537487</v>
-      </c>
-      <c r="U6">
-        <v>-150.99744589662512</v>
-      </c>
-      <c r="X6" t="s">
-        <v>36</v>
-      </c>
-      <c r="Y6">
-        <v>8.609034086555889</v>
-      </c>
-    </row>
-    <row r="7" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>38</v>
-      </c>
-      <c r="J7" t="s">
-        <v>1</v>
-      </c>
-      <c r="K7">
-        <v>667.9</v>
-      </c>
-      <c r="L7">
-        <v>0</v>
-      </c>
-      <c r="M7">
-        <v>179.81370774999999</v>
-      </c>
-      <c r="N7">
-        <v>0</v>
-      </c>
-      <c r="P7">
-        <v>13364.972990657456</v>
-      </c>
-      <c r="Q7">
-        <v>0.15</v>
-      </c>
-      <c r="R7">
-        <v>4.83972351286358E-2</v>
-      </c>
-      <c r="S7">
-        <v>4.83972351286358E-2</v>
-      </c>
-      <c r="T7">
-        <v>185.41846481531149</v>
-      </c>
-      <c r="U7">
-        <v>5.6047570653115031</v>
-      </c>
-      <c r="X7" t="s">
-        <v>1</v>
-      </c>
-      <c r="Y7">
-        <v>8.809601359325649</v>
-      </c>
-    </row>
-    <row r="8" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
-        <v>40</v>
-      </c>
-      <c r="J8" t="s">
-        <v>35</v>
-      </c>
-      <c r="K8">
-        <v>15.071913</v>
-      </c>
-      <c r="L8">
-        <v>0</v>
-      </c>
-      <c r="M8">
-        <v>198.66517784168641</v>
-      </c>
-      <c r="N8">
-        <v>0</v>
-      </c>
-      <c r="P8">
-        <v>14766.141965827404</v>
-      </c>
-      <c r="Q8">
-        <v>-0.03</v>
-      </c>
-      <c r="R8">
-        <v>-7.5514634332647795E-2</v>
-      </c>
-      <c r="S8">
-        <v>-7.5514634332647795E-2</v>
-      </c>
-      <c r="T8">
-        <v>-37.083692963062305</v>
-      </c>
-      <c r="U8">
-        <v>-235.74887080474872</v>
-      </c>
-      <c r="X8" t="s">
-        <v>35</v>
-      </c>
-      <c r="Y8">
-        <v>9.7331902148310618</v>
-      </c>
-    </row>
-    <row r="9" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>28</v>
-      </c>
-      <c r="J9" t="s">
-        <v>70</v>
-      </c>
-      <c r="M9">
-        <v>0.16425503999999999</v>
-      </c>
-      <c r="T9">
-        <v>0</v>
-      </c>
-      <c r="U9">
-        <v>-0.16425503999999999</v>
-      </c>
-    </row>
-    <row r="10" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="11" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="12" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="13" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="14" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>6</v>
-      </c>
-      <c r="J14" s="3"/>
-    </row>
-    <row r="15" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>35</v>
-      </c>
-      <c r="J15" s="2"/>
-    </row>
-    <row r="16" spans="1:25" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>129</v>
-      </c>
-      <c r="J17" s="2"/>
-    </row>
-    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J18" s="2"/>
-    </row>
-    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="J25" s="4"/>
+      <c r="O20" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q20">
+        <v>-0.14265211241584069</v>
+      </c>
+      <c r="R20">
+        <v>-0.14265211241584069</v>
+      </c>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>5</v>
+      </c>
+      <c r="M21" t="s">
+        <v>127</v>
+      </c>
+      <c r="N21">
+        <v>0.85</v>
+      </c>
+      <c r="O21" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q21">
+        <v>1.0758662314475623E-2</v>
+      </c>
+      <c r="R21">
+        <v>1.0758662314475623E-2</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02CF27A-4FD7-4A86-8D8E-5E36547C57CD}">
-  <dimension ref="A1:I10"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{803B93B6-5C37-4D9E-8221-387A4FA2A742}">
+  <dimension ref="L1:AN22"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2">
+        <v>-0.97</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q2">
+        <v>-4.0913696418260745E-2</v>
+      </c>
+      <c r="R2">
+        <v>-4.0913696418260745E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3">
+        <v>-0.65</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q3">
+        <v>-0.24517733730834179</v>
+      </c>
+      <c r="R3">
+        <v>-0.24517733730834179</v>
+      </c>
+    </row>
+    <row r="4" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4">
+        <v>-0.39</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q4">
+        <v>-0.2200330681056131</v>
+      </c>
+      <c r="R4">
+        <v>-0.2200330681056131</v>
+      </c>
+    </row>
+    <row r="5" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q5">
+        <v>-0.34527280886855544</v>
+      </c>
+      <c r="R5">
+        <v>-0.34527280886855544</v>
+      </c>
+    </row>
+    <row r="6" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>19</v>
+      </c>
+      <c r="M6" t="s">
+        <v>113</v>
+      </c>
+      <c r="N6">
+        <v>-0.21</v>
+      </c>
+      <c r="O6" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q6">
+        <v>-0.20651716320243171</v>
+      </c>
+      <c r="R6">
+        <v>-0.20651716320243171</v>
+      </c>
+    </row>
+    <row r="7" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>10</v>
+      </c>
+      <c r="M7" t="s">
+        <v>114</v>
+      </c>
+      <c r="N7">
+        <v>-0.17</v>
+      </c>
+      <c r="O7" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q7">
+        <v>-0.20112676482504238</v>
+      </c>
+      <c r="R7">
+        <v>-0.20112676482504238</v>
+      </c>
+    </row>
+    <row r="8" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>20</v>
+      </c>
+      <c r="M8" t="s">
+        <v>116</v>
+      </c>
+      <c r="N8">
+        <v>-0.16</v>
+      </c>
+      <c r="O8" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q8">
+        <v>-0.10905293407134403</v>
+      </c>
+      <c r="R8">
+        <v>-0.10905293407134403</v>
+      </c>
+    </row>
+    <row r="9" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>16</v>
+      </c>
+      <c r="M9" t="s">
+        <v>118</v>
+      </c>
+      <c r="N9">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q9">
+        <v>-0.17706469285670567</v>
+      </c>
+      <c r="R9">
+        <v>-0.17706469285670567</v>
+      </c>
+    </row>
+    <row r="10" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="O10" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q10">
+        <v>-0.17755900763405549</v>
+      </c>
+      <c r="R10">
+        <v>-0.17755900763405549</v>
+      </c>
+    </row>
+    <row r="11" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>12</v>
+      </c>
+      <c r="M11" t="s">
+        <v>117</v>
+      </c>
+      <c r="N11">
+        <v>-0.11</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q11">
+        <v>-0.22069754594396612</v>
+      </c>
+      <c r="R11">
+        <v>-0.22069754594396612</v>
+      </c>
+    </row>
+    <row r="12" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>14</v>
+      </c>
+      <c r="M12" t="s">
+        <v>121</v>
+      </c>
+      <c r="N12">
+        <v>0.01</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q12">
+        <v>-0.16482821370946193</v>
+      </c>
+      <c r="R12">
+        <v>-0.16482821370946193</v>
+      </c>
+    </row>
+    <row r="13" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>7</v>
+      </c>
+      <c r="M13" t="s">
+        <v>120</v>
+      </c>
+      <c r="N13">
+        <v>0.01</v>
+      </c>
+      <c r="O13" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q13">
+        <v>-0.2335123974794435</v>
+      </c>
+      <c r="R13">
+        <v>-0.2335123974794435</v>
+      </c>
+    </row>
+    <row r="14" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>17</v>
+      </c>
+      <c r="M14" t="s">
+        <v>119</v>
+      </c>
+      <c r="N14">
+        <v>0.02</v>
+      </c>
+      <c r="O14" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q14">
+        <v>1.6884372034335623E-2</v>
+      </c>
+      <c r="R14">
+        <v>1.6884372034335623E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>11</v>
+      </c>
+      <c r="M15" t="s">
+        <v>123</v>
+      </c>
+      <c r="N15">
+        <v>0.02</v>
+      </c>
+      <c r="O15" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q15">
+        <v>-0.29647696049062278</v>
+      </c>
+      <c r="R15">
+        <v>-0.29647696049062278</v>
+      </c>
+    </row>
+    <row r="16" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>8</v>
+      </c>
+      <c r="M16" t="s">
+        <v>122</v>
+      </c>
+      <c r="N16">
+        <v>0.06</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q16">
+        <v>-4.9628178450734389E-2</v>
+      </c>
+      <c r="R16">
+        <v>-4.9628178450734389E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>22</v>
+      </c>
+      <c r="M17" t="s">
+        <v>132</v>
+      </c>
+      <c r="N17">
+        <v>0.11</v>
+      </c>
+      <c r="O17" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q17">
+        <v>-0.23664318508683377</v>
+      </c>
+      <c r="R17">
+        <v>-0.23664318508683377</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>18</v>
+      </c>
+      <c r="M18" t="s">
+        <v>124</v>
+      </c>
+      <c r="N18">
+        <v>0.4</v>
+      </c>
+      <c r="O18" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q18">
+        <v>-0.12987341189220405</v>
+      </c>
+      <c r="R18">
+        <v>-0.12987341189220405</v>
+      </c>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>4</v>
+      </c>
+      <c r="M19" t="s">
+        <v>125</v>
+      </c>
+      <c r="N19">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q19">
+        <v>-2.5842074528341013E-2</v>
+      </c>
+      <c r="R19">
+        <v>-2.5842074528341013E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>130</v>
+      </c>
+      <c r="N20">
+        <v>0.59</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q20">
+        <v>-0.15986133963172203</v>
+      </c>
+      <c r="R20">
+        <v>-0.15986133963172203</v>
+      </c>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>13</v>
+      </c>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21">
+        <v>0.84</v>
+      </c>
+      <c r="O21" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q21">
+        <v>-0.16796571423294643</v>
+      </c>
+      <c r="R21">
+        <v>-0.16796571423294643</v>
+      </c>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22">
+        <v>0.87</v>
+      </c>
+      <c r="O22" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q22">
+        <v>4.1249077379142685E-2</v>
+      </c>
+      <c r="R22">
+        <v>4.1249077379142685E-2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{71CF594D-74E3-4B80-AEA9-BDAFEEEAECBD}">
+  <dimension ref="L1:AN22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="R22" sqref="L1:R22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2">
+        <v>-0.96</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q2">
+        <v>-4.0914429505735525E-2</v>
+      </c>
+      <c r="R2">
+        <v>-4.0914429505735525E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3">
+        <v>-0.46</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q3">
+        <v>-0.24511515527692523</v>
+      </c>
+      <c r="R3">
+        <v>-0.24511515527692523</v>
+      </c>
+    </row>
+    <row r="4" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L4">
         <v>17</v>
       </c>
-      <c r="B1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+      <c r="M4" t="s">
+        <v>119</v>
+      </c>
+      <c r="N4">
+        <v>0.02</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q4">
+        <v>6.9701225461727093E-2</v>
+      </c>
+      <c r="R4">
+        <v>6.9701225461727093E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>4</v>
+      </c>
+      <c r="M5" t="s">
+        <v>125</v>
+      </c>
+      <c r="N5">
+        <v>0.08</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q5">
+        <v>-2.6183016633669908E-2</v>
+      </c>
+      <c r="R5">
+        <v>-2.6183016633669908E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>2</v>
+      </c>
+      <c r="M6" t="s">
+        <v>111</v>
+      </c>
+      <c r="N6">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O6" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q6">
+        <v>-0.26687185689871107</v>
+      </c>
+      <c r="R6">
+        <v>-0.26687185689871107</v>
+      </c>
+    </row>
+    <row r="7" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>21</v>
+      </c>
+      <c r="M7" t="s">
+        <v>130</v>
+      </c>
+      <c r="N7">
+        <v>0.3</v>
+      </c>
+      <c r="O7" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q7">
+        <v>-0.1643883770993218</v>
+      </c>
+      <c r="R7">
+        <v>-0.1643883770993218</v>
+      </c>
+    </row>
+    <row r="8" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>15</v>
+      </c>
+      <c r="M8" t="s">
+        <v>112</v>
+      </c>
+      <c r="N8">
+        <v>0.31</v>
+      </c>
+      <c r="O8" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q8">
+        <v>-0.33554063939629802</v>
+      </c>
+      <c r="R8">
+        <v>-0.33554063939629802</v>
+      </c>
+    </row>
+    <row r="9" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>20</v>
+      </c>
+      <c r="M9" t="s">
+        <v>116</v>
+      </c>
+      <c r="N9">
+        <v>0.39</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q9">
+        <v>-0.11611300936198708</v>
+      </c>
+      <c r="R9">
+        <v>-0.11611300936198708</v>
+      </c>
+    </row>
+    <row r="10" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>16</v>
+      </c>
+      <c r="M10" t="s">
+        <v>118</v>
+      </c>
+      <c r="N10">
+        <v>0.39</v>
+      </c>
+      <c r="O10" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q10">
+        <v>-0.16791599490918618</v>
+      </c>
+      <c r="R10">
+        <v>-0.16791599490918618</v>
+      </c>
+    </row>
+    <row r="11" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11">
+        <v>0.41</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q11">
+        <v>-0.22167555100910033</v>
+      </c>
+      <c r="R11">
+        <v>-0.22167555100910033</v>
+      </c>
+    </row>
+    <row r="12" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>12</v>
+      </c>
+      <c r="M12" t="s">
+        <v>117</v>
+      </c>
+      <c r="N12">
+        <v>0.45</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q12">
+        <v>-0.19662671953040195</v>
+      </c>
+      <c r="R12">
+        <v>-0.19662671953040195</v>
+      </c>
+    </row>
+    <row r="13" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>10</v>
+      </c>
+      <c r="M13" t="s">
+        <v>114</v>
+      </c>
+      <c r="N13">
+        <v>0.46</v>
+      </c>
+      <c r="O13" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q13">
+        <v>-0.24448394818359986</v>
+      </c>
+      <c r="R13">
+        <v>-0.24448394818359986</v>
+      </c>
+    </row>
+    <row r="14" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>9</v>
+      </c>
+      <c r="M14" t="s">
+        <v>115</v>
+      </c>
+      <c r="N14">
+        <v>0.47</v>
+      </c>
+      <c r="O14" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q14">
+        <v>-0.14480461111775134</v>
+      </c>
+      <c r="R14">
+        <v>-0.14480461111775134</v>
+      </c>
+    </row>
+    <row r="15" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>22</v>
+      </c>
+      <c r="M15" t="s">
+        <v>132</v>
+      </c>
+      <c r="N15">
+        <v>0.49</v>
+      </c>
+      <c r="O15" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q15">
+        <v>-0.17344800145924935</v>
+      </c>
+      <c r="R15">
+        <v>-0.17344800145924935</v>
+      </c>
+    </row>
+    <row r="16" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>121</v>
+      </c>
+      <c r="N16">
+        <v>0.51</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q16">
+        <v>-0.16270707787001593</v>
+      </c>
+      <c r="R16">
+        <v>-0.16270707787001593</v>
+      </c>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>7</v>
+      </c>
+      <c r="M17" t="s">
+        <v>120</v>
+      </c>
+      <c r="N17">
+        <v>0.52</v>
+      </c>
+      <c r="O17" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q17">
+        <v>-0.25214163820359187</v>
+      </c>
+      <c r="R17">
+        <v>-0.25214163820359187</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>11</v>
+      </c>
+      <c r="M18" t="s">
+        <v>123</v>
+      </c>
+      <c r="N18">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O18" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q18">
+        <v>-0.25415303736595468</v>
+      </c>
+      <c r="R18">
+        <v>-0.25415303736595468</v>
+      </c>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>8</v>
+      </c>
+      <c r="M19" t="s">
+        <v>122</v>
+      </c>
+      <c r="N19">
+        <v>0.6</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q19">
+        <v>-4.0485764005092267E-2</v>
+      </c>
+      <c r="R19">
+        <v>-4.0485764005092267E-2</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L20">
         <v>18</v>
       </c>
-      <c r="B3" t="s">
-        <v>19</v>
-      </c>
-      <c r="C3" t="s">
-        <v>20</v>
-      </c>
-      <c r="D3" t="s">
-        <v>21</v>
-      </c>
-      <c r="E3" t="s">
-        <v>12</v>
-      </c>
-      <c r="F3" t="s">
+      <c r="M20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20">
+        <v>0.62</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q20">
+        <v>-0.19271730623794039</v>
+      </c>
+      <c r="R20">
+        <v>-0.19271730623794039</v>
+      </c>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L21">
         <v>13</v>
       </c>
-      <c r="G3" t="s">
-        <v>14</v>
-      </c>
-      <c r="H3" t="s">
-        <v>15</v>
-      </c>
-      <c r="I3" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5.5965999999999996</v>
-      </c>
-      <c r="B4">
-        <v>6.2557</v>
-      </c>
-      <c r="C4">
-        <v>6.3556999999999997</v>
-      </c>
-      <c r="D4">
-        <v>5.3640999999999996</v>
-      </c>
-      <c r="E4">
-        <f>(A4-B4)</f>
-        <v>-0.65910000000000046</v>
-      </c>
-      <c r="F4">
-        <f>C4-D4</f>
-        <v>0.99160000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>0.65910000000000002</v>
-      </c>
-      <c r="F6">
-        <v>0.99180000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.32907399999999998</v>
-      </c>
-      <c r="H6">
-        <f>E6/G6</f>
-        <v>2.0028929663236843</v>
-      </c>
-      <c r="I6">
-        <f>$B$1*E6</f>
-        <v>1.0545600000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>22</v>
-      </c>
-      <c r="E8">
-        <f>F6-E6</f>
-        <v>0.3327</v>
-      </c>
-      <c r="I8">
-        <f>1.5*E4</f>
-        <v>-0.98865000000000069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9">
-        <f>E4/F4</f>
-        <v>-0.66468334005647478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <f>E8/E6</f>
-        <v>0.50477924442421485</v>
+      <c r="M21" t="s">
+        <v>126</v>
+      </c>
+      <c r="N21">
+        <v>0.71</v>
+      </c>
+      <c r="O21" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q21">
+        <v>-8.0330270360420217E-2</v>
+      </c>
+      <c r="R21">
+        <v>-8.0330270360420217E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22" t="s">
+        <v>127</v>
+      </c>
+      <c r="N22">
+        <v>0.83</v>
+      </c>
+      <c r="O22" s="1">
+        <v>44344</v>
+      </c>
+      <c r="Q22">
+        <v>4.1164202422169262E-2</v>
+      </c>
+      <c r="R22">
+        <v>4.1164202422169262E-2</v>
       </c>
     </row>
   </sheetData>

--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23929"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24026"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\давид\pycharmprojects\binance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{31B0C2A6-1D7D-4682-A1CE-FABC23323FFF}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{65AD5640-9DA8-4D42-A023-0D08E55632C1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="825" activeTab="10" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
+    <workbookView minimized="1" xWindow="30720" yWindow="2124" windowWidth="30720" windowHeight="14676" tabRatio="825" activeTab="11" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-05-24" sheetId="128" r:id="rId1"/>
@@ -23,8 +23,12 @@
     <sheet name="2021-05-29" sheetId="133" r:id="rId8"/>
     <sheet name="2021-05-28" sheetId="132" r:id="rId9"/>
     <sheet name="2021-05-30" sheetId="134" r:id="rId10"/>
-    <sheet name="Портфель" sheetId="94" r:id="rId11"/>
-    <sheet name="Расчет" sheetId="49" r:id="rId12"/>
+    <sheet name="2021-06-03" sheetId="137" r:id="rId11"/>
+    <sheet name="2021-06-05" sheetId="138" r:id="rId12"/>
+    <sheet name="Портфель" sheetId="94" r:id="rId13"/>
+    <sheet name="2021-06-02" sheetId="136" r:id="rId14"/>
+    <sheet name="Лист6" sheetId="135" r:id="rId15"/>
+    <sheet name="Расчет" sheetId="49" r:id="rId16"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="428" uniqueCount="142">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="854" uniqueCount="445">
   <si>
     <t>asset</t>
   </si>
@@ -462,6 +466,915 @@
   </si>
   <si>
     <t>0.15_0.35_0.5</t>
+  </si>
+  <si>
+    <t xml:space="preserve">  0.15_0.4_0.45</t>
+  </si>
+  <si>
+    <t>??</t>
+  </si>
+  <si>
+    <t>Биткоин</t>
+  </si>
+  <si>
+    <t xml:space="preserve">         Параметры        Баланс  Шарпа</t>
+  </si>
+  <si>
+    <t>19  0.35_0.4_0.25  22678.105456   0.08</t>
+  </si>
+  <si>
+    <t>20  0.35_0.45_0.2  22692.049741   0.08</t>
+  </si>
+  <si>
+    <t>21  0.35_0.5_0.15  23442.887723   0.08</t>
+  </si>
+  <si>
+    <t>25  0.4_0.45_0.15  23361.857712   0.08</t>
+  </si>
+  <si>
+    <t>[0.] [18235.05528279]</t>
+  </si>
+  <si>
+    <t>10  0.25_0.15_0.6  44472.140700  0.093</t>
+  </si>
+  <si>
+    <t>сщте</t>
+  </si>
+  <si>
+    <t>PAX</t>
+  </si>
+  <si>
+    <t>BUSD</t>
+  </si>
+  <si>
+    <t>TUSD</t>
+  </si>
+  <si>
+    <t>USDC</t>
+  </si>
+  <si>
+    <t>XEM/USD</t>
+  </si>
+  <si>
+    <t>GRT/USD</t>
+  </si>
+  <si>
+    <t>SXPUP/USD</t>
+  </si>
+  <si>
+    <t>TRU/USD</t>
+  </si>
+  <si>
+    <t>TKO/USD</t>
+  </si>
+  <si>
+    <t>LTCUP/USD</t>
+  </si>
+  <si>
+    <t>FILUP/USD</t>
+  </si>
+  <si>
+    <t>UNFI/USD</t>
+  </si>
+  <si>
+    <t>YFIUP/USD</t>
+  </si>
+  <si>
+    <t>GO/USD</t>
+  </si>
+  <si>
+    <t>LINKUP/USD</t>
+  </si>
+  <si>
+    <t>RIF/USD</t>
+  </si>
+  <si>
+    <t>INS/USD</t>
+  </si>
+  <si>
+    <t>AAVEUP/USD</t>
+  </si>
+  <si>
+    <t>HARD/USD</t>
+  </si>
+  <si>
+    <t>SUSHIUP/USD</t>
+  </si>
+  <si>
+    <t>HC/USD</t>
+  </si>
+  <si>
+    <t>CND/USD</t>
+  </si>
+  <si>
+    <t>REN/USD</t>
+  </si>
+  <si>
+    <t>BCHDOWN/USD</t>
+  </si>
+  <si>
+    <t>AKRO/USD</t>
+  </si>
+  <si>
+    <t>ROSE/USD</t>
+  </si>
+  <si>
+    <t>REEF/USD</t>
+  </si>
+  <si>
+    <t>SUB/USD</t>
+  </si>
+  <si>
+    <t>TLM/USD</t>
+  </si>
+  <si>
+    <t>BAKE/USD</t>
+  </si>
+  <si>
+    <t>1INCH/USD</t>
+  </si>
+  <si>
+    <t>MCO/USD</t>
+  </si>
+  <si>
+    <t>BTCST/USD</t>
+  </si>
+  <si>
+    <t>DOTUP/USD</t>
+  </si>
+  <si>
+    <t>WING/USD</t>
+  </si>
+  <si>
+    <t>BTG/USD</t>
+  </si>
+  <si>
+    <t>IQ/USD</t>
+  </si>
+  <si>
+    <t>IRIS/USD</t>
+  </si>
+  <si>
+    <t>DUSK/USD</t>
+  </si>
+  <si>
+    <t>BEL/USD</t>
+  </si>
+  <si>
+    <t>ORN/USD</t>
+  </si>
+  <si>
+    <t>FORTH/USD</t>
+  </si>
+  <si>
+    <t>MFT/USD</t>
+  </si>
+  <si>
+    <t>CKB/USD</t>
+  </si>
+  <si>
+    <t>LRC/USD</t>
+  </si>
+  <si>
+    <t>BURGER/USD</t>
+  </si>
+  <si>
+    <t>XLMUP/USD</t>
+  </si>
+  <si>
+    <t>ENG/USD</t>
+  </si>
+  <si>
+    <t>CTK/USD</t>
+  </si>
+  <si>
+    <t>COCOS/USD</t>
+  </si>
+  <si>
+    <t>ALPHA/USD</t>
+  </si>
+  <si>
+    <t>BTCUP/USD</t>
+  </si>
+  <si>
+    <t>OXT/USD</t>
+  </si>
+  <si>
+    <t>TWT/USD</t>
+  </si>
+  <si>
+    <t>XTZUP/USD</t>
+  </si>
+  <si>
+    <t>AAVEDOWN/USD</t>
+  </si>
+  <si>
+    <t>UMA/USD</t>
+  </si>
+  <si>
+    <t>MDT/USD</t>
+  </si>
+  <si>
+    <t>YFII/USD</t>
+  </si>
+  <si>
+    <t>CELO/USD</t>
+  </si>
+  <si>
+    <t>POND/USD</t>
+  </si>
+  <si>
+    <t>LTO/USD</t>
+  </si>
+  <si>
+    <t>1INCHDOWN/USD</t>
+  </si>
+  <si>
+    <t>SUSD/USD</t>
+  </si>
+  <si>
+    <t>ASR/USD</t>
+  </si>
+  <si>
+    <t>OG/USD</t>
+  </si>
+  <si>
+    <t>PERL/USD</t>
+  </si>
+  <si>
+    <t>BCHUP/USD</t>
+  </si>
+  <si>
+    <t>TRXUP/USD</t>
+  </si>
+  <si>
+    <t>DNT/USD</t>
+  </si>
+  <si>
+    <t>DOTDOWN/USD</t>
+  </si>
+  <si>
+    <t>NBS/USD</t>
+  </si>
+  <si>
+    <t>UNIUP/USD</t>
+  </si>
+  <si>
+    <t>TOMO/USD</t>
+  </si>
+  <si>
+    <t>COS/USD</t>
+  </si>
+  <si>
+    <t>ANT/USD</t>
+  </si>
+  <si>
+    <t>OCEAN/USD</t>
+  </si>
+  <si>
+    <t>PNT/USD</t>
+  </si>
+  <si>
+    <t>RVN/USD</t>
+  </si>
+  <si>
+    <t>BAND/USD</t>
+  </si>
+  <si>
+    <t>SNX/USD</t>
+  </si>
+  <si>
+    <t>MIR/USD</t>
+  </si>
+  <si>
+    <t>KEY/USD</t>
+  </si>
+  <si>
+    <t>BZRX/USD</t>
+  </si>
+  <si>
+    <t>SLP/USD</t>
+  </si>
+  <si>
+    <t>FUN/USD</t>
+  </si>
+  <si>
+    <t>NEAR/USD</t>
+  </si>
+  <si>
+    <t>DATA/USD</t>
+  </si>
+  <si>
+    <t>BLZ/USD</t>
+  </si>
+  <si>
+    <t>EOSUP/USD</t>
+  </si>
+  <si>
+    <t>KAVA/USD</t>
+  </si>
+  <si>
+    <t>TROY/USD</t>
+  </si>
+  <si>
+    <t>PAX/USD</t>
+  </si>
+  <si>
+    <t>ARPA/USD</t>
+  </si>
+  <si>
+    <t>RSR/USD</t>
+  </si>
+  <si>
+    <t>ZRX/USD</t>
+  </si>
+  <si>
+    <t>LINKDOWN/USD</t>
+  </si>
+  <si>
+    <t>FIS/USD</t>
+  </si>
+  <si>
+    <t>FIO/USD</t>
+  </si>
+  <si>
+    <t>REP/USD</t>
+  </si>
+  <si>
+    <t>FET/USD</t>
+  </si>
+  <si>
+    <t>FILDOWN/USD</t>
+  </si>
+  <si>
+    <t>ADADOWN/USD</t>
+  </si>
+  <si>
+    <t>AVAX/USD</t>
+  </si>
+  <si>
+    <t>DIA/USD</t>
+  </si>
+  <si>
+    <t>ICX/USD</t>
+  </si>
+  <si>
+    <t>DENT/USD</t>
+  </si>
+  <si>
+    <t>CRV/USD</t>
+  </si>
+  <si>
+    <t>SAND/USD</t>
+  </si>
+  <si>
+    <t>SFP/USD</t>
+  </si>
+  <si>
+    <t>NULS/USD</t>
+  </si>
+  <si>
+    <t>GAS/USD</t>
+  </si>
+  <si>
+    <t>RAMP/USD</t>
+  </si>
+  <si>
+    <t>WTC/USD</t>
+  </si>
+  <si>
+    <t>EGLD/USD</t>
+  </si>
+  <si>
+    <t>UTK/USD</t>
+  </si>
+  <si>
+    <t>BAR/USD</t>
+  </si>
+  <si>
+    <t>CTXC/USD</t>
+  </si>
+  <si>
+    <t>GTO/USD</t>
+  </si>
+  <si>
+    <t>AVA/USD</t>
+  </si>
+  <si>
+    <t>BAL/USD</t>
+  </si>
+  <si>
+    <t>DEGO/USD</t>
+  </si>
+  <si>
+    <t>BUSD/USD</t>
+  </si>
+  <si>
+    <t>SUSHIDOWN/USD</t>
+  </si>
+  <si>
+    <t>CVC/USD</t>
+  </si>
+  <si>
+    <t>KNC/USD</t>
+  </si>
+  <si>
+    <t>SXPDOWN/USD</t>
+  </si>
+  <si>
+    <t>EOSDOWN/USD</t>
+  </si>
+  <si>
+    <t>STMX/USD</t>
+  </si>
+  <si>
+    <t>OM/USD</t>
+  </si>
+  <si>
+    <t>IOST/USD</t>
+  </si>
+  <si>
+    <t>SXP/USD</t>
+  </si>
+  <si>
+    <t>BNT/USD</t>
+  </si>
+  <si>
+    <t>AUDIO/USD</t>
+  </si>
+  <si>
+    <t>FIL/USD</t>
+  </si>
+  <si>
+    <t>ATOM/USD</t>
+  </si>
+  <si>
+    <t>STORJ/USD</t>
+  </si>
+  <si>
+    <t>TUSD/USD</t>
+  </si>
+  <si>
+    <t>MBL/USD</t>
+  </si>
+  <si>
+    <t>INJ/USD</t>
+  </si>
+  <si>
+    <t>DOCK/USD</t>
+  </si>
+  <si>
+    <t>XRPUP/USD</t>
+  </si>
+  <si>
+    <t>JUV/USD</t>
+  </si>
+  <si>
+    <t>SKL/USD</t>
+  </si>
+  <si>
+    <t>BTS/USD</t>
+  </si>
+  <si>
+    <t>CAKE/USD</t>
+  </si>
+  <si>
+    <t>JST/USD</t>
+  </si>
+  <si>
+    <t>LIT/USD</t>
+  </si>
+  <si>
+    <t>STPT/USD</t>
+  </si>
+  <si>
+    <t>COTI/USD</t>
+  </si>
+  <si>
+    <t>ALGO/USD</t>
+  </si>
+  <si>
+    <t>FIRO/USD</t>
+  </si>
+  <si>
+    <t>WAN/USD</t>
+  </si>
+  <si>
+    <t>XTZ/USD</t>
+  </si>
+  <si>
+    <t>USDC/USD</t>
+  </si>
+  <si>
+    <t>STX/USD</t>
+  </si>
+  <si>
+    <t>TRXDOWN/USD</t>
+  </si>
+  <si>
+    <t>ALICE/USD</t>
+  </si>
+  <si>
+    <t>KMD/USD</t>
+  </si>
+  <si>
+    <t>WIN/USD</t>
+  </si>
+  <si>
+    <t>ENJ/USD</t>
+  </si>
+  <si>
+    <t>CFX/USD</t>
+  </si>
+  <si>
+    <t>VTHO/USD</t>
+  </si>
+  <si>
+    <t>OGN/USD</t>
+  </si>
+  <si>
+    <t>1INCHUP/USD</t>
+  </si>
+  <si>
+    <t>BEAM/USD</t>
+  </si>
+  <si>
+    <t>XTZDOWN/USD</t>
+  </si>
+  <si>
+    <t>BAT/USD</t>
+  </si>
+  <si>
+    <t>XLMDOWN/USD</t>
+  </si>
+  <si>
+    <t>BNBUP/USD</t>
+  </si>
+  <si>
+    <t>ARDR/USD</t>
+  </si>
+  <si>
+    <t>ETHUP/USD</t>
+  </si>
+  <si>
+    <t>CHZ/USD</t>
+  </si>
+  <si>
+    <t>MITH/USD</t>
+  </si>
+  <si>
+    <t>TCT/USD</t>
+  </si>
+  <si>
+    <t>PUNDIX/USD</t>
+  </si>
+  <si>
+    <t>SUPER/USD</t>
+  </si>
+  <si>
+    <t>POLY/USD</t>
+  </si>
+  <si>
+    <t>AUTO/USD</t>
+  </si>
+  <si>
+    <t>PSG/USD</t>
+  </si>
+  <si>
+    <t>FLM/USD</t>
+  </si>
+  <si>
+    <t>AION/USD</t>
+  </si>
+  <si>
+    <t>VITE/USD</t>
+  </si>
+  <si>
+    <t>LINA/USD</t>
+  </si>
+  <si>
+    <t>BTCDOWN/USD</t>
+  </si>
+  <si>
+    <t>THETA/USD</t>
+  </si>
+  <si>
+    <t>DREP/USD</t>
+  </si>
+  <si>
+    <t>ETHDOWN/USD</t>
+  </si>
+  <si>
+    <t>NMR/USD</t>
+  </si>
+  <si>
+    <t>HOT/USD</t>
+  </si>
+  <si>
+    <t>UNIDOWN/USD</t>
+  </si>
+  <si>
+    <t>XVS/USD</t>
+  </si>
+  <si>
+    <t>SC/USD</t>
+  </si>
+  <si>
+    <t>DASH/USD</t>
+  </si>
+  <si>
+    <t>EPS/USD</t>
+  </si>
+  <si>
+    <t>MTL/USD</t>
+  </si>
+  <si>
+    <t>XRPDOWN/USD</t>
+  </si>
+  <si>
+    <t>ONT/USD</t>
+  </si>
+  <si>
+    <t>LTCDOWN/USD</t>
+  </si>
+  <si>
+    <t>STRAT/USD</t>
+  </si>
+  <si>
+    <t>PPT/USD</t>
+  </si>
+  <si>
+    <t>DODO/USD</t>
+  </si>
+  <si>
+    <t>UNI/USD</t>
+  </si>
+  <si>
+    <t>AXS/USD</t>
+  </si>
+  <si>
+    <t>DCR/USD</t>
+  </si>
+  <si>
+    <t>BADGER/USD</t>
+  </si>
+  <si>
+    <t>BTT/USD</t>
+  </si>
+  <si>
+    <t>ACM/USD</t>
+  </si>
+  <si>
+    <t>DGB/USD</t>
+  </si>
+  <si>
+    <t>SUN/USD</t>
+  </si>
+  <si>
+    <t>CELR/USD</t>
+  </si>
+  <si>
+    <t>SRM/USD</t>
+  </si>
+  <si>
+    <t>FTM/USD</t>
+  </si>
+  <si>
+    <t>TRX/USD</t>
+  </si>
+  <si>
+    <t>LINK/USD</t>
+  </si>
+  <si>
+    <t>LTC/USD</t>
+  </si>
+  <si>
+    <t>LSK/USD</t>
+  </si>
+  <si>
+    <t>COMP/USD</t>
+  </si>
+  <si>
+    <t>FTT/USD</t>
+  </si>
+  <si>
+    <t>OMG/USD</t>
+  </si>
+  <si>
+    <t>ZEC/USD</t>
+  </si>
+  <si>
+    <t>TRB/USD</t>
+  </si>
+  <si>
+    <t>STRAX/USD</t>
+  </si>
+  <si>
+    <t>MANA/USD</t>
+  </si>
+  <si>
+    <t>WRX/USD</t>
+  </si>
+  <si>
+    <t>BNBDOWN/USD</t>
+  </si>
+  <si>
+    <t>HIVE/USD</t>
+  </si>
+  <si>
+    <t>NKN/USD</t>
+  </si>
+  <si>
+    <t>XMR/USD</t>
+  </si>
+  <si>
+    <t>AE/USD</t>
+  </si>
+  <si>
+    <t>NEO/USD</t>
+  </si>
+  <si>
+    <t>YFIDOWN/USD</t>
+  </si>
+  <si>
+    <t>ONE/USD</t>
+  </si>
+  <si>
+    <t>AAVE/USD</t>
+  </si>
+  <si>
+    <t>IDEX/USD</t>
+  </si>
+  <si>
+    <t>KSM/USD</t>
+  </si>
+  <si>
+    <t>ANKR/USD</t>
+  </si>
+  <si>
+    <t>NPXS/USD</t>
+  </si>
+  <si>
+    <t>BCH/USD</t>
+  </si>
+  <si>
+    <t>WAVES/USD</t>
+  </si>
+  <si>
+    <t>QTUM/USD</t>
+  </si>
+  <si>
+    <t>PROM/USD</t>
+  </si>
+  <si>
+    <t>FOR/USD</t>
+  </si>
+  <si>
+    <t>GHST/USD</t>
+  </si>
+  <si>
+    <t>GNT/USD</t>
+  </si>
+  <si>
+    <t>EOS/USD</t>
+  </si>
+  <si>
+    <t>LEND/USD</t>
+  </si>
+  <si>
+    <t>RUNE/USD</t>
+  </si>
+  <si>
+    <t>YFI/USD</t>
+  </si>
+  <si>
+    <t>BCD/USD</t>
+  </si>
+  <si>
+    <t>NAV/USD</t>
+  </si>
+  <si>
+    <t>ETH/USD</t>
+  </si>
+  <si>
+    <t>SOL/USD</t>
+  </si>
+  <si>
+    <t>PHX/USD</t>
+  </si>
+  <si>
+    <t>MKR/USD</t>
+  </si>
+  <si>
+    <t>PROS/USD</t>
+  </si>
+  <si>
+    <t>TFUEL/USD</t>
+  </si>
+  <si>
+    <t>WNXM/USD</t>
+  </si>
+  <si>
+    <t>AUD/USD</t>
+  </si>
+  <si>
+    <t>CTSI/USD</t>
+  </si>
+  <si>
+    <t>PHB/USD</t>
+  </si>
+  <si>
+    <t>AR/USD</t>
+  </si>
+  <si>
+    <t>DOGE/USD</t>
+  </si>
+  <si>
+    <t>XZC/USD</t>
+  </si>
+  <si>
+    <t>ADX/USD</t>
+  </si>
+  <si>
+    <t>ZEN/USD</t>
+  </si>
+  <si>
+    <t>ATM/USD</t>
+  </si>
+  <si>
+    <t>RDN/USD</t>
+  </si>
+  <si>
+    <t>RLC/USD</t>
+  </si>
+  <si>
+    <t>QLC/USD</t>
+  </si>
+  <si>
+    <t>ELF/USD</t>
+  </si>
+  <si>
+    <t>BCC/USD</t>
+  </si>
+  <si>
+    <t>TNT/USD</t>
+  </si>
+  <si>
+    <t>EVX/USD</t>
+  </si>
+  <si>
+    <t>AGI/USD</t>
+  </si>
+  <si>
+    <t>ERD/USD</t>
+  </si>
+  <si>
+    <t>HNT/USD</t>
+  </si>
+  <si>
+    <t>ADAUP/USD</t>
+  </si>
+  <si>
+    <t>PERP/USD</t>
+  </si>
+  <si>
+    <t>ONG/USD</t>
+  </si>
+  <si>
+    <t>PAXG/USD</t>
+  </si>
+  <si>
+    <t>GBP/USD</t>
+  </si>
+  <si>
+    <t>BKRW/USD</t>
+  </si>
+  <si>
+    <t>TNB/USD</t>
+  </si>
+  <si>
+    <t>MOD/USD</t>
+  </si>
+  <si>
+    <t>CMT/USD</t>
+  </si>
+  <si>
+    <t>MTH/USD</t>
+  </si>
+  <si>
+    <t>EUR/USD</t>
+  </si>
+  <si>
+    <t>SKY/USD</t>
+  </si>
+  <si>
+    <t>необх колич $</t>
+  </si>
+  <si>
+    <t>by/sell2</t>
+  </si>
+  <si>
+    <t>CAKE</t>
   </si>
 </sst>
 </file>
@@ -538,7 +1451,11 @@
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="0"/>
+  <dxfs count="1">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+  </dxfs>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
@@ -549,6 +1466,253 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>323850</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>95250</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>27</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{CA615C31-9415-4263-AEF2-79B2375F5633}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4591050" y="1619250"/>
+          <a:ext cx="6076950" cy="3581400"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>457200</xdr:colOff>
+      <xdr:row>31</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>18</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>39</xdr:row>
+      <xdr:rowOff>57150</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="5" name="Рисунок 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{86AEE6F9-ADA8-422B-8455-2CFA7F935C0A}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4724400" y="6067425"/>
+          <a:ext cx="6410325" cy="1419225"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>41</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>161925</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>142875</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="6" name="Рисунок 5">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7B341357-B872-4364-A4A9-C7DB33BBC7A9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4800600" y="7962900"/>
+          <a:ext cx="5724525" cy="1514475"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>51</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>533400</xdr:colOff>
+      <xdr:row>60</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="7" name="Рисунок 6">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E4B17A48-C3AB-49A5-9C21-953AE8980F5E}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4876800" y="9715500"/>
+          <a:ext cx="6019800" cy="1733550"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>38100</xdr:colOff>
+      <xdr:row>61</xdr:row>
+      <xdr:rowOff>180975</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>17</xdr:col>
+      <xdr:colOff>581025</xdr:colOff>
+      <xdr:row>71</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="8" name="Рисунок 7">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{66CF7346-6265-4C59-A6EA-6D3A30C76D95}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId5"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4914900" y="11801475"/>
+          <a:ext cx="6029325" cy="1857375"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{73BD2E1C-1336-48DD-92C9-7B11ED0AB9AC}" name="Таблица1" displayName="Таблица1" ref="L1:R308" totalsRowShown="0">
+  <autoFilter ref="L1:R308" xr:uid="{6DA1C072-CA45-4115-B8C4-BB83CF5F452C}">
+    <filterColumn colId="5">
+      <customFilters>
+        <customFilter operator="greaterThan" val="0.3"/>
+      </customFilters>
+    </filterColumn>
+  </autoFilter>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{9E5F9E73-67F4-4B42-BA14-DDAEFEFDAD28}" name="index"/>
+    <tableColumn id="2" xr3:uid="{DF62900A-8BA7-4F49-8B4C-ABC25AB17694}" name="asset"/>
+    <tableColumn id="3" xr3:uid="{4675EB97-ECA0-45EC-A743-665FA5E2A73F}" name="signal"/>
+    <tableColumn id="4" xr3:uid="{947183C8-4FAD-457A-8EFD-5054E17C6330}" name="Open time" dataDxfId="0"/>
+    <tableColumn id="5" xr3:uid="{9FD274FD-B40E-4B43-909A-97B18218655A}" name="Удар"/>
+    <tableColumn id="6" xr3:uid="{706960E7-2C13-4C0B-9620-0AABABB22984}" name="sharp"/>
+    <tableColumn id="7" xr3:uid="{DE68B1B6-814C-4D32-AAEC-6733A45BBC59}" name="sortino"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -2082,11 +3246,1035 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{191D6D14-0D9A-4D3F-9245-A48099449DB5}">
+  <dimension ref="L1:AN23"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M15" sqref="M15:O22"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>80</v>
+      </c>
+      <c r="N2">
+        <v>-0.97</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44350</v>
+      </c>
+      <c r="Q2">
+        <v>-0.12301000890070084</v>
+      </c>
+      <c r="R2">
+        <v>-0.12301000890070084</v>
+      </c>
+    </row>
+    <row r="3" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>85</v>
+      </c>
+      <c r="N3">
+        <v>-0.75</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44350</v>
+      </c>
+      <c r="Q3">
+        <v>-0.23009221913252906</v>
+      </c>
+      <c r="R3">
+        <v>-0.23009221913252906</v>
+      </c>
+    </row>
+    <row r="4" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>87</v>
+      </c>
+      <c r="N4">
+        <v>-0.62</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q4">
+        <v>-0.16115283812162917</v>
+      </c>
+      <c r="R4">
+        <v>-0.16115283812162917</v>
+      </c>
+    </row>
+    <row r="5" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5">
+        <v>-0.52</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q5">
+        <v>-0.29721420091597439</v>
+      </c>
+      <c r="R5">
+        <v>-0.29721420091597439</v>
+      </c>
+    </row>
+    <row r="6" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>133</v>
+      </c>
+      <c r="N6">
+        <v>-0.51</v>
+      </c>
+      <c r="O6" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q6">
+        <v>-0.20095685269124758</v>
+      </c>
+      <c r="R6">
+        <v>-0.20095685269124758</v>
+      </c>
+    </row>
+    <row r="7" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>51</v>
+      </c>
+      <c r="N7">
+        <v>-0.42</v>
+      </c>
+      <c r="O7" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q7">
+        <v>-0.17211841318895332</v>
+      </c>
+      <c r="R7">
+        <v>-0.17211841318895332</v>
+      </c>
+    </row>
+    <row r="8" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>12</v>
+      </c>
+      <c r="M8" t="s">
+        <v>38</v>
+      </c>
+      <c r="N8">
+        <v>-0.35</v>
+      </c>
+      <c r="O8" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q8">
+        <v>-0.17772623327750933</v>
+      </c>
+      <c r="R8">
+        <v>-0.17772623327750933</v>
+      </c>
+    </row>
+    <row r="9" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>9</v>
+      </c>
+      <c r="M9" t="s">
+        <v>48</v>
+      </c>
+      <c r="N9">
+        <v>-0.32</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q9">
+        <v>-0.30449115025975515</v>
+      </c>
+      <c r="R9">
+        <v>-0.30449115025975515</v>
+      </c>
+    </row>
+    <row r="10" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>20</v>
+      </c>
+      <c r="M10" t="s">
+        <v>35</v>
+      </c>
+      <c r="N10">
+        <v>-0.32</v>
+      </c>
+      <c r="O10" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q10">
+        <v>-0.21440887129578629</v>
+      </c>
+      <c r="R10">
+        <v>-0.21440887129578629</v>
+      </c>
+    </row>
+    <row r="11" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>-0.32</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q11">
+        <v>-0.13561325123711629</v>
+      </c>
+      <c r="R11">
+        <v>-0.13561325123711629</v>
+      </c>
+    </row>
+    <row r="12" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>10</v>
+      </c>
+      <c r="M12" t="s">
+        <v>30</v>
+      </c>
+      <c r="N12">
+        <v>-0.21</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q12">
+        <v>6.0617325451545072E-2</v>
+      </c>
+      <c r="R12">
+        <v>6.0617325451545072E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>8</v>
+      </c>
+      <c r="M13" t="s">
+        <v>1</v>
+      </c>
+      <c r="N13">
+        <v>-0.11</v>
+      </c>
+      <c r="O13" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q13">
+        <v>-0.16835459763752555</v>
+      </c>
+      <c r="R13">
+        <v>-0.16835459763752555</v>
+      </c>
+    </row>
+    <row r="14" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>11</v>
+      </c>
+      <c r="M14" t="s">
+        <v>10</v>
+      </c>
+      <c r="N14">
+        <v>-0.11</v>
+      </c>
+      <c r="O14" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q14">
+        <v>-0.19741105694193911</v>
+      </c>
+      <c r="R14">
+        <v>-0.19741105694193911</v>
+      </c>
+    </row>
+    <row r="15" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>7</v>
+      </c>
+      <c r="M15" t="s">
+        <v>3</v>
+      </c>
+      <c r="N15">
+        <v>0</v>
+      </c>
+      <c r="O15" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q15">
+        <v>-0.11403320006595891</v>
+      </c>
+      <c r="R15">
+        <v>-0.11403320006595891</v>
+      </c>
+    </row>
+    <row r="16" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>14</v>
+      </c>
+      <c r="M16" t="s">
+        <v>28</v>
+      </c>
+      <c r="N16">
+        <v>0.01</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q16">
+        <v>-0.11576088050060074</v>
+      </c>
+      <c r="R16">
+        <v>-0.11576088050060074</v>
+      </c>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>17</v>
+      </c>
+      <c r="M17" t="s">
+        <v>36</v>
+      </c>
+      <c r="N17">
+        <v>0.09</v>
+      </c>
+      <c r="O17" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q17">
+        <v>-0.13509228328246231</v>
+      </c>
+      <c r="R17">
+        <v>-0.13509228328246231</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>131</v>
+      </c>
+      <c r="N18">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O18" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q18">
+        <v>-0.17069032319767419</v>
+      </c>
+      <c r="R18">
+        <v>-0.17069032319767419</v>
+      </c>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>18</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19">
+        <v>0.3</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q19">
+        <v>-0.20689587321857744</v>
+      </c>
+      <c r="R19">
+        <v>-0.20689587321857744</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>21</v>
+      </c>
+      <c r="M20" t="s">
+        <v>129</v>
+      </c>
+      <c r="N20">
+        <v>0.63</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q20">
+        <v>-0.13565791446115913</v>
+      </c>
+      <c r="R20">
+        <v>-0.13565791446115913</v>
+      </c>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>86</v>
+      </c>
+      <c r="N21">
+        <v>0.65</v>
+      </c>
+      <c r="O21" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q21">
+        <v>0.1085132218522116</v>
+      </c>
+      <c r="R21">
+        <v>0.1085132218522116</v>
+      </c>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>13</v>
+      </c>
+      <c r="M22" t="s">
+        <v>40</v>
+      </c>
+      <c r="N22">
+        <v>0.86</v>
+      </c>
+      <c r="O22" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q22">
+        <v>-8.1944766912350905E-2</v>
+      </c>
+      <c r="R22">
+        <v>-8.1944766912350905E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>5</v>
+      </c>
+      <c r="M23" t="s">
+        <v>88</v>
+      </c>
+      <c r="N23">
+        <v>0.93</v>
+      </c>
+      <c r="O23" s="1">
+        <v>44350</v>
+      </c>
+      <c r="Q23">
+        <v>0.1591918868412287</v>
+      </c>
+      <c r="R23">
+        <v>0.1591918868412287</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18280C3D-8BBC-44BD-99D0-974736023D47}">
+  <dimension ref="L1:AN24"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="R24" sqref="L1:R24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>3</v>
+      </c>
+      <c r="M2" t="s">
+        <v>109</v>
+      </c>
+      <c r="N2">
+        <v>-0.96</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q2">
+        <v>6.9571173418380358E-2</v>
+      </c>
+      <c r="R2">
+        <v>6.9571173418380358E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>6</v>
+      </c>
+      <c r="M3" t="s">
+        <v>110</v>
+      </c>
+      <c r="N3">
+        <v>-0.79</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44350</v>
+      </c>
+      <c r="Q3">
+        <v>-0.28958007590453433</v>
+      </c>
+      <c r="R3">
+        <v>-0.28958007590453433</v>
+      </c>
+    </row>
+    <row r="4" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>2</v>
+      </c>
+      <c r="M4" t="s">
+        <v>111</v>
+      </c>
+      <c r="N4">
+        <v>-0.67</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q4">
+        <v>6.2748229979591411E-2</v>
+      </c>
+      <c r="R4">
+        <v>6.2748229979591411E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>15</v>
+      </c>
+      <c r="M5" t="s">
+        <v>112</v>
+      </c>
+      <c r="N5">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q5">
+        <v>5.3596792932762267E-2</v>
+      </c>
+      <c r="R5">
+        <v>5.3596792932762267E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>23</v>
+      </c>
+      <c r="M6" t="s">
+        <v>137</v>
+      </c>
+      <c r="N6">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="O6" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q6">
+        <v>0.12408162216976484</v>
+      </c>
+      <c r="R6">
+        <v>0.12408162216976484</v>
+      </c>
+    </row>
+    <row r="7" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>16</v>
+      </c>
+      <c r="M7" t="s">
+        <v>118</v>
+      </c>
+      <c r="N7">
+        <v>-0.49</v>
+      </c>
+      <c r="O7" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q7">
+        <v>0.16432203349858154</v>
+      </c>
+      <c r="R7">
+        <v>0.16432203349858154</v>
+      </c>
+    </row>
+    <row r="8" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>24</v>
+      </c>
+      <c r="M8" t="s">
+        <v>298</v>
+      </c>
+      <c r="N8">
+        <v>-0.44</v>
+      </c>
+      <c r="O8" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q8">
+        <v>0.18423734703053909</v>
+      </c>
+      <c r="R8">
+        <v>0.18423734703053909</v>
+      </c>
+    </row>
+    <row r="9" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>12</v>
+      </c>
+      <c r="M9" t="s">
+        <v>117</v>
+      </c>
+      <c r="N9">
+        <v>-0.41</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q9">
+        <v>0.19087274899559206</v>
+      </c>
+      <c r="R9">
+        <v>0.19087274899559206</v>
+      </c>
+    </row>
+    <row r="10" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>9</v>
+      </c>
+      <c r="M10" t="s">
+        <v>115</v>
+      </c>
+      <c r="N10">
+        <v>-0.4</v>
+      </c>
+      <c r="O10" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q10">
+        <v>-0.14795369137213266</v>
+      </c>
+      <c r="R10">
+        <v>-0.14795369137213266</v>
+      </c>
+    </row>
+    <row r="11" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>19</v>
+      </c>
+      <c r="M11" t="s">
+        <v>113</v>
+      </c>
+      <c r="N11">
+        <v>-0.34</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q11">
+        <v>0.10750935051211769</v>
+      </c>
+      <c r="R11">
+        <v>0.10750935051211769</v>
+      </c>
+    </row>
+    <row r="12" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>20</v>
+      </c>
+      <c r="M12" t="s">
+        <v>116</v>
+      </c>
+      <c r="N12">
+        <v>-0.31</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q12">
+        <v>8.3942031592600219E-2</v>
+      </c>
+      <c r="R12">
+        <v>8.3942031592600219E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>11</v>
+      </c>
+      <c r="M13" t="s">
+        <v>123</v>
+      </c>
+      <c r="N13">
+        <v>-0.19</v>
+      </c>
+      <c r="O13" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q13">
+        <v>7.9360575514207582E-2</v>
+      </c>
+      <c r="R13">
+        <v>7.9360575514207582E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>8</v>
+      </c>
+      <c r="M14" t="s">
+        <v>122</v>
+      </c>
+      <c r="N14">
+        <v>-0.12</v>
+      </c>
+      <c r="O14" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q14">
+        <v>-6.6300372527153886E-2</v>
+      </c>
+      <c r="R14">
+        <v>-6.6300372527153886E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>10</v>
+      </c>
+      <c r="M15" t="s">
+        <v>114</v>
+      </c>
+      <c r="N15">
+        <v>-0.04</v>
+      </c>
+      <c r="O15" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q15">
+        <v>0.13493453598450131</v>
+      </c>
+      <c r="R15">
+        <v>0.13493453598450131</v>
+      </c>
+    </row>
+    <row r="16" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>7</v>
+      </c>
+      <c r="M16" t="s">
+        <v>120</v>
+      </c>
+      <c r="N16">
+        <v>0</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q16">
+        <v>0.24242016302384856</v>
+      </c>
+      <c r="R16">
+        <v>0.24242016302384856</v>
+      </c>
+    </row>
+    <row r="17" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>14</v>
+      </c>
+      <c r="M17" t="s">
+        <v>121</v>
+      </c>
+      <c r="N17">
+        <v>0.02</v>
+      </c>
+      <c r="O17" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q17">
+        <v>0.19939430407837552</v>
+      </c>
+      <c r="R17">
+        <v>0.19939430407837552</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>22</v>
+      </c>
+      <c r="M18" t="s">
+        <v>132</v>
+      </c>
+      <c r="N18">
+        <v>0.12</v>
+      </c>
+      <c r="O18" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q18">
+        <v>9.8738692412157922E-2</v>
+      </c>
+      <c r="R18">
+        <v>9.8738692412157922E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>17</v>
+      </c>
+      <c r="M19" t="s">
+        <v>119</v>
+      </c>
+      <c r="N19">
+        <v>0.15</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q19">
+        <v>0.18125155523842709</v>
+      </c>
+      <c r="R19">
+        <v>0.18125155523842709</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>18</v>
+      </c>
+      <c r="M20" t="s">
+        <v>124</v>
+      </c>
+      <c r="N20">
+        <v>0.4</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q20">
+        <v>0.19816309037110352</v>
+      </c>
+      <c r="R20">
+        <v>0.19816309037110352</v>
+      </c>
+    </row>
+    <row r="21" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>4</v>
+      </c>
+      <c r="M21" t="s">
+        <v>125</v>
+      </c>
+      <c r="N21">
+        <v>0.62</v>
+      </c>
+      <c r="O21" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q21">
+        <v>-0.45771603679053685</v>
+      </c>
+      <c r="R21">
+        <v>-0.45771603679053685</v>
+      </c>
+    </row>
+    <row r="22" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>21</v>
+      </c>
+      <c r="M22" t="s">
+        <v>130</v>
+      </c>
+      <c r="N22">
+        <v>0.64</v>
+      </c>
+      <c r="O22" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q22">
+        <v>9.1798984977095086E-2</v>
+      </c>
+      <c r="R22">
+        <v>9.1798984977095086E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>13</v>
+      </c>
+      <c r="M23" t="s">
+        <v>126</v>
+      </c>
+      <c r="N23">
+        <v>0.88</v>
+      </c>
+      <c r="O23" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q23">
+        <v>0.17951068808528725</v>
+      </c>
+      <c r="R23">
+        <v>0.17951068808528725</v>
+      </c>
+    </row>
+    <row r="24" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>5</v>
+      </c>
+      <c r="M24" t="s">
+        <v>127</v>
+      </c>
+      <c r="N24">
+        <v>0.93</v>
+      </c>
+      <c r="O24" s="1">
+        <v>44351</v>
+      </c>
+      <c r="Q24">
+        <v>0.10775844988500015</v>
+      </c>
+      <c r="R24">
+        <v>0.10775844988500015</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2424A2F-A1CE-497F-AA92-8E7EC6DEE16F}">
   <dimension ref="A1:Y25"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D27" sqref="D27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L21" sqref="L21:L22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2144,9 +4332,15 @@
         <v>74</v>
       </c>
       <c r="T1" t="s">
+        <v>442</v>
+      </c>
+      <c r="U1" t="s">
+        <v>443</v>
+      </c>
+      <c r="V1" t="s">
         <v>63</v>
       </c>
-      <c r="U1" t="s">
+      <c r="W1" t="s">
         <v>64</v>
       </c>
       <c r="X1" t="s">
@@ -2173,37 +4367,43 @@
         <v>3</v>
       </c>
       <c r="K2" s="5">
-        <v>0.16461866</v>
+        <v>0.16429036999999999</v>
       </c>
       <c r="L2" s="5">
         <v>0</v>
       </c>
       <c r="M2" s="5">
-        <v>56.514236285908282</v>
+        <v>67.964256871287972</v>
       </c>
       <c r="N2" s="5">
         <v>0</v>
       </c>
       <c r="O2" s="5">
-        <v>3.1897484000083161</v>
+        <v>3.5272099733482305</v>
       </c>
       <c r="P2" s="5">
-        <v>4185.8777396655933</v>
+        <v>4975.3679381323163</v>
       </c>
       <c r="Q2" s="5">
-        <v>0.01</v>
+        <v>0</v>
       </c>
       <c r="R2" s="5">
-        <v>-0.2335123974794435</v>
+        <v>-0.11403320006595891</v>
       </c>
       <c r="S2" s="5">
-        <v>-0.2335123974794435</v>
+        <v>-0.11403320006595891</v>
       </c>
       <c r="T2" s="5">
-        <v>9.9438752666799957</v>
+        <v>0</v>
       </c>
       <c r="U2" s="5">
-        <v>46.570361019228287</v>
+        <v>-67.964256871287972</v>
+      </c>
+      <c r="V2">
+        <v>0</v>
+      </c>
+      <c r="W2">
+        <v>67.964256871287972</v>
       </c>
       <c r="X2" t="s">
         <v>3</v>
@@ -2235,31 +4435,37 @@
         <v>0</v>
       </c>
       <c r="M3">
-        <v>194.88369652699998</v>
+        <v>192.25587774704999</v>
       </c>
       <c r="N3">
         <v>0</v>
       </c>
       <c r="O3">
-        <v>10.999528615052817</v>
+        <v>9.9776982879171729</v>
       </c>
       <c r="P3" s="2">
-        <v>14434.581102523405</v>
+        <v>14074.217450382484</v>
       </c>
       <c r="Q3">
-        <v>0.59</v>
+        <v>0.63</v>
       </c>
       <c r="R3">
-        <v>-0.159861339631722</v>
+        <v>-0.1356579144611591</v>
       </c>
       <c r="S3">
-        <v>-0.159861339631722</v>
+        <v>-0.1356579144611591</v>
       </c>
       <c r="T3">
-        <v>586.68864073411964</v>
+        <v>1212.958980904519</v>
       </c>
       <c r="U3">
-        <v>-391.80494420711966</v>
+        <v>1020.7031031574689</v>
+      </c>
+      <c r="V3">
+        <v>645.19094728963773</v>
+      </c>
+      <c r="W3">
+        <v>-452.93506954258771</v>
       </c>
       <c r="X3" t="s">
         <v>40</v>
@@ -2273,40 +4479,46 @@
         <v>48</v>
       </c>
       <c r="J4" t="s">
-        <v>40</v>
+        <v>30</v>
       </c>
       <c r="K4">
-        <v>296.55196000000001</v>
+        <v>91.69</v>
       </c>
       <c r="L4">
         <v>0</v>
       </c>
       <c r="M4">
-        <v>457.79237617331</v>
+        <v>89.296262006600003</v>
       </c>
       <c r="N4">
         <v>0</v>
       </c>
       <c r="O4">
-        <v>25.838489474534921</v>
+        <v>4.6342986803914616</v>
       </c>
       <c r="P4">
-        <v>33907.614129615205</v>
+        <v>6536.9913456729173</v>
       </c>
       <c r="Q4">
-        <v>0.84</v>
+        <v>0</v>
       </c>
       <c r="R4">
-        <v>-0.1679657142329464</v>
+        <v>6.0617325451545002E-2</v>
       </c>
       <c r="S4">
-        <v>-0.1679657142329464</v>
+        <v>6.0617325451545002E-2</v>
       </c>
       <c r="T4">
-        <v>835.28552240111969</v>
+        <v>0</v>
       </c>
       <c r="U4">
-        <v>-377.49314622780969</v>
+        <v>-89.296262006600003</v>
+      </c>
+      <c r="V4">
+        <v>0</v>
+      </c>
+      <c r="W4">
+        <v>89.296262006600003</v>
       </c>
       <c r="X4" t="s">
         <v>10</v>
@@ -2320,40 +4532,46 @@
         <v>30</v>
       </c>
       <c r="J5" s="5" t="s">
-        <v>10</v>
+        <v>40</v>
       </c>
       <c r="K5" s="5">
-        <v>790.1</v>
+        <v>296.55196000000001</v>
       </c>
       <c r="L5" s="5">
         <v>0</v>
       </c>
       <c r="M5" s="5">
-        <v>311.763441532</v>
+        <v>526.37246644249956</v>
       </c>
       <c r="N5" s="5">
         <v>0</v>
       </c>
       <c r="O5" s="5">
-        <v>17.596397017148519</v>
+        <v>27.317685777805323</v>
       </c>
       <c r="P5" s="5">
-        <v>23091.591353163782</v>
+        <v>38533.441158833804</v>
       </c>
       <c r="Q5" s="5">
-        <v>0.02</v>
+        <v>0.86</v>
       </c>
       <c r="R5" s="5">
-        <v>-0.29647696049062278</v>
+        <v>-8.1944766912350905E-2</v>
       </c>
       <c r="S5" s="5">
-        <v>-0.29647696049062278</v>
+        <v>-8.1944766912350905E-2</v>
       </c>
       <c r="T5" s="5">
-        <v>19.887750533359991</v>
+        <v>1655.7852755204544</v>
       </c>
       <c r="U5" s="5">
-        <v>291.87569099864004</v>
+        <v>1129.412809077955</v>
+      </c>
+      <c r="V5">
+        <v>880.73684868109285</v>
+      </c>
+      <c r="W5">
+        <v>-354.36438223859329</v>
       </c>
       <c r="X5" t="s">
         <v>43</v>
@@ -2370,40 +4588,46 @@
         <v>138</v>
       </c>
       <c r="J6" t="s">
-        <v>43</v>
+        <v>10</v>
       </c>
       <c r="K6">
-        <v>52.42</v>
+        <v>790.1</v>
       </c>
       <c r="L6">
         <v>0</v>
       </c>
       <c r="M6">
-        <v>379.1513810582</v>
+        <v>332.96029963900003</v>
       </c>
       <c r="N6">
         <v>0</v>
       </c>
       <c r="O6">
-        <v>21.399873564121712</v>
+        <v>17.279978383929617</v>
       </c>
       <c r="P6">
-        <v>28082.85894382195</v>
+        <v>24374.576810750848</v>
       </c>
       <c r="Q6">
-        <v>0.4</v>
+        <v>0</v>
       </c>
       <c r="R6">
-        <v>-0.129873411892204</v>
+        <v>-0.19741105694193911</v>
       </c>
       <c r="S6">
-        <v>-0.129873411892204</v>
+        <v>-0.19741105694193911</v>
       </c>
       <c r="T6">
-        <v>397.75501066719983</v>
+        <v>0</v>
       </c>
       <c r="U6">
-        <v>-18.603629608999825</v>
+        <v>-332.96029963900003</v>
+      </c>
+      <c r="V6">
+        <v>0</v>
+      </c>
+      <c r="W6">
+        <v>332.96029963900003</v>
       </c>
       <c r="X6" t="s">
         <v>36</v>
@@ -2417,40 +4641,46 @@
         <v>38</v>
       </c>
       <c r="J7" t="s">
-        <v>36</v>
+        <v>43</v>
       </c>
       <c r="K7">
-        <v>19.600000000000001</v>
+        <v>52.42</v>
       </c>
       <c r="L7">
         <v>0</v>
       </c>
       <c r="M7">
-        <v>35.710380132000004</v>
+        <v>392.42523583799999</v>
       </c>
       <c r="N7">
         <v>0</v>
       </c>
       <c r="O7">
-        <v>2.0155475040567485</v>
+        <v>20.366090491693097</v>
       </c>
       <c r="P7">
-        <v>2644.9846108388033</v>
+        <v>28727.746412353255</v>
       </c>
       <c r="Q7">
-        <v>0.02</v>
+        <v>0.3</v>
       </c>
       <c r="R7">
-        <v>1.6884372034335599E-2</v>
+        <v>-0.20689587321857739</v>
       </c>
       <c r="S7">
-        <v>1.6884372034335599E-2</v>
+        <v>-0.20689587321857739</v>
       </c>
       <c r="T7">
-        <v>19.887750533359991</v>
+        <v>577.59951471643762</v>
       </c>
       <c r="U7">
-        <v>15.822629598640013</v>
+        <v>185.17427887843763</v>
+      </c>
+      <c r="V7">
+        <v>307.23378442363708</v>
+      </c>
+      <c r="W7">
+        <v>85.191451414362916</v>
       </c>
       <c r="X7" t="s">
         <v>1</v>
@@ -2464,40 +4694,46 @@
         <v>40</v>
       </c>
       <c r="J8" t="s">
-        <v>1</v>
+        <v>36</v>
       </c>
       <c r="K8">
-        <v>758</v>
+        <v>19.600000000000001</v>
       </c>
       <c r="L8">
         <v>0</v>
       </c>
       <c r="M8">
-        <v>165.70817646</v>
+        <v>35.815456320000003</v>
       </c>
       <c r="N8">
         <v>0</v>
       </c>
       <c r="O8">
-        <v>9.3528184306965141</v>
+        <v>1.8587510633885918</v>
       </c>
       <c r="P8">
-        <v>12273.61834309081</v>
+        <v>2621.8939375968716</v>
       </c>
       <c r="Q8">
-        <v>0.06</v>
+        <v>0.09</v>
       </c>
       <c r="R8">
-        <v>-4.9628178450734299E-2</v>
+        <v>-0.13509228328246231</v>
       </c>
       <c r="S8">
-        <v>-4.9628178450734299E-2</v>
+        <v>-0.13509228328246231</v>
       </c>
       <c r="T8">
-        <v>59.663251600079967</v>
+        <v>173.27985441493129</v>
       </c>
       <c r="U8">
-        <v>106.04492485992003</v>
+        <v>137.46439809493128</v>
+      </c>
+      <c r="V8">
+        <v>92.170135327091117</v>
+      </c>
+      <c r="W8">
+        <v>-56.354679007091114</v>
       </c>
       <c r="X8" t="s">
         <v>35</v>
@@ -2511,40 +4747,46 @@
         <v>28</v>
       </c>
       <c r="J9" t="s">
-        <v>35</v>
+        <v>1</v>
       </c>
       <c r="K9">
-        <v>15.071913</v>
+        <v>379</v>
       </c>
       <c r="L9">
         <v>0</v>
       </c>
       <c r="M9">
-        <v>168.47133826062114</v>
+        <v>90.52278939</v>
       </c>
       <c r="N9">
         <v>0</v>
       </c>
       <c r="O9">
-        <v>9.5087754339532857</v>
+        <v>4.6979530160447789</v>
       </c>
       <c r="P9">
-        <v>12478.27929637345</v>
+        <v>6626.7800861010892</v>
       </c>
       <c r="Q9">
-        <v>-0.16</v>
+        <v>0</v>
       </c>
       <c r="R9">
-        <v>-0.109052934071344</v>
+        <v>-0.1683545976375255</v>
       </c>
       <c r="S9">
-        <v>-0.109052934071344</v>
+        <v>-0.1683545976375255</v>
       </c>
       <c r="T9">
-        <v>-159.10200426687993</v>
+        <v>0</v>
       </c>
       <c r="U9">
-        <v>327.57334252750104</v>
+        <v>-90.52278939</v>
+      </c>
+      <c r="V9">
+        <v>0</v>
+      </c>
+      <c r="W9">
+        <v>90.52278939</v>
       </c>
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
@@ -2552,22 +4794,64 @@
         <v>47</v>
       </c>
       <c r="J10" t="s">
-        <v>70</v>
+        <v>35</v>
+      </c>
+      <c r="K10">
+        <v>15.071913</v>
+      </c>
+      <c r="L10">
+        <v>0</v>
       </c>
       <c r="M10">
-        <v>1.4771039999999999E-2</v>
+        <v>197.70367042702097</v>
+      </c>
+      <c r="N10">
+        <v>0</v>
+      </c>
+      <c r="O10">
+        <v>10.260427910193743</v>
+      </c>
+      <c r="P10">
+        <v>14473.026681606054</v>
+      </c>
+      <c r="Q10">
+        <v>0</v>
+      </c>
+      <c r="R10">
+        <v>-0.2144088712957862</v>
+      </c>
+      <c r="S10">
+        <v>-0.2144088712957862</v>
       </c>
       <c r="T10">
         <v>0</v>
       </c>
       <c r="U10">
-        <v>1.4771039999999999E-2</v>
+        <v>-197.70367042702097</v>
+      </c>
+      <c r="V10">
+        <v>0</v>
+      </c>
+      <c r="W10">
+        <v>197.70367042702097</v>
       </c>
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>51</v>
       </c>
+      <c r="J11" t="s">
+        <v>70</v>
+      </c>
+      <c r="M11">
+        <v>1.540104E-2</v>
+      </c>
+      <c r="V11">
+        <v>0</v>
+      </c>
+      <c r="W11">
+        <v>1.540104E-2</v>
+      </c>
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
@@ -2612,6 +4896,9 @@
       <c r="B18" t="s">
         <v>141</v>
       </c>
+      <c r="C18" t="s">
+        <v>142</v>
+      </c>
       <c r="G18" t="s">
         <v>134</v>
       </c>
@@ -2638,6 +4925,9 @@
       <c r="B20" t="s">
         <v>139</v>
       </c>
+      <c r="D20" t="s">
+        <v>143</v>
+      </c>
       <c r="G20" t="s">
         <v>136</v>
       </c>
@@ -2646,6 +4936,9 @@
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>444</v>
+      </c>
       <c r="H21">
         <v>1</v>
       </c>
@@ -2659,12 +4952,6388 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02CF27A-4FD7-4A86-8D8E-5E36547C57CD}">
-  <dimension ref="A1:I10"/>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5B38775F-6ACD-4CA1-9AAE-D753CFD52CFD}">
+  <dimension ref="L1:AN308"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C36" sqref="C36"/>
+      <selection activeCell="R317" sqref="R317"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="15" max="15" width="12.5703125" customWidth="1"/>
+    <col min="18" max="18" width="9.42578125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:40" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>60</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>65</v>
+      </c>
+      <c r="O1" t="s">
+        <v>84</v>
+      </c>
+      <c r="P1" t="s">
+        <v>68</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>73</v>
+      </c>
+      <c r="R1" t="s">
+        <v>74</v>
+      </c>
+      <c r="AH1" t="s">
+        <v>60</v>
+      </c>
+      <c r="AI1" t="s">
+        <v>0</v>
+      </c>
+      <c r="AJ1" t="s">
+        <v>65</v>
+      </c>
+      <c r="AK1" t="s">
+        <v>84</v>
+      </c>
+      <c r="AL1" t="s">
+        <v>68</v>
+      </c>
+      <c r="AM1" t="s">
+        <v>73</v>
+      </c>
+      <c r="AN1" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="2" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L2">
+        <v>80</v>
+      </c>
+      <c r="M2" t="s">
+        <v>157</v>
+      </c>
+      <c r="N2">
+        <v>-0.99</v>
+      </c>
+      <c r="O2" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q2">
+        <v>-1.3322375377649536E-2</v>
+      </c>
+      <c r="R2">
+        <v>-1.3322375377649536E-2</v>
+      </c>
+      <c r="AH2">
+        <v>105</v>
+      </c>
+      <c r="AI2" t="s">
+        <v>153</v>
+      </c>
+      <c r="AJ2">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="AK2" s="1">
+        <v>44348</v>
+      </c>
+      <c r="AL2" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM2">
+        <v>0.28671996512402115</v>
+      </c>
+      <c r="AN2">
+        <v>0.28671996512402115</v>
+      </c>
+    </row>
+    <row r="3" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L3">
+        <v>3</v>
+      </c>
+      <c r="M3" t="s">
+        <v>109</v>
+      </c>
+      <c r="N3">
+        <v>-0.97</v>
+      </c>
+      <c r="O3" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q3">
+        <v>-0.25242747308147784</v>
+      </c>
+      <c r="R3">
+        <v>-0.25242747308147784</v>
+      </c>
+      <c r="AH3">
+        <v>131</v>
+      </c>
+      <c r="AI3" t="s">
+        <v>154</v>
+      </c>
+      <c r="AJ3">
+        <v>-0.47</v>
+      </c>
+      <c r="AK3" s="1">
+        <v>44348</v>
+      </c>
+      <c r="AL3" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM3">
+        <v>0.33639213739407275</v>
+      </c>
+      <c r="AN3">
+        <v>0.33639213739407275</v>
+      </c>
+    </row>
+    <row r="4" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L4">
+        <v>269</v>
+      </c>
+      <c r="M4" t="s">
+        <v>158</v>
+      </c>
+      <c r="N4">
+        <v>-0.95</v>
+      </c>
+      <c r="O4" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q4">
+        <v>-1.968659742008123E-2</v>
+      </c>
+      <c r="R4">
+        <v>-1.968659742008123E-2</v>
+      </c>
+      <c r="AH4">
+        <v>83</v>
+      </c>
+      <c r="AI4" t="s">
+        <v>155</v>
+      </c>
+      <c r="AJ4">
+        <v>-0.43</v>
+      </c>
+      <c r="AK4" s="1">
+        <v>44348</v>
+      </c>
+      <c r="AL4" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM4">
+        <v>0.49435475149254532</v>
+      </c>
+      <c r="AN4">
+        <v>0.49435475149254532</v>
+      </c>
+    </row>
+    <row r="5" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L5">
+        <v>238</v>
+      </c>
+      <c r="M5" t="s">
+        <v>159</v>
+      </c>
+      <c r="N5">
+        <v>-0.94</v>
+      </c>
+      <c r="O5" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q5">
+        <v>-9.3115078034885029E-2</v>
+      </c>
+      <c r="R5">
+        <v>-9.3115078034885029E-2</v>
+      </c>
+      <c r="AH5">
+        <v>108</v>
+      </c>
+      <c r="AI5" t="s">
+        <v>156</v>
+      </c>
+      <c r="AJ5">
+        <v>-0.37</v>
+      </c>
+      <c r="AK5" s="1">
+        <v>44348</v>
+      </c>
+      <c r="AL5" t="s">
+        <v>69</v>
+      </c>
+      <c r="AM5">
+        <v>0.32010093780955207</v>
+      </c>
+      <c r="AN5">
+        <v>0.32010093780955207</v>
+      </c>
+    </row>
+    <row r="6" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L6">
+        <v>279</v>
+      </c>
+      <c r="M6" t="s">
+        <v>160</v>
+      </c>
+      <c r="N6">
+        <v>-0.94</v>
+      </c>
+      <c r="O6" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q6">
+        <v>-5.156966145715134E-2</v>
+      </c>
+      <c r="R6">
+        <v>-5.156966145715134E-2</v>
+      </c>
+    </row>
+    <row r="7" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L7">
+        <v>298</v>
+      </c>
+      <c r="M7" t="s">
+        <v>161</v>
+      </c>
+      <c r="N7">
+        <v>-0.92</v>
+      </c>
+      <c r="O7" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q7">
+        <v>-0.13806667271941769</v>
+      </c>
+      <c r="R7">
+        <v>-0.13806667271941769</v>
+      </c>
+    </row>
+    <row r="8" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L8">
+        <v>219</v>
+      </c>
+      <c r="M8" t="s">
+        <v>162</v>
+      </c>
+      <c r="N8">
+        <v>-0.91</v>
+      </c>
+      <c r="O8" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q8">
+        <v>-0.16951643746427247</v>
+      </c>
+      <c r="R8">
+        <v>-0.16951643746427247</v>
+      </c>
+    </row>
+    <row r="9" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L9">
+        <v>242</v>
+      </c>
+      <c r="M9" t="s">
+        <v>163</v>
+      </c>
+      <c r="N9">
+        <v>-0.9</v>
+      </c>
+      <c r="O9" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q9">
+        <v>2.3356122922779533E-2</v>
+      </c>
+      <c r="R9">
+        <v>2.3356122922779533E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L10">
+        <v>254</v>
+      </c>
+      <c r="M10" t="s">
+        <v>164</v>
+      </c>
+      <c r="N10">
+        <v>-0.9</v>
+      </c>
+      <c r="O10" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q10">
+        <v>4.4226976807110576E-3</v>
+      </c>
+      <c r="R10">
+        <v>4.4226976807110576E-3</v>
+      </c>
+    </row>
+    <row r="11" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L11">
+        <v>243</v>
+      </c>
+      <c r="M11" t="s">
+        <v>165</v>
+      </c>
+      <c r="N11">
+        <v>-0.9</v>
+      </c>
+      <c r="O11" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q11">
+        <v>-0.34383713081527112</v>
+      </c>
+      <c r="R11">
+        <v>-0.34383713081527112</v>
+      </c>
+    </row>
+    <row r="12" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L12">
+        <v>104</v>
+      </c>
+      <c r="M12" t="s">
+        <v>166</v>
+      </c>
+      <c r="N12">
+        <v>-0.9</v>
+      </c>
+      <c r="O12" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q12">
+        <v>0.12980432810664455</v>
+      </c>
+      <c r="R12">
+        <v>0.12980432810664455</v>
+      </c>
+    </row>
+    <row r="13" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L13">
+        <v>178</v>
+      </c>
+      <c r="M13" t="s">
+        <v>167</v>
+      </c>
+      <c r="N13">
+        <v>-0.89</v>
+      </c>
+      <c r="O13" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q13">
+        <v>-0.12048399483602955</v>
+      </c>
+      <c r="R13">
+        <v>-0.12048399483602955</v>
+      </c>
+    </row>
+    <row r="14" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L14">
+        <v>277</v>
+      </c>
+      <c r="M14" t="s">
+        <v>168</v>
+      </c>
+      <c r="N14">
+        <v>-0.88</v>
+      </c>
+      <c r="O14" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q14">
+        <v>8.7344394422021923E-2</v>
+      </c>
+      <c r="R14">
+        <v>8.7344394422021923E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L15">
+        <v>73</v>
+      </c>
+      <c r="M15" t="s">
+        <v>169</v>
+      </c>
+      <c r="N15">
+        <v>-0.88</v>
+      </c>
+      <c r="O15" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q15">
+        <v>-0.24372685343816783</v>
+      </c>
+      <c r="R15">
+        <v>-0.24372685343816783</v>
+      </c>
+    </row>
+    <row r="16" spans="12:40" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L16">
+        <v>257</v>
+      </c>
+      <c r="M16" t="s">
+        <v>170</v>
+      </c>
+      <c r="N16">
+        <v>-0.87</v>
+      </c>
+      <c r="O16" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q16">
+        <v>-0.15027878455587024</v>
+      </c>
+      <c r="R16">
+        <v>-0.15027878455587024</v>
+      </c>
+    </row>
+    <row r="17" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L17">
+        <v>251</v>
+      </c>
+      <c r="M17" t="s">
+        <v>171</v>
+      </c>
+      <c r="N17">
+        <v>-0.86</v>
+      </c>
+      <c r="O17" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q17">
+        <v>-0.2112272528151245</v>
+      </c>
+      <c r="R17">
+        <v>-0.2112272528151245</v>
+      </c>
+    </row>
+    <row r="18" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L18">
+        <v>263</v>
+      </c>
+      <c r="M18" t="s">
+        <v>172</v>
+      </c>
+      <c r="N18">
+        <v>-0.85</v>
+      </c>
+      <c r="O18" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q18">
+        <v>-0.19597671847770037</v>
+      </c>
+      <c r="R18">
+        <v>-0.19597671847770037</v>
+      </c>
+    </row>
+    <row r="19" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L19">
+        <v>103</v>
+      </c>
+      <c r="M19" t="s">
+        <v>173</v>
+      </c>
+      <c r="N19">
+        <v>-0.83</v>
+      </c>
+      <c r="O19" s="1">
+        <v>44145</v>
+      </c>
+      <c r="Q19">
+        <v>-0.26347496160030526</v>
+      </c>
+      <c r="R19">
+        <v>-0.26347496160030526</v>
+      </c>
+    </row>
+    <row r="20" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L20">
+        <v>56</v>
+      </c>
+      <c r="M20" t="s">
+        <v>174</v>
+      </c>
+      <c r="N20">
+        <v>-0.81</v>
+      </c>
+      <c r="O20" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q20">
+        <v>-1.4162132030611231E-4</v>
+      </c>
+      <c r="R20">
+        <v>-1.4162132030611231E-4</v>
+      </c>
+    </row>
+    <row r="21" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L21">
+        <v>110</v>
+      </c>
+      <c r="M21" t="s">
+        <v>175</v>
+      </c>
+      <c r="N21">
+        <v>-0.8</v>
+      </c>
+      <c r="O21" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q21">
+        <v>1.9249337316216787E-2</v>
+      </c>
+      <c r="R21">
+        <v>1.9249337316216787E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L22">
+        <v>248</v>
+      </c>
+      <c r="M22" t="s">
+        <v>176</v>
+      </c>
+      <c r="N22">
+        <v>-0.8</v>
+      </c>
+      <c r="O22" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q22">
+        <v>-0.15698940156520205</v>
+      </c>
+      <c r="R22">
+        <v>-0.15698940156520205</v>
+      </c>
+    </row>
+    <row r="23" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L23">
+        <v>250</v>
+      </c>
+      <c r="M23" t="s">
+        <v>177</v>
+      </c>
+      <c r="N23">
+        <v>-0.79</v>
+      </c>
+      <c r="O23" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q23">
+        <v>-2.9135812457640419E-2</v>
+      </c>
+      <c r="R23">
+        <v>-2.9135812457640419E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L24">
+        <v>256</v>
+      </c>
+      <c r="M24" t="s">
+        <v>178</v>
+      </c>
+      <c r="N24">
+        <v>-0.79</v>
+      </c>
+      <c r="O24" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q24">
+        <v>-3.0519829145059151E-2</v>
+      </c>
+      <c r="R24">
+        <v>-3.0519829145059151E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L25">
+        <v>272</v>
+      </c>
+      <c r="M25" t="s">
+        <v>179</v>
+      </c>
+      <c r="N25">
+        <v>-0.78</v>
+      </c>
+      <c r="O25" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q25">
+        <v>-1.6380871006429459E-2</v>
+      </c>
+      <c r="R25">
+        <v>-1.6380871006429459E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L26">
+        <v>33</v>
+      </c>
+      <c r="M26" t="s">
+        <v>180</v>
+      </c>
+      <c r="N26">
+        <v>-0.77</v>
+      </c>
+      <c r="O26" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q26">
+        <v>0.18643100366782259</v>
+      </c>
+      <c r="R26">
+        <v>0.18643100366782259</v>
+      </c>
+    </row>
+    <row r="27" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L27">
+        <v>302</v>
+      </c>
+      <c r="M27" t="s">
+        <v>181</v>
+      </c>
+      <c r="N27">
+        <v>-0.76</v>
+      </c>
+      <c r="O27" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q27">
+        <v>-8.678905840977065E-2</v>
+      </c>
+      <c r="R27">
+        <v>-8.678905840977065E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L28">
+        <v>226</v>
+      </c>
+      <c r="M28" t="s">
+        <v>182</v>
+      </c>
+      <c r="N28">
+        <v>-0.76</v>
+      </c>
+      <c r="O28" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q28">
+        <v>-8.5306162123799281E-2</v>
+      </c>
+      <c r="R28">
+        <v>-8.5306162123799281E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L29">
+        <v>276</v>
+      </c>
+      <c r="M29" t="s">
+        <v>183</v>
+      </c>
+      <c r="N29">
+        <v>-0.74</v>
+      </c>
+      <c r="O29" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q29">
+        <v>-6.5817620479980299E-2</v>
+      </c>
+      <c r="R29">
+        <v>-6.5817620479980299E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L30">
+        <v>17</v>
+      </c>
+      <c r="M30" t="s">
+        <v>184</v>
+      </c>
+      <c r="N30">
+        <v>-0.74</v>
+      </c>
+      <c r="O30" s="1">
+        <v>44127</v>
+      </c>
+      <c r="Q30">
+        <v>-0.64428474907885791</v>
+      </c>
+      <c r="R30">
+        <v>-0.64428474907885791</v>
+      </c>
+    </row>
+    <row r="31" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L31">
+        <v>6</v>
+      </c>
+      <c r="M31" t="s">
+        <v>110</v>
+      </c>
+      <c r="N31">
+        <v>-0.73</v>
+      </c>
+      <c r="O31" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q31">
+        <v>-0.3275088715276232</v>
+      </c>
+      <c r="R31">
+        <v>-0.3275088715276232</v>
+      </c>
+    </row>
+    <row r="32" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L32">
+        <v>278</v>
+      </c>
+      <c r="M32" t="s">
+        <v>185</v>
+      </c>
+      <c r="N32">
+        <v>-0.73</v>
+      </c>
+      <c r="O32" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q32">
+        <v>-0.27667100924440191</v>
+      </c>
+      <c r="R32">
+        <v>-0.27667100924440191</v>
+      </c>
+    </row>
+    <row r="33" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L33">
+        <v>215</v>
+      </c>
+      <c r="M33" t="s">
+        <v>186</v>
+      </c>
+      <c r="N33">
+        <v>-0.73</v>
+      </c>
+      <c r="O33" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q33">
+        <v>-0.19554583976629608</v>
+      </c>
+      <c r="R33">
+        <v>-0.19554583976629608</v>
+      </c>
+    </row>
+    <row r="34" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L34">
+        <v>218</v>
+      </c>
+      <c r="M34" t="s">
+        <v>187</v>
+      </c>
+      <c r="N34">
+        <v>-0.73</v>
+      </c>
+      <c r="O34" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q34">
+        <v>7.5942821517607289E-3</v>
+      </c>
+      <c r="R34">
+        <v>7.5942821517607289E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L35">
+        <v>43</v>
+      </c>
+      <c r="M35" t="s">
+        <v>188</v>
+      </c>
+      <c r="N35">
+        <v>-0.73</v>
+      </c>
+      <c r="O35" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q35">
+        <v>-2.9624675715537764E-2</v>
+      </c>
+      <c r="R35">
+        <v>-2.9624675715537764E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L36">
+        <v>94</v>
+      </c>
+      <c r="M36" t="s">
+        <v>189</v>
+      </c>
+      <c r="N36">
+        <v>-0.72</v>
+      </c>
+      <c r="O36" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q36">
+        <v>0.1538878367451208</v>
+      </c>
+      <c r="R36">
+        <v>0.1538878367451208</v>
+      </c>
+    </row>
+    <row r="37" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L37">
+        <v>170</v>
+      </c>
+      <c r="M37" t="s">
+        <v>190</v>
+      </c>
+      <c r="N37">
+        <v>-0.72</v>
+      </c>
+      <c r="O37" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q37">
+        <v>4.236255499411091E-4</v>
+      </c>
+      <c r="R37">
+        <v>4.236255499411091E-4</v>
+      </c>
+    </row>
+    <row r="38" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L38">
+        <v>125</v>
+      </c>
+      <c r="M38" t="s">
+        <v>191</v>
+      </c>
+      <c r="N38">
+        <v>-0.72</v>
+      </c>
+      <c r="O38" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q38">
+        <v>-0.12056138007686382</v>
+      </c>
+      <c r="R38">
+        <v>-0.12056138007686382</v>
+      </c>
+    </row>
+    <row r="39" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L39">
+        <v>207</v>
+      </c>
+      <c r="M39" t="s">
+        <v>192</v>
+      </c>
+      <c r="N39">
+        <v>-0.71</v>
+      </c>
+      <c r="O39" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q39">
+        <v>0.11056928181531674</v>
+      </c>
+      <c r="R39">
+        <v>0.11056928181531674</v>
+      </c>
+    </row>
+    <row r="40" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L40">
+        <v>233</v>
+      </c>
+      <c r="M40" t="s">
+        <v>193</v>
+      </c>
+      <c r="N40">
+        <v>-0.71</v>
+      </c>
+      <c r="O40" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q40">
+        <v>-4.0388143247300827E-2</v>
+      </c>
+      <c r="R40">
+        <v>-4.0388143247300827E-2</v>
+      </c>
+    </row>
+    <row r="41" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L41">
+        <v>307</v>
+      </c>
+      <c r="M41" t="s">
+        <v>194</v>
+      </c>
+      <c r="N41">
+        <v>-0.7</v>
+      </c>
+      <c r="O41" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q41">
+        <v>0.14299110125449538</v>
+      </c>
+      <c r="R41">
+        <v>0.14299110125449538</v>
+      </c>
+    </row>
+    <row r="42" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L42">
+        <v>92</v>
+      </c>
+      <c r="M42" t="s">
+        <v>195</v>
+      </c>
+      <c r="N42">
+        <v>-0.7</v>
+      </c>
+      <c r="O42" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q42">
+        <v>3.4553647498188761E-2</v>
+      </c>
+      <c r="R42">
+        <v>3.4553647498188761E-2</v>
+      </c>
+    </row>
+    <row r="43" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L43">
+        <v>280</v>
+      </c>
+      <c r="M43" t="s">
+        <v>196</v>
+      </c>
+      <c r="N43">
+        <v>-0.7</v>
+      </c>
+      <c r="O43" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q43">
+        <v>-7.7132221666399631E-2</v>
+      </c>
+      <c r="R43">
+        <v>-7.7132221666399631E-2</v>
+      </c>
+    </row>
+    <row r="44" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L44">
+        <v>21</v>
+      </c>
+      <c r="M44" t="s">
+        <v>197</v>
+      </c>
+      <c r="N44">
+        <v>-0.7</v>
+      </c>
+      <c r="O44" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q44">
+        <v>-3.3845737978325956E-2</v>
+      </c>
+      <c r="R44">
+        <v>-3.3845737978325956E-2</v>
+      </c>
+    </row>
+    <row r="45" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L45">
+        <v>225</v>
+      </c>
+      <c r="M45" t="s">
+        <v>198</v>
+      </c>
+      <c r="N45">
+        <v>-0.69</v>
+      </c>
+      <c r="O45" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q45">
+        <v>-0.13571350283185213</v>
+      </c>
+      <c r="R45">
+        <v>-0.13571350283185213</v>
+      </c>
+    </row>
+    <row r="46" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L46">
+        <v>265</v>
+      </c>
+      <c r="M46" t="s">
+        <v>199</v>
+      </c>
+      <c r="N46">
+        <v>-0.69</v>
+      </c>
+      <c r="O46" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q46">
+        <v>-0.21703971308775358</v>
+      </c>
+      <c r="R46">
+        <v>-0.21703971308775358</v>
+      </c>
+    </row>
+    <row r="47" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L47">
+        <v>38</v>
+      </c>
+      <c r="M47" t="s">
+        <v>200</v>
+      </c>
+      <c r="N47">
+        <v>-0.69</v>
+      </c>
+      <c r="O47" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q47">
+        <v>0.21746282810926404</v>
+      </c>
+      <c r="R47">
+        <v>0.21746282810926404</v>
+      </c>
+    </row>
+    <row r="48" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L48">
+        <v>245</v>
+      </c>
+      <c r="M48" t="s">
+        <v>201</v>
+      </c>
+      <c r="N48">
+        <v>-0.69</v>
+      </c>
+      <c r="O48" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q48">
+        <v>1.8728305664798398E-2</v>
+      </c>
+      <c r="R48">
+        <v>1.8728305664798398E-2</v>
+      </c>
+    </row>
+    <row r="49" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L49">
+        <v>128</v>
+      </c>
+      <c r="M49" t="s">
+        <v>202</v>
+      </c>
+      <c r="N49">
+        <v>-0.68</v>
+      </c>
+      <c r="O49" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q49">
+        <v>-6.0856012715706634E-2</v>
+      </c>
+      <c r="R49">
+        <v>-6.0856012715706634E-2</v>
+      </c>
+    </row>
+    <row r="50" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L50">
+        <v>232</v>
+      </c>
+      <c r="M50" t="s">
+        <v>203</v>
+      </c>
+      <c r="N50">
+        <v>-0.68</v>
+      </c>
+      <c r="O50" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q50">
+        <v>-0.18175058826560966</v>
+      </c>
+      <c r="R50">
+        <v>-0.18175058826560966</v>
+      </c>
+    </row>
+    <row r="51" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L51">
+        <v>161</v>
+      </c>
+      <c r="M51" t="s">
+        <v>204</v>
+      </c>
+      <c r="N51">
+        <v>-0.68</v>
+      </c>
+      <c r="O51" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q51">
+        <v>-7.5111326681147382E-3</v>
+      </c>
+      <c r="R51">
+        <v>-7.5111326681147382E-3</v>
+      </c>
+    </row>
+    <row r="52" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L52">
+        <v>222</v>
+      </c>
+      <c r="M52" t="s">
+        <v>205</v>
+      </c>
+      <c r="N52">
+        <v>-0.68</v>
+      </c>
+      <c r="O52" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q52">
+        <v>3.2113620179067888E-2</v>
+      </c>
+      <c r="R52">
+        <v>3.2113620179067888E-2</v>
+      </c>
+    </row>
+    <row r="53" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L53">
+        <v>271</v>
+      </c>
+      <c r="M53" t="s">
+        <v>206</v>
+      </c>
+      <c r="N53">
+        <v>-0.68</v>
+      </c>
+      <c r="O53" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q53">
+        <v>-1.4053211359814778E-2</v>
+      </c>
+      <c r="R53">
+        <v>-1.4053211359814778E-2</v>
+      </c>
+    </row>
+    <row r="54" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L54">
+        <v>184</v>
+      </c>
+      <c r="M54" t="s">
+        <v>207</v>
+      </c>
+      <c r="N54">
+        <v>-0.67</v>
+      </c>
+      <c r="O54" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q54">
+        <v>-0.20572911401054922</v>
+      </c>
+      <c r="R54">
+        <v>-0.20572911401054922</v>
+      </c>
+    </row>
+    <row r="55" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L55">
+        <v>258</v>
+      </c>
+      <c r="M55" t="s">
+        <v>208</v>
+      </c>
+      <c r="N55">
+        <v>-0.67</v>
+      </c>
+      <c r="O55" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q55">
+        <v>-0.34736460037684563</v>
+      </c>
+      <c r="R55">
+        <v>-0.34736460037684563</v>
+      </c>
+    </row>
+    <row r="56" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L56">
+        <v>208</v>
+      </c>
+      <c r="M56" t="s">
+        <v>209</v>
+      </c>
+      <c r="N56">
+        <v>-0.67</v>
+      </c>
+      <c r="O56" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q56">
+        <v>-0.15607005721574568</v>
+      </c>
+      <c r="R56">
+        <v>-0.15607005721574568</v>
+      </c>
+    </row>
+    <row r="57" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L57">
+        <v>167</v>
+      </c>
+      <c r="M57" t="s">
+        <v>210</v>
+      </c>
+      <c r="N57">
+        <v>-0.67</v>
+      </c>
+      <c r="O57" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q57">
+        <v>-0.10178466496695222</v>
+      </c>
+      <c r="R57">
+        <v>-0.10178466496695222</v>
+      </c>
+    </row>
+    <row r="58" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L58">
+        <v>205</v>
+      </c>
+      <c r="M58" t="s">
+        <v>211</v>
+      </c>
+      <c r="N58">
+        <v>-0.67</v>
+      </c>
+      <c r="O58" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q58">
+        <v>0.15589327250686424</v>
+      </c>
+      <c r="R58">
+        <v>0.15589327250686424</v>
+      </c>
+    </row>
+    <row r="59" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L59">
+        <v>270</v>
+      </c>
+      <c r="M59" t="s">
+        <v>212</v>
+      </c>
+      <c r="N59">
+        <v>-0.66</v>
+      </c>
+      <c r="O59" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q59">
+        <v>-0.15229501369575998</v>
+      </c>
+      <c r="R59">
+        <v>-0.15229501369575998</v>
+      </c>
+    </row>
+    <row r="60" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L60">
+        <v>290</v>
+      </c>
+      <c r="M60" t="s">
+        <v>213</v>
+      </c>
+      <c r="N60">
+        <v>-0.66</v>
+      </c>
+      <c r="O60" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q60">
+        <v>-2.7382938877676248E-3</v>
+      </c>
+      <c r="R60">
+        <v>-2.7382938877676248E-3</v>
+      </c>
+    </row>
+    <row r="61" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L61">
+        <v>152</v>
+      </c>
+      <c r="M61" t="s">
+        <v>214</v>
+      </c>
+      <c r="N61">
+        <v>-0.66</v>
+      </c>
+      <c r="O61" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q61">
+        <v>-0.17445803355127287</v>
+      </c>
+      <c r="R61">
+        <v>-0.17445803355127287</v>
+      </c>
+    </row>
+    <row r="62" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L62">
+        <v>304</v>
+      </c>
+      <c r="M62" t="s">
+        <v>215</v>
+      </c>
+      <c r="N62">
+        <v>-0.65</v>
+      </c>
+      <c r="O62" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q62">
+        <v>-0.42460620062803939</v>
+      </c>
+      <c r="R62">
+        <v>-0.42460620062803939</v>
+      </c>
+    </row>
+    <row r="63" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L63">
+        <v>261</v>
+      </c>
+      <c r="M63" t="s">
+        <v>216</v>
+      </c>
+      <c r="N63">
+        <v>-0.65</v>
+      </c>
+      <c r="O63" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q63">
+        <v>-0.16970881110580172</v>
+      </c>
+      <c r="R63">
+        <v>-0.16970881110580172</v>
+      </c>
+    </row>
+    <row r="64" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L64">
+        <v>275</v>
+      </c>
+      <c r="M64" t="s">
+        <v>217</v>
+      </c>
+      <c r="N64">
+        <v>-0.65</v>
+      </c>
+      <c r="O64" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q64">
+        <v>-0.19728402462977279</v>
+      </c>
+      <c r="R64">
+        <v>-0.19728402462977279</v>
+      </c>
+    </row>
+    <row r="65" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L65">
+        <v>273</v>
+      </c>
+      <c r="M65" t="s">
+        <v>218</v>
+      </c>
+      <c r="N65">
+        <v>-0.65</v>
+      </c>
+      <c r="O65" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q65">
+        <v>-0.18579270471513287</v>
+      </c>
+      <c r="R65">
+        <v>-0.18579270471513287</v>
+      </c>
+    </row>
+    <row r="66" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L66">
+        <v>129</v>
+      </c>
+      <c r="M66" t="s">
+        <v>219</v>
+      </c>
+      <c r="N66">
+        <v>-0.65</v>
+      </c>
+      <c r="O66" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q66">
+        <v>-0.17491651195434557</v>
+      </c>
+      <c r="R66">
+        <v>-0.17491651195434557</v>
+      </c>
+    </row>
+    <row r="67" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L67">
+        <v>247</v>
+      </c>
+      <c r="M67" t="s">
+        <v>220</v>
+      </c>
+      <c r="N67">
+        <v>-0.64</v>
+      </c>
+      <c r="O67" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q67">
+        <v>-6.725230041204322E-2</v>
+      </c>
+      <c r="R67">
+        <v>-6.725230041204322E-2</v>
+      </c>
+    </row>
+    <row r="68" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L68">
+        <v>210</v>
+      </c>
+      <c r="M68" t="s">
+        <v>221</v>
+      </c>
+      <c r="N68">
+        <v>-0.64</v>
+      </c>
+      <c r="O68" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q68">
+        <v>-8.6694587696052122E-2</v>
+      </c>
+      <c r="R68">
+        <v>-8.6694587696052122E-2</v>
+      </c>
+    </row>
+    <row r="69" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L69">
+        <v>16</v>
+      </c>
+      <c r="M69" t="s">
+        <v>222</v>
+      </c>
+      <c r="N69">
+        <v>-0.64</v>
+      </c>
+      <c r="O69" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q69">
+        <v>2.0450671909166208E-2</v>
+      </c>
+      <c r="R69">
+        <v>2.0450671909166208E-2</v>
+      </c>
+    </row>
+    <row r="70" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L70">
+        <v>216</v>
+      </c>
+      <c r="M70" t="s">
+        <v>223</v>
+      </c>
+      <c r="N70">
+        <v>-0.64</v>
+      </c>
+      <c r="O70" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q70">
+        <v>-0.33125982755443917</v>
+      </c>
+      <c r="R70">
+        <v>-0.33125982755443917</v>
+      </c>
+    </row>
+    <row r="71" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L71">
+        <v>217</v>
+      </c>
+      <c r="M71" t="s">
+        <v>224</v>
+      </c>
+      <c r="N71">
+        <v>-0.64</v>
+      </c>
+      <c r="O71" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q71">
+        <v>-3.608201842688602E-2</v>
+      </c>
+      <c r="R71">
+        <v>-3.608201842688602E-2</v>
+      </c>
+    </row>
+    <row r="72" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L72">
+        <v>230</v>
+      </c>
+      <c r="M72" t="s">
+        <v>225</v>
+      </c>
+      <c r="N72">
+        <v>-0.64</v>
+      </c>
+      <c r="O72" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q72">
+        <v>-8.2927198169089306E-2</v>
+      </c>
+      <c r="R72">
+        <v>-8.2927198169089306E-2</v>
+      </c>
+    </row>
+    <row r="73" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L73">
+        <v>130</v>
+      </c>
+      <c r="M73" t="s">
+        <v>226</v>
+      </c>
+      <c r="N73">
+        <v>-0.64</v>
+      </c>
+      <c r="O73" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q73">
+        <v>0.11942391414178909</v>
+      </c>
+      <c r="R73">
+        <v>0.11942391414178909</v>
+      </c>
+    </row>
+    <row r="74" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L74">
+        <v>121</v>
+      </c>
+      <c r="M74" t="s">
+        <v>227</v>
+      </c>
+      <c r="N74">
+        <v>-0.63</v>
+      </c>
+      <c r="O74" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q74">
+        <v>-1.6772457882254479E-2</v>
+      </c>
+      <c r="R74">
+        <v>-1.6772457882254479E-2</v>
+      </c>
+    </row>
+    <row r="75" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L75">
+        <v>190</v>
+      </c>
+      <c r="M75" t="s">
+        <v>228</v>
+      </c>
+      <c r="N75">
+        <v>-0.63</v>
+      </c>
+      <c r="O75" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q75">
+        <v>-7.7053216500129014E-3</v>
+      </c>
+      <c r="R75">
+        <v>-7.7053216500129014E-3</v>
+      </c>
+    </row>
+    <row r="76" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L76">
+        <v>193</v>
+      </c>
+      <c r="M76" t="s">
+        <v>229</v>
+      </c>
+      <c r="N76">
+        <v>-0.63</v>
+      </c>
+      <c r="O76" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q76">
+        <v>-0.17663463819694805</v>
+      </c>
+      <c r="R76">
+        <v>-0.17663463819694805</v>
+      </c>
+    </row>
+    <row r="77" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L77">
+        <v>168</v>
+      </c>
+      <c r="M77" t="s">
+        <v>230</v>
+      </c>
+      <c r="N77">
+        <v>-0.62</v>
+      </c>
+      <c r="O77" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q77">
+        <v>1.591889182159523E-2</v>
+      </c>
+      <c r="R77">
+        <v>1.591889182159523E-2</v>
+      </c>
+    </row>
+    <row r="78" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L78">
+        <v>106</v>
+      </c>
+      <c r="M78" t="s">
+        <v>231</v>
+      </c>
+      <c r="N78">
+        <v>-0.62</v>
+      </c>
+      <c r="O78" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q78">
+        <v>-7.6879799276711444E-2</v>
+      </c>
+      <c r="R78">
+        <v>-7.6879799276711444E-2</v>
+      </c>
+    </row>
+    <row r="79" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L79">
+        <v>132</v>
+      </c>
+      <c r="M79" t="s">
+        <v>232</v>
+      </c>
+      <c r="N79">
+        <v>-0.62</v>
+      </c>
+      <c r="O79" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q79">
+        <v>-4.5844550211955694E-2</v>
+      </c>
+      <c r="R79">
+        <v>-4.5844550211955694E-2</v>
+      </c>
+    </row>
+    <row r="80" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L80">
+        <v>173</v>
+      </c>
+      <c r="M80" t="s">
+        <v>233</v>
+      </c>
+      <c r="N80">
+        <v>-0.61</v>
+      </c>
+      <c r="O80" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q80">
+        <v>-0.10037409076565255</v>
+      </c>
+      <c r="R80">
+        <v>-0.10037409076565255</v>
+      </c>
+    </row>
+    <row r="81" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L81">
+        <v>305</v>
+      </c>
+      <c r="M81" t="s">
+        <v>234</v>
+      </c>
+      <c r="N81">
+        <v>-0.61</v>
+      </c>
+      <c r="O81" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q81">
+        <v>-0.21075354763348253</v>
+      </c>
+      <c r="R81">
+        <v>-0.21075354763348253</v>
+      </c>
+    </row>
+    <row r="82" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L82">
+        <v>91</v>
+      </c>
+      <c r="M82" t="s">
+        <v>235</v>
+      </c>
+      <c r="N82">
+        <v>-0.61</v>
+      </c>
+      <c r="O82" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q82">
+        <v>4.9486523804872132E-2</v>
+      </c>
+      <c r="R82">
+        <v>4.9486523804872132E-2</v>
+      </c>
+    </row>
+    <row r="83" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L83">
+        <v>202</v>
+      </c>
+      <c r="M83" t="s">
+        <v>236</v>
+      </c>
+      <c r="N83">
+        <v>-0.6</v>
+      </c>
+      <c r="O83" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q83">
+        <v>-8.1887716038609698E-2</v>
+      </c>
+      <c r="R83">
+        <v>-8.1887716038609698E-2</v>
+      </c>
+    </row>
+    <row r="84" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L84">
+        <v>252</v>
+      </c>
+      <c r="M84" t="s">
+        <v>237</v>
+      </c>
+      <c r="N84">
+        <v>-0.6</v>
+      </c>
+      <c r="O84" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q84">
+        <v>-0.13964821912947775</v>
+      </c>
+      <c r="R84">
+        <v>-0.13964821912947775</v>
+      </c>
+    </row>
+    <row r="85" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L85">
+        <v>24</v>
+      </c>
+      <c r="M85" t="s">
+        <v>238</v>
+      </c>
+      <c r="N85">
+        <v>-0.6</v>
+      </c>
+      <c r="O85" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q85">
+        <v>-6.9992822402784802E-2</v>
+      </c>
+      <c r="R85">
+        <v>-6.9992822402784802E-2</v>
+      </c>
+    </row>
+    <row r="86" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L86">
+        <v>235</v>
+      </c>
+      <c r="M86" t="s">
+        <v>239</v>
+      </c>
+      <c r="N86">
+        <v>-0.59</v>
+      </c>
+      <c r="O86" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q86">
+        <v>-9.6745172237678034E-2</v>
+      </c>
+      <c r="R86">
+        <v>-9.6745172237678034E-2</v>
+      </c>
+    </row>
+    <row r="87" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L87">
+        <v>2</v>
+      </c>
+      <c r="M87" t="s">
+        <v>111</v>
+      </c>
+      <c r="N87">
+        <v>-0.59</v>
+      </c>
+      <c r="O87" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q87">
+        <v>1.0655525189563118E-2</v>
+      </c>
+      <c r="R87">
+        <v>1.0655525189563118E-2</v>
+      </c>
+    </row>
+    <row r="88" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L88">
+        <v>51</v>
+      </c>
+      <c r="M88" t="s">
+        <v>240</v>
+      </c>
+      <c r="N88">
+        <v>-0.59</v>
+      </c>
+      <c r="O88" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q88">
+        <v>-3.2910719909292611E-2</v>
+      </c>
+      <c r="R88">
+        <v>-3.2910719909292611E-2</v>
+      </c>
+    </row>
+    <row r="89" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L89">
+        <v>77</v>
+      </c>
+      <c r="M89" t="s">
+        <v>241</v>
+      </c>
+      <c r="N89">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="O89" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q89">
+        <v>-7.4255579028229241E-2</v>
+      </c>
+      <c r="R89">
+        <v>-7.4255579028229241E-2</v>
+      </c>
+    </row>
+    <row r="90" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L90">
+        <v>209</v>
+      </c>
+      <c r="M90" t="s">
+        <v>242</v>
+      </c>
+      <c r="N90">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="O90" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q90">
+        <v>-2.645884155718381E-2</v>
+      </c>
+      <c r="R90">
+        <v>-2.645884155718381E-2</v>
+      </c>
+    </row>
+    <row r="91" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L91">
+        <v>140</v>
+      </c>
+      <c r="M91" t="s">
+        <v>243</v>
+      </c>
+      <c r="N91">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="O91" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q91">
+        <v>2.3681204177441288E-2</v>
+      </c>
+      <c r="R91">
+        <v>2.3681204177441288E-2</v>
+      </c>
+    </row>
+    <row r="92" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L92">
+        <v>144</v>
+      </c>
+      <c r="M92" t="s">
+        <v>244</v>
+      </c>
+      <c r="N92">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="O92" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q92">
+        <v>-0.15960836308598461</v>
+      </c>
+      <c r="R92">
+        <v>-0.15960836308598461</v>
+      </c>
+    </row>
+    <row r="93" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L93">
+        <v>105</v>
+      </c>
+      <c r="M93" t="s">
+        <v>245</v>
+      </c>
+      <c r="N93">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="O93" s="1">
+        <v>44348</v>
+      </c>
+      <c r="P93" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q93">
+        <v>0.28671996512402115</v>
+      </c>
+      <c r="R93">
+        <v>0.28671996512402115</v>
+      </c>
+    </row>
+    <row r="94" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L94">
+        <v>141</v>
+      </c>
+      <c r="M94" t="s">
+        <v>246</v>
+      </c>
+      <c r="N94">
+        <v>-0.56000000000000005</v>
+      </c>
+      <c r="O94" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q94">
+        <v>-9.5409188864024372E-2</v>
+      </c>
+      <c r="R94">
+        <v>-9.5409188864024372E-2</v>
+      </c>
+    </row>
+    <row r="95" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L95">
+        <v>197</v>
+      </c>
+      <c r="M95" t="s">
+        <v>247</v>
+      </c>
+      <c r="N95">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="O95" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q95">
+        <v>-6.4242961679849955E-2</v>
+      </c>
+      <c r="R95">
+        <v>-6.4242961679849955E-2</v>
+      </c>
+    </row>
+    <row r="96" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L96">
+        <v>18</v>
+      </c>
+      <c r="M96" t="s">
+        <v>248</v>
+      </c>
+      <c r="N96">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="O96" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q96">
+        <v>-2.5556379297439345E-2</v>
+      </c>
+      <c r="R96">
+        <v>-2.5556379297439345E-2</v>
+      </c>
+    </row>
+    <row r="97" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L97">
+        <v>179</v>
+      </c>
+      <c r="M97" t="s">
+        <v>249</v>
+      </c>
+      <c r="N97">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="O97" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q97">
+        <v>-0.38632554290621202</v>
+      </c>
+      <c r="R97">
+        <v>-0.38632554290621202</v>
+      </c>
+    </row>
+    <row r="98" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L98">
+        <v>288</v>
+      </c>
+      <c r="M98" t="s">
+        <v>250</v>
+      </c>
+      <c r="N98">
+        <v>-0.54</v>
+      </c>
+      <c r="O98" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q98">
+        <v>-7.8321692383688066E-2</v>
+      </c>
+      <c r="R98">
+        <v>-7.8321692383688066E-2</v>
+      </c>
+    </row>
+    <row r="99" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L99">
+        <v>165</v>
+      </c>
+      <c r="M99" t="s">
+        <v>251</v>
+      </c>
+      <c r="N99">
+        <v>-0.54</v>
+      </c>
+      <c r="O99" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q99">
+        <v>2.2141551677400086E-2</v>
+      </c>
+      <c r="R99">
+        <v>2.2141551677400086E-2</v>
+      </c>
+    </row>
+    <row r="100" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L100">
+        <v>30</v>
+      </c>
+      <c r="M100" t="s">
+        <v>252</v>
+      </c>
+      <c r="N100">
+        <v>-0.54</v>
+      </c>
+      <c r="O100" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q100">
+        <v>3.7899119347104666E-2</v>
+      </c>
+      <c r="R100">
+        <v>3.7899119347104666E-2</v>
+      </c>
+    </row>
+    <row r="101" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L101">
+        <v>112</v>
+      </c>
+      <c r="M101" t="s">
+        <v>253</v>
+      </c>
+      <c r="N101">
+        <v>-0.53</v>
+      </c>
+      <c r="O101" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q101">
+        <v>-4.2765299331823915E-2</v>
+      </c>
+      <c r="R101">
+        <v>-4.2765299331823915E-2</v>
+      </c>
+    </row>
+    <row r="102" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L102">
+        <v>241</v>
+      </c>
+      <c r="M102" t="s">
+        <v>254</v>
+      </c>
+      <c r="N102">
+        <v>-0.53</v>
+      </c>
+      <c r="O102" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q102">
+        <v>-0.27455164300424451</v>
+      </c>
+      <c r="R102">
+        <v>-0.27455164300424451</v>
+      </c>
+    </row>
+    <row r="103" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L103">
+        <v>177</v>
+      </c>
+      <c r="M103" t="s">
+        <v>255</v>
+      </c>
+      <c r="N103">
+        <v>-0.52</v>
+      </c>
+      <c r="O103" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q103">
+        <v>-0.39732487170406844</v>
+      </c>
+      <c r="R103">
+        <v>-0.39732487170406844</v>
+      </c>
+    </row>
+    <row r="104" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L104">
+        <v>224</v>
+      </c>
+      <c r="M104" t="s">
+        <v>256</v>
+      </c>
+      <c r="N104">
+        <v>-0.52</v>
+      </c>
+      <c r="O104" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q104">
+        <v>-0.22392730151236079</v>
+      </c>
+      <c r="R104">
+        <v>-0.22392730151236079</v>
+      </c>
+    </row>
+    <row r="105" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L105">
+        <v>206</v>
+      </c>
+      <c r="M105" t="s">
+        <v>257</v>
+      </c>
+      <c r="N105">
+        <v>-0.52</v>
+      </c>
+      <c r="O105" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q105">
+        <v>-0.11972722889876684</v>
+      </c>
+      <c r="R105">
+        <v>-0.11972722889876684</v>
+      </c>
+    </row>
+    <row r="106" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L106">
+        <v>68</v>
+      </c>
+      <c r="M106" t="s">
+        <v>258</v>
+      </c>
+      <c r="N106">
+        <v>-0.52</v>
+      </c>
+      <c r="O106" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q106">
+        <v>-7.3633445893646343E-2</v>
+      </c>
+      <c r="R106">
+        <v>-7.3633445893646343E-2</v>
+      </c>
+    </row>
+    <row r="107" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L107">
+        <v>93</v>
+      </c>
+      <c r="M107" t="s">
+        <v>259</v>
+      </c>
+      <c r="N107">
+        <v>-0.52</v>
+      </c>
+      <c r="O107" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q107">
+        <v>1.1435280590454658E-3</v>
+      </c>
+      <c r="R107">
+        <v>1.1435280590454658E-3</v>
+      </c>
+    </row>
+    <row r="108" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L108">
+        <v>191</v>
+      </c>
+      <c r="M108" t="s">
+        <v>260</v>
+      </c>
+      <c r="N108">
+        <v>-0.52</v>
+      </c>
+      <c r="O108" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q108">
+        <v>-4.4702661753922332E-2</v>
+      </c>
+      <c r="R108">
+        <v>-4.4702661753922332E-2</v>
+      </c>
+    </row>
+    <row r="109" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L109">
+        <v>192</v>
+      </c>
+      <c r="M109" t="s">
+        <v>261</v>
+      </c>
+      <c r="N109">
+        <v>-0.5</v>
+      </c>
+      <c r="O109" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q109">
+        <v>0.12007380708882567</v>
+      </c>
+      <c r="R109">
+        <v>0.12007380708882567</v>
+      </c>
+    </row>
+    <row r="110" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L110">
+        <v>284</v>
+      </c>
+      <c r="M110" t="s">
+        <v>262</v>
+      </c>
+      <c r="N110">
+        <v>-0.5</v>
+      </c>
+      <c r="O110" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q110">
+        <v>-5.9931515411353477E-2</v>
+      </c>
+      <c r="R110">
+        <v>-5.9931515411353477E-2</v>
+      </c>
+    </row>
+    <row r="111" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L111">
+        <v>195</v>
+      </c>
+      <c r="M111" t="s">
+        <v>112</v>
+      </c>
+      <c r="N111">
+        <v>-0.49</v>
+      </c>
+      <c r="O111" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q111">
+        <v>-0.23912633774799644</v>
+      </c>
+      <c r="R111">
+        <v>-0.23912633774799644</v>
+      </c>
+    </row>
+    <row r="112" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L112">
+        <v>32</v>
+      </c>
+      <c r="M112" t="s">
+        <v>263</v>
+      </c>
+      <c r="N112">
+        <v>-0.49</v>
+      </c>
+      <c r="O112" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q112">
+        <v>-6.4215227318717094E-2</v>
+      </c>
+      <c r="R112">
+        <v>-6.4215227318717094E-2</v>
+      </c>
+    </row>
+    <row r="113" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L113">
+        <v>14</v>
+      </c>
+      <c r="M113" t="s">
+        <v>264</v>
+      </c>
+      <c r="N113">
+        <v>-0.49</v>
+      </c>
+      <c r="O113" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q113">
+        <v>-0.37120786635137804</v>
+      </c>
+      <c r="R113">
+        <v>-0.37120786635137804</v>
+      </c>
+    </row>
+    <row r="114" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L114">
+        <v>295</v>
+      </c>
+      <c r="M114" t="s">
+        <v>265</v>
+      </c>
+      <c r="N114">
+        <v>-0.49</v>
+      </c>
+      <c r="O114" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q114">
+        <v>-9.0703100325902924E-2</v>
+      </c>
+      <c r="R114">
+        <v>-9.0703100325902924E-2</v>
+      </c>
+    </row>
+    <row r="115" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L115">
+        <v>20</v>
+      </c>
+      <c r="M115" t="s">
+        <v>266</v>
+      </c>
+      <c r="N115">
+        <v>-0.49</v>
+      </c>
+      <c r="O115" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q115">
+        <v>-9.9106141280370388E-2</v>
+      </c>
+      <c r="R115">
+        <v>-9.9106141280370388E-2</v>
+      </c>
+    </row>
+    <row r="116" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L116">
+        <v>201</v>
+      </c>
+      <c r="M116" t="s">
+        <v>267</v>
+      </c>
+      <c r="N116">
+        <v>-0.49</v>
+      </c>
+      <c r="O116" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q116">
+        <v>1.351877288429424E-3</v>
+      </c>
+      <c r="R116">
+        <v>1.351877288429424E-3</v>
+      </c>
+    </row>
+    <row r="117" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L117">
+        <v>234</v>
+      </c>
+      <c r="M117" t="s">
+        <v>268</v>
+      </c>
+      <c r="N117">
+        <v>-0.48</v>
+      </c>
+      <c r="O117" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q117">
+        <v>-8.6572479152678739E-2</v>
+      </c>
+      <c r="R117">
+        <v>-8.6572479152678739E-2</v>
+      </c>
+    </row>
+    <row r="118" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L118">
+        <v>306</v>
+      </c>
+      <c r="M118" t="s">
+        <v>269</v>
+      </c>
+      <c r="N118">
+        <v>-0.48</v>
+      </c>
+      <c r="O118" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q118">
+        <v>-0.13725062064333904</v>
+      </c>
+      <c r="R118">
+        <v>-0.13725062064333904</v>
+      </c>
+    </row>
+    <row r="119" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L119">
+        <v>142</v>
+      </c>
+      <c r="M119" t="s">
+        <v>270</v>
+      </c>
+      <c r="N119">
+        <v>-0.47</v>
+      </c>
+      <c r="O119" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q119">
+        <v>-4.7594542948788274E-2</v>
+      </c>
+      <c r="R119">
+        <v>-4.7594542948788274E-2</v>
+      </c>
+    </row>
+    <row r="120" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L120">
+        <v>67</v>
+      </c>
+      <c r="M120" t="s">
+        <v>271</v>
+      </c>
+      <c r="N120">
+        <v>-0.47</v>
+      </c>
+      <c r="O120" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q120">
+        <v>-3.1475718975680989E-3</v>
+      </c>
+      <c r="R120">
+        <v>-3.1475718975680989E-3</v>
+      </c>
+    </row>
+    <row r="121" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L121">
+        <v>186</v>
+      </c>
+      <c r="M121" t="s">
+        <v>272</v>
+      </c>
+      <c r="N121">
+        <v>-0.47</v>
+      </c>
+      <c r="O121" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q121">
+        <v>-3.1185990328024448E-2</v>
+      </c>
+      <c r="R121">
+        <v>-3.1185990328024448E-2</v>
+      </c>
+    </row>
+    <row r="122" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L122">
+        <v>180</v>
+      </c>
+      <c r="M122" t="s">
+        <v>137</v>
+      </c>
+      <c r="N122">
+        <v>-0.47</v>
+      </c>
+      <c r="O122" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q122">
+        <v>-8.2921960871827211E-2</v>
+      </c>
+      <c r="R122">
+        <v>-8.2921960871827211E-2</v>
+      </c>
+    </row>
+    <row r="123" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L123">
+        <v>187</v>
+      </c>
+      <c r="M123" t="s">
+        <v>273</v>
+      </c>
+      <c r="N123">
+        <v>-0.47</v>
+      </c>
+      <c r="O123" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q123">
+        <v>-0.10428681832415104</v>
+      </c>
+      <c r="R123">
+        <v>-0.10428681832415104</v>
+      </c>
+    </row>
+    <row r="124" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L124">
+        <v>292</v>
+      </c>
+      <c r="M124" t="s">
+        <v>274</v>
+      </c>
+      <c r="N124">
+        <v>-0.47</v>
+      </c>
+      <c r="O124" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q124">
+        <v>1.550366031607287E-2</v>
+      </c>
+      <c r="R124">
+        <v>1.550366031607287E-2</v>
+      </c>
+    </row>
+    <row r="125" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L125">
+        <v>131</v>
+      </c>
+      <c r="M125" t="s">
+        <v>275</v>
+      </c>
+      <c r="N125">
+        <v>-0.47</v>
+      </c>
+      <c r="O125" s="1">
+        <v>44348</v>
+      </c>
+      <c r="P125" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q125">
+        <v>0.33639213739407275</v>
+      </c>
+      <c r="R125">
+        <v>0.33639213739407275</v>
+      </c>
+    </row>
+    <row r="126" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L126">
+        <v>264</v>
+      </c>
+      <c r="M126" t="s">
+        <v>276</v>
+      </c>
+      <c r="N126">
+        <v>-0.47</v>
+      </c>
+      <c r="O126" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q126">
+        <v>-0.47507006778302024</v>
+      </c>
+      <c r="R126">
+        <v>-0.47507006778302024</v>
+      </c>
+    </row>
+    <row r="127" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L127">
+        <v>28</v>
+      </c>
+      <c r="M127" t="s">
+        <v>277</v>
+      </c>
+      <c r="N127">
+        <v>-0.46</v>
+      </c>
+      <c r="O127" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q127">
+        <v>1.3350233411893675E-2</v>
+      </c>
+      <c r="R127">
+        <v>1.3350233411893675E-2</v>
+      </c>
+    </row>
+    <row r="128" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L128">
+        <v>25</v>
+      </c>
+      <c r="M128" t="s">
+        <v>278</v>
+      </c>
+      <c r="N128">
+        <v>-0.46</v>
+      </c>
+      <c r="O128" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q128">
+        <v>-0.138062160480313</v>
+      </c>
+      <c r="R128">
+        <v>-0.138062160480313</v>
+      </c>
+    </row>
+    <row r="129" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L129">
+        <v>239</v>
+      </c>
+      <c r="M129" t="s">
+        <v>279</v>
+      </c>
+      <c r="N129">
+        <v>-0.45</v>
+      </c>
+      <c r="O129" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q129">
+        <v>-0.36284918105462588</v>
+      </c>
+      <c r="R129">
+        <v>-0.36284918105462588</v>
+      </c>
+    </row>
+    <row r="130" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L130">
+        <v>211</v>
+      </c>
+      <c r="M130" t="s">
+        <v>280</v>
+      </c>
+      <c r="N130">
+        <v>-0.45</v>
+      </c>
+      <c r="O130" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q130">
+        <v>-0.3101924167495731</v>
+      </c>
+      <c r="R130">
+        <v>-0.3101924167495731</v>
+      </c>
+    </row>
+    <row r="131" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L131">
+        <v>166</v>
+      </c>
+      <c r="M131" t="s">
+        <v>281</v>
+      </c>
+      <c r="N131">
+        <v>-0.45</v>
+      </c>
+      <c r="O131" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q131">
+        <v>3.6827191803001987E-2</v>
+      </c>
+      <c r="R131">
+        <v>3.6827191803001987E-2</v>
+      </c>
+    </row>
+    <row r="132" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L132">
+        <v>289</v>
+      </c>
+      <c r="M132" t="s">
+        <v>282</v>
+      </c>
+      <c r="N132">
+        <v>-0.45</v>
+      </c>
+      <c r="O132" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q132">
+        <v>5.2902561051544922E-2</v>
+      </c>
+      <c r="R132">
+        <v>5.2902561051544922E-2</v>
+      </c>
+    </row>
+    <row r="133" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L133">
+        <v>74</v>
+      </c>
+      <c r="M133" t="s">
+        <v>283</v>
+      </c>
+      <c r="N133">
+        <v>-0.45</v>
+      </c>
+      <c r="O133" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q133">
+        <v>3.891543615694705E-2</v>
+      </c>
+      <c r="R133">
+        <v>3.891543615694705E-2</v>
+      </c>
+    </row>
+    <row r="134" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L134">
+        <v>172</v>
+      </c>
+      <c r="M134" t="s">
+        <v>284</v>
+      </c>
+      <c r="N134">
+        <v>-0.45</v>
+      </c>
+      <c r="O134" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q134">
+        <v>-1.3528437898583746E-2</v>
+      </c>
+      <c r="R134">
+        <v>-1.3528437898583746E-2</v>
+      </c>
+    </row>
+    <row r="135" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L135">
+        <v>13</v>
+      </c>
+      <c r="M135" t="s">
+        <v>285</v>
+      </c>
+      <c r="N135">
+        <v>-0.44</v>
+      </c>
+      <c r="O135" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q135">
+        <v>-4.7714510595941249E-2</v>
+      </c>
+      <c r="R135">
+        <v>-4.7714510595941249E-2</v>
+      </c>
+    </row>
+    <row r="136" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L136">
+        <v>246</v>
+      </c>
+      <c r="M136" t="s">
+        <v>286</v>
+      </c>
+      <c r="N136">
+        <v>-0.44</v>
+      </c>
+      <c r="O136" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q136">
+        <v>-0.16448280035073473</v>
+      </c>
+      <c r="R136">
+        <v>-0.16448280035073473</v>
+      </c>
+    </row>
+    <row r="137" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L137">
+        <v>237</v>
+      </c>
+      <c r="M137" t="s">
+        <v>287</v>
+      </c>
+      <c r="N137">
+        <v>-0.43</v>
+      </c>
+      <c r="O137" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q137">
+        <v>5.0813016915047901E-2</v>
+      </c>
+      <c r="R137">
+        <v>5.0813016915047901E-2</v>
+      </c>
+    </row>
+    <row r="138" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L138">
+        <v>116</v>
+      </c>
+      <c r="M138" t="s">
+        <v>288</v>
+      </c>
+      <c r="N138">
+        <v>-0.43</v>
+      </c>
+      <c r="O138" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q138">
+        <v>-3.3526101017941089E-2</v>
+      </c>
+      <c r="R138">
+        <v>-3.3526101017941089E-2</v>
+      </c>
+    </row>
+    <row r="139" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L139">
+        <v>49</v>
+      </c>
+      <c r="M139" t="s">
+        <v>289</v>
+      </c>
+      <c r="N139">
+        <v>-0.43</v>
+      </c>
+      <c r="O139" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q139">
+        <v>4.4358045976974847E-2</v>
+      </c>
+      <c r="R139">
+        <v>4.4358045976974847E-2</v>
+      </c>
+    </row>
+    <row r="140" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L140">
+        <v>83</v>
+      </c>
+      <c r="M140" t="s">
+        <v>290</v>
+      </c>
+      <c r="N140">
+        <v>-0.43</v>
+      </c>
+      <c r="O140" s="1">
+        <v>44348</v>
+      </c>
+      <c r="P140" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q140">
+        <v>0.49435475149254532</v>
+      </c>
+      <c r="R140">
+        <v>0.49435475149254532</v>
+      </c>
+    </row>
+    <row r="141" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L141">
+        <v>153</v>
+      </c>
+      <c r="M141" t="s">
+        <v>291</v>
+      </c>
+      <c r="N141">
+        <v>-0.42</v>
+      </c>
+      <c r="O141" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q141">
+        <v>0.10446024449006228</v>
+      </c>
+      <c r="R141">
+        <v>0.10446024449006228</v>
+      </c>
+    </row>
+    <row r="142" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L142">
+        <v>240</v>
+      </c>
+      <c r="M142" t="s">
+        <v>292</v>
+      </c>
+      <c r="N142">
+        <v>-0.42</v>
+      </c>
+      <c r="O142" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q142">
+        <v>-0.17015353961054713</v>
+      </c>
+      <c r="R142">
+        <v>-0.17015353961054713</v>
+      </c>
+    </row>
+    <row r="143" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L143">
+        <v>98</v>
+      </c>
+      <c r="M143" t="s">
+        <v>293</v>
+      </c>
+      <c r="N143">
+        <v>-0.42</v>
+      </c>
+      <c r="O143" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q143">
+        <v>-1.5570449897271951E-2</v>
+      </c>
+      <c r="R143">
+        <v>-1.5570449897271951E-2</v>
+      </c>
+    </row>
+    <row r="144" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L144">
+        <v>213</v>
+      </c>
+      <c r="M144" t="s">
+        <v>294</v>
+      </c>
+      <c r="N144">
+        <v>-0.41</v>
+      </c>
+      <c r="O144" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q144">
+        <v>-0.2528401033693527</v>
+      </c>
+      <c r="R144">
+        <v>-0.2528401033693527</v>
+      </c>
+    </row>
+    <row r="145" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L145">
+        <v>267</v>
+      </c>
+      <c r="M145" t="s">
+        <v>295</v>
+      </c>
+      <c r="N145">
+        <v>-0.41</v>
+      </c>
+      <c r="O145" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q145">
+        <v>-0.24567270558730425</v>
+      </c>
+      <c r="R145">
+        <v>-0.24567270558730425</v>
+      </c>
+    </row>
+    <row r="146" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L146">
+        <v>260</v>
+      </c>
+      <c r="M146" t="s">
+        <v>296</v>
+      </c>
+      <c r="N146">
+        <v>-0.41</v>
+      </c>
+      <c r="O146" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q146">
+        <v>5.3426270700431808E-2</v>
+      </c>
+      <c r="R146">
+        <v>5.3426270700431808E-2</v>
+      </c>
+    </row>
+    <row r="147" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L147">
+        <v>57</v>
+      </c>
+      <c r="M147" t="s">
+        <v>297</v>
+      </c>
+      <c r="N147">
+        <v>-0.41</v>
+      </c>
+      <c r="O147" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q147">
+        <v>9.8089725434012832E-3</v>
+      </c>
+      <c r="R147">
+        <v>9.8089725434012832E-3</v>
+      </c>
+    </row>
+    <row r="148" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L148">
+        <v>229</v>
+      </c>
+      <c r="M148" t="s">
+        <v>298</v>
+      </c>
+      <c r="N148">
+        <v>-0.4</v>
+      </c>
+      <c r="O148" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q148">
+        <v>1.3478982853460357E-2</v>
+      </c>
+      <c r="R148">
+        <v>1.3478982853460357E-2</v>
+      </c>
+    </row>
+    <row r="149" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L149">
+        <v>164</v>
+      </c>
+      <c r="M149" t="s">
+        <v>299</v>
+      </c>
+      <c r="N149">
+        <v>-0.4</v>
+      </c>
+      <c r="O149" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q149">
+        <v>-7.3747353675294516E-3</v>
+      </c>
+      <c r="R149">
+        <v>-7.3747353675294516E-3</v>
+      </c>
+    </row>
+    <row r="150" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L150">
+        <v>282</v>
+      </c>
+      <c r="M150" t="s">
+        <v>300</v>
+      </c>
+      <c r="N150">
+        <v>-0.39</v>
+      </c>
+      <c r="O150" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q150">
+        <v>-8.499735747411323E-2</v>
+      </c>
+      <c r="R150">
+        <v>-8.499735747411323E-2</v>
+      </c>
+    </row>
+    <row r="151" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L151">
+        <v>157</v>
+      </c>
+      <c r="M151" t="s">
+        <v>301</v>
+      </c>
+      <c r="N151">
+        <v>-0.39</v>
+      </c>
+      <c r="O151" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q151">
+        <v>0.12302618068594252</v>
+      </c>
+      <c r="R151">
+        <v>0.12302618068594252</v>
+      </c>
+    </row>
+    <row r="152" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L152">
+        <v>154</v>
+      </c>
+      <c r="M152" t="s">
+        <v>302</v>
+      </c>
+      <c r="N152">
+        <v>-0.39</v>
+      </c>
+      <c r="O152" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q152">
+        <v>-0.10303945766274872</v>
+      </c>
+      <c r="R152">
+        <v>-0.10303945766274872</v>
+      </c>
+    </row>
+    <row r="153" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L153">
+        <v>122</v>
+      </c>
+      <c r="M153" t="s">
+        <v>303</v>
+      </c>
+      <c r="N153">
+        <v>-0.39</v>
+      </c>
+      <c r="O153" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q153">
+        <v>-9.5247977410959066E-3</v>
+      </c>
+      <c r="R153">
+        <v>-9.5247977410959066E-3</v>
+      </c>
+    </row>
+    <row r="154" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L154">
+        <v>281</v>
+      </c>
+      <c r="M154" t="s">
+        <v>304</v>
+      </c>
+      <c r="N154">
+        <v>-0.39</v>
+      </c>
+      <c r="O154" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q154">
+        <v>-8.3283497954476884E-2</v>
+      </c>
+      <c r="R154">
+        <v>-8.3283497954476884E-2</v>
+      </c>
+    </row>
+    <row r="155" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L155">
+        <v>81</v>
+      </c>
+      <c r="M155" t="s">
+        <v>305</v>
+      </c>
+      <c r="N155">
+        <v>-0.38</v>
+      </c>
+      <c r="O155" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q155">
+        <v>-7.6589505460732621E-2</v>
+      </c>
+      <c r="R155">
+        <v>-7.6589505460732621E-2</v>
+      </c>
+    </row>
+    <row r="156" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L156">
+        <v>135</v>
+      </c>
+      <c r="M156" t="s">
+        <v>306</v>
+      </c>
+      <c r="N156">
+        <v>-0.38</v>
+      </c>
+      <c r="O156" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q156">
+        <v>-4.5899863204581587E-2</v>
+      </c>
+      <c r="R156">
+        <v>-4.5899863204581587E-2</v>
+      </c>
+    </row>
+    <row r="157" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L157">
+        <v>108</v>
+      </c>
+      <c r="M157" t="s">
+        <v>307</v>
+      </c>
+      <c r="N157">
+        <v>-0.37</v>
+      </c>
+      <c r="O157" s="1">
+        <v>44348</v>
+      </c>
+      <c r="P157" t="s">
+        <v>69</v>
+      </c>
+      <c r="Q157">
+        <v>0.32010093780955207</v>
+      </c>
+      <c r="R157">
+        <v>0.32010093780955207</v>
+      </c>
+    </row>
+    <row r="158" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L158">
+        <v>34</v>
+      </c>
+      <c r="M158" t="s">
+        <v>308</v>
+      </c>
+      <c r="N158">
+        <v>-0.37</v>
+      </c>
+      <c r="O158" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q158">
+        <v>6.9162460880886983E-2</v>
+      </c>
+      <c r="R158">
+        <v>6.9162460880886983E-2</v>
+      </c>
+    </row>
+    <row r="159" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L159">
+        <v>79</v>
+      </c>
+      <c r="M159" t="s">
+        <v>118</v>
+      </c>
+      <c r="N159">
+        <v>-0.37</v>
+      </c>
+      <c r="O159" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q159">
+        <v>-1.861017661874928E-2</v>
+      </c>
+      <c r="R159">
+        <v>-1.861017661874928E-2</v>
+      </c>
+    </row>
+    <row r="160" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L160">
+        <v>212</v>
+      </c>
+      <c r="M160" t="s">
+        <v>309</v>
+      </c>
+      <c r="N160">
+        <v>-0.36</v>
+      </c>
+      <c r="O160" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q160">
+        <v>-0.16643132667758639</v>
+      </c>
+      <c r="R160">
+        <v>-0.16643132667758639</v>
+      </c>
+    </row>
+    <row r="161" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L161">
+        <v>291</v>
+      </c>
+      <c r="M161" t="s">
+        <v>310</v>
+      </c>
+      <c r="N161">
+        <v>-0.36</v>
+      </c>
+      <c r="O161" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q161">
+        <v>3.5816874399503696E-3</v>
+      </c>
+      <c r="R161">
+        <v>3.5816874399503696E-3</v>
+      </c>
+    </row>
+    <row r="162" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L162">
+        <v>50</v>
+      </c>
+      <c r="M162" t="s">
+        <v>311</v>
+      </c>
+      <c r="N162">
+        <v>-0.36</v>
+      </c>
+      <c r="O162" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q162">
+        <v>-1.9778320152610898E-2</v>
+      </c>
+      <c r="R162">
+        <v>-1.9778320152610898E-2</v>
+      </c>
+    </row>
+    <row r="163" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L163">
+        <v>127</v>
+      </c>
+      <c r="M163" t="s">
+        <v>312</v>
+      </c>
+      <c r="N163">
+        <v>-0.34</v>
+      </c>
+      <c r="O163" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q163">
+        <v>-3.9437525755849849E-2</v>
+      </c>
+      <c r="R163">
+        <v>-3.9437525755849849E-2</v>
+      </c>
+    </row>
+    <row r="164" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L164">
+        <v>46</v>
+      </c>
+      <c r="M164" t="s">
+        <v>313</v>
+      </c>
+      <c r="N164">
+        <v>-0.34</v>
+      </c>
+      <c r="O164" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q164">
+        <v>6.9490457010083939E-2</v>
+      </c>
+      <c r="R164">
+        <v>6.9490457010083939E-2</v>
+      </c>
+    </row>
+    <row r="165" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L165">
+        <v>297</v>
+      </c>
+      <c r="M165" t="s">
+        <v>314</v>
+      </c>
+      <c r="N165">
+        <v>-0.33</v>
+      </c>
+      <c r="O165" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q165">
+        <v>-8.858397284384532E-3</v>
+      </c>
+      <c r="R165">
+        <v>-8.858397284384532E-3</v>
+      </c>
+    </row>
+    <row r="166" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L166">
+        <v>100</v>
+      </c>
+      <c r="M166" t="s">
+        <v>315</v>
+      </c>
+      <c r="N166">
+        <v>-0.33</v>
+      </c>
+      <c r="O166" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q166">
+        <v>4.0580116056137885E-3</v>
+      </c>
+      <c r="R166">
+        <v>4.0580116056137885E-3</v>
+      </c>
+    </row>
+    <row r="167" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L167">
+        <v>148</v>
+      </c>
+      <c r="M167" t="s">
+        <v>316</v>
+      </c>
+      <c r="N167">
+        <v>-0.33</v>
+      </c>
+      <c r="O167" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q167">
+        <v>9.685194875596477E-2</v>
+      </c>
+      <c r="R167">
+        <v>9.685194875596477E-2</v>
+      </c>
+    </row>
+    <row r="168" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L168">
+        <v>303</v>
+      </c>
+      <c r="M168" t="s">
+        <v>317</v>
+      </c>
+      <c r="N168">
+        <v>-0.33</v>
+      </c>
+      <c r="O168" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q168">
+        <v>-0.22508138693602417</v>
+      </c>
+      <c r="R168">
+        <v>-0.22508138693602417</v>
+      </c>
+    </row>
+    <row r="169" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L169">
+        <v>133</v>
+      </c>
+      <c r="M169" t="s">
+        <v>318</v>
+      </c>
+      <c r="N169">
+        <v>-0.32</v>
+      </c>
+      <c r="O169" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q169">
+        <v>-8.2067361774481054E-2</v>
+      </c>
+      <c r="R169">
+        <v>-8.2067361774481054E-2</v>
+      </c>
+    </row>
+    <row r="170" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L170">
+        <v>204</v>
+      </c>
+      <c r="M170" t="s">
+        <v>116</v>
+      </c>
+      <c r="N170">
+        <v>-0.32</v>
+      </c>
+      <c r="O170" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q170">
+        <v>-9.8609826950353877E-2</v>
+      </c>
+      <c r="R170">
+        <v>-9.8609826950353877E-2</v>
+      </c>
+    </row>
+    <row r="171" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L171">
+        <v>185</v>
+      </c>
+      <c r="M171" t="s">
+        <v>319</v>
+      </c>
+      <c r="N171">
+        <v>-0.32</v>
+      </c>
+      <c r="O171" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q171">
+        <v>-0.27074196602732986</v>
+      </c>
+      <c r="R171">
+        <v>-0.27074196602732986</v>
+      </c>
+    </row>
+    <row r="172" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L172">
+        <v>160</v>
+      </c>
+      <c r="M172" t="s">
+        <v>113</v>
+      </c>
+      <c r="N172">
+        <v>-0.32</v>
+      </c>
+      <c r="O172" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q172">
+        <v>4.0424090948739717E-4</v>
+      </c>
+      <c r="R172">
+        <v>4.0424090948739717E-4</v>
+      </c>
+    </row>
+    <row r="173" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L173">
+        <v>41</v>
+      </c>
+      <c r="M173" t="s">
+        <v>320</v>
+      </c>
+      <c r="N173">
+        <v>-0.32</v>
+      </c>
+      <c r="O173" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q173">
+        <v>-3.8331825771502903E-2</v>
+      </c>
+      <c r="R173">
+        <v>-3.8331825771502903E-2</v>
+      </c>
+    </row>
+    <row r="174" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L174">
+        <v>266</v>
+      </c>
+      <c r="M174" t="s">
+        <v>321</v>
+      </c>
+      <c r="N174">
+        <v>-0.31</v>
+      </c>
+      <c r="O174" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q174">
+        <v>-0.32914281186399663</v>
+      </c>
+      <c r="R174">
+        <v>-0.32914281186399663</v>
+      </c>
+    </row>
+    <row r="175" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L175">
+        <v>182</v>
+      </c>
+      <c r="M175" t="s">
+        <v>322</v>
+      </c>
+      <c r="N175">
+        <v>-0.31</v>
+      </c>
+      <c r="O175" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q175">
+        <v>-0.11168094474186994</v>
+      </c>
+      <c r="R175">
+        <v>-0.11168094474186994</v>
+      </c>
+    </row>
+    <row r="176" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L176">
+        <v>95</v>
+      </c>
+      <c r="M176" t="s">
+        <v>323</v>
+      </c>
+      <c r="N176">
+        <v>-0.31</v>
+      </c>
+      <c r="O176" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q176">
+        <v>2.8884218604605258E-2</v>
+      </c>
+      <c r="R176">
+        <v>2.8884218604605258E-2</v>
+      </c>
+    </row>
+    <row r="177" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L177">
+        <v>174</v>
+      </c>
+      <c r="M177" t="s">
+        <v>324</v>
+      </c>
+      <c r="N177">
+        <v>-0.3</v>
+      </c>
+      <c r="O177" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q177">
+        <v>-0.13261248853247148</v>
+      </c>
+      <c r="R177">
+        <v>-0.13261248853247148</v>
+      </c>
+    </row>
+    <row r="178" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L178">
+        <v>120</v>
+      </c>
+      <c r="M178" t="s">
+        <v>325</v>
+      </c>
+      <c r="N178">
+        <v>-0.3</v>
+      </c>
+      <c r="O178" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q178">
+        <v>1.2309604161722174E-2</v>
+      </c>
+      <c r="R178">
+        <v>1.2309604161722174E-2</v>
+      </c>
+    </row>
+    <row r="179" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L179">
+        <v>109</v>
+      </c>
+      <c r="M179" t="s">
+        <v>326</v>
+      </c>
+      <c r="N179">
+        <v>-0.3</v>
+      </c>
+      <c r="O179" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q179">
+        <v>3.0228719094960891E-2</v>
+      </c>
+      <c r="R179">
+        <v>3.0228719094960891E-2</v>
+      </c>
+    </row>
+    <row r="180" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L180">
+        <v>26</v>
+      </c>
+      <c r="M180" t="s">
+        <v>117</v>
+      </c>
+      <c r="N180">
+        <v>-0.3</v>
+      </c>
+      <c r="O180" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q180">
+        <v>-5.3299253494219441E-2</v>
+      </c>
+      <c r="R180">
+        <v>-5.3299253494219441E-2</v>
+      </c>
+    </row>
+    <row r="181" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L181">
+        <v>150</v>
+      </c>
+      <c r="M181" t="s">
+        <v>327</v>
+      </c>
+      <c r="N181">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="O181" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q181">
+        <v>-9.9376867970402155E-2</v>
+      </c>
+      <c r="R181">
+        <v>-9.9376867970402155E-2</v>
+      </c>
+    </row>
+    <row r="182" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L182">
+        <v>301</v>
+      </c>
+      <c r="M182" t="s">
+        <v>328</v>
+      </c>
+      <c r="N182">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="O182" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q182">
+        <v>0.14638622840264875</v>
+      </c>
+      <c r="R182">
+        <v>0.14638622840264875</v>
+      </c>
+    </row>
+    <row r="183" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L183">
+        <v>296</v>
+      </c>
+      <c r="M183" t="s">
+        <v>329</v>
+      </c>
+      <c r="N183">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="O183" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q183">
+        <v>-9.6703140310337665E-2</v>
+      </c>
+      <c r="R183">
+        <v>-9.6703140310337665E-2</v>
+      </c>
+    </row>
+    <row r="184" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L184">
+        <v>99</v>
+      </c>
+      <c r="M184" t="s">
+        <v>330</v>
+      </c>
+      <c r="N184">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="O184" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q184">
+        <v>-0.18419311425632626</v>
+      </c>
+      <c r="R184">
+        <v>-0.18419311425632626</v>
+      </c>
+    </row>
+    <row r="185" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L185">
+        <v>299</v>
+      </c>
+      <c r="M185" t="s">
+        <v>331</v>
+      </c>
+      <c r="N185">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="O185" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q185">
+        <v>-9.1418495189078172E-2</v>
+      </c>
+      <c r="R185">
+        <v>-9.1418495189078172E-2</v>
+      </c>
+    </row>
+    <row r="186" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L186">
+        <v>87</v>
+      </c>
+      <c r="M186" t="s">
+        <v>115</v>
+      </c>
+      <c r="N186">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="O186" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q186">
+        <v>-9.3154972277762441E-2</v>
+      </c>
+      <c r="R186">
+        <v>-9.3154972277762441E-2</v>
+      </c>
+    </row>
+    <row r="187" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L187">
+        <v>268</v>
+      </c>
+      <c r="M187" t="s">
+        <v>332</v>
+      </c>
+      <c r="N187">
+        <v>-0.27</v>
+      </c>
+      <c r="O187" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q187">
+        <v>-0.23762623985502676</v>
+      </c>
+      <c r="R187">
+        <v>-0.23762623985502676</v>
+      </c>
+    </row>
+    <row r="188" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L188">
+        <v>227</v>
+      </c>
+      <c r="M188" t="s">
+        <v>333</v>
+      </c>
+      <c r="N188">
+        <v>-0.27</v>
+      </c>
+      <c r="O188" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q188">
+        <v>1.8515966903983303E-2</v>
+      </c>
+      <c r="R188">
+        <v>1.8515966903983303E-2</v>
+      </c>
+    </row>
+    <row r="189" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L189">
+        <v>70</v>
+      </c>
+      <c r="M189" t="s">
+        <v>334</v>
+      </c>
+      <c r="N189">
+        <v>-0.27</v>
+      </c>
+      <c r="O189" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q189">
+        <v>-6.5873079942225701E-2</v>
+      </c>
+      <c r="R189">
+        <v>-6.5873079942225701E-2</v>
+      </c>
+    </row>
+    <row r="190" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L190">
+        <v>145</v>
+      </c>
+      <c r="M190" t="s">
+        <v>335</v>
+      </c>
+      <c r="N190">
+        <v>-0.27</v>
+      </c>
+      <c r="O190" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q190">
+        <v>-5.4669500268036776E-2</v>
+      </c>
+      <c r="R190">
+        <v>-5.4669500268036776E-2</v>
+      </c>
+    </row>
+    <row r="191" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L191">
+        <v>293</v>
+      </c>
+      <c r="M191" t="s">
+        <v>336</v>
+      </c>
+      <c r="N191">
+        <v>-0.26</v>
+      </c>
+      <c r="O191" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q191">
+        <v>5.8077188656906246E-2</v>
+      </c>
+      <c r="R191">
+        <v>5.8077188656906246E-2</v>
+      </c>
+    </row>
+    <row r="192" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L192">
+        <v>162</v>
+      </c>
+      <c r="M192" t="s">
+        <v>337</v>
+      </c>
+      <c r="N192">
+        <v>-0.26</v>
+      </c>
+      <c r="O192" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q192">
+        <v>-0.25627229201133417</v>
+      </c>
+      <c r="R192">
+        <v>-0.25627229201133417</v>
+      </c>
+    </row>
+    <row r="193" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L193">
+        <v>86</v>
+      </c>
+      <c r="M193" t="s">
+        <v>338</v>
+      </c>
+      <c r="N193">
+        <v>-0.26</v>
+      </c>
+      <c r="O193" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q193">
+        <v>0.11282269597137165</v>
+      </c>
+      <c r="R193">
+        <v>0.11282269597137165</v>
+      </c>
+    </row>
+    <row r="194" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L194">
+        <v>149</v>
+      </c>
+      <c r="M194" t="s">
+        <v>339</v>
+      </c>
+      <c r="N194">
+        <v>-0.25</v>
+      </c>
+      <c r="O194" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q194">
+        <v>3.153028762612347E-2</v>
+      </c>
+      <c r="R194">
+        <v>3.153028762612347E-2</v>
+      </c>
+    </row>
+    <row r="195" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L195">
+        <v>55</v>
+      </c>
+      <c r="M195" t="s">
+        <v>114</v>
+      </c>
+      <c r="N195">
+        <v>-0.25</v>
+      </c>
+      <c r="O195" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q195">
+        <v>0.17352096317929652</v>
+      </c>
+      <c r="R195">
+        <v>0.17352096317929652</v>
+      </c>
+    </row>
+    <row r="196" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L196">
+        <v>175</v>
+      </c>
+      <c r="M196" t="s">
+        <v>340</v>
+      </c>
+      <c r="N196">
+        <v>-0.25</v>
+      </c>
+      <c r="O196" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q196">
+        <v>-0.39041431595999687</v>
+      </c>
+      <c r="R196">
+        <v>-0.39041431595999687</v>
+      </c>
+    </row>
+    <row r="197" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L197">
+        <v>194</v>
+      </c>
+      <c r="M197" t="s">
+        <v>341</v>
+      </c>
+      <c r="N197">
+        <v>-0.25</v>
+      </c>
+      <c r="O197" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q197">
+        <v>9.5726231374763798E-2</v>
+      </c>
+      <c r="R197">
+        <v>9.5726231374763798E-2</v>
+      </c>
+    </row>
+    <row r="198" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L198">
+        <v>96</v>
+      </c>
+      <c r="M198" t="s">
+        <v>342</v>
+      </c>
+      <c r="N198">
+        <v>-0.24</v>
+      </c>
+      <c r="O198" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q198">
+        <v>5.2392381265662334E-2</v>
+      </c>
+      <c r="R198">
+        <v>5.2392381265662334E-2</v>
+      </c>
+    </row>
+    <row r="199" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L199">
+        <v>231</v>
+      </c>
+      <c r="M199" t="s">
+        <v>343</v>
+      </c>
+      <c r="N199">
+        <v>-0.24</v>
+      </c>
+      <c r="O199" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q199">
+        <v>-0.38145541179382786</v>
+      </c>
+      <c r="R199">
+        <v>-0.38145541179382786</v>
+      </c>
+    </row>
+    <row r="200" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L200">
+        <v>228</v>
+      </c>
+      <c r="M200" t="s">
+        <v>344</v>
+      </c>
+      <c r="N200">
+        <v>-0.24</v>
+      </c>
+      <c r="O200" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q200">
+        <v>-0.20272939371177934</v>
+      </c>
+      <c r="R200">
+        <v>-0.20272939371177934</v>
+      </c>
+    </row>
+    <row r="201" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L201">
+        <v>89</v>
+      </c>
+      <c r="M201" t="s">
+        <v>345</v>
+      </c>
+      <c r="N201">
+        <v>-0.24</v>
+      </c>
+      <c r="O201" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q201">
+        <v>9.0761379479149182E-3</v>
+      </c>
+      <c r="R201">
+        <v>9.0761379479149182E-3</v>
+      </c>
+    </row>
+    <row r="202" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L202">
+        <v>42</v>
+      </c>
+      <c r="M202" t="s">
+        <v>346</v>
+      </c>
+      <c r="N202">
+        <v>-0.23</v>
+      </c>
+      <c r="O202" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q202">
+        <v>1.5483099633083963E-3</v>
+      </c>
+      <c r="R202">
+        <v>1.5483099633083963E-3</v>
+      </c>
+    </row>
+    <row r="203" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L203">
+        <v>300</v>
+      </c>
+      <c r="M203" t="s">
+        <v>347</v>
+      </c>
+      <c r="N203">
+        <v>-0.23</v>
+      </c>
+      <c r="O203" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q203">
+        <v>-4.3070440131617031E-2</v>
+      </c>
+      <c r="R203">
+        <v>-4.3070440131617031E-2</v>
+      </c>
+    </row>
+    <row r="204" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L204">
+        <v>31</v>
+      </c>
+      <c r="M204" t="s">
+        <v>348</v>
+      </c>
+      <c r="N204">
+        <v>-0.23</v>
+      </c>
+      <c r="O204" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q204">
+        <v>1.2948388409674045E-2</v>
+      </c>
+      <c r="R204">
+        <v>1.2948388409674045E-2</v>
+      </c>
+    </row>
+    <row r="205" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L205">
+        <v>214</v>
+      </c>
+      <c r="M205" t="s">
+        <v>349</v>
+      </c>
+      <c r="N205">
+        <v>-0.22</v>
+      </c>
+      <c r="O205" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q205">
+        <v>-0.31403259397765981</v>
+      </c>
+      <c r="R205">
+        <v>-0.31403259397765981</v>
+      </c>
+    </row>
+    <row r="206" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L206">
+        <v>78</v>
+      </c>
+      <c r="M206" t="s">
+        <v>350</v>
+      </c>
+      <c r="N206">
+        <v>-0.21</v>
+      </c>
+      <c r="O206" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q206">
+        <v>-4.6570517278337629E-2</v>
+      </c>
+      <c r="R206">
+        <v>-4.6570517278337629E-2</v>
+      </c>
+    </row>
+    <row r="207" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L207">
+        <v>220</v>
+      </c>
+      <c r="M207" t="s">
+        <v>351</v>
+      </c>
+      <c r="N207">
+        <v>-0.21</v>
+      </c>
+      <c r="O207" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q207">
+        <v>-0.30404266202264235</v>
+      </c>
+      <c r="R207">
+        <v>-0.30404266202264235</v>
+      </c>
+    </row>
+    <row r="208" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L208">
+        <v>23</v>
+      </c>
+      <c r="M208" t="s">
+        <v>352</v>
+      </c>
+      <c r="N208">
+        <v>-0.21</v>
+      </c>
+      <c r="O208" s="1">
+        <v>44147</v>
+      </c>
+      <c r="Q208">
+        <v>0.36315641269779991</v>
+      </c>
+      <c r="R208">
+        <v>0.36315641269779991</v>
+      </c>
+    </row>
+    <row r="209" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L209">
+        <v>53</v>
+      </c>
+      <c r="M209" t="s">
+        <v>353</v>
+      </c>
+      <c r="N209">
+        <v>-0.2</v>
+      </c>
+      <c r="O209" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q209">
+        <v>0.23084312079384614</v>
+      </c>
+      <c r="R209">
+        <v>0.23084312079384614</v>
+      </c>
+    </row>
+    <row r="210" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L210">
+        <v>285</v>
+      </c>
+      <c r="M210" t="s">
+        <v>354</v>
+      </c>
+      <c r="N210">
+        <v>-0.19</v>
+      </c>
+      <c r="O210" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q210">
+        <v>8.0692657821239896E-2</v>
+      </c>
+      <c r="R210">
+        <v>8.0692657821239896E-2</v>
+      </c>
+    </row>
+    <row r="211" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L211">
+        <v>221</v>
+      </c>
+      <c r="M211" t="s">
+        <v>355</v>
+      </c>
+      <c r="N211">
+        <v>-0.18</v>
+      </c>
+      <c r="O211" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q211">
+        <v>5.1809181397920345E-2</v>
+      </c>
+      <c r="R211">
+        <v>5.1809181397920345E-2</v>
+      </c>
+    </row>
+    <row r="212" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L212">
+        <v>249</v>
+      </c>
+      <c r="M212" t="s">
+        <v>356</v>
+      </c>
+      <c r="N212">
+        <v>-0.18</v>
+      </c>
+      <c r="O212" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q212">
+        <v>0.11870653031599827</v>
+      </c>
+      <c r="R212">
+        <v>0.11870653031599827</v>
+      </c>
+    </row>
+    <row r="213" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L213">
+        <v>107</v>
+      </c>
+      <c r="M213" t="s">
+        <v>357</v>
+      </c>
+      <c r="N213">
+        <v>-0.18</v>
+      </c>
+      <c r="O213" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q213">
+        <v>0.21852761165945939</v>
+      </c>
+      <c r="R213">
+        <v>0.21852761165945939</v>
+      </c>
+    </row>
+    <row r="214" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L214">
+        <v>287</v>
+      </c>
+      <c r="M214" t="s">
+        <v>358</v>
+      </c>
+      <c r="N214">
+        <v>-0.17</v>
+      </c>
+      <c r="O214" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q214">
+        <v>-0.20666026804549192</v>
+      </c>
+      <c r="R214">
+        <v>-0.20666026804549192</v>
+      </c>
+    </row>
+    <row r="215" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L215">
+        <v>111</v>
+      </c>
+      <c r="M215" t="s">
+        <v>359</v>
+      </c>
+      <c r="N215">
+        <v>-0.17</v>
+      </c>
+      <c r="O215" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q215">
+        <v>-1.7937286762735191E-2</v>
+      </c>
+      <c r="R215">
+        <v>-1.7937286762735191E-2</v>
+      </c>
+    </row>
+    <row r="216" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L216">
+        <v>286</v>
+      </c>
+      <c r="M216" t="s">
+        <v>360</v>
+      </c>
+      <c r="N216">
+        <v>-0.15</v>
+      </c>
+      <c r="O216" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q216">
+        <v>-0.20769197941252296</v>
+      </c>
+      <c r="R216">
+        <v>-0.20769197941252296</v>
+      </c>
+    </row>
+    <row r="217" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L217">
+        <v>136</v>
+      </c>
+      <c r="M217" t="s">
+        <v>361</v>
+      </c>
+      <c r="N217">
+        <v>-0.15</v>
+      </c>
+      <c r="O217" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q217">
+        <v>-0.10493811859577093</v>
+      </c>
+      <c r="R217">
+        <v>-0.10493811859577093</v>
+      </c>
+    </row>
+    <row r="218" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L218">
+        <v>223</v>
+      </c>
+      <c r="M218" t="s">
+        <v>362</v>
+      </c>
+      <c r="N218">
+        <v>-0.14000000000000001</v>
+      </c>
+      <c r="O218" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q218">
+        <v>0.24103316526144047</v>
+      </c>
+      <c r="R218">
+        <v>0.24103316526144047</v>
+      </c>
+    </row>
+    <row r="219" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L219">
+        <v>114</v>
+      </c>
+      <c r="M219" t="s">
+        <v>363</v>
+      </c>
+      <c r="N219">
+        <v>-0.13</v>
+      </c>
+      <c r="O219" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q219">
+        <v>-0.12409435552807814</v>
+      </c>
+      <c r="R219">
+        <v>-0.12409435552807814</v>
+      </c>
+    </row>
+    <row r="220" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L220">
+        <v>189</v>
+      </c>
+      <c r="M220" t="s">
+        <v>364</v>
+      </c>
+      <c r="N220">
+        <v>-0.13</v>
+      </c>
+      <c r="O220" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q220">
+        <v>-0.1296034504157495</v>
+      </c>
+      <c r="R220">
+        <v>-0.1296034504157495</v>
+      </c>
+    </row>
+    <row r="221" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L221">
+        <v>119</v>
+      </c>
+      <c r="M221" t="s">
+        <v>365</v>
+      </c>
+      <c r="N221">
+        <v>-0.13</v>
+      </c>
+      <c r="O221" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q221">
+        <v>-0.17324919999576813</v>
+      </c>
+      <c r="R221">
+        <v>-0.17324919999576813</v>
+      </c>
+    </row>
+    <row r="222" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L222">
+        <v>22</v>
+      </c>
+      <c r="M222" t="s">
+        <v>366</v>
+      </c>
+      <c r="N222">
+        <v>-0.12</v>
+      </c>
+      <c r="O222" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q222">
+        <v>-4.4912122283414159E-2</v>
+      </c>
+      <c r="R222">
+        <v>-4.4912122283414159E-2</v>
+      </c>
+    </row>
+    <row r="223" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L223">
+        <v>27</v>
+      </c>
+      <c r="M223" t="s">
+        <v>367</v>
+      </c>
+      <c r="N223">
+        <v>-0.12</v>
+      </c>
+      <c r="O223" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q223">
+        <v>3.9860558757072943E-2</v>
+      </c>
+      <c r="R223">
+        <v>3.9860558757072943E-2</v>
+      </c>
+    </row>
+    <row r="224" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L224">
+        <v>7</v>
+      </c>
+      <c r="M224" t="s">
+        <v>368</v>
+      </c>
+      <c r="N224">
+        <v>-0.12</v>
+      </c>
+      <c r="O224" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q224">
+        <v>-2.5580470673368112E-2</v>
+      </c>
+      <c r="R224">
+        <v>-2.5580470673368112E-2</v>
+      </c>
+    </row>
+    <row r="225" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L225">
+        <v>59</v>
+      </c>
+      <c r="M225" t="s">
+        <v>369</v>
+      </c>
+      <c r="N225">
+        <v>-0.12</v>
+      </c>
+      <c r="O225" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q225">
+        <v>-0.13227672082828196</v>
+      </c>
+      <c r="R225">
+        <v>-0.13227672082828196</v>
+      </c>
+    </row>
+    <row r="226" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L226">
+        <v>169</v>
+      </c>
+      <c r="M226" t="s">
+        <v>370</v>
+      </c>
+      <c r="N226">
+        <v>-0.1</v>
+      </c>
+      <c r="O226" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q226">
+        <v>-0.11215290964198563</v>
+      </c>
+      <c r="R226">
+        <v>-0.11215290964198563</v>
+      </c>
+    </row>
+    <row r="227" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L227">
+        <v>146</v>
+      </c>
+      <c r="M227" t="s">
+        <v>371</v>
+      </c>
+      <c r="N227">
+        <v>-0.1</v>
+      </c>
+      <c r="O227" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q227">
+        <v>-9.4895061175181442E-2</v>
+      </c>
+      <c r="R227">
+        <v>-9.4895061175181442E-2</v>
+      </c>
+    </row>
+    <row r="228" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L228">
+        <v>19</v>
+      </c>
+      <c r="M228" t="s">
+        <v>372</v>
+      </c>
+      <c r="N228">
+        <v>-0.1</v>
+      </c>
+      <c r="O228" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q228">
+        <v>5.6520950779559029E-2</v>
+      </c>
+      <c r="R228">
+        <v>5.6520950779559029E-2</v>
+      </c>
+    </row>
+    <row r="229" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L229">
+        <v>134</v>
+      </c>
+      <c r="M229" t="s">
+        <v>122</v>
+      </c>
+      <c r="N229">
+        <v>-0.09</v>
+      </c>
+      <c r="O229" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q229">
+        <v>4.7345203045391429E-2</v>
+      </c>
+      <c r="R229">
+        <v>4.7345203045391429E-2</v>
+      </c>
+    </row>
+    <row r="230" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L230">
+        <v>64</v>
+      </c>
+      <c r="M230" t="s">
+        <v>123</v>
+      </c>
+      <c r="N230">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="O230" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q230">
+        <v>-0.11431998533249747</v>
+      </c>
+      <c r="R230">
+        <v>-0.11431998533249747</v>
+      </c>
+    </row>
+    <row r="231" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L231">
+        <v>39</v>
+      </c>
+      <c r="M231" t="s">
+        <v>373</v>
+      </c>
+      <c r="N231">
+        <v>-0.06</v>
+      </c>
+      <c r="O231" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q231">
+        <v>3.8000900091759569E-2</v>
+      </c>
+      <c r="R231">
+        <v>3.8000900091759569E-2</v>
+      </c>
+    </row>
+    <row r="232" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L232">
+        <v>200</v>
+      </c>
+      <c r="M232" t="s">
+        <v>374</v>
+      </c>
+      <c r="N232">
+        <v>-0.06</v>
+      </c>
+      <c r="O232" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q232">
+        <v>1.8236591088802954E-2</v>
+      </c>
+      <c r="R232">
+        <v>1.8236591088802954E-2</v>
+      </c>
+    </row>
+    <row r="233" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L233">
+        <v>253</v>
+      </c>
+      <c r="M233" t="s">
+        <v>375</v>
+      </c>
+      <c r="N233">
+        <v>-0.05</v>
+      </c>
+      <c r="O233" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q233">
+        <v>-0.10424968356209857</v>
+      </c>
+      <c r="R233">
+        <v>-0.10424968356209857</v>
+      </c>
+    </row>
+    <row r="234" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L234">
+        <v>52</v>
+      </c>
+      <c r="M234" t="s">
+        <v>376</v>
+      </c>
+      <c r="N234">
+        <v>-0.05</v>
+      </c>
+      <c r="O234" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q234">
+        <v>7.4953350480139987E-3</v>
+      </c>
+      <c r="R234">
+        <v>7.4953350480139987E-3</v>
+      </c>
+    </row>
+    <row r="235" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L235">
+        <v>151</v>
+      </c>
+      <c r="M235" t="s">
+        <v>377</v>
+      </c>
+      <c r="N235">
+        <v>-0.05</v>
+      </c>
+      <c r="O235" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q235">
+        <v>6.8446903602651724E-2</v>
+      </c>
+      <c r="R235">
+        <v>6.8446903602651724E-2</v>
+      </c>
+    </row>
+    <row r="236" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L236">
+        <v>183</v>
+      </c>
+      <c r="M236" t="s">
+        <v>378</v>
+      </c>
+      <c r="N236">
+        <v>-0.03</v>
+      </c>
+      <c r="O236" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q236">
+        <v>-0.36410200727059133</v>
+      </c>
+      <c r="R236">
+        <v>-0.36410200727059133</v>
+      </c>
+    </row>
+    <row r="237" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L237">
+        <v>156</v>
+      </c>
+      <c r="M237" t="s">
+        <v>379</v>
+      </c>
+      <c r="N237">
+        <v>-0.03</v>
+      </c>
+      <c r="O237" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q237">
+        <v>0.11420201701233128</v>
+      </c>
+      <c r="R237">
+        <v>0.11420201701233128</v>
+      </c>
+    </row>
+    <row r="238" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L238">
+        <v>137</v>
+      </c>
+      <c r="M238" t="s">
+        <v>380</v>
+      </c>
+      <c r="N238">
+        <v>-0.02</v>
+      </c>
+      <c r="O238" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q238">
+        <v>5.5121458401184457E-3</v>
+      </c>
+      <c r="R238">
+        <v>5.5121458401184457E-3</v>
+      </c>
+    </row>
+    <row r="239" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L239">
+        <v>44</v>
+      </c>
+      <c r="M239" t="s">
+        <v>381</v>
+      </c>
+      <c r="N239">
+        <v>-0.02</v>
+      </c>
+      <c r="O239" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q239">
+        <v>0.18731172608727112</v>
+      </c>
+      <c r="R239">
+        <v>0.18731172608727112</v>
+      </c>
+    </row>
+    <row r="240" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L240">
+        <v>76</v>
+      </c>
+      <c r="M240" t="s">
+        <v>382</v>
+      </c>
+      <c r="N240">
+        <v>-0.02</v>
+      </c>
+      <c r="O240" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q240">
+        <v>9.8926657443347155E-3</v>
+      </c>
+      <c r="R240">
+        <v>9.8926657443347155E-3</v>
+      </c>
+    </row>
+    <row r="241" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L241">
+        <v>9</v>
+      </c>
+      <c r="M241" t="s">
+        <v>383</v>
+      </c>
+      <c r="N241">
+        <v>0</v>
+      </c>
+      <c r="O241" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q241">
+        <v>-5.0319746788836009E-2</v>
+      </c>
+      <c r="R241">
+        <v>-5.0319746788836009E-2</v>
+      </c>
+    </row>
+    <row r="242" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L242">
+        <v>10</v>
+      </c>
+      <c r="M242" t="s">
+        <v>120</v>
+      </c>
+      <c r="N242">
+        <v>0.01</v>
+      </c>
+      <c r="O242" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q242">
+        <v>-1.2796716626114174E-2</v>
+      </c>
+      <c r="R242">
+        <v>-1.2796716626114174E-2</v>
+      </c>
+    </row>
+    <row r="243" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L243">
+        <v>244</v>
+      </c>
+      <c r="M243" t="s">
+        <v>384</v>
+      </c>
+      <c r="N243">
+        <v>0.01</v>
+      </c>
+      <c r="O243" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q243">
+        <v>-0.29801553554301652</v>
+      </c>
+      <c r="R243">
+        <v>-0.29801553554301652</v>
+      </c>
+    </row>
+    <row r="244" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L244">
+        <v>97</v>
+      </c>
+      <c r="M244" t="s">
+        <v>121</v>
+      </c>
+      <c r="N244">
+        <v>0.02</v>
+      </c>
+      <c r="O244" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q244">
+        <v>4.1594824551091973E-2</v>
+      </c>
+      <c r="R244">
+        <v>4.1594824551091973E-2</v>
+      </c>
+    </row>
+    <row r="245" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L245">
+        <v>118</v>
+      </c>
+      <c r="M245" t="s">
+        <v>385</v>
+      </c>
+      <c r="N245">
+        <v>0.02</v>
+      </c>
+      <c r="O245" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q245">
+        <v>-9.8887869106531273E-2</v>
+      </c>
+      <c r="R245">
+        <v>-9.8887869106531273E-2</v>
+      </c>
+    </row>
+    <row r="246" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L246">
+        <v>236</v>
+      </c>
+      <c r="M246" t="s">
+        <v>386</v>
+      </c>
+      <c r="N246">
+        <v>0.03</v>
+      </c>
+      <c r="O246" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q246">
+        <v>-0.10173278705909734</v>
+      </c>
+      <c r="R246">
+        <v>-0.10173278705909734</v>
+      </c>
+    </row>
+    <row r="247" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L247">
+        <v>196</v>
+      </c>
+      <c r="M247" t="s">
+        <v>387</v>
+      </c>
+      <c r="N247">
+        <v>0.04</v>
+      </c>
+      <c r="O247" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q247">
+        <v>0.19747453609332238</v>
+      </c>
+      <c r="R247">
+        <v>0.19747453609332238</v>
+      </c>
+    </row>
+    <row r="248" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L248">
+        <v>203</v>
+      </c>
+      <c r="M248" t="s">
+        <v>388</v>
+      </c>
+      <c r="N248">
+        <v>0.04</v>
+      </c>
+      <c r="O248" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q248">
+        <v>3.040622742306319E-2</v>
+      </c>
+      <c r="R248">
+        <v>3.040622742306319E-2</v>
+      </c>
+    </row>
+    <row r="249" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L249">
+        <v>126</v>
+      </c>
+      <c r="M249" t="s">
+        <v>389</v>
+      </c>
+      <c r="N249">
+        <v>0.04</v>
+      </c>
+      <c r="O249" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q249">
+        <v>-5.1904677034808729E-2</v>
+      </c>
+      <c r="R249">
+        <v>-5.1904677034808729E-2</v>
+      </c>
+    </row>
+    <row r="250" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L250">
+        <v>90</v>
+      </c>
+      <c r="M250" t="s">
+        <v>390</v>
+      </c>
+      <c r="N250">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O250" s="1">
+        <v>44291</v>
+      </c>
+      <c r="Q250">
+        <v>0.12389540489395819</v>
+      </c>
+      <c r="R250">
+        <v>0.12389540489395819</v>
+      </c>
+    </row>
+    <row r="251" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L251">
+        <v>115</v>
+      </c>
+      <c r="M251" t="s">
+        <v>119</v>
+      </c>
+      <c r="N251">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="O251" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q251">
+        <v>-5.3260178662486501E-2</v>
+      </c>
+      <c r="R251">
+        <v>-5.3260178662486501E-2</v>
+      </c>
+    </row>
+    <row r="252" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L252">
+        <v>143</v>
+      </c>
+      <c r="M252" t="s">
+        <v>391</v>
+      </c>
+      <c r="N252">
+        <v>0.09</v>
+      </c>
+      <c r="O252" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q252">
+        <v>-2.3065350235774943E-2</v>
+      </c>
+      <c r="R252">
+        <v>-2.3065350235774943E-2</v>
+      </c>
+    </row>
+    <row r="253" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L253">
+        <v>66</v>
+      </c>
+      <c r="M253" t="s">
+        <v>392</v>
+      </c>
+      <c r="N253">
+        <v>0.11</v>
+      </c>
+      <c r="O253" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q253">
+        <v>-0.19654048594212289</v>
+      </c>
+      <c r="R253">
+        <v>-0.19654048594212289</v>
+      </c>
+    </row>
+    <row r="254" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L254">
+        <v>11</v>
+      </c>
+      <c r="M254" t="s">
+        <v>393</v>
+      </c>
+      <c r="N254">
+        <v>0.13</v>
+      </c>
+      <c r="O254" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q254">
+        <v>3.1490102361368378E-3</v>
+      </c>
+      <c r="R254">
+        <v>3.1490102361368378E-3</v>
+      </c>
+    </row>
+    <row r="255" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L255">
+        <v>259</v>
+      </c>
+      <c r="M255" t="s">
+        <v>394</v>
+      </c>
+      <c r="N255">
+        <v>0.13</v>
+      </c>
+      <c r="O255" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q255">
+        <v>0.21096091510143503</v>
+      </c>
+      <c r="R255">
+        <v>0.21096091510143503</v>
+      </c>
+    </row>
+    <row r="256" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L256">
+        <v>47</v>
+      </c>
+      <c r="M256" t="s">
+        <v>132</v>
+      </c>
+      <c r="N256">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="O256" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q256">
+        <v>-5.9410399510039895E-2</v>
+      </c>
+      <c r="R256">
+        <v>-5.9410399510039895E-2</v>
+      </c>
+    </row>
+    <row r="257" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L257">
+        <v>255</v>
+      </c>
+      <c r="M257" t="s">
+        <v>395</v>
+      </c>
+      <c r="N257">
+        <v>0.16</v>
+      </c>
+      <c r="O257" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q257">
+        <v>0.14097672650150628</v>
+      </c>
+      <c r="R257">
+        <v>0.14097672650150628</v>
+      </c>
+    </row>
+    <row r="258" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L258">
+        <v>262</v>
+      </c>
+      <c r="M258" t="s">
+        <v>396</v>
+      </c>
+      <c r="N258">
+        <v>0.18</v>
+      </c>
+      <c r="O258" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q258">
+        <v>5.3024775354989185E-3</v>
+      </c>
+      <c r="R258">
+        <v>5.3024775354989185E-3</v>
+      </c>
+    </row>
+    <row r="259" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L259">
+        <v>40</v>
+      </c>
+      <c r="M259" t="s">
+        <v>397</v>
+      </c>
+      <c r="N259">
+        <v>0.18</v>
+      </c>
+      <c r="O259" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q259">
+        <v>0.23487936531320644</v>
+      </c>
+      <c r="R259">
+        <v>0.23487936531320644</v>
+      </c>
+    </row>
+    <row r="260" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L260">
+        <v>12</v>
+      </c>
+      <c r="M260" t="s">
+        <v>398</v>
+      </c>
+      <c r="N260">
+        <v>0.23</v>
+      </c>
+      <c r="O260" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q260">
+        <v>5.1529361524203968E-2</v>
+      </c>
+      <c r="R260">
+        <v>5.1529361524203968E-2</v>
+      </c>
+    </row>
+    <row r="261" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L261">
+        <v>63</v>
+      </c>
+      <c r="M261" t="s">
+        <v>399</v>
+      </c>
+      <c r="N261">
+        <v>0.24</v>
+      </c>
+      <c r="O261" s="1">
+        <v>44116</v>
+      </c>
+      <c r="Q261">
+        <v>-9.3792575763011324E-2</v>
+      </c>
+      <c r="R261">
+        <v>-9.3792575763011324E-2</v>
+      </c>
+    </row>
+    <row r="262" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L262">
+        <v>181</v>
+      </c>
+      <c r="M262" t="s">
+        <v>400</v>
+      </c>
+      <c r="N262">
+        <v>0.26</v>
+      </c>
+      <c r="O262" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q262">
+        <v>-4.1783165532609232E-2</v>
+      </c>
+      <c r="R262">
+        <v>-4.1783165532609232E-2</v>
+      </c>
+    </row>
+    <row r="263" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L263">
+        <v>188</v>
+      </c>
+      <c r="M263" t="s">
+        <v>401</v>
+      </c>
+      <c r="N263">
+        <v>0.26</v>
+      </c>
+      <c r="O263" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q263">
+        <v>-4.2590381982756845E-2</v>
+      </c>
+      <c r="R263">
+        <v>-4.2590381982756845E-2</v>
+      </c>
+    </row>
+    <row r="264" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L264">
+        <v>60</v>
+      </c>
+      <c r="M264" t="s">
+        <v>402</v>
+      </c>
+      <c r="N264">
+        <v>0.27</v>
+      </c>
+      <c r="O264" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q264">
+        <v>-3.3838680786219419E-2</v>
+      </c>
+      <c r="R264">
+        <v>-3.3838680786219419E-2</v>
+      </c>
+    </row>
+    <row r="265" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L265">
+        <v>71</v>
+      </c>
+      <c r="M265" t="s">
+        <v>403</v>
+      </c>
+      <c r="N265">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="O265" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q265">
+        <v>7.8796174979027037E-2</v>
+      </c>
+      <c r="R265">
+        <v>7.8796174979027037E-2</v>
+      </c>
+    </row>
+    <row r="266" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L266">
+        <v>8</v>
+      </c>
+      <c r="M266" t="s">
+        <v>404</v>
+      </c>
+      <c r="N266">
+        <v>0.31</v>
+      </c>
+      <c r="O266" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q266">
+        <v>2.8915292313954052E-2</v>
+      </c>
+      <c r="R266">
+        <v>2.8915292313954052E-2</v>
+      </c>
+    </row>
+    <row r="267" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L267">
+        <v>75</v>
+      </c>
+      <c r="M267" t="s">
+        <v>124</v>
+      </c>
+      <c r="N267">
+        <v>0.31</v>
+      </c>
+      <c r="O267" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q267">
+        <v>2.3285989659496454E-2</v>
+      </c>
+      <c r="R267">
+        <v>2.3285989659496454E-2</v>
+      </c>
+    </row>
+    <row r="268" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L268">
+        <v>158</v>
+      </c>
+      <c r="M268" t="s">
+        <v>405</v>
+      </c>
+      <c r="N268">
+        <v>0.32</v>
+      </c>
+      <c r="O268" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q268">
+        <v>-0.10351734865787424</v>
+      </c>
+      <c r="R268">
+        <v>-0.10351734865787424</v>
+      </c>
+    </row>
+    <row r="269" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L269">
+        <v>102</v>
+      </c>
+      <c r="M269" t="s">
+        <v>406</v>
+      </c>
+      <c r="N269">
+        <v>0.33</v>
+      </c>
+      <c r="O269" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q269">
+        <v>-0.27203489287017846</v>
+      </c>
+      <c r="R269">
+        <v>-0.27203489287017846</v>
+      </c>
+    </row>
+    <row r="270" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L270">
+        <v>171</v>
+      </c>
+      <c r="M270" t="s">
+        <v>407</v>
+      </c>
+      <c r="N270">
+        <v>0.34</v>
+      </c>
+      <c r="O270" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q270">
+        <v>-4.6178978261200668E-2</v>
+      </c>
+      <c r="R270">
+        <v>-4.6178978261200668E-2</v>
+      </c>
+    </row>
+    <row r="271" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L271">
+        <v>283</v>
+      </c>
+      <c r="M271" t="s">
+        <v>408</v>
+      </c>
+      <c r="N271">
+        <v>0.37</v>
+      </c>
+      <c r="O271" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q271">
+        <v>0.18526025700367002</v>
+      </c>
+      <c r="R271">
+        <v>0.18526025700367002</v>
+      </c>
+    </row>
+    <row r="272" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L272">
+        <v>113</v>
+      </c>
+      <c r="M272" t="s">
+        <v>409</v>
+      </c>
+      <c r="N272">
+        <v>0.39</v>
+      </c>
+      <c r="O272" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q272">
+        <v>0.32358804237140187</v>
+      </c>
+      <c r="R272">
+        <v>0.32358804237140187</v>
+      </c>
+    </row>
+    <row r="273" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L273">
+        <v>199</v>
+      </c>
+      <c r="M273" t="s">
+        <v>410</v>
+      </c>
+      <c r="N273">
+        <v>0.39</v>
+      </c>
+      <c r="O273" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q273">
+        <v>-9.7864624063432271E-2</v>
+      </c>
+      <c r="R273">
+        <v>-9.7864624063432271E-2</v>
+      </c>
+    </row>
+    <row r="274" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L274">
+        <v>147</v>
+      </c>
+      <c r="M274" t="s">
+        <v>411</v>
+      </c>
+      <c r="N274">
+        <v>0.45</v>
+      </c>
+      <c r="O274" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q274">
+        <v>0.17348583176665069</v>
+      </c>
+      <c r="R274">
+        <v>0.17348583176665069</v>
+      </c>
+    </row>
+    <row r="275" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L275">
+        <v>159</v>
+      </c>
+      <c r="M275" t="s">
+        <v>412</v>
+      </c>
+      <c r="N275">
+        <v>0.47</v>
+      </c>
+      <c r="O275" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q275">
+        <v>-3.9279337279403907E-2</v>
+      </c>
+      <c r="R275">
+        <v>-3.9279337279403907E-2</v>
+      </c>
+    </row>
+    <row r="276" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L276">
+        <v>117</v>
+      </c>
+      <c r="M276" t="s">
+        <v>413</v>
+      </c>
+      <c r="N276">
+        <v>0.52</v>
+      </c>
+      <c r="O276" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q276">
+        <v>9.1064880121370234E-2</v>
+      </c>
+      <c r="R276">
+        <v>9.1064880121370234E-2</v>
+      </c>
+    </row>
+    <row r="277" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L277">
+        <v>308</v>
+      </c>
+      <c r="M277" t="s">
+        <v>414</v>
+      </c>
+      <c r="N277">
+        <v>0.53</v>
+      </c>
+      <c r="O277" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q277">
+        <v>0.32475094353976275</v>
+      </c>
+      <c r="R277">
+        <v>0.32475094353976275</v>
+      </c>
+    </row>
+    <row r="278" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L278">
+        <v>124</v>
+      </c>
+      <c r="M278" t="s">
+        <v>415</v>
+      </c>
+      <c r="N278">
+        <v>0.53</v>
+      </c>
+      <c r="O278" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q278">
+        <v>-3.4453468420579204E-2</v>
+      </c>
+      <c r="R278">
+        <v>-3.4453468420579204E-2</v>
+      </c>
+    </row>
+    <row r="279" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L279">
+        <v>58</v>
+      </c>
+      <c r="M279" t="s">
+        <v>416</v>
+      </c>
+      <c r="N279">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="O279" s="1">
+        <v>44221</v>
+      </c>
+      <c r="Q279">
+        <v>8.9186185473844168E-4</v>
+      </c>
+      <c r="R279">
+        <v>8.9186185473844168E-4</v>
+      </c>
+    </row>
+    <row r="280" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L280">
+        <v>36</v>
+      </c>
+      <c r="M280" t="s">
+        <v>417</v>
+      </c>
+      <c r="N280">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="O280" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q280">
+        <v>0.48457360267151328</v>
+      </c>
+      <c r="R280">
+        <v>0.48457360267151328</v>
+      </c>
+    </row>
+    <row r="281" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L281">
+        <v>84</v>
+      </c>
+      <c r="M281" t="s">
+        <v>418</v>
+      </c>
+      <c r="N281">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O281" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q281">
+        <v>0.18078651563281789</v>
+      </c>
+      <c r="R281">
+        <v>0.18078651563281789</v>
+      </c>
+    </row>
+    <row r="282" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L282">
+        <v>274</v>
+      </c>
+      <c r="M282" t="s">
+        <v>419</v>
+      </c>
+      <c r="N282">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="O282" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q282">
+        <v>-0.31774982211585762</v>
+      </c>
+      <c r="R282">
+        <v>-0.31774982211585762</v>
+      </c>
+    </row>
+    <row r="283" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L283">
+        <v>54</v>
+      </c>
+      <c r="M283" t="s">
+        <v>420</v>
+      </c>
+      <c r="N283">
+        <v>0.6</v>
+      </c>
+      <c r="O283" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q283">
+        <v>0.35095041248913195</v>
+      </c>
+      <c r="R283">
+        <v>0.35095041248913195</v>
+      </c>
+    </row>
+    <row r="284" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L284">
+        <v>72</v>
+      </c>
+      <c r="M284" t="s">
+        <v>421</v>
+      </c>
+      <c r="N284">
+        <v>0.6</v>
+      </c>
+      <c r="O284" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q284">
+        <v>-1.3516515817975727E-2</v>
+      </c>
+      <c r="R284">
+        <v>-1.3516515817975727E-2</v>
+      </c>
+    </row>
+    <row r="285" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L285">
+        <v>37</v>
+      </c>
+      <c r="M285" t="s">
+        <v>130</v>
+      </c>
+      <c r="N285">
+        <v>0.63</v>
+      </c>
+      <c r="O285" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q285">
+        <v>3.9122170287097337E-2</v>
+      </c>
+      <c r="R285">
+        <v>3.9122170287097337E-2</v>
+      </c>
+    </row>
+    <row r="286" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L286">
+        <v>4</v>
+      </c>
+      <c r="M286" t="s">
+        <v>125</v>
+      </c>
+      <c r="N286">
+        <v>0.64</v>
+      </c>
+      <c r="O286" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q286">
+        <v>8.6342767701756487E-2</v>
+      </c>
+      <c r="R286">
+        <v>8.6342767701756487E-2</v>
+      </c>
+    </row>
+    <row r="287" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L287">
+        <v>82</v>
+      </c>
+      <c r="M287" t="s">
+        <v>422</v>
+      </c>
+      <c r="N287">
+        <v>0.64</v>
+      </c>
+      <c r="O287" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q287">
+        <v>0.39315445156062057</v>
+      </c>
+      <c r="R287">
+        <v>0.39315445156062057</v>
+      </c>
+    </row>
+    <row r="288" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L288">
+        <v>69</v>
+      </c>
+      <c r="M288" t="s">
+        <v>423</v>
+      </c>
+      <c r="N288">
+        <v>0.65</v>
+      </c>
+      <c r="O288" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q288">
+        <v>3.0240244946116563E-2</v>
+      </c>
+      <c r="R288">
+        <v>3.0240244946116563E-2</v>
+      </c>
+    </row>
+    <row r="289" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L289">
+        <v>15</v>
+      </c>
+      <c r="M289" t="s">
+        <v>424</v>
+      </c>
+      <c r="N289">
+        <v>0.7</v>
+      </c>
+      <c r="O289" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q289">
+        <v>-9.0030528053912581E-2</v>
+      </c>
+      <c r="R289">
+        <v>-9.0030528053912581E-2</v>
+      </c>
+    </row>
+    <row r="290" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L290">
+        <v>29</v>
+      </c>
+      <c r="M290" t="s">
+        <v>425</v>
+      </c>
+      <c r="N290">
+        <v>0.72</v>
+      </c>
+      <c r="O290" s="1">
+        <v>44343</v>
+      </c>
+      <c r="Q290">
+        <v>-0.32143086304145124</v>
+      </c>
+      <c r="R290">
+        <v>-0.32143086304145124</v>
+      </c>
+    </row>
+    <row r="291" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L291">
+        <v>45</v>
+      </c>
+      <c r="M291" t="s">
+        <v>426</v>
+      </c>
+      <c r="N291">
+        <v>0.75</v>
+      </c>
+      <c r="O291" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q291">
+        <v>0.15903486370935391</v>
+      </c>
+      <c r="R291">
+        <v>0.15903486370935391</v>
+      </c>
+    </row>
+    <row r="292" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L292">
+        <v>88</v>
+      </c>
+      <c r="M292" t="s">
+        <v>427</v>
+      </c>
+      <c r="N292">
+        <v>0.75</v>
+      </c>
+      <c r="O292" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q292">
+        <v>0.32180494759495581</v>
+      </c>
+      <c r="R292">
+        <v>0.32180494759495581</v>
+      </c>
+    </row>
+    <row r="293" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L293">
+        <v>123</v>
+      </c>
+      <c r="M293" t="s">
+        <v>428</v>
+      </c>
+      <c r="N293">
+        <v>0.76</v>
+      </c>
+      <c r="O293" s="1">
+        <v>44074</v>
+      </c>
+      <c r="Q293">
+        <v>5.135966302791186E-2</v>
+      </c>
+      <c r="R293">
+        <v>5.135966302791186E-2</v>
+      </c>
+    </row>
+    <row r="294" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L294">
+        <v>163</v>
+      </c>
+      <c r="M294" t="s">
+        <v>429</v>
+      </c>
+      <c r="N294">
+        <v>0.79</v>
+      </c>
+      <c r="O294" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q294">
+        <v>0.13673423423731923</v>
+      </c>
+      <c r="R294">
+        <v>0.13673423423731923</v>
+      </c>
+    </row>
+    <row r="295" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L295">
+        <v>176</v>
+      </c>
+      <c r="M295" t="s">
+        <v>430</v>
+      </c>
+      <c r="N295">
+        <v>0.81</v>
+      </c>
+      <c r="O295" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q295">
+        <v>3.7244402443153156E-2</v>
+      </c>
+      <c r="R295">
+        <v>3.7244402443153156E-2</v>
+      </c>
+    </row>
+    <row r="296" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L296">
+        <v>294</v>
+      </c>
+      <c r="M296" t="s">
+        <v>431</v>
+      </c>
+      <c r="N296">
+        <v>0.82</v>
+      </c>
+      <c r="O296" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q296">
+        <v>-0.15186367114224353</v>
+      </c>
+      <c r="R296">
+        <v>-0.15186367114224353</v>
+      </c>
+    </row>
+    <row r="297" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L297">
+        <v>101</v>
+      </c>
+      <c r="M297" t="s">
+        <v>432</v>
+      </c>
+      <c r="N297">
+        <v>0.83</v>
+      </c>
+      <c r="O297" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q297">
+        <v>-3.6443478816578348E-2</v>
+      </c>
+      <c r="R297">
+        <v>-3.6443478816578348E-2</v>
+      </c>
+    </row>
+    <row r="298" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L298">
+        <v>62</v>
+      </c>
+      <c r="M298" t="s">
+        <v>126</v>
+      </c>
+      <c r="N298">
+        <v>0.85</v>
+      </c>
+      <c r="O298" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q298">
+        <v>7.4794244985474698E-2</v>
+      </c>
+      <c r="R298">
+        <v>7.4794244985474698E-2</v>
+      </c>
+    </row>
+    <row r="299" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L299">
+        <v>198</v>
+      </c>
+      <c r="M299" t="s">
+        <v>433</v>
+      </c>
+      <c r="N299">
+        <v>0.86</v>
+      </c>
+      <c r="O299" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q299">
+        <v>0.33191322726130446</v>
+      </c>
+      <c r="R299">
+        <v>0.33191322726130446</v>
+      </c>
+    </row>
+    <row r="300" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L300">
+        <v>138</v>
+      </c>
+      <c r="M300" t="s">
+        <v>434</v>
+      </c>
+      <c r="N300">
+        <v>0.89</v>
+      </c>
+      <c r="O300" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q300">
+        <v>0.33199618212537241</v>
+      </c>
+      <c r="R300">
+        <v>0.33199618212537241</v>
+      </c>
+    </row>
+    <row r="301" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L301">
+        <v>155</v>
+      </c>
+      <c r="M301" t="s">
+        <v>435</v>
+      </c>
+      <c r="N301">
+        <v>0.89</v>
+      </c>
+      <c r="O301" s="1">
+        <v>44050</v>
+      </c>
+      <c r="Q301">
+        <v>0.13440471515608041</v>
+      </c>
+      <c r="R301">
+        <v>0.13440471515608041</v>
+      </c>
+    </row>
+    <row r="302" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L302">
+        <v>5</v>
+      </c>
+      <c r="M302" t="s">
+        <v>127</v>
+      </c>
+      <c r="N302">
+        <v>0.91</v>
+      </c>
+      <c r="O302" s="1">
+        <v>44349</v>
+      </c>
+      <c r="Q302">
+        <v>0.1588229661496651</v>
+      </c>
+      <c r="R302">
+        <v>0.1588229661496651</v>
+      </c>
+    </row>
+    <row r="303" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L303">
+        <v>61</v>
+      </c>
+      <c r="M303" t="s">
+        <v>436</v>
+      </c>
+      <c r="N303">
+        <v>0.92</v>
+      </c>
+      <c r="O303" s="1">
+        <v>44342</v>
+      </c>
+      <c r="Q303">
+        <v>0.13309146026952792</v>
+      </c>
+      <c r="R303">
+        <v>0.13309146026952792</v>
+      </c>
+    </row>
+    <row r="304" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L304">
+        <v>48</v>
+      </c>
+      <c r="M304" t="s">
+        <v>437</v>
+      </c>
+      <c r="N304">
+        <v>0.92</v>
+      </c>
+      <c r="O304" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q304">
+        <v>0.30230606984982938</v>
+      </c>
+      <c r="R304">
+        <v>0.30230606984982938</v>
+      </c>
+    </row>
+    <row r="305" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L305">
+        <v>65</v>
+      </c>
+      <c r="M305" t="s">
+        <v>438</v>
+      </c>
+      <c r="N305">
+        <v>0.93</v>
+      </c>
+      <c r="O305" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q305">
+        <v>-0.15995512913043697</v>
+      </c>
+      <c r="R305">
+        <v>-0.15995512913043697</v>
+      </c>
+    </row>
+    <row r="306" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L306">
+        <v>35</v>
+      </c>
+      <c r="M306" t="s">
+        <v>439</v>
+      </c>
+      <c r="N306">
+        <v>0.93</v>
+      </c>
+      <c r="O306" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q306">
+        <v>5.488231273197558E-2</v>
+      </c>
+      <c r="R306">
+        <v>5.488231273197558E-2</v>
+      </c>
+    </row>
+    <row r="307" spans="12:18" hidden="1" x14ac:dyDescent="0.25">
+      <c r="L307">
+        <v>139</v>
+      </c>
+      <c r="M307" t="s">
+        <v>440</v>
+      </c>
+      <c r="N307">
+        <v>0.93</v>
+      </c>
+      <c r="O307" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q307">
+        <v>0.25316759416184831</v>
+      </c>
+      <c r="R307">
+        <v>0.25316759416184831</v>
+      </c>
+    </row>
+    <row r="308" spans="12:18" x14ac:dyDescent="0.25">
+      <c r="L308">
+        <v>85</v>
+      </c>
+      <c r="M308" t="s">
+        <v>441</v>
+      </c>
+      <c r="N308">
+        <v>0.95</v>
+      </c>
+      <c r="O308" s="1">
+        <v>44348</v>
+      </c>
+      <c r="Q308">
+        <v>0.38624066952525343</v>
+      </c>
+      <c r="R308">
+        <v>0.38624066952525343</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005505A-8BB5-4591-9B76-4928C9DF9A4D}">
+  <dimension ref="B3:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A25" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="W80" sqref="W80"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>149</v>
+      </c>
+      <c r="I8" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>129</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02CF27A-4FD7-4A86-8D8E-5E36547C57CD}">
+  <dimension ref="A1:Y21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M22" sqref="M22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2777,6 +11446,16 @@
       <c r="F10">
         <f>E8/E6</f>
         <v>0.50477924442421485</v>
+      </c>
+    </row>
+    <row r="18" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="21" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>

--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -8,16 +8,22 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\давид\pycharmprojects\binance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F42E639A-2F01-4A5E-B8E9-E4074415589C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA68A93-3D21-4FEC-BC18-6B789F8E39EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="825" activeTab="2" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="825" activeTab="10" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
   </bookViews>
   <sheets>
-    <sheet name="2021-09-06" sheetId="175" r:id="rId1"/>
-    <sheet name="2021-09-05" sheetId="174" r:id="rId2"/>
-    <sheet name="Портфель" sheetId="94" r:id="rId3"/>
-    <sheet name="Лист6" sheetId="135" r:id="rId4"/>
-    <sheet name="Расчет" sheetId="49" r:id="rId5"/>
+    <sheet name="2021-09-18" sheetId="185" r:id="rId1"/>
+    <sheet name="2021-09-21" sheetId="186" r:id="rId2"/>
+    <sheet name="2021-09-18h" sheetId="184" r:id="rId3"/>
+    <sheet name="2021-09-24" sheetId="189" r:id="rId4"/>
+    <sheet name="2021-09-23" sheetId="188" r:id="rId5"/>
+    <sheet name="2021-09-22" sheetId="187" r:id="rId6"/>
+    <sheet name="Портфель" sheetId="94" r:id="rId7"/>
+    <sheet name="Лист6" sheetId="135" r:id="rId8"/>
+    <sheet name="Расчет" sheetId="49" r:id="rId9"/>
+    <sheet name="2021-09-25" sheetId="191" r:id="rId10"/>
+    <sheet name="Сравнение" sheetId="190" r:id="rId11"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -29,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="191" uniqueCount="74">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="122">
   <si>
     <t>asset</t>
   </si>
@@ -229,9 +235,6 @@
     <t>DX-Y.NYB</t>
   </si>
   <si>
-    <t>GOLD</t>
-  </si>
-  <si>
     <t>BZ=F</t>
   </si>
   <si>
@@ -244,6 +247,12 @@
     <t>NULS</t>
   </si>
   <si>
+    <t>SRM</t>
+  </si>
+  <si>
+    <t>AVAX</t>
+  </si>
+  <si>
     <t>TLM</t>
   </si>
   <si>
@@ -251,6 +260,147 @@
   </si>
   <si>
     <t>FIL</t>
+  </si>
+  <si>
+    <t>GC=F</t>
+  </si>
+  <si>
+    <t>POND</t>
+  </si>
+  <si>
+    <t>Sharp_14</t>
+  </si>
+  <si>
+    <t>Sortino_14</t>
+  </si>
+  <si>
+    <t>Sharp_60</t>
+  </si>
+  <si>
+    <t>Sortino_60</t>
+  </si>
+  <si>
+    <t>Время</t>
+  </si>
+  <si>
+    <t>Тип свечи</t>
+  </si>
+  <si>
+    <t>Сигнал_модель</t>
+  </si>
+  <si>
+    <t>изм_Объема</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>[None, None, 'Б. крас.']</t>
+  </si>
+  <si>
+    <t>OG</t>
+  </si>
+  <si>
+    <t>['Б. бел.', None, 'Б. бел.']</t>
+  </si>
+  <si>
+    <t>[None, None, None]</t>
+  </si>
+  <si>
+    <t>MINA</t>
+  </si>
+  <si>
+    <t>BUSD</t>
+  </si>
+  <si>
+    <t>[None, 'Б. бел.', None]</t>
+  </si>
+  <si>
+    <t>PHA</t>
+  </si>
+  <si>
+    <t>['Удар вверх', None, None]</t>
+  </si>
+  <si>
+    <t>ROSE</t>
+  </si>
+  <si>
+    <t>[None, 'крас. доджи', None]</t>
+  </si>
+  <si>
+    <t>CELR</t>
+  </si>
+  <si>
+    <t>[None, None, 'Б. бел.']</t>
+  </si>
+  <si>
+    <t>EGLD</t>
+  </si>
+  <si>
+    <t>['Б. крас.', None, None]</t>
+  </si>
+  <si>
+    <t>GALA</t>
+  </si>
+  <si>
+    <t>max</t>
+  </si>
+  <si>
+    <t>nan</t>
+  </si>
+  <si>
+    <t>min</t>
+  </si>
+  <si>
+    <t>средн</t>
+  </si>
+  <si>
+    <t>MLN</t>
+  </si>
+  <si>
+    <t>['бел. молот', None, None]</t>
+  </si>
+  <si>
+    <t>KEEP</t>
+  </si>
+  <si>
+    <t>['Б. бел.', None, 'Б. крас.']</t>
+  </si>
+  <si>
+    <t>ORN</t>
+  </si>
+  <si>
+    <t>SHIB</t>
+  </si>
+  <si>
+    <t>SUSD</t>
+  </si>
+  <si>
+    <t>REN</t>
+  </si>
+  <si>
+    <t>['Б. бел.', None, None]</t>
+  </si>
+  <si>
+    <t>ASR</t>
+  </si>
+  <si>
+    <t>['Удар вверх', 'крас. молот', None]</t>
+  </si>
+  <si>
+    <t>FOR</t>
+  </si>
+  <si>
+    <t>ACM</t>
+  </si>
+  <si>
+    <t>Столбец1</t>
+  </si>
+  <si>
+    <t>Для скольз средних по ХАЛУ</t>
+  </si>
+  <si>
+    <t>Стандартная методика</t>
   </si>
 </sst>
 </file>
@@ -315,20 +465,34 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
-    <xf numFmtId="14" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="2">
+  <dxfs count="7">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -573,37 +737,233 @@
 </xdr:wsDr>
 </file>
 
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>57150</xdr:colOff>
+      <xdr:row>12</xdr:row>
+      <xdr:rowOff>19050</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>445770</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>28575</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Рисунок 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D428D7BD-363B-4FA9-9930-AF74A66119D5}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="57150" y="2305050"/>
+          <a:ext cx="5871210" cy="1722120"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>137160</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>156210</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>8</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Рисунок 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{58740D44-1017-46F5-B48D-891E4D4C62B4}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId2"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="137160" y="156210"/>
+          <a:ext cx="4156710" cy="1520190"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>0</xdr:col>
+      <xdr:colOff>363855</xdr:colOff>
+      <xdr:row>21</xdr:row>
+      <xdr:rowOff>139065</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>287655</xdr:colOff>
+      <xdr:row>67</xdr:row>
+      <xdr:rowOff>133350</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="4" name="Рисунок 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{4F15C2F5-2B26-401A-A6C8-B2A413057F99}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId3"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="363855" y="4139565"/>
+          <a:ext cx="6019800" cy="8757285"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{C4F288B9-3C3D-4F12-9B99-A8464300D31F}" name="Таблица2" displayName="Таблица2" ref="L1:Q36" totalsRowShown="0">
-  <autoFilter ref="L1:Q36" xr:uid="{C4F288B9-3C3D-4F12-9B99-A8464300D31F}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q36">
-    <sortCondition ref="N1:N36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{DB82B4DD-3B45-447A-828A-AA4ECD3C0069}" name="Таблица11" displayName="Таблица11" ref="L1:Q39" totalsRowShown="0">
+  <autoFilter ref="L1:Q39" xr:uid="{DB82B4DD-3B45-447A-828A-AA4ECD3C0069}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q39">
+    <sortCondition descending="1" ref="P1:P39"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{27D83419-07C9-4ABA-8D7E-3460126424EA}" name="Open time" dataDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{5F1CDECE-CBA2-428F-ACAF-5374F4ED24D2}" name="asset"/>
-    <tableColumn id="3" xr3:uid="{FAC546A1-E15E-4D9B-977B-89D2193F2745}" name="signal"/>
-    <tableColumn id="4" xr3:uid="{A118E388-56F9-4A4E-BB7D-39583C2E98BD}" name="Удар"/>
-    <tableColumn id="5" xr3:uid="{BB27C356-0473-44B5-AF80-276155FF6444}" name="sharp"/>
-    <tableColumn id="6" xr3:uid="{43A39CB2-6745-4FC2-A2BA-3BBAA2F69B05}" name="sortino"/>
+    <tableColumn id="1" xr3:uid="{B6095955-501C-40D1-B78D-1193426873D6}" name="Open time" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{02192FAF-BC3B-444C-9966-B5AE02A7EE9E}" name="asset"/>
+    <tableColumn id="3" xr3:uid="{7F7EDFF6-EE37-4C39-A84C-37D48AAE60F7}" name="signal"/>
+    <tableColumn id="4" xr3:uid="{73E85000-4F8D-42E3-882A-D4371D7C56C3}" name="Удар"/>
+    <tableColumn id="5" xr3:uid="{26D9EEE1-51A3-4C1E-B565-B2136CF0B8F3}" name="sharp"/>
+    <tableColumn id="6" xr3:uid="{9104589B-58F0-47FA-8A92-2379561A05CD}" name="sortino"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
 </file>
 
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1891BF09-5C79-42F9-870F-7BB67391242C}" name="Таблица1" displayName="Таблица1" ref="L1:Q36" totalsRowShown="0">
-  <autoFilter ref="L1:Q36" xr:uid="{1891BF09-5C79-42F9-870F-7BB67391242C}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q36">
-    <sortCondition descending="1" ref="N1:N36"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{04EFE844-7938-408E-BBDE-6C03B50DFCDA}" name="Таблица13" displayName="Таблица13" ref="L1:R40" totalsRowCount="1">
+  <autoFilter ref="L1:R39" xr:uid="{04EFE844-7938-408E-BBDE-6C03B50DFCDA}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q39">
+    <sortCondition descending="1" ref="N1:N39"/>
+  </sortState>
+  <tableColumns count="7">
+    <tableColumn id="1" xr3:uid="{D375E80A-90E1-40A9-8B15-A9ACED6BA261}" name="Open time" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="2" xr3:uid="{4A7F8391-A6E1-4577-8D65-BDA3C77F48DC}" name="asset"/>
+    <tableColumn id="3" xr3:uid="{9DF58DA6-6847-4BE9-A478-E7CBA7AC936F}" name="signal" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(N2:N39)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E19DA652-8FA5-4354-8A67-BFFCDE20DBDB}" name="Удар"/>
+    <tableColumn id="5" xr3:uid="{E4DE0F25-5C46-455D-850F-B72B1AF6C90B}" name="sharp"/>
+    <tableColumn id="6" xr3:uid="{E34E1A0C-CF9F-4CAE-A58C-F775A939BDFC}" name="sortino"/>
+    <tableColumn id="7" xr3:uid="{CC5AB41B-F9B9-432B-B9D8-20F5AA449071}" name="Столбец1"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="15" xr:uid="{6ADB824E-D4E2-49CF-AFA5-82223AC01984}" name="Таблица1416" displayName="Таблица1416" ref="T1:Y40" totalsRowCount="1">
+  <autoFilter ref="T1:Y39" xr:uid="{6ADB824E-D4E2-49CF-AFA5-82223AC01984}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="T2:Y39">
+    <sortCondition descending="1" ref="V1:V39"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{02DBD5BB-170C-4571-9A0F-94E718B61F6E}" name="Open time" dataDxfId="1"/>
-    <tableColumn id="2" xr3:uid="{C36CC85E-189E-4307-A298-7711CA95FA7C}" name="asset"/>
-    <tableColumn id="3" xr3:uid="{3D141597-0406-4D15-822D-919252F02BAE}" name="signal"/>
-    <tableColumn id="4" xr3:uid="{55F2BFE8-09F1-4D81-AD02-2BE6C11FD476}" name="Удар"/>
-    <tableColumn id="5" xr3:uid="{9E08664C-474D-4A5A-9EC2-3F3BB94C5E4C}" name="sharp"/>
-    <tableColumn id="6" xr3:uid="{9EC5312E-8B0B-47D3-9C96-9100424A1A03}" name="sortino"/>
+    <tableColumn id="1" xr3:uid="{477808EB-2675-4C2B-8020-47CBA21A20EA}" name="Open time" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{D1127C96-A516-42EE-8E10-48A565F994EB}" name="asset"/>
+    <tableColumn id="3" xr3:uid="{996E7FF9-F816-495C-B35A-D4D2AC31C1CC}" name="signal" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(V2:V39)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{B1517F69-E7F4-4270-8E10-AF539B027AFC}" name="Удар"/>
+    <tableColumn id="5" xr3:uid="{AFEF0F6B-7C48-4ED2-94F7-57A4E5DA9B9A}" name="sharp"/>
+    <tableColumn id="6" xr3:uid="{3C72A93B-A12A-49D1-A7E7-BD388B643143}" name="sortino"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="12" xr:uid="{0ABE6901-8109-49EB-92D2-7930DC8C80D7}" name="Таблица12" displayName="Таблица12" ref="L1:Q39" totalsRowShown="0">
+  <autoFilter ref="L1:Q39" xr:uid="{0ABE6901-8109-49EB-92D2-7930DC8C80D7}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q39">
+    <sortCondition ref="N1:N39"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{655524CE-F996-43CF-B9EB-63867EC15A82}" name="Open time" dataDxfId="5"/>
+    <tableColumn id="2" xr3:uid="{687C0906-F00F-4A7D-B86C-E69EDF23E8AD}" name="asset"/>
+    <tableColumn id="3" xr3:uid="{FED67B53-C37B-4770-8D69-CE40663D35C7}" name="signal"/>
+    <tableColumn id="4" xr3:uid="{D9081B82-C9FF-4AEC-AC11-3D7BD7D0705A}" name="Удар"/>
+    <tableColumn id="5" xr3:uid="{4C15A70E-3B00-40DA-BA11-B61E10415401}" name="sharp"/>
+    <tableColumn id="6" xr3:uid="{46F705B0-2A64-4170-9EBB-23A243131E6C}" name="sortino"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A36867DA-A284-426F-BBDF-C2CFE49D83A5}" name="Таблица14" displayName="Таблица14" ref="L1:Q39" totalsRowShown="0">
+  <autoFilter ref="L1:Q39" xr:uid="{A36867DA-A284-426F-BBDF-C2CFE49D83A5}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q39">
+    <sortCondition descending="1" ref="N1:N39"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{94F0FF71-B0B5-4A98-819C-CA11E641B1E2}" name="Open time" dataDxfId="3"/>
+    <tableColumn id="2" xr3:uid="{B0B585AF-7ECD-426B-9720-AEF8CBC4960E}" name="asset"/>
+    <tableColumn id="3" xr3:uid="{72F7A5AE-CE7A-43EF-987E-67210588BDCC}" name="signal"/>
+    <tableColumn id="4" xr3:uid="{A5F0999C-B332-40A0-93BB-61EA26160F5A}" name="Удар"/>
+    <tableColumn id="5" xr3:uid="{F9413E75-3A1C-4065-848A-7F8B1669F87F}" name="sharp"/>
+    <tableColumn id="6" xr3:uid="{90460D7A-AAEF-407B-8FBF-707F88DD11AB}" name="sortino"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -905,691 +1265,1279 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{538AE9AC-C79F-425B-8215-21AA796EB51E}">
-  <dimension ref="L1:Q40"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2ABFEA97-3E23-4E0A-9D97-BB628A8CFBFC}">
+  <dimension ref="A1:M44"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="Q33" sqref="Q33"/>
+    <sheetView topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="G46" sqref="G46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="12" max="12" width="12.140625" customWidth="1"/>
-    <col min="16" max="17" width="11" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="30.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="12:17" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>19</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="s">
+        <v>78</v>
+      </c>
+      <c r="H1" t="s">
+        <v>79</v>
+      </c>
+      <c r="I1" t="s">
+        <v>80</v>
+      </c>
+      <c r="J1" t="s">
+        <v>81</v>
+      </c>
+      <c r="K1" t="s">
+        <v>82</v>
+      </c>
       <c r="L1" t="s">
-        <v>42</v>
+        <v>83</v>
       </c>
       <c r="M1" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="2" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>24</v>
+      </c>
+      <c r="B2">
+        <v>550.91</v>
+      </c>
+      <c r="C2">
         <v>0</v>
       </c>
-      <c r="N1" t="s">
-        <v>35</v>
-      </c>
-      <c r="O1" t="s">
-        <v>36</v>
-      </c>
-      <c r="P1" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q1" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="2" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L2" s="1">
-        <v>44442</v>
-      </c>
-      <c r="M2" t="s">
-        <v>66</v>
-      </c>
-      <c r="N2">
-        <v>-0.8</v>
-      </c>
-      <c r="P2">
-        <v>-2.7649058953602663E-2</v>
-      </c>
-      <c r="Q2">
-        <v>-0.49908706368252465</v>
-      </c>
-    </row>
-    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="1">
-        <v>44445</v>
-      </c>
-      <c r="M3" t="s">
-        <v>68</v>
-      </c>
-      <c r="N3">
-        <v>-0.25</v>
-      </c>
-      <c r="P3">
-        <v>-0.13678120031307059</v>
-      </c>
-      <c r="Q3">
-        <v>-0.92671580138138443</v>
-      </c>
-    </row>
-    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L4" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M4" t="s">
-        <v>41</v>
-      </c>
-      <c r="N4">
+      <c r="D2">
+        <v>42.6</v>
+      </c>
+      <c r="E2">
+        <v>40354.449999999997</v>
+      </c>
+      <c r="F2" s="1">
+        <v>-0.32</v>
+      </c>
+      <c r="G2">
+        <v>-0.32</v>
+      </c>
+      <c r="H2">
+        <v>0.18</v>
+      </c>
+      <c r="I2">
+        <v>0.18</v>
+      </c>
+      <c r="J2" s="1">
+        <v>44454</v>
+      </c>
+      <c r="K2" t="s">
+        <v>98</v>
+      </c>
+      <c r="L2" t="s">
+        <v>85</v>
+      </c>
+      <c r="M2">
+        <v>1.72</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>206.49</v>
+      </c>
+      <c r="C3">
         <v>0</v>
       </c>
-      <c r="P4" s="2">
-        <v>0.57434172937951999</v>
-      </c>
-      <c r="Q4" s="2">
-        <v>0.41194508504678329</v>
-      </c>
-    </row>
-    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L5" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M5" t="s">
-        <v>25</v>
-      </c>
-      <c r="N5">
+      <c r="D3">
+        <v>15.97</v>
+      </c>
+      <c r="E3">
+        <v>15125.58</v>
+      </c>
+      <c r="F3" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G3">
+        <v>0.04</v>
+      </c>
+      <c r="H3">
+        <v>0.13</v>
+      </c>
+      <c r="I3">
+        <v>0.13</v>
+      </c>
+      <c r="J3" s="1">
+        <v>44454</v>
+      </c>
+      <c r="K3" t="s">
+        <v>89</v>
+      </c>
+      <c r="L3" t="s">
+        <v>85</v>
+      </c>
+      <c r="M3">
+        <v>0.41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B4">
+        <v>302.25</v>
+      </c>
+      <c r="C4">
+        <v>0</v>
+      </c>
+      <c r="D4">
+        <v>23.37</v>
+      </c>
+      <c r="E4">
+        <v>22139.87</v>
+      </c>
+      <c r="F4" s="1">
+        <v>0.04</v>
+      </c>
+      <c r="G4">
+        <v>0.04</v>
+      </c>
+      <c r="H4">
+        <v>0.17</v>
+      </c>
+      <c r="I4">
+        <v>0.17</v>
+      </c>
+      <c r="J4" s="1">
+        <v>44454</v>
+      </c>
+      <c r="K4" t="s">
+        <v>109</v>
+      </c>
+      <c r="L4" t="s">
+        <v>85</v>
+      </c>
+      <c r="M4">
+        <v>2.11</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>62</v>
+      </c>
+      <c r="B5">
+        <v>232.72</v>
+      </c>
+      <c r="C5">
+        <v>0</v>
+      </c>
+      <c r="D5">
+        <v>17.989999999999998</v>
+      </c>
+      <c r="E5">
+        <v>17046.55</v>
+      </c>
+      <c r="F5" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G5">
+        <v>0.19</v>
+      </c>
+      <c r="H5">
+        <v>0.18</v>
+      </c>
+      <c r="I5">
+        <v>0.18</v>
+      </c>
+      <c r="J5" s="1">
+        <v>44454</v>
+      </c>
+      <c r="K5" t="s">
+        <v>86</v>
+      </c>
+      <c r="L5" t="s">
+        <v>85</v>
+      </c>
+      <c r="M5">
+        <v>1.63</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>102</v>
+      </c>
+      <c r="F6" s="1">
+        <v>0.19</v>
+      </c>
+      <c r="G6">
+        <v>0.19</v>
+      </c>
+      <c r="H6">
+        <v>0.18</v>
+      </c>
+      <c r="I6">
+        <v>0.18</v>
+      </c>
+      <c r="K6" t="s">
+        <v>103</v>
+      </c>
+      <c r="L6" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>104</v>
+      </c>
+      <c r="F7" s="1">
+        <v>-0.32</v>
+      </c>
+      <c r="G7">
+        <v>-0.32</v>
+      </c>
+      <c r="H7">
+        <v>0.13</v>
+      </c>
+      <c r="I7">
+        <v>0.13</v>
+      </c>
+      <c r="K7" t="s">
+        <v>103</v>
+      </c>
+      <c r="L7" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>105</v>
+      </c>
+      <c r="F8" s="1">
+        <v>-0.01</v>
+      </c>
+      <c r="G8">
+        <v>-0.01</v>
+      </c>
+      <c r="H8">
+        <v>0.16</v>
+      </c>
+      <c r="I8">
+        <v>0.16</v>
+      </c>
+      <c r="K8" t="s">
+        <v>103</v>
+      </c>
+      <c r="L8" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>90</v>
+      </c>
+      <c r="B9">
+        <v>0.22</v>
+      </c>
+      <c r="C9">
+        <v>0.23</v>
+      </c>
+      <c r="D9">
         <v>0.14000000000000001</v>
       </c>
-      <c r="P5">
-        <v>-4.4680879460385778E-2</v>
-      </c>
-      <c r="Q5">
-        <v>-0.23177907409494616</v>
-      </c>
-    </row>
-    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M6" t="s">
-        <v>60</v>
-      </c>
-      <c r="N6">
+      <c r="E9">
+        <v>0.14000000000000001</v>
+      </c>
+      <c r="F9" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G9" t="s">
+        <v>89</v>
+      </c>
+      <c r="H9" t="s">
+        <v>85</v>
+      </c>
+      <c r="I9">
+        <v>0.63</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>91</v>
+      </c>
+      <c r="B10">
+        <v>0.23</v>
+      </c>
+      <c r="C10">
+        <v>0.24</v>
+      </c>
+      <c r="D10">
+        <v>-0.01</v>
+      </c>
+      <c r="E10">
+        <v>-0.01</v>
+      </c>
+      <c r="F10" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G10" t="s">
+        <v>92</v>
+      </c>
+      <c r="H10" t="s">
+        <v>85</v>
+      </c>
+      <c r="I10">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>91</v>
+      </c>
+      <c r="B11">
+        <v>0.23</v>
+      </c>
+      <c r="C11">
+        <v>0.24</v>
+      </c>
+      <c r="D11">
+        <v>-0.01</v>
+      </c>
+      <c r="E11">
+        <v>-0.01</v>
+      </c>
+      <c r="F11" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G11" t="s">
+        <v>92</v>
+      </c>
+      <c r="H11" t="s">
+        <v>85</v>
+      </c>
+      <c r="I11">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>0</v>
+      </c>
+      <c r="B12" t="s">
+        <v>18</v>
+      </c>
+      <c r="C12" t="s">
+        <v>2</v>
+      </c>
+      <c r="D12" t="s">
+        <v>19</v>
+      </c>
+      <c r="E12" t="s">
+        <v>4</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G12" t="s">
+        <v>78</v>
+      </c>
+      <c r="H12" t="s">
+        <v>79</v>
+      </c>
+      <c r="I12" t="s">
+        <v>80</v>
+      </c>
+      <c r="J12" t="s">
+        <v>81</v>
+      </c>
+      <c r="K12" t="s">
+        <v>82</v>
+      </c>
+      <c r="L12" t="s">
+        <v>83</v>
+      </c>
+      <c r="M12" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="13" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13">
+        <v>302.24878436629797</v>
+      </c>
+      <c r="C13">
+        <v>0</v>
+      </c>
+      <c r="D13">
+        <v>23.371253841085434</v>
+      </c>
+      <c r="E13">
+        <v>22139.872242840403</v>
+      </c>
+      <c r="F13" s="1">
+        <v>4.2909503978054001E-2</v>
+      </c>
+      <c r="G13">
+        <v>4.4772572470092566E-2</v>
+      </c>
+      <c r="H13">
+        <v>0.17127782631725666</v>
+      </c>
+      <c r="I13">
+        <v>0.17025134998963634</v>
+      </c>
+      <c r="J13" s="1">
+        <v>44454</v>
+      </c>
+      <c r="K13" t="s">
+        <v>109</v>
+      </c>
+      <c r="L13" t="s">
+        <v>85</v>
+      </c>
+      <c r="M13">
+        <v>2.11421246711082</v>
+      </c>
+    </row>
+    <row r="14" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>93</v>
+      </c>
+      <c r="B14">
+        <v>0.25</v>
+      </c>
+      <c r="C14">
+        <v>0.26</v>
+      </c>
+      <c r="D14">
         <v>0.19</v>
       </c>
-      <c r="P6">
-        <v>0.12728910205482022</v>
-      </c>
-      <c r="Q6">
-        <v>-0.13669603548979425</v>
-      </c>
-    </row>
-    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L7" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M7" t="s">
-        <v>6</v>
-      </c>
-      <c r="N7">
+      <c r="E14">
+        <v>0.18</v>
+      </c>
+      <c r="F14" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G14" t="s">
+        <v>94</v>
+      </c>
+      <c r="H14" t="s">
+        <v>85</v>
+      </c>
+      <c r="I14">
+        <v>3.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>95</v>
+      </c>
+      <c r="B15">
         <v>0.26</v>
       </c>
-      <c r="P7">
-        <v>-5.0796475793461263E-2</v>
-      </c>
-      <c r="Q7">
-        <v>-0.29888178542172333</v>
-      </c>
-    </row>
-    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L8" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M8" t="s">
-        <v>73</v>
-      </c>
-      <c r="N8">
+      <c r="C15">
+        <v>0.26</v>
+      </c>
+      <c r="D15">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="E15">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="F15" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G15" t="s">
+        <v>96</v>
+      </c>
+      <c r="H15" t="s">
+        <v>85</v>
+      </c>
+      <c r="I15">
+        <v>0.85</v>
+      </c>
+    </row>
+    <row r="16" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>64</v>
+      </c>
+      <c r="B16">
+        <v>0.26</v>
+      </c>
+      <c r="C16">
+        <v>0.26</v>
+      </c>
+      <c r="D16">
+        <v>0.22</v>
+      </c>
+      <c r="E16">
+        <v>0.22</v>
+      </c>
+      <c r="F16" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G16" t="s">
+        <v>89</v>
+      </c>
+      <c r="H16" t="s">
+        <v>85</v>
+      </c>
+      <c r="I16">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>0.26</v>
+      </c>
+      <c r="C17">
+        <v>0.26</v>
+      </c>
+      <c r="D17">
+        <v>0.22</v>
+      </c>
+      <c r="E17">
+        <v>0.22</v>
+      </c>
+      <c r="F17" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G17" t="s">
+        <v>89</v>
+      </c>
+      <c r="H17" t="s">
+        <v>85</v>
+      </c>
+      <c r="I17">
+        <v>0.66</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>0</v>
+      </c>
+      <c r="B18" t="s">
+        <v>18</v>
+      </c>
+      <c r="C18" t="s">
+        <v>2</v>
+      </c>
+      <c r="D18" t="s">
+        <v>19</v>
+      </c>
+      <c r="E18" t="s">
+        <v>4</v>
+      </c>
+      <c r="F18" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G18" t="s">
+        <v>78</v>
+      </c>
+      <c r="H18" t="s">
+        <v>79</v>
+      </c>
+      <c r="I18" t="s">
+        <v>80</v>
+      </c>
+      <c r="J18" t="s">
+        <v>81</v>
+      </c>
+      <c r="K18" t="s">
+        <v>82</v>
+      </c>
+      <c r="L18" t="s">
+        <v>83</v>
+      </c>
+      <c r="M18" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>97</v>
+      </c>
+      <c r="B19">
+        <v>0.33</v>
+      </c>
+      <c r="C19">
+        <v>0.33</v>
+      </c>
+      <c r="D19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="E19">
+        <v>0.27</v>
+      </c>
+      <c r="F19" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G19" t="s">
+        <v>98</v>
+      </c>
+      <c r="H19" t="s">
+        <v>85</v>
+      </c>
+      <c r="I19">
+        <v>1.02</v>
+      </c>
+    </row>
+    <row r="20" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1</v>
+      </c>
+      <c r="B20">
+        <v>0.34</v>
+      </c>
+      <c r="C20">
+        <v>0.34</v>
+      </c>
+      <c r="D20">
+        <v>0.32</v>
+      </c>
+      <c r="E20">
         <v>0.3</v>
       </c>
-      <c r="O8" t="s">
-        <v>37</v>
-      </c>
-      <c r="P8">
-        <v>0.17272154517172289</v>
-      </c>
-      <c r="Q8">
-        <v>-1.112325347460711E-2</v>
-      </c>
-    </row>
-    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L9" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M9" t="s">
-        <v>30</v>
-      </c>
-      <c r="N9">
-        <v>0.3</v>
-      </c>
-      <c r="P9">
-        <v>9.7364885805651502E-2</v>
-      </c>
-      <c r="Q9">
-        <v>-0.14300092973098488</v>
-      </c>
-    </row>
-    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L10" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M10" t="s">
-        <v>70</v>
-      </c>
-      <c r="N10">
-        <v>0.31</v>
-      </c>
-      <c r="P10">
-        <v>3.2102162769441278E-2</v>
-      </c>
-      <c r="Q10">
-        <v>-0.22559834459648326</v>
-      </c>
-    </row>
-    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L11" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M11" t="s">
-        <v>62</v>
-      </c>
-      <c r="N11">
-        <v>0.32</v>
-      </c>
-      <c r="P11">
-        <v>-6.7328875347064235E-2</v>
-      </c>
-      <c r="Q11">
-        <v>-0.26263100796641653</v>
-      </c>
-    </row>
-    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L12" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M12" t="s">
-        <v>72</v>
-      </c>
-      <c r="N12">
-        <v>0.33</v>
-      </c>
-      <c r="P12">
-        <v>0.12383221962045354</v>
-      </c>
-      <c r="Q12">
-        <v>-1.4055782463172991E-2</v>
-      </c>
-    </row>
-    <row r="13" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L13" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M13" t="s">
-        <v>69</v>
-      </c>
-      <c r="N13">
-        <v>0.41</v>
-      </c>
-      <c r="P13">
-        <v>1.9170427489958654E-2</v>
-      </c>
-      <c r="Q13">
-        <v>-0.17366584552920838</v>
-      </c>
-    </row>
-    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L14" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M14" t="s">
-        <v>27</v>
-      </c>
-      <c r="N14">
-        <v>0.42</v>
-      </c>
-      <c r="P14">
-        <v>4.1960870247884398E-2</v>
-      </c>
-      <c r="Q14">
-        <v>-0.12618365601639508</v>
-      </c>
-    </row>
-    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L15" s="1">
-        <v>44445</v>
-      </c>
-      <c r="M15" t="s">
-        <v>67</v>
-      </c>
-      <c r="N15">
-        <v>0.45</v>
-      </c>
-      <c r="P15" s="2">
-        <v>0.2011879442803706</v>
-      </c>
-      <c r="Q15" s="2">
-        <v>-0.25859198402210548</v>
-      </c>
-    </row>
-    <row r="16" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L16" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M16" t="s">
-        <v>21</v>
-      </c>
-      <c r="N16">
-        <v>0.46</v>
-      </c>
-      <c r="P16">
-        <v>3.428852473096268E-2</v>
-      </c>
-      <c r="Q16">
-        <v>-0.21083589609254352</v>
-      </c>
-    </row>
-    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L17" s="1">
-        <v>44445</v>
-      </c>
-      <c r="M17" t="s">
-        <v>65</v>
-      </c>
-      <c r="N17">
-        <v>0.46</v>
-      </c>
-      <c r="P17">
-        <v>-0.36691109562883117</v>
-      </c>
-      <c r="Q17">
-        <v>-0.97725276318153753</v>
-      </c>
-    </row>
-    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L18" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M18" t="s">
+      <c r="F20" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G20" t="s">
+        <v>86</v>
+      </c>
+      <c r="H20" t="s">
+        <v>85</v>
+      </c>
+      <c r="I20">
+        <v>1.41</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>99</v>
+      </c>
+      <c r="B21">
+        <v>0.38</v>
+      </c>
+      <c r="C21">
+        <v>0.37</v>
+      </c>
+      <c r="D21">
+        <v>0.39</v>
+      </c>
+      <c r="E21">
+        <v>0.37</v>
+      </c>
+      <c r="F21" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G21" t="s">
+        <v>100</v>
+      </c>
+      <c r="H21" t="s">
+        <v>85</v>
+      </c>
+      <c r="I21">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22">
+        <v>0.38</v>
+      </c>
+      <c r="C22">
+        <v>0.37</v>
+      </c>
+      <c r="D22">
+        <v>0.39</v>
+      </c>
+      <c r="E22">
+        <v>0.37</v>
+      </c>
+      <c r="F22" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G22" t="s">
+        <v>100</v>
+      </c>
+      <c r="H22" t="s">
+        <v>85</v>
+      </c>
+      <c r="I22">
+        <v>0.68</v>
+      </c>
+    </row>
+    <row r="23" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E23">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="F23" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G23" t="s">
+        <v>89</v>
+      </c>
+      <c r="H23" t="s">
+        <v>85</v>
+      </c>
+      <c r="I23">
+        <v>2.5499999999999998</v>
+      </c>
+    </row>
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>102</v>
+      </c>
+      <c r="B24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="C24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="D24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="E24">
+        <v>0.57999999999999996</v>
+      </c>
+      <c r="G24" t="s">
+        <v>103</v>
+      </c>
+      <c r="H24" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>104</v>
+      </c>
+      <c r="B25">
+        <v>-0.43</v>
+      </c>
+      <c r="C25">
+        <v>-0.41</v>
+      </c>
+      <c r="D25">
+        <v>-0.5</v>
+      </c>
+      <c r="E25">
+        <v>-0.45</v>
+      </c>
+      <c r="G25" t="s">
+        <v>103</v>
+      </c>
+      <c r="H25" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>105</v>
+      </c>
+      <c r="B26">
+        <v>-0.12</v>
+      </c>
+      <c r="C26">
+        <v>-0.12</v>
+      </c>
+      <c r="D26">
+        <v>0.11</v>
+      </c>
+      <c r="E26">
+        <v>0.11</v>
+      </c>
+      <c r="G26" t="s">
+        <v>103</v>
+      </c>
+      <c r="H26" t="s">
+        <v>103</v>
+      </c>
+    </row>
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>0</v>
+      </c>
+      <c r="B30" t="s">
+        <v>77</v>
+      </c>
+      <c r="C30" t="s">
+        <v>78</v>
+      </c>
+      <c r="D30" t="s">
+        <v>79</v>
+      </c>
+      <c r="E30" t="s">
+        <v>80</v>
+      </c>
+      <c r="F30" t="s">
+        <v>81</v>
+      </c>
+      <c r="G30" t="s">
+        <v>82</v>
+      </c>
+      <c r="H30" t="s">
+        <v>83</v>
+      </c>
+      <c r="I30" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>106</v>
+      </c>
+      <c r="B31">
+        <v>4.6611841851273102E-2</v>
+      </c>
+      <c r="C31">
+        <v>4.8626887914980245E-2</v>
+      </c>
+      <c r="D31">
+        <v>0.11877345378087613</v>
+      </c>
+      <c r="E31">
+        <v>0.11896002507631112</v>
+      </c>
+      <c r="F31" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G31" t="s">
+        <v>107</v>
+      </c>
+      <c r="H31" t="s">
+        <v>85</v>
+      </c>
+      <c r="I31">
+        <v>2.0994845258876977</v>
+      </c>
+    </row>
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>108</v>
+      </c>
+      <c r="B32">
+        <v>8.2060794295469308E-3</v>
+      </c>
+      <c r="C32">
+        <v>8.5706556291166979E-3</v>
+      </c>
+      <c r="D32">
+        <v>0.15651743696880996</v>
+      </c>
+      <c r="E32">
+        <v>0.15595263790256655</v>
+      </c>
+      <c r="F32" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G32" t="s">
+        <v>89</v>
+      </c>
+      <c r="H32" t="s">
+        <v>85</v>
+      </c>
+      <c r="I32">
+        <v>2.1119774983315653</v>
+      </c>
+    </row>
+    <row r="33" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
         <v>22</v>
       </c>
-      <c r="N18">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="P18">
-        <v>-9.1098740616897211E-2</v>
-      </c>
-      <c r="Q18">
-        <v>-0.26530715162577112</v>
-      </c>
-    </row>
-    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L19" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M19" t="s">
-        <v>24</v>
-      </c>
-      <c r="N19">
-        <v>0.57999999999999996</v>
-      </c>
-      <c r="P19" s="2">
-        <v>0.32230282073506472</v>
-      </c>
-      <c r="Q19" s="2">
-        <v>0.22933095972136142</v>
-      </c>
-    </row>
-    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L20" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M20" t="s">
-        <v>26</v>
-      </c>
-      <c r="N20">
-        <v>0.61</v>
-      </c>
-      <c r="P20">
-        <v>-5.9350070849878395E-2</v>
-      </c>
-      <c r="Q20">
-        <v>-0.27894816338351663</v>
-      </c>
-    </row>
-    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L21" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M21" t="s">
-        <v>64</v>
-      </c>
-      <c r="N21">
-        <v>0.62</v>
-      </c>
-      <c r="P21">
-        <v>4.802824028343685E-2</v>
-      </c>
-      <c r="Q21">
-        <v>-0.14390300640744633</v>
-      </c>
-    </row>
-    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L22" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M22" t="s">
-        <v>5</v>
-      </c>
-      <c r="N22">
-        <v>0.67</v>
-      </c>
-      <c r="P22">
-        <v>0.14493913923445931</v>
-      </c>
-      <c r="Q22">
-        <v>2.5640879197625289E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L23" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M23" t="s">
-        <v>47</v>
-      </c>
-      <c r="N23">
-        <v>0.69</v>
-      </c>
-      <c r="P23">
-        <v>0.14113350982234757</v>
-      </c>
-      <c r="Q23">
-        <v>-3.1929399507947989E-3</v>
-      </c>
-    </row>
-    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L24" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M24" t="s">
-        <v>28</v>
-      </c>
-      <c r="N24">
-        <v>0.69</v>
-      </c>
-      <c r="P24">
-        <v>-1.5601239356807383E-2</v>
-      </c>
-      <c r="Q24">
-        <v>-0.17905178544226882</v>
-      </c>
-    </row>
-    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L25" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M25" t="s">
-        <v>1</v>
-      </c>
-      <c r="N25">
-        <v>0.71</v>
-      </c>
-      <c r="P25" s="2">
-        <v>0.3022421359591218</v>
-      </c>
-      <c r="Q25" s="2">
-        <v>8.8775992133122872E-2</v>
-      </c>
-    </row>
-    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L26" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M26" t="s">
-        <v>20</v>
-      </c>
-      <c r="N26">
-        <v>0.71</v>
-      </c>
-      <c r="P26">
-        <v>0.11209672310912891</v>
-      </c>
-      <c r="Q26">
-        <v>-6.2367551214021079E-2</v>
-      </c>
-    </row>
-    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L27" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M27" t="s">
-        <v>43</v>
-      </c>
-      <c r="N27">
-        <v>0.71</v>
-      </c>
-      <c r="P27">
-        <v>2.3040840936052378E-2</v>
-      </c>
-      <c r="Q27">
-        <v>-0.35081734493828515</v>
-      </c>
-    </row>
-    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L28" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M28" t="s">
-        <v>45</v>
-      </c>
-      <c r="N28">
-        <v>0.78</v>
-      </c>
-      <c r="P28">
-        <v>6.6008906155889018E-3</v>
-      </c>
-      <c r="Q28">
-        <v>-0.22924562640133314</v>
-      </c>
-    </row>
-    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L29" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M29" t="s">
-        <v>59</v>
-      </c>
-      <c r="N29">
-        <v>0.8</v>
-      </c>
-      <c r="P29">
-        <v>-7.476316045407895E-2</v>
-      </c>
-      <c r="Q29">
-        <v>-0.28540591085883837</v>
-      </c>
-    </row>
-    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L30" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M30" t="s">
-        <v>71</v>
-      </c>
-      <c r="N30">
-        <v>0.82</v>
-      </c>
-      <c r="P30">
-        <v>6.4752837499710392E-2</v>
-      </c>
-      <c r="Q30">
-        <v>-4.4554828407625771E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L31" s="1">
-        <v>44442</v>
-      </c>
-      <c r="M31" t="s">
-        <v>63</v>
-      </c>
-      <c r="N31">
-        <v>0.82</v>
-      </c>
-      <c r="P31" s="2">
-        <v>0.29350233846200058</v>
-      </c>
-      <c r="Q31" s="2">
-        <v>-0.51656838009232187</v>
-      </c>
-    </row>
-    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L32" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M32" t="s">
-        <v>61</v>
-      </c>
-      <c r="N32">
-        <v>0.83</v>
-      </c>
-      <c r="P32">
-        <v>-0.15441048482289457</v>
-      </c>
-      <c r="Q32">
-        <v>-0.3388475100988711</v>
-      </c>
-    </row>
-    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L33" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M33" t="s">
-        <v>2</v>
-      </c>
-      <c r="N33">
-        <v>0.89</v>
-      </c>
-      <c r="P33">
-        <v>-5.2941617558563813E-3</v>
-      </c>
-      <c r="Q33">
-        <v>-0.28682072893286537</v>
-      </c>
-    </row>
-    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L34" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M34" t="s">
-        <v>23</v>
-      </c>
-      <c r="N34">
-        <v>0.93</v>
-      </c>
-      <c r="P34">
-        <v>5.2893404873779394E-2</v>
-      </c>
-      <c r="Q34">
-        <v>-8.1259198710318226E-2</v>
-      </c>
-    </row>
-    <row r="35" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L35" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M35" t="s">
-        <v>46</v>
-      </c>
-      <c r="N35">
-        <v>0.94</v>
-      </c>
-      <c r="P35">
-        <v>9.6287126724135461E-3</v>
-      </c>
-      <c r="Q35">
-        <v>-0.17784246188399899</v>
-      </c>
-    </row>
-    <row r="36" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L36" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M36" t="s">
-        <v>3</v>
-      </c>
-      <c r="N36">
-        <v>0.98</v>
-      </c>
-      <c r="P36">
-        <v>6.8073167855784406E-2</v>
-      </c>
-      <c r="Q36">
-        <v>-8.2757558944240237E-2</v>
-      </c>
-    </row>
-    <row r="39" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L39" t="s">
-        <v>42</v>
-      </c>
-      <c r="M39" t="s">
-        <v>0</v>
-      </c>
-      <c r="N39" t="s">
-        <v>35</v>
-      </c>
-      <c r="O39" t="s">
-        <v>36</v>
-      </c>
-      <c r="P39" t="s">
-        <v>39</v>
-      </c>
-      <c r="Q39" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="40" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L40" s="1">
-        <v>44444</v>
-      </c>
-      <c r="M40" t="s">
-        <v>73</v>
-      </c>
-      <c r="N40">
-        <v>0.3</v>
-      </c>
-      <c r="O40" t="s">
-        <v>37</v>
-      </c>
-      <c r="P40">
-        <v>0.17272154517172289</v>
-      </c>
-      <c r="Q40">
-        <v>-1.112325347460711E-2</v>
+      <c r="B33">
+        <v>4.2909503978054001E-2</v>
+      </c>
+      <c r="C33">
+        <v>4.4772572470092566E-2</v>
+      </c>
+      <c r="D33">
+        <v>0.17127782631725666</v>
+      </c>
+      <c r="E33">
+        <v>0.17025134998963634</v>
+      </c>
+      <c r="F33" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G33" t="s">
+        <v>109</v>
+      </c>
+      <c r="H33" t="s">
+        <v>85</v>
+      </c>
+      <c r="I33">
+        <v>2.11421246711082</v>
+      </c>
+    </row>
+    <row r="34" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>22</v>
+      </c>
+      <c r="B34">
+        <v>4.2909503978054001E-2</v>
+      </c>
+      <c r="C34">
+        <v>4.4772572470092566E-2</v>
+      </c>
+      <c r="D34">
+        <v>0.17127782631725666</v>
+      </c>
+      <c r="E34">
+        <v>0.17025134998963634</v>
+      </c>
+      <c r="F34" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G34" t="s">
+        <v>109</v>
+      </c>
+      <c r="H34" t="s">
+        <v>85</v>
+      </c>
+      <c r="I34">
+        <v>2.11421246711082</v>
+      </c>
+    </row>
+    <row r="35" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>110</v>
+      </c>
+      <c r="B35">
+        <v>9.9512320344034511E-2</v>
+      </c>
+      <c r="C35">
+        <v>0.10338032270098606</v>
+      </c>
+      <c r="D35">
+        <v>0.2054990683985719</v>
+      </c>
+      <c r="E35">
+        <v>0.20297865181285735</v>
+      </c>
+      <c r="F35" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G35" t="s">
+        <v>88</v>
+      </c>
+      <c r="H35" t="s">
+        <v>85</v>
+      </c>
+      <c r="I35">
+        <v>2.221017480871851</v>
+      </c>
+    </row>
+    <row r="36" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>87</v>
+      </c>
+      <c r="B36">
+        <v>0.19135991027789928</v>
+      </c>
+      <c r="C36">
+        <v>0.1959925280354792</v>
+      </c>
+      <c r="D36">
+        <v>0.18121572714963521</v>
+      </c>
+      <c r="E36">
+        <v>0.17981876839163952</v>
+      </c>
+      <c r="F36" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G36" t="s">
+        <v>88</v>
+      </c>
+      <c r="H36" t="s">
+        <v>85</v>
+      </c>
+      <c r="I36">
+        <v>2.2343682566483074</v>
+      </c>
+    </row>
+    <row r="37" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>111</v>
+      </c>
+      <c r="B37">
+        <v>7.7169506533704205E-2</v>
+      </c>
+      <c r="C37">
+        <v>8.0340377352736289E-2</v>
+      </c>
+      <c r="D37">
+        <v>8.1162967024947866E-2</v>
+      </c>
+      <c r="E37">
+        <v>8.1598805869317045E-2</v>
+      </c>
+      <c r="F37" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G37" t="s">
+        <v>92</v>
+      </c>
+      <c r="H37" t="s">
+        <v>85</v>
+      </c>
+      <c r="I37">
+        <v>2.3948854827497708</v>
+      </c>
+    </row>
+    <row r="38" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>112</v>
+      </c>
+      <c r="B38">
+        <v>8.5178557537736455E-2</v>
+      </c>
+      <c r="C38">
+        <v>8.8616096257986443E-2</v>
+      </c>
+      <c r="D38">
+        <v>-1.3060467328937774E-2</v>
+      </c>
+      <c r="E38">
+        <v>-1.317339151911515E-2</v>
+      </c>
+      <c r="F38" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G38" t="s">
+        <v>89</v>
+      </c>
+      <c r="H38" t="s">
+        <v>85</v>
+      </c>
+      <c r="I38">
+        <v>2.5283316827139184</v>
+      </c>
+    </row>
+    <row r="39" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>101</v>
+      </c>
+      <c r="B39">
+        <v>0.5751959957106848</v>
+      </c>
+      <c r="C39">
+        <v>0.57591140523054962</v>
+      </c>
+      <c r="D39">
+        <v>0.5751959957106848</v>
+      </c>
+      <c r="E39">
+        <v>0.57591140523054962</v>
+      </c>
+      <c r="F39" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G39" t="s">
+        <v>89</v>
+      </c>
+      <c r="H39" t="s">
+        <v>85</v>
+      </c>
+      <c r="I39">
+        <v>2.5510493854496539</v>
+      </c>
+    </row>
+    <row r="40" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>93</v>
+      </c>
+      <c r="B40">
+        <v>0.25377929184034875</v>
+      </c>
+      <c r="C40">
+        <v>0.25621588478828256</v>
+      </c>
+      <c r="D40">
+        <v>0.186286481480543</v>
+      </c>
+      <c r="E40">
+        <v>0.18468107583695495</v>
+      </c>
+      <c r="F40" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G40" t="s">
+        <v>94</v>
+      </c>
+      <c r="H40" t="s">
+        <v>85</v>
+      </c>
+      <c r="I40">
+        <v>3.103685197511572</v>
+      </c>
+    </row>
+    <row r="41" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B41">
+        <v>4.4751550944185883E-2</v>
+      </c>
+      <c r="C41">
+        <v>4.6690494479297254E-2</v>
+      </c>
+      <c r="D41">
+        <v>0.24556423968808264</v>
+      </c>
+      <c r="E41">
+        <v>0.24044203259343891</v>
+      </c>
+      <c r="F41" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G41" t="s">
+        <v>114</v>
+      </c>
+      <c r="H41" t="s">
+        <v>85</v>
+      </c>
+      <c r="I41">
+        <v>3.8336079656141537</v>
+      </c>
+    </row>
+    <row r="42" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>115</v>
+      </c>
+      <c r="B42">
+        <v>8.1968907930043133E-2</v>
+      </c>
+      <c r="C42">
+        <v>8.5301684529807867E-2</v>
+      </c>
+      <c r="D42">
+        <v>0.13864546856143786</v>
+      </c>
+      <c r="E42">
+        <v>0.13850833102395882</v>
+      </c>
+      <c r="F42" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G42" t="s">
+        <v>116</v>
+      </c>
+      <c r="H42" t="s">
+        <v>85</v>
+      </c>
+      <c r="I42">
+        <v>4.3415491816843961</v>
+      </c>
+    </row>
+    <row r="43" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>117</v>
+      </c>
+      <c r="B43">
+        <v>7.7537797528362942E-2</v>
+      </c>
+      <c r="C43">
+        <v>8.0721308840222217E-2</v>
+      </c>
+      <c r="D43">
+        <v>-5.4419344020974626E-2</v>
+      </c>
+      <c r="E43">
+        <v>-5.5370918502645958E-2</v>
+      </c>
+      <c r="F43" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G43" t="s">
+        <v>94</v>
+      </c>
+      <c r="H43" t="s">
+        <v>85</v>
+      </c>
+      <c r="I43">
+        <v>4.5243371427043879</v>
+      </c>
+    </row>
+    <row r="44" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>118</v>
+      </c>
+      <c r="B44">
+        <v>9.0742830558449145E-2</v>
+      </c>
+      <c r="C44">
+        <v>9.435495559531179E-2</v>
+      </c>
+      <c r="D44">
+        <v>0.13222826723955872</v>
+      </c>
+      <c r="E44">
+        <v>0.13221220870540729</v>
+      </c>
+      <c r="F44" s="1">
+        <v>44454</v>
+      </c>
+      <c r="G44" t="s">
+        <v>107</v>
+      </c>
+      <c r="H44" t="s">
+        <v>85</v>
+      </c>
+      <c r="I44">
+        <v>5.1662725986073958</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{19F5FBDE-EB6B-4CF0-9DC2-C14C442683FA}">
-  <dimension ref="L1:Q39"/>
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70B2888-2143-4589-82AC-5196D803E367}">
+  <dimension ref="L1:Q42"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I38" sqref="I38"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="P50" sqref="P50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1618,624 +2566,4133 @@
       </c>
     </row>
     <row r="2" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L2" s="6">
-        <v>44443</v>
-      </c>
-      <c r="M2" s="2" t="s">
-        <v>3</v>
-      </c>
-      <c r="N2" s="2">
-        <v>0.99</v>
-      </c>
-      <c r="O2" s="2"/>
+      <c r="L2" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0.98</v>
+      </c>
       <c r="P2">
-        <v>7.2337392097702596E-2</v>
+        <v>0.14067931516493723</v>
       </c>
       <c r="Q2">
-        <v>-7.8168504613009823E-2</v>
+        <v>0.14181293344805443</v>
       </c>
     </row>
     <row r="3" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L3" s="6">
-        <v>44443</v>
-      </c>
-      <c r="M3" s="2" t="s">
-        <v>46</v>
-      </c>
-      <c r="N3" s="2">
-        <v>0.93</v>
-      </c>
-      <c r="O3" s="2"/>
+      <c r="L3" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M3" t="s">
+        <v>66</v>
+      </c>
+      <c r="N3">
+        <v>0.91</v>
+      </c>
       <c r="P3">
-        <v>7.2481613522343419E-2</v>
+        <v>0.15810031661608756</v>
       </c>
       <c r="Q3">
-        <v>-0.11592791902253682</v>
+        <v>0.15895449455876939</v>
       </c>
     </row>
     <row r="4" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L4" s="6">
-        <v>44443</v>
-      </c>
-      <c r="M4" s="2" t="s">
-        <v>23</v>
-      </c>
-      <c r="N4" s="2">
+      <c r="L4" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M4" t="s">
+        <v>70</v>
+      </c>
+      <c r="N4">
         <v>0.91</v>
       </c>
-      <c r="O4" s="2"/>
       <c r="P4">
-        <v>-0.14314144181105543</v>
+        <v>5.5317530463471688E-2</v>
       </c>
       <c r="Q4">
-        <v>-0.30713642675791131</v>
+        <v>5.6243445924655695E-2</v>
       </c>
     </row>
     <row r="5" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L5" s="6">
-        <v>44443</v>
-      </c>
-      <c r="M5" s="2" t="s">
-        <v>2</v>
-      </c>
-      <c r="N5" s="2">
-        <v>0.88</v>
-      </c>
-      <c r="O5" s="2"/>
+      <c r="L5" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5">
+        <v>0.75</v>
+      </c>
       <c r="P5">
-        <v>0.14446342341529109</v>
+        <v>8.5643196396711835E-2</v>
       </c>
       <c r="Q5">
-        <v>-7.9260100747171269E-2</v>
+        <v>8.6884946796248211E-2</v>
       </c>
     </row>
     <row r="6" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L6" s="6">
-        <v>44443</v>
-      </c>
-      <c r="M6" s="2" t="s">
-        <v>61</v>
-      </c>
-      <c r="N6" s="2">
-        <v>0.83</v>
-      </c>
-      <c r="O6" s="2"/>
+      <c r="L6" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M6" t="s">
+        <v>64</v>
+      </c>
+      <c r="N6">
+        <v>0.73</v>
+      </c>
       <c r="P6">
-        <v>-0.19826786840980398</v>
+        <v>0.18825935585025128</v>
       </c>
       <c r="Q6">
-        <v>-0.38053374102443149</v>
+        <v>0.18828503032572821</v>
       </c>
     </row>
     <row r="7" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L7" s="6">
-        <v>44442</v>
-      </c>
-      <c r="M7" s="2" t="s">
-        <v>63</v>
-      </c>
-      <c r="N7" s="2">
-        <v>0.82</v>
-      </c>
-      <c r="O7" s="2"/>
+      <c r="L7" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M7" t="s">
+        <v>27</v>
+      </c>
+      <c r="N7">
+        <v>0.7</v>
+      </c>
       <c r="P7">
-        <v>0.29350233846200058</v>
+        <v>3.4499362739485895E-2</v>
       </c>
       <c r="Q7">
-        <v>-0.51656838009232187</v>
+        <v>3.5110769659622496E-2</v>
       </c>
     </row>
     <row r="8" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L8" s="6">
-        <v>44443</v>
-      </c>
-      <c r="M8" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="N8" s="2">
-        <v>0.81</v>
-      </c>
-      <c r="O8" s="2"/>
+      <c r="L8" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M8" t="s">
+        <v>5</v>
+      </c>
+      <c r="N8">
+        <v>0.66</v>
+      </c>
       <c r="P8">
-        <v>8.7049487326055955E-2</v>
+        <v>5.4532099622052257E-2</v>
       </c>
       <c r="Q8">
-        <v>-2.0377666971143481E-2</v>
+        <v>5.5447341169420412E-2</v>
       </c>
     </row>
     <row r="9" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L9" s="1">
-        <v>44443</v>
+        <v>44463</v>
       </c>
       <c r="M9" t="s">
-        <v>59</v>
+        <v>62</v>
       </c>
       <c r="N9">
-        <v>0.79</v>
+        <v>0.66</v>
       </c>
       <c r="P9">
-        <v>-4.1798672031926601E-3</v>
+        <v>6.7220116917764874E-2</v>
       </c>
       <c r="Q9">
-        <v>-0.20469587560749486</v>
+        <v>6.8293794588487583E-2</v>
       </c>
     </row>
     <row r="10" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L10" s="1">
-        <v>44443</v>
+        <v>44463</v>
       </c>
       <c r="M10" t="s">
-        <v>45</v>
+        <v>65</v>
       </c>
       <c r="N10">
-        <v>0.75</v>
+        <v>0.65</v>
       </c>
       <c r="P10">
-        <v>6.0079276533476285E-2</v>
+        <v>7.8730405722561986E-2</v>
       </c>
       <c r="Q10">
-        <v>-0.17751020058492184</v>
+        <v>7.9918671674399089E-2</v>
       </c>
     </row>
     <row r="11" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L11" s="1">
-        <v>44443</v>
+        <v>44463</v>
       </c>
       <c r="M11" t="s">
-        <v>28</v>
+        <v>24</v>
       </c>
       <c r="N11">
-        <v>0.7</v>
+        <v>0.64</v>
       </c>
       <c r="P11">
-        <v>-8.4005959717142586E-2</v>
+        <v>6.3736998822802454E-2</v>
       </c>
       <c r="Q11">
-        <v>-0.25440884827090554</v>
+        <v>6.4770291757006548E-2</v>
       </c>
     </row>
     <row r="12" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L12" s="1">
-        <v>44443</v>
+        <v>44463</v>
       </c>
       <c r="M12" t="s">
-        <v>43</v>
+        <v>25</v>
       </c>
       <c r="N12">
-        <v>0.69</v>
+        <v>0.5</v>
       </c>
       <c r="P12">
-        <v>4.2894567022536197E-2</v>
+        <v>-7.6251833152327433E-2</v>
       </c>
       <c r="Q12">
-        <v>-0.33339794790027605</v>
+        <v>-7.7418013610820943E-2</v>
       </c>
     </row>
     <row r="13" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L13" s="1">
-        <v>44443</v>
+        <v>44463</v>
       </c>
       <c r="M13" t="s">
-        <v>1</v>
+        <v>28</v>
       </c>
       <c r="N13">
-        <v>0.66</v>
+        <v>0.49</v>
       </c>
       <c r="P13">
-        <v>0.27909254958629032</v>
+        <v>-0.14464148720356818</v>
       </c>
       <c r="Q13">
-        <v>4.6045490663165288E-2</v>
+        <v>-0.14572335513224299</v>
       </c>
     </row>
     <row r="14" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L14" s="1">
-        <v>44443</v>
+        <v>44463</v>
+      </c>
+      <c r="M14" t="s">
+        <v>63</v>
+      </c>
+      <c r="N14">
+        <v>0.46</v>
+      </c>
+      <c r="P14">
+        <v>-9.969277218765385E-2</v>
+      </c>
+      <c r="Q14">
+        <v>-0.10100297819919445</v>
+      </c>
+    </row>
+    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15">
+        <v>0.44</v>
+      </c>
+      <c r="P15">
+        <v>0.11884453632694703</v>
+      </c>
+      <c r="Q15">
+        <v>0.12014863392473521</v>
+      </c>
+    </row>
+    <row r="16" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16">
+        <v>0.34</v>
+      </c>
+      <c r="P16">
+        <v>-6.1088191438067034E-2</v>
+      </c>
+      <c r="Q16">
+        <v>-6.2089143303332525E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M17" t="s">
+        <v>41</v>
+      </c>
+      <c r="N17">
+        <v>0.33</v>
+      </c>
+      <c r="P17">
+        <v>0.22640507069708779</v>
+      </c>
+      <c r="Q17">
+        <v>0.22466559465333585</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M18" t="s">
+        <v>43</v>
+      </c>
+      <c r="N18">
+        <v>0.24</v>
+      </c>
+      <c r="P18">
+        <v>-5.9194636138731591E-2</v>
+      </c>
+      <c r="Q18">
+        <v>-6.0171640649990213E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M19" t="s">
+        <v>59</v>
+      </c>
+      <c r="N19">
+        <v>0.24</v>
+      </c>
+      <c r="P19">
+        <v>-0.14002302395456681</v>
+      </c>
+      <c r="Q19">
+        <v>-0.14116456759377952</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M20" t="s">
+        <v>23</v>
+      </c>
+      <c r="N20">
+        <v>0.22</v>
+      </c>
+      <c r="P20">
+        <v>-8.9937284095305714E-2</v>
+      </c>
+      <c r="Q20">
+        <v>-9.1205914841196806E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21">
+        <v>0.21</v>
+      </c>
+      <c r="P21">
+        <v>-2.571897254099095E-2</v>
+      </c>
+      <c r="Q21">
+        <v>-2.6181941260323641E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>0.18</v>
+      </c>
+      <c r="P22">
+        <v>-0.13923195563120766</v>
+      </c>
+      <c r="Q22">
+        <v>-0.14038281076090842</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23">
+        <v>0.17</v>
+      </c>
+      <c r="P23">
+        <v>1.9698177037050114E-3</v>
+      </c>
+      <c r="Q23">
+        <v>2.0059601268964523E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>0.16</v>
+      </c>
+      <c r="P24">
+        <v>-0.17420343173116049</v>
+      </c>
+      <c r="Q24">
+        <v>-0.17467283632035449</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25">
+        <v>0.12</v>
+      </c>
+      <c r="P25">
+        <v>-3.7597582724394188E-2</v>
+      </c>
+      <c r="Q25">
+        <v>-3.825947153300694E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>0.1</v>
+      </c>
+      <c r="P26">
+        <v>-8.3360355891724011E-2</v>
+      </c>
+      <c r="Q26">
+        <v>-8.4585802334640886E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>0.03</v>
+      </c>
+      <c r="P27">
+        <v>-3.1886350966771983E-2</v>
+      </c>
+      <c r="Q27">
+        <v>-3.2454365056432892E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28">
+        <v>0.03</v>
+      </c>
+      <c r="P28">
+        <v>-9.9121789835100241E-2</v>
+      </c>
+      <c r="Q28">
+        <v>-0.10043034314288701</v>
+      </c>
+    </row>
+    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>-0.01</v>
+      </c>
+      <c r="P29">
+        <v>-0.10190900552988434</v>
+      </c>
+      <c r="Q29">
+        <v>-0.10322467062964411</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30">
+        <v>-0.02</v>
+      </c>
+      <c r="P30">
+        <v>-0.11494052196190628</v>
+      </c>
+      <c r="Q30">
+        <v>-0.11625601707989679</v>
+      </c>
+    </row>
+    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>-0.12</v>
+      </c>
+      <c r="P31">
+        <v>-9.669346361382497E-2</v>
+      </c>
+      <c r="Q31">
+        <v>-9.7993879774849704E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32">
+        <v>-0.15</v>
+      </c>
+      <c r="P32">
+        <v>-8.0690600106278973E-2</v>
+      </c>
+      <c r="Q32">
+        <v>-8.1895266884328188E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>-0.2</v>
+      </c>
+      <c r="P33">
+        <v>-0.1309765308771362</v>
+      </c>
+      <c r="Q33">
+        <v>-0.13220914020593275</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M34" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34">
+        <v>-0.22</v>
+      </c>
+      <c r="P34">
+        <v>-0.15214808913150676</v>
+      </c>
+      <c r="Q34">
+        <v>-0.15311308172460375</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>-0.23</v>
+      </c>
+      <c r="P35">
+        <v>-7.8697478027038067E-2</v>
+      </c>
+      <c r="Q35">
+        <v>-7.9885460356313776E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36">
+        <v>-0.35</v>
+      </c>
+      <c r="P36">
+        <v>-6.9176418092304889E-2</v>
+      </c>
+      <c r="Q36">
+        <v>-7.0271666297294838E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M37" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37">
+        <v>-0.45</v>
+      </c>
+      <c r="P37">
+        <v>-0.21229917561524697</v>
+      </c>
+      <c r="Q37">
+        <v>-0.21131288652600924</v>
+      </c>
+    </row>
+    <row r="38" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M38" t="s">
+        <v>67</v>
+      </c>
+      <c r="N38">
+        <v>-0.5</v>
+      </c>
+      <c r="P38">
+        <v>-2.5300173435726683E-2</v>
+      </c>
+      <c r="Q38">
+        <v>-2.5755888485221975E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>44463</v>
+      </c>
+      <c r="M39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="P39">
+        <v>-6.7719716218675924E-2</v>
+      </c>
+      <c r="Q39">
+        <v>-6.8798980067833068E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1283BD4-79DE-4ADE-86D3-D5D7A6F399C8}">
+  <dimension ref="B3:H12"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L10" sqref="L10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="H3" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>120</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9AF57EC4-1DF2-4558-A9FB-01F2CCF06DB7}">
+  <dimension ref="L1:Q42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="U28" sqref="U28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2">
+        <v>0.42</v>
+      </c>
+      <c r="P2">
+        <v>-5.537887203975108E-2</v>
+      </c>
+      <c r="Q2">
+        <v>-5.6305616629498602E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P3">
+        <v>2.2561417109891534E-2</v>
+      </c>
+      <c r="Q3">
+        <v>2.2969360979163068E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4">
+        <v>-0.43</v>
+      </c>
+      <c r="P4">
+        <v>7.3076166697235378E-2</v>
+      </c>
+      <c r="Q4">
+        <v>7.4211919937574672E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5">
+        <v>0.77</v>
+      </c>
+      <c r="P5">
+        <v>7.6590786090552407E-2</v>
+      </c>
+      <c r="Q5">
+        <v>7.7760074137281518E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>-0.48</v>
+      </c>
+      <c r="P6">
+        <v>-0.11517251668977312</v>
+      </c>
+      <c r="Q6">
+        <v>-0.11648748610945621</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M7" t="s">
+        <v>24</v>
+      </c>
+      <c r="N7">
+        <v>0.79</v>
+      </c>
+      <c r="P7">
+        <v>4.7040323888179823E-2</v>
+      </c>
+      <c r="Q7">
+        <v>4.7848652272063051E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M8" t="s">
+        <v>62</v>
+      </c>
+      <c r="N8">
+        <v>0.73</v>
+      </c>
+      <c r="P8">
+        <v>6.8727146128618813E-2</v>
+      </c>
+      <c r="Q8">
+        <v>6.9817513031842054E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M9" t="s">
+        <v>22</v>
+      </c>
+      <c r="N9">
+        <v>0.35</v>
+      </c>
+      <c r="P9">
+        <v>-9.8263061273492699E-2</v>
+      </c>
+      <c r="Q9">
+        <v>-9.9568941218284107E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10">
+        <v>0.39</v>
+      </c>
+      <c r="P10">
+        <v>2.6001612150988062E-4</v>
+      </c>
+      <c r="Q10">
+        <v>2.6478744821263947E-4</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>-0.08</v>
+      </c>
+      <c r="P11">
+        <v>-0.11395493593157975</v>
+      </c>
+      <c r="Q11">
+        <v>-0.11527245362042036</v>
+      </c>
+    </row>
+    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>0.79</v>
+      </c>
+      <c r="P12">
+        <v>4.7040323888179823E-2</v>
+      </c>
+      <c r="Q12">
+        <v>4.7848652272063051E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M13" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" t="s">
+        <v>35</v>
+      </c>
+      <c r="O13" t="s">
+        <v>36</v>
+      </c>
+      <c r="P13" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q13" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>44459</v>
       </c>
       <c r="M14" t="s">
         <v>20</v>
       </c>
       <c r="N14">
-        <v>0.66</v>
+        <v>0.21</v>
       </c>
       <c r="P14">
-        <v>0.13333986866302078</v>
+        <v>-0.11664009684586729</v>
       </c>
       <c r="Q14">
-        <v>-3.9442841530609306E-2</v>
+        <v>-0.1179512994903459</v>
       </c>
     </row>
     <row r="15" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L15" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M15" t="s">
-        <v>47</v>
+        <v>27</v>
       </c>
       <c r="N15">
         <v>0.65</v>
       </c>
       <c r="P15">
-        <v>0.1900215964549925</v>
+        <v>2.7716011780086779E-2</v>
       </c>
       <c r="Q15">
-        <v>4.5227037632663586E-2</v>
+        <v>2.8213369329245425E-2</v>
       </c>
     </row>
     <row r="16" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L16" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M16" t="s">
-        <v>5</v>
+        <v>30</v>
       </c>
       <c r="N16">
-        <v>0.63</v>
+        <v>7.0000000000000007E-2</v>
       </c>
       <c r="P16">
-        <v>0.15823613742386744</v>
+        <v>-5.9809211883139604E-2</v>
       </c>
       <c r="Q16">
-        <v>3.8953740258605991E-2</v>
+        <v>-6.0794062844375642E-2</v>
       </c>
     </row>
     <row r="17" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L17" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M17" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
       <c r="N17">
-        <v>0.56999999999999995</v>
+        <v>0.47</v>
       </c>
       <c r="P17">
-        <v>-9.7937748468659241E-2</v>
+        <v>-0.13170391765935918</v>
       </c>
       <c r="Q17">
-        <v>-0.31177775664320789</v>
+        <v>-0.13293043331376206</v>
       </c>
     </row>
     <row r="18" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L18" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M18" t="s">
-        <v>64</v>
+        <v>26</v>
       </c>
       <c r="N18">
-        <v>0.55000000000000004</v>
+        <v>0.02</v>
       </c>
       <c r="P18">
-        <v>6.1176813993366524E-2</v>
+        <v>-0.16492875712920221</v>
       </c>
       <c r="Q18">
-        <v>-0.13084157910790215</v>
+        <v>-0.16563527316227467</v>
       </c>
     </row>
     <row r="19" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L19" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M19" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="N19">
-        <v>0.52</v>
+        <v>0.38</v>
       </c>
       <c r="P19">
-        <v>-8.9392031582198828E-2</v>
+        <v>-0.12604350250326846</v>
       </c>
       <c r="Q19">
-        <v>-0.26367161894253732</v>
+        <v>-0.12731194890683711</v>
       </c>
     </row>
     <row r="20" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L20" s="1">
-        <v>44442</v>
+        <v>44459</v>
       </c>
       <c r="M20" t="s">
-        <v>65</v>
+        <v>22</v>
       </c>
       <c r="N20">
-        <v>0.51</v>
+        <v>0.35</v>
       </c>
       <c r="P20">
-        <v>-0.3008354070305565</v>
+        <v>-9.8263061273492699E-2</v>
       </c>
       <c r="Q20">
-        <v>-0.97666261536843313</v>
+        <v>-9.9568941218284107E-2</v>
       </c>
     </row>
     <row r="21" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L21" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M21" t="s">
-        <v>24</v>
+        <v>45</v>
       </c>
       <c r="N21">
-        <v>0.48</v>
+        <v>0.2</v>
       </c>
       <c r="P21">
-        <v>0.17340129396813145</v>
+        <v>-0.14306498804387546</v>
       </c>
       <c r="Q21">
-        <v>6.2329147491400123E-2</v>
+        <v>-0.14416825418061258</v>
       </c>
     </row>
     <row r="22" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L22" s="1">
-        <v>44442</v>
+        <v>44459</v>
       </c>
       <c r="M22" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="N22">
-        <v>0.47</v>
+        <v>0.53</v>
       </c>
       <c r="P22">
-        <v>0.20137589889197777</v>
+        <v>-0.10150441771343134</v>
       </c>
       <c r="Q22">
-        <v>-0.25845077495668217</v>
+        <v>-0.10281920048475499</v>
       </c>
     </row>
     <row r="23" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L23" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M23" t="s">
-        <v>21</v>
+        <v>47</v>
       </c>
       <c r="N23">
-        <v>0.43</v>
+        <v>0.82</v>
       </c>
       <c r="P23">
-        <v>-1.7840880398131601E-2</v>
+        <v>6.0417670933460066E-2</v>
       </c>
       <c r="Q23">
-        <v>-0.26151798546805105</v>
+        <v>6.1410220398091832E-2</v>
       </c>
     </row>
     <row r="24" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L24" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M24" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="N24">
-        <v>0.43</v>
+        <v>0.42</v>
       </c>
       <c r="P24">
-        <v>0.13042342118731864</v>
+        <v>-3.4572106339509044E-2</v>
       </c>
       <c r="Q24">
-        <v>-2.9440537168518854E-2</v>
+        <v>-3.5184710887544976E-2</v>
       </c>
     </row>
     <row r="25" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L25" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M25" t="s">
-        <v>69</v>
+        <v>61</v>
       </c>
       <c r="N25">
-        <v>0.33</v>
+        <v>0.18</v>
       </c>
       <c r="P25">
-        <v>6.396215493109797E-2</v>
+        <v>-0.12696187771780901</v>
       </c>
       <c r="Q25">
-        <v>-0.12578068337563383</v>
+        <v>-0.1282243690955733</v>
       </c>
     </row>
     <row r="26" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L26" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M26" t="s">
-        <v>72</v>
+        <v>5</v>
       </c>
       <c r="N26">
-        <v>0.3</v>
+        <v>0.83</v>
       </c>
       <c r="P26">
-        <v>6.345603170926222E-5</v>
+        <v>5.2154881785664832E-2</v>
       </c>
       <c r="Q26">
-        <v>-0.14585468317396771</v>
+        <v>5.3037178913737257E-2</v>
       </c>
     </row>
     <row r="27" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L27" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M27" t="s">
-        <v>70</v>
+        <v>63</v>
       </c>
       <c r="N27">
-        <v>0.28000000000000003</v>
+        <v>0.67</v>
       </c>
       <c r="P27">
-        <v>-2.4415746888775031E-2</v>
+        <v>-0.18083463514501519</v>
       </c>
       <c r="Q27">
-        <v>-0.28840928022071727</v>
+        <v>-0.18110769063026164</v>
       </c>
     </row>
     <row r="28" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L28" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M28" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="N28">
-        <v>0.27</v>
+        <v>0.61</v>
       </c>
       <c r="P28">
-        <v>-0.15759229794766241</v>
+        <v>0.15275913765804403</v>
       </c>
       <c r="Q28">
-        <v>-0.34468052798072174</v>
+        <v>0.15371350484633892</v>
       </c>
     </row>
     <row r="29" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L29" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M29" t="s">
-        <v>30</v>
+        <v>62</v>
       </c>
       <c r="N29">
-        <v>0.25</v>
+        <v>0.73</v>
       </c>
       <c r="P29">
-        <v>0.1496199156940976</v>
+        <v>6.8727146128618813E-2</v>
       </c>
       <c r="Q29">
-        <v>-7.9645590516970455E-2</v>
+        <v>6.9817513031842054E-2</v>
       </c>
     </row>
     <row r="30" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L30" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M30" t="s">
-        <v>6</v>
+        <v>60</v>
       </c>
       <c r="N30">
-        <v>0.22</v>
+        <v>-0.2</v>
       </c>
       <c r="P30">
-        <v>-2.1199999150884028E-2</v>
+        <v>-7.3388826210715949E-2</v>
       </c>
       <c r="Q30">
-        <v>-0.26964485770164637</v>
+        <v>-7.4527678937095027E-2</v>
       </c>
     </row>
     <row r="31" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L31" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M31" t="s">
-        <v>73</v>
+        <v>41</v>
       </c>
       <c r="N31">
-        <v>0.19</v>
+        <v>0.14000000000000001</v>
       </c>
       <c r="P31">
-        <v>1.1343707596644003E-2</v>
+        <v>0.29294884209143351</v>
       </c>
       <c r="Q31">
-        <v>-0.25918591742063807</v>
+        <v>0.28587453861193241</v>
       </c>
     </row>
     <row r="32" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L32" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M32" t="s">
-        <v>25</v>
+        <v>69</v>
       </c>
       <c r="N32">
-        <v>0.14000000000000001</v>
+        <v>-0.06</v>
       </c>
       <c r="P32">
-        <v>0.12351108513667554</v>
+        <v>-0.12077086753295355</v>
       </c>
       <c r="Q32">
-        <v>-5.5197096436038179E-2</v>
+        <v>-0.1220673129351238</v>
       </c>
     </row>
     <row r="33" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L33" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M33" t="s">
-        <v>60</v>
+        <v>68</v>
       </c>
       <c r="N33">
-        <v>0.12</v>
+        <v>0.1</v>
       </c>
       <c r="P33">
-        <v>0.17094619324024524</v>
+        <v>-8.0272477975412412E-2</v>
       </c>
       <c r="Q33">
-        <v>-8.4866959127048905E-2</v>
+        <v>-8.1473726622649234E-2</v>
       </c>
     </row>
     <row r="34" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L34" s="1">
-        <v>44443</v>
+        <v>44459</v>
       </c>
       <c r="M34" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="N34">
-        <v>0.01</v>
+        <v>-0.2</v>
       </c>
       <c r="P34">
-        <v>0.73390662242446336</v>
+        <v>-0.12693510712589934</v>
       </c>
       <c r="Q34">
-        <v>0.51813568574074653</v>
+        <v>-0.12819777668748222</v>
       </c>
     </row>
     <row r="35" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L35" s="1">
-        <v>44441</v>
+        <v>44459</v>
       </c>
       <c r="M35" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="N35">
-        <v>-0.21</v>
+        <v>0.35</v>
       </c>
       <c r="P35">
-        <v>-6.8736383438922244E-2</v>
+        <v>-1.61185994227541E-2</v>
       </c>
       <c r="Q35">
-        <v>-0.91743649613826384</v>
+        <v>-1.6412167380339994E-2</v>
       </c>
     </row>
     <row r="36" spans="12:17" x14ac:dyDescent="0.25">
       <c r="L36" s="1">
-        <v>44442</v>
+        <v>44459</v>
       </c>
       <c r="M36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P36">
+        <v>-9.0184889147519563E-3</v>
+      </c>
+      <c r="Q36">
+        <v>-9.1835922900169245E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M37" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37">
+        <v>0.9</v>
+      </c>
+      <c r="P37">
+        <v>8.8205955788850487E-2</v>
+      </c>
+      <c r="Q37">
+        <v>8.9464354476934113E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38">
+        <v>0.39</v>
+      </c>
+      <c r="P38">
+        <v>2.6001612150988062E-4</v>
+      </c>
+      <c r="Q38">
+        <v>2.6478744821263947E-4</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>44459</v>
+      </c>
+      <c r="M39" t="s">
+        <v>71</v>
+      </c>
+      <c r="N39">
+        <v>0.54</v>
+      </c>
+      <c r="P39">
+        <v>7.968665712739853E-2</v>
+      </c>
+      <c r="Q39">
+        <v>8.0883043211822853E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="N40">
+        <f>SUM(N2:N39)</f>
+        <v>13.200000000000003</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7734D466-AF31-4452-9070-BB24E2B4707C}">
+  <dimension ref="L1:Q42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="T18" sqref="T18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0.82</v>
+      </c>
+      <c r="P2">
+        <v>0.3420807472309555</v>
+      </c>
+      <c r="Q2">
+        <v>0.33646069302509757</v>
+      </c>
+    </row>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M3" t="s">
+        <v>64</v>
+      </c>
+      <c r="N3">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P3">
+        <v>0.26180773894128423</v>
+      </c>
+      <c r="Q3">
+        <v>0.26376555667920903</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M4" t="s">
+        <v>62</v>
+      </c>
+      <c r="N4">
+        <v>0.66</v>
+      </c>
+      <c r="P4">
+        <v>0.18839511887661003</v>
+      </c>
+      <c r="Q4">
+        <v>0.19307001028088258</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M5" t="s">
         <v>66</v>
       </c>
+      <c r="N5">
+        <v>0.75</v>
+      </c>
+      <c r="P5">
+        <v>0.1679834625260406</v>
+      </c>
+      <c r="Q5">
+        <v>0.17281324536113959</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M6" t="s">
+        <v>71</v>
+      </c>
+      <c r="N6">
+        <v>0.6</v>
+      </c>
+      <c r="P6">
+        <v>0.14794920154391758</v>
+      </c>
+      <c r="Q6">
+        <v>0.15271532312953062</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M7" t="s">
+        <v>70</v>
+      </c>
+      <c r="N7">
+        <v>0.83</v>
+      </c>
+      <c r="P7">
+        <v>9.9132149774396952E-2</v>
+      </c>
+      <c r="Q7">
+        <v>0.10298957215829559</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>0.51</v>
+      </c>
+      <c r="P8">
+        <v>8.003668063345025E-2</v>
+      </c>
+      <c r="Q8">
+        <v>8.3305016311893867E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M9" t="s">
+        <v>65</v>
+      </c>
+      <c r="N9">
+        <v>0.5</v>
+      </c>
+      <c r="P9">
+        <v>7.5648321781734945E-2</v>
+      </c>
+      <c r="Q9">
+        <v>7.8766611254689006E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M10" t="s">
+        <v>41</v>
+      </c>
+      <c r="N10">
+        <v>0.05</v>
+      </c>
+      <c r="P10">
+        <v>7.3955742254583012E-2</v>
+      </c>
+      <c r="Q10">
+        <v>7.7014834014813252E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M11" t="s">
+        <v>47</v>
+      </c>
+      <c r="N11">
+        <v>0.85</v>
+      </c>
+      <c r="P11">
+        <v>4.3818825128285707E-2</v>
+      </c>
+      <c r="Q11">
+        <v>4.5719412314611921E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M12" t="s">
+        <v>22</v>
+      </c>
+      <c r="N12">
+        <v>0.46</v>
+      </c>
+      <c r="P12">
+        <v>4.2909503978054001E-2</v>
+      </c>
+      <c r="Q12">
+        <v>4.4772572470092566E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M13" t="s">
+        <v>76</v>
+      </c>
+      <c r="N13">
+        <v>0.44</v>
+      </c>
+      <c r="P13">
+        <v>3.5302675966020373E-2</v>
+      </c>
+      <c r="Q13">
+        <v>3.6847402554022322E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M14" t="s">
+        <v>73</v>
+      </c>
+      <c r="N14">
+        <v>0.43</v>
+      </c>
+      <c r="P14">
+        <v>2.4197069382768062E-2</v>
+      </c>
+      <c r="Q14">
+        <v>2.5264947322718837E-2</v>
+      </c>
+    </row>
+    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M15" t="s">
+        <v>5</v>
+      </c>
+      <c r="N15">
+        <v>0.86</v>
+      </c>
+      <c r="P15">
+        <v>-4.4719511192583628E-3</v>
+      </c>
+      <c r="Q15">
+        <v>-4.6707496611907377E-3</v>
+      </c>
+    </row>
+    <row r="16" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M16" t="s">
+        <v>43</v>
+      </c>
+      <c r="N16">
+        <v>0.49</v>
+      </c>
+      <c r="P16">
+        <v>-0.10114248102153425</v>
+      </c>
+      <c r="Q16">
+        <v>-0.10505530525183203</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M17" t="s">
+        <v>30</v>
+      </c>
+      <c r="N17">
+        <v>0.17</v>
+      </c>
+      <c r="P17">
+        <v>-0.1106695301028667</v>
+      </c>
+      <c r="Q17">
+        <v>-0.11482599452131416</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18">
+        <v>0.45</v>
+      </c>
+      <c r="P18">
+        <v>-0.12246312210759844</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1268748954331356</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M19" t="s">
+        <v>21</v>
+      </c>
+      <c r="N19">
+        <v>0.2</v>
+      </c>
+      <c r="P19">
+        <v>-0.12384777723194564</v>
+      </c>
+      <c r="Q19">
+        <v>-0.12828595443221574</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M20" t="s">
+        <v>63</v>
+      </c>
+      <c r="N20">
+        <v>0.73</v>
+      </c>
+      <c r="P20">
+        <v>-0.12784088586468897</v>
+      </c>
+      <c r="Q20">
+        <v>-0.13235081857901518</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M21" t="s">
+        <v>6</v>
+      </c>
+      <c r="N21">
+        <v>0.03</v>
+      </c>
+      <c r="P21">
+        <v>-0.13027788767610032</v>
+      </c>
+      <c r="Q21">
+        <v>-0.13482834919280254</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M22" t="s">
+        <v>74</v>
+      </c>
+      <c r="N22">
+        <v>0.33</v>
+      </c>
+      <c r="P22">
+        <v>-0.13197744517918797</v>
+      </c>
+      <c r="Q22">
+        <v>-0.13655467872456784</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M23" t="s">
+        <v>60</v>
+      </c>
+      <c r="N23">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="P23">
+        <v>-0.15146147770382595</v>
+      </c>
+      <c r="Q23">
+        <v>-0.15625323264148866</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M24" t="s">
+        <v>68</v>
+      </c>
+      <c r="N24">
+        <v>0.16</v>
+      </c>
+      <c r="P24">
+        <v>-0.15583610489252891</v>
+      </c>
+      <c r="Q24">
+        <v>-0.16065137671397958</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25">
+        <v>0.67</v>
+      </c>
+      <c r="P25">
+        <v>-0.1726391576453046</v>
+      </c>
+      <c r="Q25">
+        <v>-0.17745394759363434</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M26" t="s">
+        <v>61</v>
+      </c>
+      <c r="N26">
+        <v>0.26</v>
+      </c>
+      <c r="P26">
+        <v>-0.18639000064691341</v>
+      </c>
+      <c r="Q26">
+        <v>-0.19109056012678988</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M27" t="s">
+        <v>26</v>
+      </c>
+      <c r="N27">
+        <v>0.15</v>
+      </c>
+      <c r="P27">
+        <v>-0.19761595320937173</v>
+      </c>
+      <c r="Q27">
+        <v>-0.20214218348198226</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M28" t="s">
+        <v>69</v>
+      </c>
+      <c r="N28">
+        <v>0.02</v>
+      </c>
+      <c r="P28">
+        <v>-0.2167548734701604</v>
+      </c>
+      <c r="Q28">
+        <v>-0.22080523019756221</v>
+      </c>
+    </row>
+    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M29" t="s">
+        <v>45</v>
+      </c>
+      <c r="N29">
+        <v>0.34</v>
+      </c>
+      <c r="P29">
+        <v>-0.21866108649566549</v>
+      </c>
+      <c r="Q29">
+        <v>-0.22265119877174155</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M30" t="s">
+        <v>28</v>
+      </c>
+      <c r="N30">
+        <v>0.75</v>
+      </c>
+      <c r="P30">
+        <v>-0.22356714861968632</v>
+      </c>
+      <c r="Q30">
+        <v>-0.22739117148162363</v>
+      </c>
+    </row>
+    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M31" t="s">
+        <v>25</v>
+      </c>
+      <c r="N31">
+        <v>0.59</v>
+      </c>
+      <c r="P31">
+        <v>-0.24551896553022504</v>
+      </c>
+      <c r="Q31">
+        <v>-0.24839892677994013</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M32" t="s">
+        <v>2</v>
+      </c>
+      <c r="N32">
+        <v>0.49</v>
+      </c>
+      <c r="P32">
+        <v>-0.24752875306052402</v>
+      </c>
+      <c r="Q32">
+        <v>-0.2503053785245023</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M33" t="s">
+        <v>3</v>
+      </c>
+      <c r="N33">
+        <v>0.53</v>
+      </c>
+      <c r="P33">
+        <v>-0.25344656100633339</v>
+      </c>
+      <c r="Q33">
+        <v>-0.25590197117648195</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M34" t="s">
+        <v>75</v>
+      </c>
+      <c r="N34">
+        <v>-0.33</v>
+      </c>
+      <c r="P34">
+        <v>-0.26077780563686798</v>
+      </c>
+      <c r="Q34">
+        <v>-0.26279971608073094</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M35" t="s">
+        <v>20</v>
+      </c>
+      <c r="N35">
+        <v>0.37</v>
+      </c>
+      <c r="P35">
+        <v>-0.26194302309150158</v>
+      </c>
+      <c r="Q35">
+        <v>-0.26389236324605225</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M36" t="s">
+        <v>23</v>
+      </c>
       <c r="N36">
-        <v>-0.8</v>
+        <v>0.62</v>
       </c>
       <c r="P36">
-        <v>-2.7649058953602663E-2</v>
+        <v>-0.30521174921623423</v>
       </c>
       <c r="Q36">
-        <v>-0.49908706368252465</v>
+        <v>-0.30372397497221548</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>44455</v>
+      </c>
+      <c r="M37" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37">
+        <v>-0.5</v>
+      </c>
+      <c r="P37">
+        <v>-0.30651911145325111</v>
+      </c>
+      <c r="Q37">
+        <v>-0.30490424987120623</v>
+      </c>
+    </row>
+    <row r="38" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M38" t="s">
+        <v>24</v>
+      </c>
+      <c r="N38">
+        <v>0.81</v>
+      </c>
+      <c r="P38">
+        <v>-0.32185184580016762</v>
+      </c>
+      <c r="Q38">
+        <v>-0.31864094338298898</v>
       </c>
     </row>
     <row r="39" spans="12:17" x14ac:dyDescent="0.25">
-      <c r="L39" t="s">
+      <c r="L39" s="1">
+        <v>44456</v>
+      </c>
+      <c r="M39" t="s">
+        <v>72</v>
+      </c>
+      <c r="N39">
+        <v>-7.0000000000000007E-2</v>
+      </c>
+      <c r="P39">
+        <v>-0.32245377618405036</v>
+      </c>
+      <c r="Q39">
+        <v>-0.31917621063638318</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
         <v>42</v>
       </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6E556CF-1A4B-4640-B567-CE190FBEF53A}">
+  <dimension ref="L1:Y42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M34" sqref="M34:W34"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+    <col min="20" max="20" width="12.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+      <c r="R1" t="s">
+        <v>119</v>
+      </c>
+      <c r="T1" t="s">
+        <v>42</v>
+      </c>
+      <c r="U1" t="s">
+        <v>0</v>
+      </c>
+      <c r="V1" t="s">
+        <v>35</v>
+      </c>
+      <c r="W1" t="s">
+        <v>36</v>
+      </c>
+      <c r="X1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Y1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M2" t="s">
+        <v>1</v>
+      </c>
+      <c r="N2">
+        <v>0.97</v>
+      </c>
+      <c r="P2">
+        <v>8.7224059990051075E-2</v>
+      </c>
+      <c r="Q2">
+        <v>8.8476289892051072E-2</v>
+      </c>
+      <c r="T2" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U2" t="s">
+        <v>1</v>
+      </c>
+      <c r="V2">
+        <v>0.98</v>
+      </c>
+      <c r="X2">
+        <v>0.14067931516493723</v>
+      </c>
+      <c r="Y2">
+        <v>0.14181293344805443</v>
+      </c>
+    </row>
+    <row r="3" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M3" t="s">
+        <v>70</v>
+      </c>
+      <c r="N3">
+        <v>0.93</v>
+      </c>
+      <c r="P3">
+        <v>8.163193082552431E-3</v>
+      </c>
+      <c r="Q3">
+        <v>8.3127017133701707E-3</v>
+      </c>
+      <c r="T3" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U3" t="s">
+        <v>66</v>
+      </c>
+      <c r="V3">
+        <v>0.91</v>
+      </c>
+      <c r="X3">
+        <v>0.15810031661608756</v>
+      </c>
+      <c r="Y3">
+        <v>0.15895449455876939</v>
+      </c>
+    </row>
+    <row r="4" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M4" t="s">
+        <v>66</v>
+      </c>
+      <c r="N4">
+        <v>0.86</v>
+      </c>
+      <c r="P4">
+        <v>0.1124922209991692</v>
+      </c>
+      <c r="Q4">
+        <v>0.11381211601844629</v>
+      </c>
+      <c r="T4" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U4" t="s">
+        <v>70</v>
+      </c>
+      <c r="V4">
+        <v>0.91</v>
+      </c>
+      <c r="X4">
+        <v>5.5317530463471688E-2</v>
+      </c>
+      <c r="Y4">
+        <v>5.6243445924655695E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M5" t="s">
+        <v>47</v>
+      </c>
+      <c r="N5">
+        <v>0.77</v>
+      </c>
+      <c r="P5">
+        <v>3.0925530929226556E-2</v>
+      </c>
+      <c r="Q5">
+        <v>3.1477413255641094E-2</v>
+      </c>
+      <c r="T5" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U5" t="s">
+        <v>47</v>
+      </c>
+      <c r="V5">
+        <v>0.75</v>
+      </c>
+      <c r="X5">
+        <v>8.5643196396711835E-2</v>
+      </c>
+      <c r="Y5">
+        <v>8.6884946796248211E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6">
+        <v>0.71</v>
+      </c>
+      <c r="P6">
+        <v>-2.0583258627610204E-2</v>
+      </c>
+      <c r="Q6">
+        <v>-2.0956361392942702E-2</v>
+      </c>
+      <c r="T6" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U6" t="s">
+        <v>64</v>
+      </c>
+      <c r="V6">
+        <v>0.73</v>
+      </c>
+      <c r="X6">
+        <v>0.18825935585025128</v>
+      </c>
+      <c r="Y6">
+        <v>0.18828503032572821</v>
+      </c>
+    </row>
+    <row r="7" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M7" t="s">
+        <v>5</v>
+      </c>
+      <c r="N7">
+        <v>0.71</v>
+      </c>
+      <c r="P7">
+        <v>8.7706568922185681E-3</v>
+      </c>
+      <c r="Q7">
+        <v>8.9312435696204378E-3</v>
+      </c>
+      <c r="T7" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U7" t="s">
+        <v>27</v>
+      </c>
+      <c r="V7">
+        <v>0.7</v>
+      </c>
+      <c r="X7">
+        <v>3.4499362739485895E-2</v>
+      </c>
+      <c r="Y7">
+        <v>3.5110769659622496E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M8" t="s">
+        <v>64</v>
+      </c>
+      <c r="N8">
+        <v>0.7</v>
+      </c>
+      <c r="P8">
+        <v>0.13290662809931492</v>
+      </c>
+      <c r="Q8">
+        <v>0.13412260435770881</v>
+      </c>
+      <c r="T8" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U8" t="s">
+        <v>5</v>
+      </c>
+      <c r="V8">
+        <v>0.66</v>
+      </c>
+      <c r="X8">
+        <v>5.4532099622052257E-2</v>
+      </c>
+      <c r="Y8">
+        <v>5.5447341169420412E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M9" t="s">
+        <v>24</v>
+      </c>
+      <c r="N9">
+        <v>0.69</v>
+      </c>
+      <c r="P9">
+        <v>1.9253609644143157E-2</v>
+      </c>
+      <c r="Q9">
+        <v>1.9603148685922746E-2</v>
+      </c>
+      <c r="T9" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U9" t="s">
+        <v>62</v>
+      </c>
+      <c r="V9">
+        <v>0.66</v>
+      </c>
+      <c r="X9">
+        <v>6.7220116917764874E-2</v>
+      </c>
+      <c r="Y9">
+        <v>6.8293794588487583E-2</v>
+      </c>
+    </row>
+    <row r="10" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M10" t="s">
+        <v>62</v>
+      </c>
+      <c r="N10">
+        <v>0.69</v>
+      </c>
+      <c r="P10">
+        <v>-3.625485047503132E-3</v>
+      </c>
+      <c r="Q10">
+        <v>-3.6919880954364801E-3</v>
+      </c>
+      <c r="T10" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U10" t="s">
+        <v>65</v>
+      </c>
+      <c r="V10">
+        <v>0.65</v>
+      </c>
+      <c r="X10">
+        <v>7.8730405722561986E-2</v>
+      </c>
+      <c r="Y10">
+        <v>7.9918671674399089E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M11" t="s">
+        <v>65</v>
+      </c>
+      <c r="N11">
+        <v>0.63</v>
+      </c>
+      <c r="P11">
+        <v>5.406469405466819E-2</v>
+      </c>
+      <c r="Q11">
+        <v>5.4973533321410313E-2</v>
+      </c>
+      <c r="T11" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U11" t="s">
+        <v>24</v>
+      </c>
+      <c r="V11">
+        <v>0.64</v>
+      </c>
+      <c r="X11">
+        <v>6.3736998822802454E-2</v>
+      </c>
+      <c r="Y11">
+        <v>6.4770291757006548E-2</v>
+      </c>
+    </row>
+    <row r="12" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M12" t="s">
+        <v>28</v>
+      </c>
+      <c r="N12">
+        <v>0.54</v>
+      </c>
+      <c r="P12">
+        <v>-0.16627975815793408</v>
+      </c>
+      <c r="Q12">
+        <v>-0.16695439214312371</v>
+      </c>
+      <c r="T12" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U12" t="s">
+        <v>25</v>
+      </c>
+      <c r="V12">
+        <v>0.5</v>
+      </c>
+      <c r="X12">
+        <v>-7.6251833152327433E-2</v>
+      </c>
+      <c r="Y12">
+        <v>-7.7418013610820943E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M13" t="s">
+        <v>63</v>
+      </c>
+      <c r="N13">
+        <v>0.53</v>
+      </c>
+      <c r="P13">
+        <v>-9.6625842460027908E-2</v>
+      </c>
+      <c r="Q13">
+        <v>-9.7926006596047985E-2</v>
+      </c>
+      <c r="T13" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U13" t="s">
+        <v>28</v>
+      </c>
+      <c r="V13">
+        <v>0.49</v>
+      </c>
+      <c r="X13">
+        <v>-0.14464148720356818</v>
+      </c>
+      <c r="Y13">
+        <v>-0.14572335513224299</v>
+      </c>
+    </row>
+    <row r="14" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>0.51</v>
+      </c>
+      <c r="P14">
+        <v>-0.13471115249694399</v>
+      </c>
+      <c r="Q14">
+        <v>-0.13591022232660016</v>
+      </c>
+      <c r="T14" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U14" t="s">
+        <v>63</v>
+      </c>
+      <c r="V14">
+        <v>0.46</v>
+      </c>
+      <c r="X14">
+        <v>-9.969277218765385E-2</v>
+      </c>
+      <c r="Y14">
+        <v>-0.10100297819919445</v>
+      </c>
+    </row>
+    <row r="15" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M15" t="s">
+        <v>71</v>
+      </c>
+      <c r="N15">
+        <v>0.45</v>
+      </c>
+      <c r="P15">
+        <v>7.4524982916022789E-2</v>
+      </c>
+      <c r="Q15">
+        <v>7.5674909293656181E-2</v>
+      </c>
+      <c r="T15" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U15" t="s">
+        <v>71</v>
+      </c>
+      <c r="V15">
+        <v>0.44</v>
+      </c>
+      <c r="X15">
+        <v>0.11884453632694703</v>
+      </c>
+      <c r="Y15">
+        <v>0.12014863392473521</v>
+      </c>
+    </row>
+    <row r="16" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M16" t="s">
+        <v>46</v>
+      </c>
+      <c r="N16">
+        <v>0.39</v>
+      </c>
+      <c r="P16">
+        <v>-0.10135986237622924</v>
+      </c>
+      <c r="Q16">
+        <v>-0.1026743174606954</v>
+      </c>
+      <c r="T16" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U16" t="s">
+        <v>46</v>
+      </c>
+      <c r="V16">
+        <v>0.34</v>
+      </c>
+      <c r="X16">
+        <v>-6.1088191438067034E-2</v>
+      </c>
+      <c r="Y16">
+        <v>-6.2089143303332525E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P17">
+        <v>-0.1299558236057676</v>
+      </c>
+      <c r="Q17">
+        <v>-0.13119662990058736</v>
+      </c>
+      <c r="T17" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U17" t="s">
+        <v>41</v>
+      </c>
+      <c r="V17">
+        <v>0.33</v>
+      </c>
+      <c r="X17">
+        <v>0.22640507069708779</v>
+      </c>
+      <c r="Y17">
+        <v>0.22466559465333585</v>
+      </c>
+    </row>
+    <row r="18" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M18" t="s">
+        <v>59</v>
+      </c>
+      <c r="N18">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P18">
+        <v>-0.15760965035707741</v>
+      </c>
+      <c r="Q18">
+        <v>-0.1584735852549061</v>
+      </c>
+      <c r="T18" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U18" t="s">
+        <v>43</v>
+      </c>
+      <c r="V18">
+        <v>0.24</v>
+      </c>
+      <c r="X18">
+        <v>-5.9194636138731591E-2</v>
+      </c>
+      <c r="Y18">
+        <v>-6.0171640649990213E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M19" t="s">
+        <v>43</v>
+      </c>
+      <c r="N19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P19">
+        <v>-0.12238217692080534</v>
+      </c>
+      <c r="Q19">
+        <v>-0.12367117201639605</v>
+      </c>
+      <c r="T19" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U19" t="s">
+        <v>59</v>
+      </c>
+      <c r="V19">
+        <v>0.24</v>
+      </c>
+      <c r="X19">
+        <v>-0.14002302395456681</v>
+      </c>
+      <c r="Y19">
+        <v>-0.14116456759377952</v>
+      </c>
+    </row>
+    <row r="20" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M20" t="s">
+        <v>41</v>
+      </c>
+      <c r="N20">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P20">
+        <v>0.2345523300397061</v>
+      </c>
+      <c r="Q20">
+        <v>0.23232108691121939</v>
+      </c>
+      <c r="T20" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U20" t="s">
+        <v>23</v>
+      </c>
+      <c r="V20">
+        <v>0.22</v>
+      </c>
+      <c r="X20">
+        <v>-8.9937284095305714E-2</v>
+      </c>
+      <c r="Y20">
+        <v>-9.1205914841196806E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21">
+        <v>0.27</v>
+      </c>
+      <c r="P21">
+        <v>-5.7129164503673065E-2</v>
+      </c>
+      <c r="Q21">
+        <v>-5.8079288339433689E-2</v>
+      </c>
+      <c r="T21" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U21" t="s">
+        <v>76</v>
+      </c>
+      <c r="V21">
+        <v>0.21</v>
+      </c>
+      <c r="X21">
+        <v>-2.571897254099095E-2</v>
+      </c>
+      <c r="Y21">
+        <v>-2.6181941260323641E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M22" t="s">
+        <v>3</v>
+      </c>
+      <c r="N22">
+        <v>0.23</v>
+      </c>
+      <c r="P22">
+        <v>-0.17233526897275578</v>
+      </c>
+      <c r="Q22">
+        <v>-0.17285590340548251</v>
+      </c>
+      <c r="T22" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U22" t="s">
+        <v>3</v>
+      </c>
+      <c r="V22">
+        <v>0.18</v>
+      </c>
+      <c r="X22">
+        <v>-0.13923195563120766</v>
+      </c>
+      <c r="Y22">
+        <v>-0.14038281076090842</v>
+      </c>
+    </row>
+    <row r="23" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M23" t="s">
+        <v>73</v>
+      </c>
+      <c r="N23">
+        <v>0.22</v>
+      </c>
+      <c r="P23">
+        <v>-3.6149351877878204E-2</v>
+      </c>
+      <c r="Q23">
+        <v>-3.6787779572129475E-2</v>
+      </c>
+      <c r="T23" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U23" t="s">
+        <v>73</v>
+      </c>
+      <c r="V23">
+        <v>0.17</v>
+      </c>
+      <c r="X23">
+        <v>1.9698177037050114E-3</v>
+      </c>
+      <c r="Y23">
+        <v>2.0059601268964523E-3</v>
+      </c>
+    </row>
+    <row r="24" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M24" t="s">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>0.21</v>
+      </c>
+      <c r="P24">
+        <v>-0.21487638030489695</v>
+      </c>
+      <c r="Q24">
+        <v>-0.21376157362685777</v>
+      </c>
+      <c r="T24" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U24" t="s">
+        <v>2</v>
+      </c>
+      <c r="V24">
+        <v>0.16</v>
+      </c>
+      <c r="X24">
+        <v>-0.17420343173116049</v>
+      </c>
+      <c r="Y24">
+        <v>-0.17467283632035449</v>
+      </c>
+    </row>
+    <row r="25" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M25" t="s">
+        <v>74</v>
+      </c>
+      <c r="N25">
+        <v>0.18</v>
+      </c>
+      <c r="P25">
+        <v>-6.3126658685971351E-2</v>
+      </c>
+      <c r="Q25">
+        <v>-6.4152621795790815E-2</v>
+      </c>
+      <c r="T25" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U25" t="s">
+        <v>74</v>
+      </c>
+      <c r="V25">
+        <v>0.12</v>
+      </c>
+      <c r="X25">
+        <v>-3.7597582724394188E-2</v>
+      </c>
+      <c r="Y25">
+        <v>-3.825947153300694E-2</v>
+      </c>
+    </row>
+    <row r="26" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M26" t="s">
+        <v>22</v>
+      </c>
+      <c r="N26">
+        <v>0.17</v>
+      </c>
+      <c r="P26">
+        <v>-0.10652340576571973</v>
+      </c>
+      <c r="Q26">
+        <v>-0.10784544667379692</v>
+      </c>
+      <c r="T26" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U26" t="s">
+        <v>22</v>
+      </c>
+      <c r="V26">
+        <v>0.1</v>
+      </c>
+      <c r="X26">
+        <v>-8.3360355891724011E-2</v>
+      </c>
+      <c r="Y26">
+        <v>-8.4585802334640886E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M27" t="s">
+        <v>21</v>
+      </c>
+      <c r="N27">
+        <v>0.08</v>
+      </c>
+      <c r="P27">
+        <v>-0.10994395539941965</v>
+      </c>
+      <c r="Q27">
+        <v>-0.11126623442464427</v>
+      </c>
+      <c r="T27" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U27" t="s">
+        <v>21</v>
+      </c>
+      <c r="V27">
+        <v>0.03</v>
+      </c>
+      <c r="X27">
+        <v>-3.1886350966771983E-2</v>
+      </c>
+      <c r="Y27">
+        <v>-3.2454365056432892E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M28" t="s">
+        <v>61</v>
+      </c>
+      <c r="N28">
+        <v>0.06</v>
+      </c>
+      <c r="P28">
+        <v>-0.15974162880278142</v>
+      </c>
+      <c r="Q28">
+        <v>-0.16056234526196722</v>
+      </c>
+      <c r="T28" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U28" t="s">
+        <v>61</v>
+      </c>
+      <c r="V28">
+        <v>0.03</v>
+      </c>
+      <c r="X28">
+        <v>-9.9121789835100241E-2</v>
+      </c>
+      <c r="Y28">
+        <v>-0.10043034314288701</v>
+      </c>
+    </row>
+    <row r="29" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M29" t="s">
+        <v>20</v>
+      </c>
+      <c r="N29">
+        <v>0.05</v>
+      </c>
+      <c r="P29">
+        <v>-0.15292615781056301</v>
+      </c>
+      <c r="Q29">
+        <v>-0.15387759112095553</v>
+      </c>
+      <c r="T29" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U29" t="s">
+        <v>20</v>
+      </c>
+      <c r="V29">
+        <v>-0.01</v>
+      </c>
+      <c r="X29">
+        <v>-0.10190900552988434</v>
+      </c>
+      <c r="Y29">
+        <v>-0.10322467062964411</v>
+      </c>
+    </row>
+    <row r="30" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M30" t="s">
+        <v>45</v>
+      </c>
+      <c r="N30">
+        <v>0.04</v>
+      </c>
+      <c r="P30">
+        <v>-0.1477613138856822</v>
+      </c>
+      <c r="Q30">
+        <v>-0.14879764385280175</v>
+      </c>
+      <c r="T30" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U30" t="s">
+        <v>45</v>
+      </c>
+      <c r="V30">
+        <v>-0.02</v>
+      </c>
+      <c r="X30">
+        <v>-0.11494052196190628</v>
+      </c>
+      <c r="Y30">
+        <v>-0.11625601707989679</v>
+      </c>
+    </row>
+    <row r="31" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>-0.08</v>
+      </c>
+      <c r="P31">
+        <v>-0.12975041422407552</v>
+      </c>
+      <c r="Q31">
+        <v>-0.13099282035412654</v>
+      </c>
+      <c r="R31">
+        <v>1</v>
+      </c>
+      <c r="T31" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U31" t="s">
+        <v>30</v>
+      </c>
+      <c r="V31">
+        <v>-0.12</v>
+      </c>
+      <c r="X31">
+        <v>-9.669346361382497E-2</v>
+      </c>
+      <c r="Y31">
+        <v>-9.7993879774849704E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M32" t="s">
+        <v>68</v>
+      </c>
+      <c r="N32">
+        <v>-0.09</v>
+      </c>
+      <c r="P32">
+        <v>-0.12646326273780406</v>
+      </c>
+      <c r="Q32">
+        <v>-0.12772902753492804</v>
+      </c>
+      <c r="T32" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U32" t="s">
+        <v>68</v>
+      </c>
+      <c r="V32">
+        <v>-0.15</v>
+      </c>
+      <c r="X32">
+        <v>-8.0690600106278973E-2</v>
+      </c>
+      <c r="Y32">
+        <v>-8.1895266884328188E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>-0.15</v>
+      </c>
+      <c r="P33">
+        <v>-0.17745139465951021</v>
+      </c>
+      <c r="Q33">
+        <v>-0.17782747852328157</v>
+      </c>
+      <c r="T33" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U33" t="s">
+        <v>26</v>
+      </c>
+      <c r="V33">
+        <v>-0.2</v>
+      </c>
+      <c r="X33">
+        <v>-0.1309765308771362</v>
+      </c>
+      <c r="Y33">
+        <v>-0.13220914020593275</v>
+      </c>
+    </row>
+    <row r="34" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M34" t="s">
+        <v>69</v>
+      </c>
+      <c r="N34">
+        <v>-0.18</v>
+      </c>
+      <c r="P34">
+        <v>-0.19839992800103065</v>
+      </c>
+      <c r="Q34">
+        <v>-0.19803900939741234</v>
+      </c>
+      <c r="T34" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U34" t="s">
+        <v>69</v>
+      </c>
+      <c r="V34">
+        <v>-0.22</v>
+      </c>
+      <c r="X34">
+        <v>-0.15214808913150676</v>
+      </c>
+      <c r="Y34">
+        <v>-0.15311308172460375</v>
+      </c>
+    </row>
+    <row r="35" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M35" t="s">
+        <v>6</v>
+      </c>
+      <c r="N35">
+        <v>-0.19</v>
+      </c>
+      <c r="P35">
+        <v>-0.13207375776303504</v>
+      </c>
+      <c r="Q35">
+        <v>-0.13329709418108565</v>
+      </c>
+      <c r="T35" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U35" t="s">
+        <v>6</v>
+      </c>
+      <c r="V35">
+        <v>-0.23</v>
+      </c>
+      <c r="X35">
+        <v>-7.8697478027038067E-2</v>
+      </c>
+      <c r="Y35">
+        <v>-7.9885460356313776E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M36" t="s">
+        <v>60</v>
+      </c>
+      <c r="N36">
+        <v>-0.32</v>
+      </c>
+      <c r="P36">
+        <v>-0.11060590515016794</v>
+      </c>
+      <c r="Q36">
+        <v>-0.11192777761564285</v>
+      </c>
+      <c r="T36" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U36" t="s">
+        <v>60</v>
+      </c>
+      <c r="V36">
+        <v>-0.35</v>
+      </c>
+      <c r="X36">
+        <v>-6.9176418092304889E-2</v>
+      </c>
+      <c r="Y36">
+        <v>-7.0271666297294838E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M37" t="s">
+        <v>72</v>
+      </c>
+      <c r="N37">
+        <v>-0.4</v>
+      </c>
+      <c r="P37">
+        <v>-0.26068370108364497</v>
+      </c>
+      <c r="Q37">
+        <v>-0.25658022239459782</v>
+      </c>
+      <c r="T37" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U37" t="s">
+        <v>72</v>
+      </c>
+      <c r="V37">
+        <v>-0.45</v>
+      </c>
+      <c r="X37">
+        <v>-0.21229917561524697</v>
+      </c>
+      <c r="Y37">
+        <v>-0.21131288652600924</v>
+      </c>
+    </row>
+    <row r="38" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M38" t="s">
+        <v>75</v>
+      </c>
+      <c r="N38">
+        <v>-0.49</v>
+      </c>
+      <c r="P38">
+        <v>6.1223434367092495E-2</v>
+      </c>
+      <c r="Q38">
+        <v>6.2226070569208855E-2</v>
+      </c>
+      <c r="T38" s="1">
+        <v>44462</v>
+      </c>
+      <c r="U38" t="s">
+        <v>67</v>
+      </c>
+      <c r="V38">
+        <v>-0.5</v>
+      </c>
+      <c r="X38">
+        <v>-2.5300173435726683E-2</v>
+      </c>
+      <c r="Y38">
+        <v>-2.5755888485221975E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>44463</v>
+      </c>
       <c r="M39" t="s">
+        <v>67</v>
+      </c>
+      <c r="N39">
+        <v>-0.5</v>
+      </c>
+      <c r="P39">
+        <v>-2.53076188250984E-2</v>
+      </c>
+      <c r="Q39">
+        <v>-2.5763462953199097E-2</v>
+      </c>
+      <c r="T39" s="1">
+        <v>44463</v>
+      </c>
+      <c r="U39" t="s">
+        <v>75</v>
+      </c>
+      <c r="V39">
+        <v>-0.55000000000000004</v>
+      </c>
+      <c r="X39">
+        <v>-6.7719716218675924E-2</v>
+      </c>
+      <c r="Y39">
+        <v>-6.8798980067833068E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+      <c r="N40">
+        <f>SUM(N2:N39)</f>
+        <v>10.329999999999997</v>
+      </c>
+      <c r="T40" s="1"/>
+      <c r="V40">
+        <f>SUM(V2:V39)</f>
+        <v>9.0500000000000007</v>
+      </c>
+    </row>
+    <row r="42" spans="12:25" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
         <v>0</v>
       </c>
-      <c r="N39" t="s">
+      <c r="N42" t="s">
         <v>35</v>
       </c>
-      <c r="O39" t="s">
+      <c r="O42" t="s">
         <v>36</v>
       </c>
-      <c r="P39" t="s">
+      <c r="P42" t="s">
         <v>39</v>
       </c>
-      <c r="Q39" t="s">
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="2">
+    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BAC60063-2AEB-4622-AA53-20E36645FE9E}">
+  <dimension ref="L1:Q42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M2" t="s">
+        <v>67</v>
+      </c>
+      <c r="N2">
+        <v>-0.48</v>
+      </c>
+      <c r="P2">
+        <v>-5.4918675220495601E-2</v>
+      </c>
+      <c r="Q2">
+        <v>-5.5839183595777393E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M3" t="s">
+        <v>75</v>
+      </c>
+      <c r="N3">
+        <v>-0.45</v>
+      </c>
+      <c r="P3">
+        <v>6.1205876720275137E-2</v>
+      </c>
+      <c r="Q3">
+        <v>6.2208294454977886E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M4" t="s">
+        <v>72</v>
+      </c>
+      <c r="N4">
+        <v>-0.36</v>
+      </c>
+      <c r="P4">
+        <v>-0.21177073355598475</v>
+      </c>
+      <c r="Q4">
+        <v>-0.2108103027244895</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M5" t="s">
+        <v>60</v>
+      </c>
+      <c r="N5">
+        <v>-0.3</v>
+      </c>
+      <c r="P5">
+        <v>-0.13361810420593379</v>
+      </c>
+      <c r="Q5">
+        <v>-0.13482757207146909</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M6" t="s">
+        <v>6</v>
+      </c>
+      <c r="N6">
+        <v>-0.18</v>
+      </c>
+      <c r="P6">
+        <v>-0.16986973032538802</v>
+      </c>
+      <c r="Q6">
+        <v>-0.17045527495335233</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M7" t="s">
+        <v>69</v>
+      </c>
+      <c r="N7">
+        <v>-0.16</v>
+      </c>
+      <c r="P7">
+        <v>-0.26598331837105921</v>
+      </c>
+      <c r="Q7">
+        <v>-0.26144319074871719</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M8" t="s">
+        <v>26</v>
+      </c>
+      <c r="N8">
+        <v>-0.12</v>
+      </c>
+      <c r="P8">
+        <v>-0.20903363763321339</v>
+      </c>
+      <c r="Q8">
+        <v>-0.20820447207025278</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M9" t="s">
+        <v>68</v>
+      </c>
+      <c r="N9">
+        <v>-0.06</v>
+      </c>
+      <c r="P9">
+        <v>-0.1571540006769368</v>
+      </c>
+      <c r="Q9">
+        <v>-0.15802689519235105</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M10" t="s">
+        <v>30</v>
+      </c>
+      <c r="N10">
+        <v>-0.05</v>
+      </c>
+      <c r="P10">
+        <v>-0.16615261190122801</v>
+      </c>
+      <c r="Q10">
+        <v>-0.1668302844833314</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M11" t="s">
+        <v>45</v>
+      </c>
+      <c r="N11">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P11">
+        <v>-0.2082662528299013</v>
+      </c>
+      <c r="Q11">
+        <v>-0.20747309033358347</v>
+      </c>
+    </row>
+    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M12" t="s">
+        <v>61</v>
+      </c>
+      <c r="N12">
+        <v>7.0000000000000007E-2</v>
+      </c>
+      <c r="P12">
+        <v>-0.2016301072714296</v>
+      </c>
+      <c r="Q12">
+        <v>-0.20113387705634092</v>
+      </c>
+    </row>
+    <row r="13" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M13" t="s">
+        <v>21</v>
+      </c>
+      <c r="N13">
+        <v>0.08</v>
+      </c>
+      <c r="P13">
+        <v>-0.15970169054530686</v>
+      </c>
+      <c r="Q13">
+        <v>-0.16052323634152824</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>0.08</v>
+      </c>
+      <c r="P14">
+        <v>-0.19789865142484819</v>
+      </c>
+      <c r="Q14">
+        <v>-0.19755819733639038</v>
+      </c>
+    </row>
+    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M15" t="s">
+        <v>74</v>
+      </c>
+      <c r="N15">
+        <v>0.2</v>
+      </c>
+      <c r="P15">
+        <v>-7.9948208979673349E-2</v>
+      </c>
+      <c r="Q15">
+        <v>-8.1146776623953906E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M16" t="s">
+        <v>22</v>
+      </c>
+      <c r="N16">
+        <v>0.21</v>
+      </c>
+      <c r="P16">
+        <v>-0.15815707028149714</v>
+      </c>
+      <c r="Q16">
+        <v>-0.15901011237814786</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M17" t="s">
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <v>0.24</v>
+      </c>
+      <c r="P17">
+        <v>-0.23750027484363057</v>
+      </c>
+      <c r="Q17">
+        <v>-0.23508057317036843</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M18" t="s">
+        <v>3</v>
+      </c>
+      <c r="N18">
+        <v>0.25</v>
+      </c>
+      <c r="P18">
+        <v>-0.18269821377503789</v>
+      </c>
+      <c r="Q18">
+        <v>-0.18291194764851357</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M19" t="s">
+        <v>41</v>
+      </c>
+      <c r="N19">
+        <v>0.25</v>
+      </c>
+      <c r="P19">
+        <v>0.18647570748038853</v>
+      </c>
+      <c r="Q19">
+        <v>0.18656351525494452</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M20" t="s">
+        <v>73</v>
+      </c>
+      <c r="N20">
+        <v>0.25</v>
+      </c>
+      <c r="P20">
+        <v>-4.03266277617031E-2</v>
+      </c>
+      <c r="Q20">
+        <v>-4.1032042573053255E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M21" t="s">
+        <v>76</v>
+      </c>
+      <c r="N21">
+        <v>0.27</v>
+      </c>
+      <c r="P21">
+        <v>-7.6502997602278369E-2</v>
+      </c>
+      <c r="Q21">
+        <v>-7.7671483416802314E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M22" t="s">
+        <v>43</v>
+      </c>
+      <c r="N22">
+        <v>0.3</v>
+      </c>
+      <c r="P22">
+        <v>-0.15823003911105385</v>
+      </c>
+      <c r="Q22">
+        <v>-0.15908161861311729</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M23" t="s">
+        <v>59</v>
+      </c>
+      <c r="N23">
+        <v>0.31</v>
+      </c>
+      <c r="P23">
+        <v>-0.17213366763512752</v>
+      </c>
+      <c r="Q23">
+        <v>-0.17265972461448637</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M24" t="s">
+        <v>23</v>
+      </c>
+      <c r="N24">
+        <v>0.32</v>
+      </c>
+      <c r="P24">
+        <v>-0.18988770396251226</v>
+      </c>
+      <c r="Q24">
+        <v>-0.18985514143395932</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M25" t="s">
+        <v>46</v>
+      </c>
+      <c r="N25">
+        <v>0.41</v>
+      </c>
+      <c r="P25">
+        <v>-0.15741349843370803</v>
+      </c>
+      <c r="Q25">
+        <v>-0.15828130225451428</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M26" t="s">
+        <v>71</v>
+      </c>
+      <c r="N26">
+        <v>0.5</v>
+      </c>
+      <c r="P26">
+        <v>-6.1206662812956864E-2</v>
+      </c>
+      <c r="Q26">
+        <v>-6.220909033017008E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M27" t="s">
+        <v>25</v>
+      </c>
+      <c r="N27">
+        <v>0.51</v>
+      </c>
+      <c r="P27">
+        <v>-0.21507168395897081</v>
+      </c>
+      <c r="Q27">
+        <v>-0.2139469745593908</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M28" t="s">
+        <v>28</v>
+      </c>
+      <c r="N28">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P28">
+        <v>-0.2037835640401269</v>
+      </c>
+      <c r="Q28">
+        <v>-0.2031937909466022</v>
+      </c>
+    </row>
+    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M29" t="s">
+        <v>63</v>
+      </c>
+      <c r="N29">
+        <v>0.56999999999999995</v>
+      </c>
+      <c r="P29">
+        <v>-0.10795073050188976</v>
+      </c>
+      <c r="Q29">
+        <v>-0.10927334365704409</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M30" t="s">
+        <v>65</v>
+      </c>
+      <c r="N30">
+        <v>0.64</v>
+      </c>
+      <c r="P30">
+        <v>5.3988842283243174E-2</v>
+      </c>
+      <c r="Q30">
+        <v>5.4896639060649254E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M31" t="s">
+        <v>62</v>
+      </c>
+      <c r="N31">
+        <v>0.66</v>
+      </c>
+      <c r="P31">
+        <v>-1.7925567938237307E-2</v>
+      </c>
+      <c r="Q31">
+        <v>-1.8251464191663267E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M32" t="s">
+        <v>24</v>
+      </c>
+      <c r="N32">
+        <v>0.71</v>
+      </c>
+      <c r="P32">
+        <v>-7.1559773383022942E-3</v>
+      </c>
+      <c r="Q32">
+        <v>-7.2870971409530793E-3</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M33" t="s">
+        <v>27</v>
+      </c>
+      <c r="N33">
+        <v>0.71</v>
+      </c>
+      <c r="P33">
+        <v>-9.5336272454068796E-2</v>
+      </c>
+      <c r="Q33">
+        <v>-9.6631369877305848E-2</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M34" t="s">
+        <v>64</v>
+      </c>
+      <c r="N34">
+        <v>0.71</v>
+      </c>
+      <c r="P34">
+        <v>9.9322153682470174E-2</v>
+      </c>
+      <c r="Q34">
+        <v>0.10063129833796872</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M35" t="s">
+        <v>5</v>
+      </c>
+      <c r="N35">
+        <v>0.73</v>
+      </c>
+      <c r="P35">
+        <v>-2.681544442609712E-2</v>
+      </c>
+      <c r="Q35">
+        <v>-2.7297336054625806E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M36" t="s">
+        <v>47</v>
+      </c>
+      <c r="N36">
+        <v>0.76</v>
+      </c>
+      <c r="P36">
+        <v>-1.6442195732244098E-2</v>
+      </c>
+      <c r="Q36">
+        <v>-1.6741565906584016E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>44462</v>
+      </c>
+      <c r="M37" t="s">
+        <v>66</v>
+      </c>
+      <c r="N37">
+        <v>0.85</v>
+      </c>
+      <c r="P37">
+        <v>0.11287739413650413</v>
+      </c>
+      <c r="Q37">
+        <v>0.11419673509343241</v>
+      </c>
+    </row>
+    <row r="38" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M38" t="s">
+        <v>70</v>
+      </c>
+      <c r="N38">
+        <v>0.93</v>
+      </c>
+      <c r="P38">
+        <v>-3.1935079309492589E-2</v>
+      </c>
+      <c r="Q38">
+        <v>-3.2503909072697457E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M39" t="s">
+        <v>1</v>
+      </c>
+      <c r="N39">
+        <v>0.96</v>
+      </c>
+      <c r="P39">
+        <v>3.3657565407942736E-2</v>
+      </c>
+      <c r="Q39">
+        <v>3.4255071606098184E-2</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" t="s">
         <v>40</v>
       </c>
     </row>
@@ -2248,12 +6705,736 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FF18F67-1671-4FC2-9B16-D8F915A7F79B}">
+  <dimension ref="L1:Q43"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M28" sqref="M28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2">
+        <v>0.34</v>
+      </c>
+      <c r="P2">
+        <v>-0.14661799799979869</v>
+      </c>
+      <c r="Q2">
+        <v>-0.14767151202460427</v>
+      </c>
+    </row>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3">
+        <v>0.6</v>
+      </c>
+      <c r="P3">
+        <v>3.7429539584372534E-2</v>
+      </c>
+      <c r="Q3">
+        <v>3.8088718704394335E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4">
+        <v>-0.41</v>
+      </c>
+      <c r="P4">
+        <v>5.6215067204553132E-2</v>
+      </c>
+      <c r="Q4">
+        <v>5.7153048677729537E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5">
+        <v>0.79</v>
+      </c>
+      <c r="P5">
+        <v>6.5979253368764521E-2</v>
+      </c>
+      <c r="Q5">
+        <v>6.7038830068809369E-2</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>44461</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>-0.49</v>
+      </c>
+      <c r="P6">
+        <v>-5.2722832074789394E-3</v>
+      </c>
+      <c r="Q6">
+        <v>-5.3689530350878182E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P7">
+        <v>-0.23890207912805519</v>
+      </c>
+      <c r="Q7">
+        <v>-0.23639077483775536</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0.95</v>
+      </c>
+      <c r="P8">
+        <v>6.1381634003259092E-2</v>
+      </c>
+      <c r="Q8">
+        <v>6.2386235989358427E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9">
+        <v>0.6</v>
+      </c>
+      <c r="P9">
+        <v>-0.21888760003364302</v>
+      </c>
+      <c r="Q9">
+        <v>-0.21756474912472487</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <v>0.11</v>
+      </c>
+      <c r="P10">
+        <v>-0.11370731086057588</v>
+      </c>
+      <c r="Q10">
+        <v>-0.11502528329404423</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>-0.15</v>
+      </c>
+      <c r="P11">
+        <v>-0.18068660790234189</v>
+      </c>
+      <c r="Q11">
+        <v>-0.18096429672116404</v>
+      </c>
+    </row>
+    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>0.74</v>
+      </c>
+      <c r="P12">
+        <v>-1.8200038797231442E-2</v>
+      </c>
+      <c r="Q12">
+        <v>-1.8530829834067664E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>0.52</v>
+      </c>
+      <c r="P13">
+        <v>-0.23082839731640131</v>
+      </c>
+      <c r="Q13">
+        <v>-0.22882719143621744</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>0.12</v>
+      </c>
+      <c r="P14">
+        <v>-0.20766662095284227</v>
+      </c>
+      <c r="Q14">
+        <v>-0.20690134881556982</v>
+      </c>
+    </row>
+    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15">
+        <v>0.7</v>
+      </c>
+      <c r="P15">
+        <v>-7.4214982832202694E-2</v>
+      </c>
+      <c r="Q15">
+        <v>-7.5361917383333851E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>-0.01</v>
+      </c>
+      <c r="P16">
+        <v>-0.166870548064431</v>
+      </c>
+      <c r="Q16">
+        <v>-0.16753095891127456</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <v>0.36</v>
+      </c>
+      <c r="P17">
+        <v>-0.20015375761195422</v>
+      </c>
+      <c r="Q17">
+        <v>-0.19972011266229617</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>-0.08</v>
+      </c>
+      <c r="P18">
+        <v>-0.213457652168664</v>
+      </c>
+      <c r="Q18">
+        <v>-0.21241408859755909</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P19">
+        <v>-0.2053784628765096</v>
+      </c>
+      <c r="Q19">
+        <v>-0.20471767428933255</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20">
+        <v>0.26</v>
+      </c>
+      <c r="P20">
+        <v>-0.16278219482037254</v>
+      </c>
+      <c r="Q20">
+        <v>-0.16353754004511706</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21">
+        <v>0.11</v>
+      </c>
+      <c r="P21">
+        <v>-0.21747862669106466</v>
+      </c>
+      <c r="Q21">
+        <v>-0.21622997205025304</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22">
+        <v>0.44</v>
+      </c>
+      <c r="P22">
+        <v>-0.17826897768584155</v>
+      </c>
+      <c r="Q22">
+        <v>-0.17862071178002131</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23">
+        <v>0.77</v>
+      </c>
+      <c r="P23">
+        <v>-3.551891556500851E-2</v>
+      </c>
+      <c r="Q23">
+        <v>-3.6147054939866786E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M24" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24">
+        <v>0.34</v>
+      </c>
+      <c r="P24">
+        <v>-0.17181967796302355</v>
+      </c>
+      <c r="Q24">
+        <v>-0.17235413952072134</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25">
+        <v>0.09</v>
+      </c>
+      <c r="P25">
+        <v>-0.21125580269653371</v>
+      </c>
+      <c r="Q25">
+        <v>-0.21032040810441494</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>0.77</v>
+      </c>
+      <c r="P26">
+        <v>-3.8152030809214248E-2</v>
+      </c>
+      <c r="Q26">
+        <v>-3.882283621823119E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27">
+        <v>0.63</v>
+      </c>
+      <c r="P27">
+        <v>-0.19420428426428044</v>
+      </c>
+      <c r="Q27">
+        <v>-0.19401027221744888</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28">
+        <v>0.69</v>
+      </c>
+      <c r="P28">
+        <v>7.6209175697642462E-2</v>
+      </c>
+      <c r="Q28">
+        <v>7.7374963124676219E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29">
+        <v>0.68</v>
+      </c>
+      <c r="P29">
+        <v>-3.0794295843114414E-2</v>
+      </c>
+      <c r="Q29">
+        <v>-3.1343967721922723E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M30" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <v>-0.27</v>
+      </c>
+      <c r="P30">
+        <v>-0.15188487376045262</v>
+      </c>
+      <c r="Q30">
+        <v>-0.15285439105040158</v>
+      </c>
+    </row>
+    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31">
+        <v>0.21</v>
+      </c>
+      <c r="O31" t="s">
+        <v>37</v>
+      </c>
+      <c r="P31">
+        <v>0.1795436812900309</v>
+      </c>
+      <c r="Q31">
+        <v>0.17985675634765791</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32">
+        <v>-0.13</v>
+      </c>
+      <c r="P32">
+        <v>-0.2027115983352932</v>
+      </c>
+      <c r="Q32">
+        <v>-0.20216872518760595</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M33" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33">
+        <v>-0.01</v>
+      </c>
+      <c r="P33">
+        <v>-0.16786522740421342</v>
+      </c>
+      <c r="Q33">
+        <v>-0.16850130305878469</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34">
+        <v>-0.3</v>
+      </c>
+      <c r="P34">
+        <v>-0.20704448831183661</v>
+      </c>
+      <c r="Q34">
+        <v>-0.20630792896721029</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P35">
+        <v>-7.0865257398956563E-2</v>
+      </c>
+      <c r="Q35">
+        <v>-7.1978461597072968E-2</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36">
+        <v>0.23</v>
+      </c>
+      <c r="P36">
+        <v>-8.2050547664984028E-2</v>
+      </c>
+      <c r="Q36">
+        <v>-8.3266026887170233E-2</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M37" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37">
+        <v>0.93</v>
+      </c>
+      <c r="P37">
+        <v>-3.3129343390013541E-2</v>
+      </c>
+      <c r="Q37">
+        <v>-3.3718088391253738E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="P38">
+        <v>-7.5564865867417147E-2</v>
+      </c>
+      <c r="Q38">
+        <v>-7.6724664336287107E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M39" t="s">
+        <v>71</v>
+      </c>
+      <c r="N39">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="P39">
+        <v>-5.7404988316288813E-3</v>
+      </c>
+      <c r="Q39">
+        <v>-5.8457379869743436E-3</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="43" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L43" s="1">
+        <v>44460</v>
+      </c>
+      <c r="M43" t="s">
+        <v>41</v>
+      </c>
+      <c r="N43">
+        <v>0.21</v>
+      </c>
+      <c r="O43" t="s">
+        <v>37</v>
+      </c>
+      <c r="P43">
+        <v>0.1795436812900309</v>
+      </c>
+      <c r="Q43">
+        <v>0.17985675634765791</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2424A2F-A1CE-497F-AA92-8E7EC6DEE16F}">
-  <dimension ref="A1:Y33"/>
+  <dimension ref="A1:Y37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D22" sqref="D22"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2649,7 +7830,7 @@
     </row>
     <row r="8" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>25</v>
+        <v>28</v>
       </c>
       <c r="J8" t="s">
         <v>23</v>
@@ -2702,7 +7883,7 @@
     </row>
     <row r="9" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="J9" t="s">
         <v>1</v>
@@ -2749,7 +7930,7 @@
     </row>
     <row r="10" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>27</v>
+        <v>20</v>
       </c>
       <c r="J10" t="s">
         <v>22</v>
@@ -2796,7 +7977,7 @@
     </row>
     <row r="11" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>30</v>
+        <v>27</v>
       </c>
       <c r="J11" t="s">
         <v>38</v>
@@ -2813,97 +7994,97 @@
     </row>
     <row r="12" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>30</v>
       </c>
     </row>
     <row r="13" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>26</v>
+        <v>23</v>
       </c>
     </row>
     <row r="14" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>3</v>
+        <v>26</v>
       </c>
       <c r="J14" s="3"/>
     </row>
     <row r="15" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>22</v>
+        <v>3</v>
       </c>
       <c r="J15" s="2"/>
     </row>
     <row r="16" spans="1:25" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>44</v>
+        <v>22</v>
       </c>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="J17" s="2"/>
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="J18" s="2"/>
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>59</v>
+        <v>46</v>
       </c>
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>5</v>
+        <v>61</v>
       </c>
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>63</v>
+        <v>5</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J25" s="4"/>
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>41</v>
+        <v>60</v>
       </c>
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>70</v>
+        <v>41</v>
       </c>
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
@@ -2913,7 +8094,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>71</v>
+        <v>68</v>
       </c>
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
@@ -2924,6 +8105,26 @@
     <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>73</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
@@ -2932,7 +8133,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005505A-8BB5-4591-9B76-4928C9DF9A4D}">
   <dimension ref="B3:I31"/>
   <sheetViews>
@@ -3006,7 +8207,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02CF27A-4FD7-4A86-8D8E-5E36547C57CD}">
   <dimension ref="A1:Y21"/>
   <sheetViews>

--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="24430"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\давид\pycharmprojects\binance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2CA68A93-3D21-4FEC-BC18-6B789F8E39EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D1F53-D13E-4D69-BDF1-F42075BA43C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="825" activeTab="10" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
+    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="825" activeTab="9" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-09-18" sheetId="185" r:id="rId1"/>
@@ -19,23 +19,38 @@
     <sheet name="2021-09-24" sheetId="189" r:id="rId4"/>
     <sheet name="2021-09-23" sheetId="188" r:id="rId5"/>
     <sheet name="2021-09-22" sheetId="187" r:id="rId6"/>
-    <sheet name="Портфель" sheetId="94" r:id="rId7"/>
-    <sheet name="Лист6" sheetId="135" r:id="rId8"/>
-    <sheet name="Расчет" sheetId="49" r:id="rId9"/>
-    <sheet name="2021-09-25" sheetId="191" r:id="rId10"/>
-    <sheet name="Сравнение" sheetId="190" r:id="rId11"/>
+    <sheet name="2021-10-18" sheetId="196" r:id="rId7"/>
+    <sheet name="Портфель" sheetId="94" r:id="rId8"/>
+    <sheet name="Портфель2" sheetId="195" r:id="rId9"/>
+    <sheet name="Отклонение" sheetId="199" r:id="rId10"/>
+    <sheet name="Отклонение обычн" sheetId="198" r:id="rId11"/>
+    <sheet name="Лист2" sheetId="197" r:id="rId12"/>
+    <sheet name="Лист6" sheetId="135" r:id="rId13"/>
+    <sheet name="Расчет" sheetId="49" r:id="rId14"/>
+    <sheet name="2021-09-25" sheetId="191" r:id="rId15"/>
+    <sheet name="2021-09-30" sheetId="194" r:id="rId16"/>
+    <sheet name="2021-09-29" sheetId="193" r:id="rId17"/>
+    <sheet name="2021-09-29g" sheetId="192" r:id="rId18"/>
+    <sheet name="Сравнение" sheetId="190" r:id="rId19"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
+    </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="612" uniqueCount="122">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="133">
   <si>
     <t>asset</t>
   </si>
@@ -401,13 +416,46 @@
   </si>
   <si>
     <t>Стандартная методика</t>
+  </si>
+  <si>
+    <t>ICP</t>
+  </si>
+  <si>
+    <t>CHZ</t>
+  </si>
+  <si>
+    <t>XML</t>
+  </si>
+  <si>
+    <t>ZEN</t>
+  </si>
+  <si>
+    <t>MAPE %</t>
+  </si>
+  <si>
+    <t>MAE</t>
+  </si>
+  <si>
+    <t>Asset</t>
+  </si>
+  <si>
+    <t>Профнет</t>
+  </si>
+  <si>
+    <t>Профнет+Бокса КОКСА</t>
+  </si>
+  <si>
+    <t>Процент отл</t>
+  </si>
+  <si>
+    <t>Разность</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -427,6 +475,22 @@
     <font>
       <sz val="11"/>
       <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="14"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="16"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="204"/>
@@ -465,19 +529,33 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="8">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
     <cellStyle name="Плохой" xfId="1" builtinId="27"/>
   </cellStyles>
-  <dxfs count="7">
+  <dxfs count="11">
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
+    <dxf>
+      <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
+    </dxf>
     <dxf>
       <numFmt numFmtId="19" formatCode="dd/mm/yyyy"/>
     </dxf>
@@ -881,12 +959,29 @@
     <sortCondition descending="1" ref="P1:P39"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B6095955-501C-40D1-B78D-1193426873D6}" name="Open time" dataDxfId="6"/>
+    <tableColumn id="1" xr3:uid="{B6095955-501C-40D1-B78D-1193426873D6}" name="Open time" dataDxfId="10"/>
     <tableColumn id="2" xr3:uid="{02192FAF-BC3B-444C-9966-B5AE02A7EE9E}" name="asset"/>
     <tableColumn id="3" xr3:uid="{7F7EDFF6-EE37-4C39-A84C-37D48AAE60F7}" name="signal"/>
     <tableColumn id="4" xr3:uid="{73E85000-4F8D-42E3-882A-D4371D7C56C3}" name="Удар"/>
     <tableColumn id="5" xr3:uid="{26D9EEE1-51A3-4C1E-B565-B2136CF0B8F3}" name="sharp"/>
     <tableColumn id="6" xr3:uid="{9104589B-58F0-47FA-8A92-2379561A05CD}" name="sortino"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EBACE1F-155E-4FDC-AA75-1DEE3F179EB9}" name="Таблица1" displayName="Таблица1" ref="L1:Q40" totalsRowCount="1">
+  <autoFilter ref="L1:Q39" xr:uid="{1EBACE1F-155E-4FDC-AA75-1DEE3F179EB9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A96FCBF6-B472-4878-8108-C0D8CE670FDF}" name="Open time" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3A1DDEC8-CB41-4074-84F2-75F4A282B02C}" name="asset"/>
+    <tableColumn id="3" xr3:uid="{E446DFA7-079E-479F-BAE2-FC3983373293}" name="signal" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(N2:N39)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{FA208905-B282-48B3-B4C0-1C10C41E0A1C}" name="Удар"/>
+    <tableColumn id="5" xr3:uid="{D17E9123-0CAF-499D-A170-65055655CCB1}" name="sharp"/>
+    <tableColumn id="6" xr3:uid="{E785010F-A351-4C98-8DF3-4E60A32F2B5B}" name="sortino"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -899,7 +994,7 @@
     <sortCondition descending="1" ref="N1:N39"/>
   </sortState>
   <tableColumns count="7">
-    <tableColumn id="1" xr3:uid="{D375E80A-90E1-40A9-8B15-A9ACED6BA261}" name="Open time" dataDxfId="4" totalsRowDxfId="1"/>
+    <tableColumn id="1" xr3:uid="{D375E80A-90E1-40A9-8B15-A9ACED6BA261}" name="Open time" dataDxfId="9" totalsRowDxfId="8"/>
     <tableColumn id="2" xr3:uid="{4A7F8391-A6E1-4577-8D65-BDA3C77F48DC}" name="asset"/>
     <tableColumn id="3" xr3:uid="{9DF58DA6-6847-4BE9-A478-E7CBA7AC936F}" name="signal" totalsRowFunction="custom">
       <totalsRowFormula>SUM(N2:N39)</totalsRowFormula>
@@ -920,7 +1015,7 @@
     <sortCondition descending="1" ref="V1:V39"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{477808EB-2675-4C2B-8020-47CBA21A20EA}" name="Open time" dataDxfId="2" totalsRowDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{477808EB-2675-4C2B-8020-47CBA21A20EA}" name="Open time" dataDxfId="7" totalsRowDxfId="6"/>
     <tableColumn id="2" xr3:uid="{D1127C96-A516-42EE-8E10-48A565F994EB}" name="asset"/>
     <tableColumn id="3" xr3:uid="{996E7FF9-F816-495C-B35A-D4D2AC31C1CC}" name="signal" totalsRowFunction="custom">
       <totalsRowFormula>SUM(V2:V39)</totalsRowFormula>
@@ -952,18 +1047,83 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C1CAF52F-74C0-4C71-B134-C1F417D45397}" name="Таблица6" displayName="Таблица6" ref="A1:C39" totalsRowShown="0">
+  <autoFilter ref="A1:C39" xr:uid="{C1CAF52F-74C0-4C71-B134-C1F417D45397}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
+    <sortCondition descending="1" ref="B1:B39"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{FE1903F7-CCEB-4519-97B3-BC1E09A1033D}" name="Asset"/>
+    <tableColumn id="2" xr3:uid="{53429715-C5EA-48F6-B979-47338931AE97}" name="MAPE %"/>
+    <tableColumn id="3" xr3:uid="{32B886D9-449F-4F38-A8F0-663F5DCC0C50}" name="MAE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4CEC1135-BFA1-47D2-8AB3-2EDBB28B2999}" name="Таблица3" displayName="Таблица3" ref="A2:C40" totalsRowShown="0">
+  <autoFilter ref="A2:C40" xr:uid="{4CEC1135-BFA1-47D2-8AB3-2EDBB28B2999}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C40">
+    <sortCondition descending="1" ref="B2:B40"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{60AFDC36-0270-429E-9AE1-C1FFA638AB8D}" name="Asset"/>
+    <tableColumn id="2" xr3:uid="{FDFD27CE-DC3F-46D4-8909-9742B9E5D50A}" name="MAPE %"/>
+    <tableColumn id="3" xr3:uid="{FE589CDD-9EFC-46F9-8665-C4ABE85DCC4F}" name="MAE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{668FAAC4-73A5-4641-BA06-6F2DB15CCEF4}" name="Таблица46" displayName="Таблица46" ref="E2:G40" totalsRowShown="0">
+  <autoFilter ref="E2:G40" xr:uid="{668FAAC4-73A5-4641-BA06-6F2DB15CCEF4}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:G40">
+    <sortCondition descending="1" ref="F2:F40"/>
+  </sortState>
+  <tableColumns count="3">
+    <tableColumn id="1" xr3:uid="{C867A254-3150-4FAC-ABA2-5D8754A557D5}" name="Asset"/>
+    <tableColumn id="2" xr3:uid="{225544FF-5B8C-4E2E-82FC-95855F8C214A}" name="MAPE %"/>
+    <tableColumn id="3" xr3:uid="{D3D2D09C-D41E-41F8-A665-D0D05C93F95A}" name="MAE"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A36867DA-A284-426F-BBDF-C2CFE49D83A5}" name="Таблица14" displayName="Таблица14" ref="L1:Q39" totalsRowShown="0">
   <autoFilter ref="L1:Q39" xr:uid="{A36867DA-A284-426F-BBDF-C2CFE49D83A5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q39">
     <sortCondition descending="1" ref="N1:N39"/>
   </sortState>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{94F0FF71-B0B5-4A98-819C-CA11E641B1E2}" name="Open time" dataDxfId="3"/>
+    <tableColumn id="1" xr3:uid="{94F0FF71-B0B5-4A98-819C-CA11E641B1E2}" name="Open time" dataDxfId="4"/>
     <tableColumn id="2" xr3:uid="{B0B585AF-7ECD-426B-9720-AEF8CBC4960E}" name="asset"/>
     <tableColumn id="3" xr3:uid="{72F7A5AE-CE7A-43EF-987E-67210588BDCC}" name="signal"/>
     <tableColumn id="4" xr3:uid="{A5F0999C-B332-40A0-93BB-61EA26160F5A}" name="Удар"/>
     <tableColumn id="5" xr3:uid="{F9413E75-3A1C-4065-848A-7F8B1669F87F}" name="sharp"/>
     <tableColumn id="6" xr3:uid="{90460D7A-AAEF-407B-8FBF-707F88DD11AB}" name="sortino"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5ECF9284-F6D1-458A-92E6-1C2DD8D272B2}" name="Таблица2" displayName="Таблица2" ref="L1:Q40" totalsRowCount="1">
+  <autoFilter ref="L1:Q39" xr:uid="{5ECF9284-F6D1-458A-92E6-1C2DD8D272B2}"/>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q39">
+    <sortCondition descending="1" ref="N1:N39"/>
+  </sortState>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{18E11FD0-4E4F-45D7-B857-3585F64A0587}" name="Open time" dataDxfId="3" totalsRowDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{71E78321-C058-47E5-A9A1-EB9900D44D44}" name="asset"/>
+    <tableColumn id="3" xr3:uid="{354C9A08-E78F-44D0-9AFE-F6F73192C8B3}" name="signal" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(N2:N39)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{E51E46F4-1516-4714-9571-124F133D5D70}" name="Удар"/>
+    <tableColumn id="5" xr3:uid="{F3C6797C-B5B0-42D5-B43E-D1B7D66FB374}" name="sharp"/>
+    <tableColumn id="6" xr3:uid="{8731B325-85C7-4D10-B411-694D5964C60A}" name="sortino"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2533,11 +2693,1851 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB7ABAF-8094-4FF4-B59B-278CC92E9CF0}">
+  <dimension ref="A1:C39"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C39" sqref="A1:C39"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>128</v>
+      </c>
+      <c r="B1" t="s">
+        <v>126</v>
+      </c>
+      <c r="C1" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2">
+        <v>35.42242068270555</v>
+      </c>
+      <c r="C2">
+        <v>5.233616723570087</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>62</v>
+      </c>
+      <c r="B3">
+        <v>30.133212007585644</v>
+      </c>
+      <c r="C3">
+        <v>0.39911529524431094</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4">
+        <v>19.626559985543675</v>
+      </c>
+      <c r="C4">
+        <v>1665.901866963778</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>47</v>
+      </c>
+      <c r="B5">
+        <v>14.118012310229787</v>
+      </c>
+      <c r="C5">
+        <v>1.2893346310434108</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>75</v>
+      </c>
+      <c r="B6">
+        <v>13.738451981403419</v>
+      </c>
+      <c r="C6">
+        <v>11.171457487602527</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>27</v>
+      </c>
+      <c r="B7">
+        <v>11.809126664748701</v>
+      </c>
+      <c r="C7">
+        <v>1.5331668753453289</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>74</v>
+      </c>
+      <c r="B8">
+        <v>11.432228273247796</v>
+      </c>
+      <c r="C8">
+        <v>4.9554316043453719</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>71</v>
+      </c>
+      <c r="B9">
+        <v>10.808666283923651</v>
+      </c>
+      <c r="C9">
+        <v>2.163033770055304</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>66</v>
+      </c>
+      <c r="B10">
+        <v>10.635412217091066</v>
+      </c>
+      <c r="C10">
+        <v>0.84986223058989818</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>70</v>
+      </c>
+      <c r="B11">
+        <v>9.7564658011684529</v>
+      </c>
+      <c r="C11">
+        <v>0.28481006048032281</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>5</v>
+      </c>
+      <c r="B12">
+        <v>9.1059635705037536</v>
+      </c>
+      <c r="C12">
+        <v>8.6613059919180859</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>59</v>
+      </c>
+      <c r="B13">
+        <v>8.9841417189678268</v>
+      </c>
+      <c r="C13">
+        <v>0.70246455824544218</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>65</v>
+      </c>
+      <c r="B14">
+        <v>7.601759880616008</v>
+      </c>
+      <c r="C14">
+        <v>0.20449545390455037</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>2</v>
+      </c>
+      <c r="B15">
+        <v>7.2690711747891035</v>
+      </c>
+      <c r="C15">
+        <v>11.023315450172012</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16">
+        <v>6.4888178296204186</v>
+      </c>
+      <c r="C16">
+        <v>0.41658254894762797</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>64</v>
+      </c>
+      <c r="B17">
+        <v>5.5196759488292528</v>
+      </c>
+      <c r="C17">
+        <v>8.373596999629844E-2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>63</v>
+      </c>
+      <c r="B18">
+        <v>4.9823281779247646</v>
+      </c>
+      <c r="C18">
+        <v>8.7350366296254423E-2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>67</v>
+      </c>
+      <c r="B19">
+        <v>4.4434040102659118</v>
+      </c>
+      <c r="C19">
+        <v>0.29080475635221981</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>4.0394307852003495</v>
+      </c>
+      <c r="C20">
+        <v>6.6756086242990495E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>72</v>
+      </c>
+      <c r="B21">
+        <v>3.2590172232648058</v>
+      </c>
+      <c r="C21">
+        <v>4.1766635338850944E-2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>2.4295420780330108</v>
+      </c>
+      <c r="C22">
+        <v>2.9246103375328996E-2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23">
+        <v>2.3620806699839583</v>
+      </c>
+      <c r="C23">
+        <v>3.3787085496028345E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>24</v>
+      </c>
+      <c r="B24">
+        <v>2.2883109513654807</v>
+      </c>
+      <c r="C24">
+        <v>3.1826172690732367E-2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>26</v>
+      </c>
+      <c r="B25">
+        <v>2.1581908681325763</v>
+      </c>
+      <c r="C25">
+        <v>0.16105302716172729</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>45</v>
+      </c>
+      <c r="B26">
+        <v>1.7335425931135864</v>
+      </c>
+      <c r="C26">
+        <v>0.70841774578716021</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>68</v>
+      </c>
+      <c r="B27">
+        <v>1.4238572041564368</v>
+      </c>
+      <c r="C27">
+        <v>8.9245150372614976E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>1.2701134723341256</v>
+      </c>
+      <c r="C28">
+        <v>1.7500371605891869E-2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1</v>
+      </c>
+      <c r="B29">
+        <v>0.9885310229352352</v>
+      </c>
+      <c r="C29">
+        <v>1.0889943640375247E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>69</v>
+      </c>
+      <c r="B30">
+        <v>0.95955872560659305</v>
+      </c>
+      <c r="C30">
+        <v>1.1988174618960512E-2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>3</v>
+      </c>
+      <c r="B31">
+        <v>0.93037190025947858</v>
+      </c>
+      <c r="C31">
+        <v>1.0642771811183893E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>73</v>
+      </c>
+      <c r="B32">
+        <v>0.87966303975174787</v>
+      </c>
+      <c r="C32">
+        <v>1.1083401585976094E-2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>60</v>
+      </c>
+      <c r="B33">
+        <v>0.80325255601832035</v>
+      </c>
+      <c r="C33">
+        <v>9.1689297874186036E-3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>6</v>
+      </c>
+      <c r="B34">
+        <v>0.70867903408268085</v>
+      </c>
+      <c r="C34">
+        <v>8.1512035952767316E-3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>76</v>
+      </c>
+      <c r="B35">
+        <v>0.51286050994537014</v>
+      </c>
+      <c r="C35">
+        <v>5.4407055965754276E-3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>20</v>
+      </c>
+      <c r="B36">
+        <v>0.4598316565030765</v>
+      </c>
+      <c r="C36">
+        <v>4.8417571157766499E-3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>30</v>
+      </c>
+      <c r="B37">
+        <v>0.352924652874399</v>
+      </c>
+      <c r="C37">
+        <v>3.6817363746613299E-3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>61</v>
+      </c>
+      <c r="B38">
+        <v>0.23915481665689961</v>
+      </c>
+      <c r="C38">
+        <v>2.5575377780403898E-3</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>28</v>
+      </c>
+      <c r="B39">
+        <v>0.12489746051574724</v>
+      </c>
+      <c r="C39">
+        <v>1.3116273990002592E-3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{719FB7E2-308B-4A6F-8865-97B77E15687C}">
+  <dimension ref="A1:O40"/>
+  <sheetViews>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="L37" sqref="L37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="21.7109375" customWidth="1"/>
+    <col min="2" max="3" width="12.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="24.85546875" customWidth="1"/>
+    <col min="7" max="7" width="15.5703125" customWidth="1"/>
+    <col min="9" max="9" width="11" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="9.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:11" ht="21" x14ac:dyDescent="0.35">
+      <c r="A1" s="7" t="s">
+        <v>129</v>
+      </c>
+      <c r="F1" s="6" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>128</v>
+      </c>
+      <c r="B2" t="s">
+        <v>126</v>
+      </c>
+      <c r="C2" t="s">
+        <v>127</v>
+      </c>
+      <c r="E2" t="s">
+        <v>128</v>
+      </c>
+      <c r="F2" t="s">
+        <v>126</v>
+      </c>
+      <c r="G2" t="s">
+        <v>127</v>
+      </c>
+      <c r="I2" t="s">
+        <v>131</v>
+      </c>
+      <c r="K2" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>76</v>
+      </c>
+      <c r="B3">
+        <v>111.17855754738598</v>
+      </c>
+      <c r="C3">
+        <v>0.10628438711298049</v>
+      </c>
+      <c r="E3" t="s">
+        <v>65</v>
+      </c>
+      <c r="F3">
+        <v>91.180936583845039</v>
+      </c>
+      <c r="G3">
+        <v>85.497963205993869</v>
+      </c>
+      <c r="I3">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>1.2193180034420048</v>
+      </c>
+      <c r="K3">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>19.997620963540939</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>72</v>
+      </c>
+      <c r="B4">
+        <v>92.129530908034852</v>
+      </c>
+      <c r="C4">
+        <v>0.17431847410128987</v>
+      </c>
+      <c r="E4" t="s">
+        <v>23</v>
+      </c>
+      <c r="F4">
+        <v>66.52475494560764</v>
+      </c>
+      <c r="G4">
+        <v>1.0434248576656122</v>
+      </c>
+      <c r="I4">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>1.3848909474880793</v>
+      </c>
+      <c r="K4">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>25.604775962427212</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>69</v>
+      </c>
+      <c r="B5">
+        <v>42.130804715570086</v>
+      </c>
+      <c r="C5">
+        <v>0.24510153872141063</v>
+      </c>
+      <c r="E5" t="s">
+        <v>64</v>
+      </c>
+      <c r="F5">
+        <v>44.579873429543021</v>
+      </c>
+      <c r="G5">
+        <v>0.82766869218881711</v>
+      </c>
+      <c r="I5">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.94506335425461441</v>
+      </c>
+      <c r="K5">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-2.4490687139729346</v>
+      </c>
+    </row>
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>59</v>
+      </c>
+      <c r="B6">
+        <v>38.906638570000936</v>
+      </c>
+      <c r="C6">
+        <v>7.7251212787271228</v>
+      </c>
+      <c r="E6" t="s">
+        <v>69</v>
+      </c>
+      <c r="F6">
+        <v>40.724691274848801</v>
+      </c>
+      <c r="G6">
+        <v>0.23688736910995054</v>
+      </c>
+      <c r="I6">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.95535748343485472</v>
+      </c>
+      <c r="K6">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-1.8180527048478652</v>
+      </c>
+    </row>
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7">
+        <v>23.499536262874031</v>
+      </c>
+      <c r="C7">
+        <v>3.1031193209586482E-2</v>
+      </c>
+      <c r="E7" t="s">
+        <v>59</v>
+      </c>
+      <c r="F7">
+        <v>37.475444241579318</v>
+      </c>
+      <c r="G7">
+        <v>7.4293058577585116</v>
+      </c>
+      <c r="I7">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.62706491513184248</v>
+      </c>
+      <c r="K7">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-13.975907978705287</v>
+      </c>
+    </row>
+    <row r="8" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8">
+        <v>20.008966538743497</v>
+      </c>
+      <c r="C8">
+        <v>0.14003461520609428</v>
+      </c>
+      <c r="E8" t="s">
+        <v>45</v>
+      </c>
+      <c r="F8">
+        <v>34.867337615201706</v>
+      </c>
+      <c r="G8">
+        <v>19.276176451170169</v>
+      </c>
+      <c r="I8">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.57385989029514684</v>
+      </c>
+      <c r="K8">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-14.858371076458209</v>
+      </c>
+    </row>
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>6</v>
+      </c>
+      <c r="B9">
+        <v>16.620059016518717</v>
+      </c>
+      <c r="C9">
+        <v>6.2843254872474844E-2</v>
+      </c>
+      <c r="E9" t="s">
+        <v>76</v>
+      </c>
+      <c r="F9">
+        <v>33.922869725176646</v>
+      </c>
+      <c r="G9">
+        <v>3.2316423648673272E-2</v>
+      </c>
+      <c r="I9">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.48993670497704839</v>
+      </c>
+      <c r="K9">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-17.30281070865793</v>
+      </c>
+    </row>
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>68</v>
+      </c>
+      <c r="B10">
+        <v>16.487280968453067</v>
+      </c>
+      <c r="C10">
+        <v>0.7827365879253344</v>
+      </c>
+      <c r="E10" t="s">
+        <v>26</v>
+      </c>
+      <c r="F10">
+        <v>32.51838802644145</v>
+      </c>
+      <c r="G10">
+        <v>1.7576178720015496</v>
+      </c>
+      <c r="I10">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.50701409169011946</v>
+      </c>
+      <c r="K10">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-16.031107057988383</v>
+      </c>
+    </row>
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11">
+        <v>15.729081927627362</v>
+      </c>
+      <c r="C11">
+        <v>0.20767629751071995</v>
+      </c>
+      <c r="E11" t="s">
+        <v>72</v>
+      </c>
+      <c r="F11">
+        <v>29.633492461104399</v>
+      </c>
+      <c r="G11">
+        <v>5.6039154555138145E-2</v>
+      </c>
+      <c r="I11">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.5307873160165868</v>
+      </c>
+      <c r="K11">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-13.904410533477037</v>
+      </c>
+    </row>
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+      <c r="B12">
+        <v>15.481023895914854</v>
+      </c>
+      <c r="C12">
+        <v>30.763899957144307</v>
+      </c>
+      <c r="E12" t="s">
+        <v>25</v>
+      </c>
+      <c r="F12">
+        <v>28.611491910108544</v>
+      </c>
+      <c r="G12">
+        <v>0.61498334002740218</v>
+      </c>
+      <c r="I12">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.54107712888768833</v>
+      </c>
+      <c r="K12">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-13.13046801419369</v>
+      </c>
+    </row>
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>47</v>
+      </c>
+      <c r="B13">
+        <v>14.388964124032048</v>
+      </c>
+      <c r="C13">
+        <v>6.2700143545871923</v>
+      </c>
+      <c r="E13" t="s">
+        <v>21</v>
+      </c>
+      <c r="F13">
+        <v>23.69128627247046</v>
+      </c>
+      <c r="G13">
+        <v>0.16485823838527278</v>
+      </c>
+      <c r="I13">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.60735259194230351</v>
+      </c>
+      <c r="K13">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-9.302322148438412</v>
+      </c>
+    </row>
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>2</v>
+      </c>
+      <c r="B14">
+        <v>14.266884539346249</v>
+      </c>
+      <c r="C14">
+        <v>69.037128736911015</v>
+      </c>
+      <c r="E14" t="s">
+        <v>41</v>
+      </c>
+      <c r="F14">
+        <v>22.939774602685862</v>
+      </c>
+      <c r="G14">
+        <v>45.188576043214717</v>
+      </c>
+      <c r="I14">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.62192784307810223</v>
+      </c>
+      <c r="K14">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-8.6728900633396133</v>
+      </c>
+    </row>
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B15">
+        <v>13.3526056253893</v>
+      </c>
+      <c r="C15">
+        <v>0.72426650067149467</v>
+      </c>
+      <c r="E15" t="s">
+        <v>24</v>
+      </c>
+      <c r="F15">
+        <v>21.056308547089419</v>
+      </c>
+      <c r="G15">
+        <v>0.27765997942184911</v>
+      </c>
+      <c r="I15">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.63413801120591051</v>
+      </c>
+      <c r="K15">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-7.7037029217001187</v>
+      </c>
+    </row>
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>73</v>
+      </c>
+      <c r="B16">
+        <v>11.573787127152125</v>
+      </c>
+      <c r="C16">
+        <v>3.8596209099920342E-2</v>
+      </c>
+      <c r="E16" t="s">
+        <v>60</v>
+      </c>
+      <c r="F16">
+        <v>16.846978742111418</v>
+      </c>
+      <c r="G16">
+        <v>5.0190761074936946E-2</v>
+      </c>
+      <c r="I16">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.68699481992114109</v>
+      </c>
+      <c r="K16">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-5.273191614959293</v>
+      </c>
+    </row>
+    <row r="17" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17">
+        <v>11.466917122741938</v>
+      </c>
+      <c r="C17">
+        <v>0.18142091802957364</v>
+      </c>
+      <c r="E17" t="s">
+        <v>70</v>
+      </c>
+      <c r="F17">
+        <v>16.071447278912849</v>
+      </c>
+      <c r="G17">
+        <v>1.2343773316263551</v>
+      </c>
+      <c r="I17">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.71349623489027902</v>
+      </c>
+      <c r="K17">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-4.6045301561709113</v>
+      </c>
+    </row>
+    <row r="18" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>27</v>
+      </c>
+      <c r="B18">
+        <v>9.0250138545366596</v>
+      </c>
+      <c r="C18">
+        <v>3.8590455867540405</v>
+      </c>
+      <c r="E18" t="s">
+        <v>73</v>
+      </c>
+      <c r="F18">
+        <v>14.846420238803782</v>
+      </c>
+      <c r="G18">
+        <v>4.9478657501195657E-2</v>
+      </c>
+      <c r="I18">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.60789157988052678</v>
+      </c>
+      <c r="K18">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-5.8214063842671226</v>
+      </c>
+    </row>
+    <row r="19" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>62</v>
+      </c>
+      <c r="B19">
+        <v>8.3324798440238652</v>
+      </c>
+      <c r="C19">
+        <v>0.29518902612760689</v>
+      </c>
+      <c r="E19" t="s">
+        <v>47</v>
+      </c>
+      <c r="F19">
+        <v>14.446240317493801</v>
+      </c>
+      <c r="G19">
+        <v>6.2858745101609843</v>
+      </c>
+      <c r="I19">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.5767922768066911</v>
+      </c>
+      <c r="K19">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-6.1137604734699362</v>
+      </c>
+    </row>
+    <row r="20" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>30</v>
+      </c>
+      <c r="B20">
+        <v>8.2666763206443878</v>
+      </c>
+      <c r="C20">
+        <v>8.5824319628617658E-3</v>
+      </c>
+      <c r="E20" t="s">
+        <v>46</v>
+      </c>
+      <c r="F20">
+        <v>12.65041774060183</v>
+      </c>
+      <c r="G20">
+        <v>0.13935139125546034</v>
+      </c>
+      <c r="I20">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.65347061971813669</v>
+      </c>
+      <c r="K20">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-4.3837414199574418</v>
+      </c>
+    </row>
+    <row r="21" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>5</v>
+      </c>
+      <c r="B21">
+        <v>7.4308508656472192</v>
+      </c>
+      <c r="C21">
+        <v>29.026631017917207</v>
+      </c>
+      <c r="E21" t="s">
+        <v>43</v>
+      </c>
+      <c r="F21">
+        <v>11.899675943693529</v>
+      </c>
+      <c r="G21">
+        <v>7326.4217054164974</v>
+      </c>
+      <c r="I21">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.624458254225431</v>
+      </c>
+      <c r="K21">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-4.4688250780463097</v>
+      </c>
+    </row>
+    <row r="22" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>28</v>
+      </c>
+      <c r="B22">
+        <v>6.8097930689811497</v>
+      </c>
+      <c r="C22">
+        <v>4.6222935446989383E-3</v>
+      </c>
+      <c r="E22" t="s">
+        <v>1</v>
+      </c>
+      <c r="F22">
+        <v>11.105778548482583</v>
+      </c>
+      <c r="G22">
+        <v>4.2791552177400494E-2</v>
+      </c>
+      <c r="I22">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.61317565799217133</v>
+      </c>
+      <c r="K22">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-4.2959854795014332</v>
+      </c>
+      <c r="L22">
+        <v>5</v>
+      </c>
+      <c r="M22">
+        <v>21</v>
+      </c>
+      <c r="O22">
+        <f>ABS(L22-M22)/L22 *100</f>
+        <v>320</v>
+      </c>
+    </row>
+    <row r="23" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>71</v>
+      </c>
+      <c r="B23">
+        <v>6.4762561524357594</v>
+      </c>
+      <c r="C23">
+        <v>4.2190755195864824</v>
+      </c>
+      <c r="E23" t="s">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>10.798452794474356</v>
+      </c>
+      <c r="G23">
+        <v>3.8572035471046477E-2</v>
+      </c>
+      <c r="I23">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.59973926595759208</v>
+      </c>
+      <c r="K23">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-4.3221966420385964</v>
+      </c>
+    </row>
+    <row r="24" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>22</v>
+      </c>
+      <c r="B24">
+        <v>6.4356414743293753</v>
+      </c>
+      <c r="C24">
+        <v>0.70802711773613236</v>
+      </c>
+      <c r="E24" t="s">
+        <v>22</v>
+      </c>
+      <c r="F24">
+        <v>10.114120359289883</v>
+      </c>
+      <c r="G24">
+        <v>1.1073673531428476</v>
+      </c>
+      <c r="I24">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.63630263885659599</v>
+      </c>
+      <c r="K24">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-3.6784788849605077</v>
+      </c>
+    </row>
+    <row r="25" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>43</v>
+      </c>
+      <c r="B25">
+        <v>6.2047596094048814</v>
+      </c>
+      <c r="C25">
+        <v>3919.5473521263434</v>
+      </c>
+      <c r="E25" t="s">
+        <v>5</v>
+      </c>
+      <c r="F25">
+        <v>9.7451039812654869</v>
+      </c>
+      <c r="G25">
+        <v>37.665455201598569</v>
+      </c>
+      <c r="I25">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.63670532621645137</v>
+      </c>
+      <c r="K25">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-3.5403443718606056</v>
+      </c>
+    </row>
+    <row r="26" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>5.9570318087763816</v>
+      </c>
+      <c r="C26">
+        <v>0.12803694616508352</v>
+      </c>
+      <c r="E26" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26">
+        <v>8.9086440950371095</v>
+      </c>
+      <c r="G26">
+        <v>43.078866492654221</v>
+      </c>
+      <c r="I26">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.66867996355303572</v>
+      </c>
+      <c r="K26">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-2.9516122862607279</v>
+      </c>
+    </row>
+    <row r="27" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>64</v>
+      </c>
+      <c r="B27">
+        <v>5.3610678038901938</v>
+      </c>
+      <c r="C27">
+        <v>9.9365105611032956E-2</v>
+      </c>
+      <c r="E27" t="s">
+        <v>62</v>
+      </c>
+      <c r="F27">
+        <v>8.5215102112009813</v>
+      </c>
+      <c r="G27">
+        <v>0.31103742655514138</v>
+      </c>
+      <c r="I27">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.62912179543520497</v>
+      </c>
+      <c r="K27">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-3.1604424073107875</v>
+      </c>
+    </row>
+    <row r="28" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>46</v>
+      </c>
+      <c r="B28">
+        <v>4.9211173021201517</v>
+      </c>
+      <c r="C28">
+        <v>5.4387465121253843E-2</v>
+      </c>
+      <c r="E28" t="s">
+        <v>71</v>
+      </c>
+      <c r="F28">
+        <v>8.4216931339312691</v>
+      </c>
+      <c r="G28">
+        <v>5.4349957596716694</v>
+      </c>
+      <c r="I28">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.58433823506259253</v>
+      </c>
+      <c r="K28">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-3.5005758318111173</v>
+      </c>
+    </row>
+    <row r="29" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>66</v>
+      </c>
+      <c r="B29">
+        <v>4.6896982138052792</v>
+      </c>
+      <c r="C29">
+        <v>3.9880131631275759</v>
+      </c>
+      <c r="E29" t="s">
+        <v>68</v>
+      </c>
+      <c r="F29">
+        <v>8.3429883599120469</v>
+      </c>
+      <c r="G29">
+        <v>0.39565238354110405</v>
+      </c>
+      <c r="I29">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.56211252029778913</v>
+      </c>
+      <c r="K29">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-3.6532901461067677</v>
+      </c>
+    </row>
+    <row r="30" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30">
+        <v>4.6280855675840558</v>
+      </c>
+      <c r="C30">
+        <v>1.3839059715301591E-2</v>
+      </c>
+      <c r="E30" t="s">
+        <v>28</v>
+      </c>
+      <c r="F30">
+        <v>7.481835924507199</v>
+      </c>
+      <c r="G30">
+        <v>5.0308079013471662E-3</v>
+      </c>
+      <c r="I30">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.61857619096196503</v>
+      </c>
+      <c r="K30">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-2.8537503569231433</v>
+      </c>
+    </row>
+    <row r="31" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>61</v>
+      </c>
+      <c r="B31">
+        <v>3.4106701875096834</v>
+      </c>
+      <c r="C31">
+        <v>5.0176050492359986E-3</v>
+      </c>
+      <c r="E31" t="s">
+        <v>20</v>
+      </c>
+      <c r="F31">
+        <v>6.9396851256795076</v>
+      </c>
+      <c r="G31">
+        <v>9.2694517830508721E-3</v>
+      </c>
+      <c r="I31">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.49147333427116024</v>
+      </c>
+      <c r="K31">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-3.5290149381698241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:15" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>63</v>
+      </c>
+      <c r="B32">
+        <v>3.4045629547268348</v>
+      </c>
+      <c r="C32">
+        <v>0.34303742094706102</v>
+      </c>
+      <c r="E32" t="s">
+        <v>30</v>
+      </c>
+      <c r="F32">
+        <v>5.7889249187157334</v>
+      </c>
+      <c r="G32">
+        <v>5.6748065584908301E-3</v>
+      </c>
+      <c r="I32">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.58811661967143514</v>
+      </c>
+      <c r="K32">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-2.3843619639888987</v>
+      </c>
+    </row>
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>70</v>
+      </c>
+      <c r="B33">
+        <v>3.1115612382183397</v>
+      </c>
+      <c r="C33">
+        <v>0.24301548316503693</v>
+      </c>
+      <c r="E33" t="s">
+        <v>27</v>
+      </c>
+      <c r="F33">
+        <v>5.5856107641010153</v>
+      </c>
+      <c r="G33">
+        <v>2.3891908906638286</v>
+      </c>
+      <c r="I33">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.55706732345484777</v>
+      </c>
+      <c r="K33">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-2.4740495258826756</v>
+      </c>
+    </row>
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1</v>
+      </c>
+      <c r="B34">
+        <v>2.9573751270758089</v>
+      </c>
+      <c r="C34">
+        <v>1.1520749373376901E-2</v>
+      </c>
+      <c r="E34" t="s">
+        <v>67</v>
+      </c>
+      <c r="F34">
+        <v>4.7128309095593552</v>
+      </c>
+      <c r="G34">
+        <v>3.3441577142825381</v>
+      </c>
+      <c r="I34">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.62751564480642918</v>
+      </c>
+      <c r="K34">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-1.7554557824835464</v>
+      </c>
+    </row>
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>3</v>
+      </c>
+      <c r="B35">
+        <v>1.924890406438071</v>
+      </c>
+      <c r="C35">
+        <v>6.8862536502814582E-3</v>
+      </c>
+      <c r="E35" t="s">
+        <v>66</v>
+      </c>
+      <c r="F35">
+        <v>4.2872965579546243</v>
+      </c>
+      <c r="G35">
+        <v>3.6460620279207845</v>
+      </c>
+      <c r="I35">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.44897533455357569</v>
+      </c>
+      <c r="K35">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-2.3624061515165531</v>
+      </c>
+    </row>
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>74</v>
+      </c>
+      <c r="B36">
+        <v>1.7897766576469107</v>
+      </c>
+      <c r="C36">
+        <v>1.1619467330871938</v>
+      </c>
+      <c r="E36" t="s">
+        <v>61</v>
+      </c>
+      <c r="F36">
+        <v>2.8275168542549971</v>
+      </c>
+      <c r="G36">
+        <v>4.1545039530783241E-3</v>
+      </c>
+      <c r="I36">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.63298531888627296</v>
+      </c>
+      <c r="K36">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-1.0377401966080864</v>
+      </c>
+    </row>
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>45</v>
+      </c>
+      <c r="B37">
+        <v>1.5482676779279949</v>
+      </c>
+      <c r="C37">
+        <v>0.85241411559426794</v>
+      </c>
+      <c r="E37" t="s">
+        <v>74</v>
+      </c>
+      <c r="F37">
+        <v>2.0861367435637366</v>
+      </c>
+      <c r="G37">
+        <v>1.3474738652379479</v>
+      </c>
+      <c r="I37">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.74216979433625108</v>
+      </c>
+      <c r="K37">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-0.53786906563574166</v>
+      </c>
+    </row>
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>67</v>
+      </c>
+      <c r="B38">
+        <v>0.59300532031025621</v>
+      </c>
+      <c r="C38">
+        <v>0.42071306180197254</v>
+      </c>
+      <c r="E38" t="s">
+        <v>6</v>
+      </c>
+      <c r="F38">
+        <v>1.9759432082053692</v>
+      </c>
+      <c r="G38">
+        <v>7.6054048164532944E-3</v>
+      </c>
+      <c r="I38">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.30011253250990316</v>
+      </c>
+      <c r="K38">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-1.3829378878951131</v>
+      </c>
+    </row>
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>75</v>
+      </c>
+      <c r="B39">
+        <v>0.431392013410418</v>
+      </c>
+      <c r="C39">
+        <v>7.6700815705917762</v>
+      </c>
+      <c r="E39" t="s">
+        <v>75</v>
+      </c>
+      <c r="F39">
+        <v>1.8811599939127808</v>
+      </c>
+      <c r="G39">
+        <v>33.433297787571405</v>
+      </c>
+      <c r="I39">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.22932234089942022</v>
+      </c>
+      <c r="K39">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>-1.4497679805023629</v>
+      </c>
+    </row>
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>65</v>
+      </c>
+      <c r="B40">
+        <v>0.15435827035668018</v>
+      </c>
+      <c r="C40">
+        <v>0.14461601697057702</v>
+      </c>
+      <c r="E40" t="s">
+        <v>63</v>
+      </c>
+      <c r="I40" t="e">
+        <f>Таблица3[[#This Row],[MAPE %]]/Таблица46[[#This Row],[MAPE %]]</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="K40">
+        <f>Таблица3[[#This Row],[MAPE %]]-Таблица46[[#This Row],[MAPE %]]</f>
+        <v>0.15435827035668018</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <tableParts count="2">
+    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43791A37-669F-4B45-8942-A339E9176694}">
+  <dimension ref="A1:B4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C6" sqref="A1:C6"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>122</v>
+      </c>
+      <c r="B2">
+        <f>A2/A1</f>
+        <v>1.0166666666666666</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>132</v>
+      </c>
+      <c r="B3">
+        <f t="shared" ref="B3:B4" si="0">A3/A2</f>
+        <v>1.0819672131147542</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>145</v>
+      </c>
+      <c r="B4">
+        <f t="shared" si="0"/>
+        <v>1.0984848484848484</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005505A-8BB5-4591-9B76-4928C9DF9A4D}">
+  <dimension ref="B3:I31"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="T21" sqref="T21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B3" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B6" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B7" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B8" t="s">
+        <v>53</v>
+      </c>
+      <c r="I8" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B9" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B12" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+      <c r="B14" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
+      <c r="I31" t="s">
+        <v>45</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02CF27A-4FD7-4A86-8D8E-5E36547C57CD}">
+  <dimension ref="A1:Y21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B37" sqref="B37"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+      <c r="B1">
+        <v>1.6</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>15</v>
+      </c>
+      <c r="D3" t="s">
+        <v>16</v>
+      </c>
+      <c r="E3" t="s">
+        <v>7</v>
+      </c>
+      <c r="F3" t="s">
+        <v>8</v>
+      </c>
+      <c r="G3" t="s">
+        <v>9</v>
+      </c>
+      <c r="H3" t="s">
+        <v>10</v>
+      </c>
+      <c r="I3" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>5.5965999999999996</v>
+      </c>
+      <c r="B4">
+        <v>6.2557</v>
+      </c>
+      <c r="C4">
+        <v>6.3556999999999997</v>
+      </c>
+      <c r="D4">
+        <v>5.3640999999999996</v>
+      </c>
+      <c r="E4">
+        <f>(A4-B4)</f>
+        <v>-0.65910000000000046</v>
+      </c>
+      <c r="F4">
+        <f>C4-D4</f>
+        <v>0.99160000000000004</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="E6">
+        <v>0.65910000000000002</v>
+      </c>
+      <c r="F6">
+        <v>0.99180000000000001</v>
+      </c>
+      <c r="G6">
+        <v>0.32907399999999998</v>
+      </c>
+      <c r="H6">
+        <f>E6/G6</f>
+        <v>2.0028929663236843</v>
+      </c>
+      <c r="I6">
+        <f>$B$1*E6</f>
+        <v>1.0545600000000002</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="D8" t="s">
+        <v>17</v>
+      </c>
+      <c r="E8">
+        <f>F6-E6</f>
+        <v>0.3327</v>
+      </c>
+      <c r="I8">
+        <f>1.5*E4</f>
+        <v>-0.98865000000000069</v>
+      </c>
+    </row>
+    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="I9">
+        <f>E4/F4</f>
+        <v>-0.66468334005647478</v>
+      </c>
+    </row>
+    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="F10">
+        <f>E8/E6</f>
+        <v>0.50477924442421485</v>
+      </c>
+    </row>
+    <row r="18" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="O18" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="21" spans="15:25" x14ac:dyDescent="0.25">
+      <c r="Y21" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C70B2888-2143-4589-82AC-5196D803E367}">
   <dimension ref="L1:Q42"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="P50" sqref="P50"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G28" sqref="G28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -3239,12 +5239,1668 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DE83669-51F7-46C1-98CF-AA329887AEC4}">
+  <dimension ref="L1:Q42"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I29" sqref="I29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M2" t="s">
+        <v>66</v>
+      </c>
+      <c r="N2">
+        <v>0.97</v>
+      </c>
+      <c r="P2">
+        <v>0.27399293661329671</v>
+      </c>
+      <c r="Q2">
+        <v>0.26875516425425688</v>
+      </c>
+    </row>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M3" t="s">
+        <v>1</v>
+      </c>
+      <c r="N3">
+        <v>0.94</v>
+      </c>
+      <c r="P3">
+        <v>1.8853641266747854E-2</v>
+      </c>
+      <c r="Q3">
+        <v>1.9196070746176682E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M4" t="s">
+        <v>64</v>
+      </c>
+      <c r="N4">
+        <v>0.86</v>
+      </c>
+      <c r="P4">
+        <v>5.8449445803961254E-2</v>
+      </c>
+      <c r="Q4">
+        <v>5.9416842184289873E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M5" t="s">
+        <v>70</v>
+      </c>
+      <c r="N5">
+        <v>0.77</v>
+      </c>
+      <c r="P5">
+        <v>-0.13057897857035475</v>
+      </c>
+      <c r="Q5">
+        <v>-0.13181482953315785</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>44469</v>
+      </c>
+      <c r="M6" t="s">
+        <v>65</v>
+      </c>
+      <c r="N6">
+        <v>0.76</v>
+      </c>
+      <c r="P6">
+        <v>0.10148553854004029</v>
+      </c>
+      <c r="Q6">
+        <v>0.10280027888621765</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M7" t="s">
+        <v>28</v>
+      </c>
+      <c r="N7">
+        <v>0.62</v>
+      </c>
+      <c r="P7">
+        <v>-0.13827777767832067</v>
+      </c>
+      <c r="Q7">
+        <v>-0.13943951488960371</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>0.6</v>
+      </c>
+      <c r="P8">
+        <v>-3.6794481208036335E-2</v>
+      </c>
+      <c r="Q8">
+        <v>-3.7443390032365215E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M9" t="s">
+        <v>47</v>
+      </c>
+      <c r="N9">
+        <v>0.55000000000000004</v>
+      </c>
+      <c r="P9">
+        <v>-0.11623415265821672</v>
+      </c>
+      <c r="Q9">
+        <v>-0.11754647372741432</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M10" t="s">
+        <v>63</v>
+      </c>
+      <c r="N10">
+        <v>0.5</v>
+      </c>
+      <c r="P10">
+        <v>-1.2747004638015315E-2</v>
+      </c>
+      <c r="Q10">
+        <v>-1.2979820611063531E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M11" t="s">
+        <v>5</v>
+      </c>
+      <c r="N11">
+        <v>0.49</v>
+      </c>
+      <c r="P11">
+        <v>-0.14244776876375498</v>
+      </c>
+      <c r="Q11">
+        <v>-0.14355912082576827</v>
+      </c>
+    </row>
+    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M12" t="s">
+        <v>62</v>
+      </c>
+      <c r="N12">
+        <v>0.49</v>
+      </c>
+      <c r="P12">
+        <v>-4.2086302522593856E-2</v>
+      </c>
+      <c r="Q12">
+        <v>-4.2819284223133809E-2</v>
+      </c>
+    </row>
+    <row r="13" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M13" t="s">
+        <v>71</v>
+      </c>
+      <c r="N13">
+        <v>0.49</v>
+      </c>
+      <c r="P13">
+        <v>7.9270534550524852E-2</v>
+      </c>
+      <c r="Q13">
+        <v>8.046341483123691E-2</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M14" t="s">
+        <v>25</v>
+      </c>
+      <c r="N14">
+        <v>0.39</v>
+      </c>
+      <c r="P14">
+        <v>-0.23483890545218408</v>
+      </c>
+      <c r="Q14">
+        <v>-0.23258958940469046</v>
+      </c>
+    </row>
+    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M15" t="s">
+        <v>41</v>
+      </c>
+      <c r="N15">
+        <v>0.38</v>
+      </c>
+      <c r="P15">
+        <v>3.6882556470599369E-2</v>
+      </c>
+      <c r="Q15">
+        <v>3.7532892482673989E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M16" t="s">
+        <v>24</v>
+      </c>
+      <c r="N16">
+        <v>0.34</v>
+      </c>
+      <c r="P16">
+        <v>-4.3468083503175853E-2</v>
+      </c>
+      <c r="Q16">
+        <v>-4.4222424829889168E-2</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M17" t="s">
+        <v>46</v>
+      </c>
+      <c r="N17">
+        <v>0.34</v>
+      </c>
+      <c r="P17">
+        <v>-0.18069568776480097</v>
+      </c>
+      <c r="Q17">
+        <v>-0.18097309271131462</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M18" t="s">
+        <v>23</v>
+      </c>
+      <c r="N18">
+        <v>0.25</v>
+      </c>
+      <c r="P18">
+        <v>-0.14909911575083362</v>
+      </c>
+      <c r="Q18">
+        <v>-0.15011460360924128</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>0.22</v>
+      </c>
+      <c r="P19">
+        <v>-0.26705604917281595</v>
+      </c>
+      <c r="Q19">
+        <v>-0.26242513201108525</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M20" t="s">
+        <v>43</v>
+      </c>
+      <c r="N20">
+        <v>0.16</v>
+      </c>
+      <c r="P20">
+        <v>-0.14161012562587613</v>
+      </c>
+      <c r="Q20">
+        <v>-0.14273219037126633</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M21" t="s">
+        <v>2</v>
+      </c>
+      <c r="N21">
+        <v>0.16</v>
+      </c>
+      <c r="P21">
+        <v>-0.24716550817878116</v>
+      </c>
+      <c r="Q21">
+        <v>-0.24408786267162055</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M22" t="s">
+        <v>59</v>
+      </c>
+      <c r="N22">
+        <v>0.15</v>
+      </c>
+      <c r="P22">
+        <v>-0.15343274883364064</v>
+      </c>
+      <c r="Q22">
+        <v>-0.15437520544971339</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M23" t="s">
+        <v>45</v>
+      </c>
+      <c r="N23">
+        <v>0.05</v>
+      </c>
+      <c r="P23">
+        <v>-0.22428755413500981</v>
+      </c>
+      <c r="Q23">
+        <v>-0.22266899719460917</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M24" t="s">
+        <v>61</v>
+      </c>
+      <c r="N24">
+        <v>0.02</v>
+      </c>
+      <c r="P24">
+        <v>-0.15486986023851612</v>
+      </c>
+      <c r="Q24">
+        <v>-0.15578621118926181</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M25" t="s">
+        <v>22</v>
+      </c>
+      <c r="N25">
+        <v>-0.01</v>
+      </c>
+      <c r="P25">
+        <v>-0.119498510694831</v>
+      </c>
+      <c r="Q25">
+        <v>-0.12080016250349405</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M26" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26">
+        <v>-0.08</v>
+      </c>
+      <c r="P26">
+        <v>-0.23397292971965644</v>
+      </c>
+      <c r="Q26">
+        <v>-0.23177806432360737</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M27" t="s">
+        <v>73</v>
+      </c>
+      <c r="N27">
+        <v>-0.09</v>
+      </c>
+      <c r="P27">
+        <v>-0.16966704779773004</v>
+      </c>
+      <c r="Q27">
+        <v>-0.17025779274968214</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M28" t="s">
+        <v>74</v>
+      </c>
+      <c r="N28">
+        <v>-0.12</v>
+      </c>
+      <c r="P28">
+        <v>-0.18324966560731293</v>
+      </c>
+      <c r="Q28">
+        <v>-0.1834454923229295</v>
+      </c>
+    </row>
+    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M29" t="s">
+        <v>76</v>
+      </c>
+      <c r="N29">
+        <v>-0.2</v>
+      </c>
+      <c r="P29">
+        <v>-8.6981209709779808E-2</v>
+      </c>
+      <c r="Q29">
+        <v>-8.8231873492375129E-2</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M30" t="s">
+        <v>21</v>
+      </c>
+      <c r="N30">
+        <v>-0.24</v>
+      </c>
+      <c r="P30">
+        <v>-0.26299616465478931</v>
+      </c>
+      <c r="Q30">
+        <v>-0.25870457778177885</v>
+      </c>
+    </row>
+    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M31" t="s">
+        <v>30</v>
+      </c>
+      <c r="N31">
+        <v>-0.28999999999999998</v>
+      </c>
+      <c r="P31">
+        <v>-0.19944100012490504</v>
+      </c>
+      <c r="Q31">
+        <v>-0.19903712301645202</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32">
+        <v>-0.3</v>
+      </c>
+      <c r="P32">
+        <v>-0.17880104442426939</v>
+      </c>
+      <c r="Q32">
+        <v>-0.17913674525834863</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M33" t="s">
+        <v>26</v>
+      </c>
+      <c r="N33">
+        <v>-0.31</v>
+      </c>
+      <c r="P33">
+        <v>-0.24339803242314598</v>
+      </c>
+      <c r="Q33">
+        <v>-0.24058421649294304</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M34" t="s">
+        <v>60</v>
+      </c>
+      <c r="N34">
+        <v>-0.31</v>
+      </c>
+      <c r="P34">
+        <v>-0.14391800979837485</v>
+      </c>
+      <c r="Q34">
+        <v>-0.14500983104286239</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M35" t="s">
+        <v>68</v>
+      </c>
+      <c r="N35">
+        <v>-0.34</v>
+      </c>
+      <c r="P35">
+        <v>-0.18491014283837506</v>
+      </c>
+      <c r="Q35">
+        <v>-0.18505106891957343</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M36" t="s">
+        <v>6</v>
+      </c>
+      <c r="N36">
+        <v>-0.35</v>
+      </c>
+      <c r="P36">
+        <v>-0.17403155400663692</v>
+      </c>
+      <c r="Q36">
+        <v>-0.17450574613861258</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>44469</v>
+      </c>
+      <c r="M37" t="s">
+        <v>67</v>
+      </c>
+      <c r="N37">
+        <v>-0.54</v>
+      </c>
+      <c r="P37">
+        <v>-0.15302879034047323</v>
+      </c>
+      <c r="Q37">
+        <v>-0.15397841449299224</v>
+      </c>
+    </row>
+    <row r="38" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M38" t="s">
+        <v>72</v>
+      </c>
+      <c r="N38">
+        <v>-0.61</v>
+      </c>
+      <c r="P38">
+        <v>-0.3091160532203408</v>
+      </c>
+      <c r="Q38">
+        <v>-0.30026293426988176</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>44469</v>
+      </c>
+      <c r="M39" t="s">
+        <v>75</v>
+      </c>
+      <c r="N39">
+        <v>-0.68</v>
+      </c>
+      <c r="P39">
+        <v>-0.13952613017070611</v>
+      </c>
+      <c r="Q39">
+        <v>-0.14067355338334459</v>
+      </c>
+    </row>
+    <row r="40" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+      <c r="N40">
+        <f>SUM(N2:N39)</f>
+        <v>6.0300000000000029</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6EE364B3-3D62-42B9-AE5A-B4382BC3D42C}">
+  <dimension ref="L1:Q42"/>
+  <sheetViews>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="M33" sqref="M33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="12.140625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2">
+        <v>0.19</v>
+      </c>
+      <c r="P2">
+        <v>-0.11677333474809526</v>
+      </c>
+      <c r="Q2">
+        <v>-0.11808415749865407</v>
+      </c>
+    </row>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3">
+        <v>0.7</v>
+      </c>
+      <c r="P3">
+        <v>8.6463666491188418E-2</v>
+      </c>
+      <c r="Q3">
+        <v>8.771093956334608E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4">
+        <v>-0.61</v>
+      </c>
+      <c r="P4">
+        <v>-0.11032171322118216</v>
+      </c>
+      <c r="Q4">
+        <v>-0.1116437784106999</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5">
+        <v>0.97</v>
+      </c>
+      <c r="P5">
+        <v>0.27400897194712959</v>
+      </c>
+      <c r="Q5">
+        <v>0.26876975687642923</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>-0.54</v>
+      </c>
+      <c r="P6">
+        <v>-0.13218437073629283</v>
+      </c>
+      <c r="Q6">
+        <v>-0.13340674567298044</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M7" t="s">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>0.17</v>
+      </c>
+      <c r="P7">
+        <v>-0.23729677790972273</v>
+      </c>
+      <c r="Q7">
+        <v>-0.23489026724316239</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M8" t="s">
+        <v>1</v>
+      </c>
+      <c r="N8">
+        <v>0.96</v>
+      </c>
+      <c r="P8">
+        <v>5.0182750215192737E-2</v>
+      </c>
+      <c r="Q8">
+        <v>5.1037011290087413E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M9" t="s">
+        <v>28</v>
+      </c>
+      <c r="N9">
+        <v>0.63</v>
+      </c>
+      <c r="P9">
+        <v>-0.1140205265691807</v>
+      </c>
+      <c r="Q9">
+        <v>-0.11533792022102714</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M10" t="s">
+        <v>21</v>
+      </c>
+      <c r="N10">
+        <v>-0.18</v>
+      </c>
+      <c r="P10">
+        <v>-0.21933175757002421</v>
+      </c>
+      <c r="Q10">
+        <v>-0.21798526488146774</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M11" t="s">
+        <v>6</v>
+      </c>
+      <c r="N11">
+        <v>-0.34</v>
+      </c>
+      <c r="P11">
+        <v>-0.14289901700471105</v>
+      </c>
+      <c r="Q11">
+        <v>-0.14400447353551757</v>
+      </c>
+    </row>
+    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>0.41</v>
+      </c>
+      <c r="P12">
+        <v>-8.0254096936127877E-3</v>
+      </c>
+      <c r="Q12">
+        <v>-8.1724042771689973E-3</v>
+      </c>
+    </row>
+    <row r="13" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L13" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M13" t="s">
+        <v>25</v>
+      </c>
+      <c r="N13">
+        <v>0.4</v>
+      </c>
+      <c r="P13">
+        <v>-0.19766969426864109</v>
+      </c>
+      <c r="Q13">
+        <v>-0.19733853984451433</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L14" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M14" t="s">
+        <v>20</v>
+      </c>
+      <c r="N14">
+        <v>-0.04</v>
+      </c>
+      <c r="P14">
+        <v>-0.18859398516720222</v>
+      </c>
+      <c r="Q14">
+        <v>-0.18860781010515235</v>
+      </c>
+    </row>
+    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L15" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M15" t="s">
+        <v>27</v>
+      </c>
+      <c r="N15">
+        <v>0.59</v>
+      </c>
+      <c r="P15">
+        <v>-2.1256940860733271E-2</v>
+      </c>
+      <c r="Q15">
+        <v>-2.1641938971668381E-2</v>
+      </c>
+    </row>
+    <row r="16" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L16" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M16" t="s">
+        <v>30</v>
+      </c>
+      <c r="N16">
+        <v>-0.27</v>
+      </c>
+      <c r="P16">
+        <v>-0.17485225243015504</v>
+      </c>
+      <c r="Q16">
+        <v>-0.17530344844407553</v>
+      </c>
+    </row>
+    <row r="17" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L17" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M17" t="s">
+        <v>23</v>
+      </c>
+      <c r="N17">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="P17">
+        <v>-0.12973483260244059</v>
+      </c>
+      <c r="Q17">
+        <v>-0.13097735941219607</v>
+      </c>
+    </row>
+    <row r="18" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L18" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M18" t="s">
+        <v>26</v>
+      </c>
+      <c r="N18">
+        <v>-0.27</v>
+      </c>
+      <c r="P18">
+        <v>-0.24079303283381007</v>
+      </c>
+      <c r="Q18">
+        <v>-0.23815612001356806</v>
+      </c>
+    </row>
+    <row r="19" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L19" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M19" t="s">
+        <v>3</v>
+      </c>
+      <c r="N19">
+        <v>0.26</v>
+      </c>
+      <c r="P19">
+        <v>-0.25778322710872509</v>
+      </c>
+      <c r="Q19">
+        <v>-0.25391042487695653</v>
+      </c>
+    </row>
+    <row r="20" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L20" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M20" t="s">
+        <v>22</v>
+      </c>
+      <c r="N20">
+        <v>0.03</v>
+      </c>
+      <c r="P20">
+        <v>-9.5219675270664661E-2</v>
+      </c>
+      <c r="Q20">
+        <v>-9.6514290302864014E-2</v>
+      </c>
+    </row>
+    <row r="21" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L21" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M21" t="s">
+        <v>45</v>
+      </c>
+      <c r="N21">
+        <v>0.08</v>
+      </c>
+      <c r="P21">
+        <v>-0.20232088466791065</v>
+      </c>
+      <c r="Q21">
+        <v>-0.2017949402898585</v>
+      </c>
+    </row>
+    <row r="22" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L22" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M22" t="s">
+        <v>46</v>
+      </c>
+      <c r="N22">
+        <v>0.37</v>
+      </c>
+      <c r="P22">
+        <v>-0.12317511277450698</v>
+      </c>
+      <c r="Q22">
+        <v>-0.12446008664076426</v>
+      </c>
+    </row>
+    <row r="23" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L23" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M23" t="s">
+        <v>47</v>
+      </c>
+      <c r="N23">
+        <v>0.59</v>
+      </c>
+      <c r="P23">
+        <v>-2.53371254880073E-2</v>
+      </c>
+      <c r="Q23">
+        <v>-2.5793481121108928E-2</v>
+      </c>
+    </row>
+    <row r="24" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L24" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M24" t="s">
+        <v>59</v>
+      </c>
+      <c r="N24">
+        <v>0.18</v>
+      </c>
+      <c r="P24">
+        <v>-0.15169576069090926</v>
+      </c>
+      <c r="Q24">
+        <v>-0.15266850944933166</v>
+      </c>
+    </row>
+    <row r="25" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L25" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M25" t="s">
+        <v>61</v>
+      </c>
+      <c r="N25">
+        <v>0.06</v>
+      </c>
+      <c r="P25">
+        <v>-0.15946209715989715</v>
+      </c>
+      <c r="Q25">
+        <v>-0.16028860236040043</v>
+      </c>
+    </row>
+    <row r="26" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L26" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M26" t="s">
+        <v>5</v>
+      </c>
+      <c r="N26">
+        <v>0.52</v>
+      </c>
+      <c r="P26">
+        <v>-2.3730105774361392E-2</v>
+      </c>
+      <c r="Q26">
+        <v>-2.4158503938832079E-2</v>
+      </c>
+    </row>
+    <row r="27" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L27" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M27" t="s">
+        <v>63</v>
+      </c>
+      <c r="N27">
+        <v>0.54</v>
+      </c>
+      <c r="P27">
+        <v>-3.2453052801310285E-2</v>
+      </c>
+      <c r="Q27">
+        <v>-3.3030538144633012E-2</v>
+      </c>
+    </row>
+    <row r="28" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L28" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M28" t="s">
+        <v>64</v>
+      </c>
+      <c r="N28">
+        <v>0.85</v>
+      </c>
+      <c r="P28">
+        <v>0.10714767732619816</v>
+      </c>
+      <c r="Q28">
+        <v>0.10847005117226359</v>
+      </c>
+    </row>
+    <row r="29" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L29" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M29" t="s">
+        <v>62</v>
+      </c>
+      <c r="N29">
+        <v>0.51</v>
+      </c>
+      <c r="P29">
+        <v>-2.468440394702013E-3</v>
+      </c>
+      <c r="Q29">
+        <v>-2.5137287152050491E-3</v>
+      </c>
+    </row>
+    <row r="30" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L30" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M30" t="s">
+        <v>60</v>
+      </c>
+      <c r="N30">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="P30">
+        <v>-0.11565674137667892</v>
+      </c>
+      <c r="Q30">
+        <v>-0.11697055235604491</v>
+      </c>
+    </row>
+    <row r="31" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L31" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M31" t="s">
+        <v>41</v>
+      </c>
+      <c r="N31">
+        <v>0.36</v>
+      </c>
+      <c r="P31">
+        <v>4.2711585382092958E-2</v>
+      </c>
+      <c r="Q31">
+        <v>4.3454264616360233E-2</v>
+      </c>
+    </row>
+    <row r="32" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L32" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M32" t="s">
+        <v>69</v>
+      </c>
+      <c r="N32">
+        <v>-0.28000000000000003</v>
+      </c>
+      <c r="P32">
+        <v>-0.16588017341908928</v>
+      </c>
+      <c r="Q32">
+        <v>-0.16656433016148431</v>
+      </c>
+    </row>
+    <row r="33" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L33" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M33" t="s">
+        <v>68</v>
+      </c>
+      <c r="N33">
+        <v>-0.3</v>
+      </c>
+      <c r="P33">
+        <v>-0.14900216262823121</v>
+      </c>
+      <c r="Q33">
+        <v>-0.15001918771923345</v>
+      </c>
+    </row>
+    <row r="34" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L34" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M34" t="s">
+        <v>72</v>
+      </c>
+      <c r="N34">
+        <v>-0.56999999999999995</v>
+      </c>
+      <c r="P34">
+        <v>-0.31620567695907775</v>
+      </c>
+      <c r="Q34">
+        <v>-0.30650911677308179</v>
+      </c>
+    </row>
+    <row r="35" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L35" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M35" t="s">
+        <v>73</v>
+      </c>
+      <c r="N35">
+        <v>-0.05</v>
+      </c>
+      <c r="P35">
+        <v>-0.12945575067381462</v>
+      </c>
+      <c r="Q35">
+        <v>-0.1307004227990354</v>
+      </c>
+    </row>
+    <row r="36" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L36" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M36" t="s">
+        <v>74</v>
+      </c>
+      <c r="N36">
+        <v>-0.09</v>
+      </c>
+      <c r="P36">
+        <v>-0.13207231678389225</v>
+      </c>
+      <c r="Q36">
+        <v>-0.1332956656950593</v>
+      </c>
+    </row>
+    <row r="37" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L37" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M37" t="s">
+        <v>70</v>
+      </c>
+      <c r="N37">
+        <v>0.81</v>
+      </c>
+      <c r="P37">
+        <v>-9.5351267950715551E-2</v>
+      </c>
+      <c r="Q37">
+        <v>-9.6646427122981299E-2</v>
+      </c>
+    </row>
+    <row r="38" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L38" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M38" t="s">
+        <v>76</v>
+      </c>
+      <c r="N38">
+        <v>-0.16</v>
+      </c>
+      <c r="P38">
+        <v>-8.479766818041079E-2</v>
+      </c>
+      <c r="Q38">
+        <v>-8.6033539734751807E-2</v>
+      </c>
+    </row>
+    <row r="39" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L39" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M39" t="s">
+        <v>71</v>
+      </c>
+      <c r="N39">
+        <v>0.47</v>
+      </c>
+      <c r="P39">
+        <v>8.9853284117501542E-2</v>
+      </c>
+      <c r="Q39">
+        <v>9.1121437610326039E-2</v>
+      </c>
+    </row>
+    <row r="40" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L40" s="1"/>
+      <c r="N40">
+        <f>SUM(N2:N39)</f>
+        <v>6.9499999999999984</v>
+      </c>
+    </row>
+    <row r="42" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L42" t="s">
+        <v>42</v>
+      </c>
+      <c r="M42" t="s">
+        <v>0</v>
+      </c>
+      <c r="N42" t="s">
+        <v>35</v>
+      </c>
+      <c r="O42" t="s">
+        <v>36</v>
+      </c>
+      <c r="P42" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q42" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{906BB3C2-794D-4DCF-A590-F98B0B5649C4}">
+  <dimension ref="L1:Q14"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="O33" sqref="O33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="12" max="12" width="10.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2">
+        <v>0.19</v>
+      </c>
+      <c r="P2">
+        <v>-0.11677333474809526</v>
+      </c>
+      <c r="Q2">
+        <v>-0.11808415749865407</v>
+      </c>
+    </row>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3">
+        <v>0.66</v>
+      </c>
+      <c r="P3">
+        <v>3.5206800682820054E-2</v>
+      </c>
+      <c r="Q3">
+        <v>3.5829829994069508E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4">
+        <v>-0.57999999999999996</v>
+      </c>
+      <c r="P4">
+        <v>-8.584575418429688E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-8.7088884747830345E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5">
+        <v>0.96</v>
+      </c>
+      <c r="P5">
+        <v>0.25900889651763709</v>
+      </c>
+      <c r="Q5">
+        <v>0.25503932821694814</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>44468</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>-0.54</v>
+      </c>
+      <c r="P6">
+        <v>-0.13217353609437141</v>
+      </c>
+      <c r="Q6">
+        <v>-0.13339600542540717</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M7" t="s">
+        <v>61</v>
+      </c>
+      <c r="N7">
+        <v>0.06</v>
+      </c>
+      <c r="P7">
+        <v>-0.15946209715989715</v>
+      </c>
+      <c r="Q7">
+        <v>-0.16028860236040043</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M8" t="s">
+        <v>28</v>
+      </c>
+      <c r="N8">
+        <v>0.63</v>
+      </c>
+      <c r="P8">
+        <v>-0.1140205265691807</v>
+      </c>
+      <c r="Q8">
+        <v>-0.11533792022102714</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M9" t="s">
+        <v>62</v>
+      </c>
+      <c r="N9">
+        <v>0.51</v>
+      </c>
+      <c r="P9">
+        <v>-2.468440394702013E-3</v>
+      </c>
+      <c r="Q9">
+        <v>-2.5137287152050491E-3</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M10" t="s">
+        <v>76</v>
+      </c>
+      <c r="N10">
+        <v>-0.16</v>
+      </c>
+      <c r="P10">
+        <v>-8.479766818041079E-2</v>
+      </c>
+      <c r="Q10">
+        <v>-8.6033539734751807E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>44467</v>
+      </c>
+      <c r="M11" t="s">
+        <v>122</v>
+      </c>
+      <c r="N11">
+        <v>-0.67</v>
+      </c>
+      <c r="P11">
+        <v>-0.21562988737227104</v>
+      </c>
+      <c r="Q11">
+        <v>-0.21447674718256809</v>
+      </c>
+    </row>
+    <row r="14" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L14" t="s">
+        <v>42</v>
+      </c>
+      <c r="M14" t="s">
+        <v>0</v>
+      </c>
+      <c r="N14" t="s">
+        <v>35</v>
+      </c>
+      <c r="O14" t="s">
+        <v>36</v>
+      </c>
+      <c r="P14" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q14" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1283BD4-79DE-4ADE-86D3-D5D7A6F399C8}">
   <dimension ref="B3:H12"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
-      <selection activeCell="L10" sqref="L10"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="N67" sqref="N67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -7430,11 +11086,253 @@
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18AC68B4-23FA-4AD7-8403-A4203B708776}">
+  <dimension ref="L1:Q15"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J36" sqref="J36"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L1" t="s">
+        <v>42</v>
+      </c>
+      <c r="M1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O1" t="s">
+        <v>36</v>
+      </c>
+      <c r="P1" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q1" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="2" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L2" s="1">
+        <v>44486</v>
+      </c>
+      <c r="M2" t="s">
+        <v>43</v>
+      </c>
+      <c r="N2">
+        <v>0.87</v>
+      </c>
+      <c r="P2">
+        <v>0.16529008900588213</v>
+      </c>
+      <c r="Q2">
+        <v>0.16598816543916703</v>
+      </c>
+    </row>
+    <row r="3" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L3" s="1">
+        <v>44487</v>
+      </c>
+      <c r="M3" t="s">
+        <v>65</v>
+      </c>
+      <c r="N3">
+        <v>0.86</v>
+      </c>
+      <c r="P3">
+        <v>0.21143229106981282</v>
+      </c>
+      <c r="Q3">
+        <v>0.21048833337630862</v>
+      </c>
+    </row>
+    <row r="4" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L4" s="1">
+        <v>44487</v>
+      </c>
+      <c r="M4" t="s">
+        <v>75</v>
+      </c>
+      <c r="N4">
+        <v>-0.53</v>
+      </c>
+      <c r="P4">
+        <v>-6.8304058140525883E-2</v>
+      </c>
+      <c r="Q4">
+        <v>-6.9389788529091431E-2</v>
+      </c>
+    </row>
+    <row r="5" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L5" s="1">
+        <v>44487</v>
+      </c>
+      <c r="M5" t="s">
+        <v>66</v>
+      </c>
+      <c r="N5">
+        <v>0.72</v>
+      </c>
+      <c r="P5">
+        <v>0.48432752191924305</v>
+      </c>
+      <c r="Q5">
+        <v>0.44233888555464357</v>
+      </c>
+    </row>
+    <row r="6" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L6" s="1">
+        <v>44487</v>
+      </c>
+      <c r="M6" t="s">
+        <v>67</v>
+      </c>
+      <c r="N6">
+        <v>-0.82</v>
+      </c>
+      <c r="P6">
+        <v>-0.18680145270495568</v>
+      </c>
+      <c r="Q6">
+        <v>-0.18687804195574118</v>
+      </c>
+    </row>
+    <row r="7" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L7" s="1">
+        <v>44486</v>
+      </c>
+      <c r="M7" t="s">
+        <v>30</v>
+      </c>
+      <c r="N7">
+        <v>-0.15</v>
+      </c>
+      <c r="P7">
+        <v>-9.7282193314871437E-2</v>
+      </c>
+      <c r="Q7">
+        <v>-9.8584745804062887E-2</v>
+      </c>
+    </row>
+    <row r="8" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L8" s="1">
+        <v>44486</v>
+      </c>
+      <c r="M8" t="s">
+        <v>27</v>
+      </c>
+      <c r="N8">
+        <v>0.63</v>
+      </c>
+      <c r="P8">
+        <v>-2.9197112929525187E-2</v>
+      </c>
+      <c r="Q8">
+        <v>-2.9719750573116491E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L9" s="1">
+        <v>44486</v>
+      </c>
+      <c r="M9" t="s">
+        <v>71</v>
+      </c>
+      <c r="N9">
+        <v>0.68</v>
+      </c>
+      <c r="P9">
+        <v>-0.13283540153405135</v>
+      </c>
+      <c r="Q9">
+        <v>-0.13405201812105591</v>
+      </c>
+    </row>
+    <row r="10" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L10" s="1">
+        <v>44486</v>
+      </c>
+      <c r="M10" t="s">
+        <v>123</v>
+      </c>
+      <c r="N10">
+        <v>0.09</v>
+      </c>
+      <c r="P10">
+        <v>-3.2775213357939245E-2</v>
+      </c>
+      <c r="Q10">
+        <v>-3.3358068306794567E-2</v>
+      </c>
+    </row>
+    <row r="11" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L11" s="1">
+        <v>44486</v>
+      </c>
+      <c r="M11" t="s">
+        <v>25</v>
+      </c>
+      <c r="N11">
+        <v>0.34</v>
+      </c>
+      <c r="P11">
+        <v>-9.886583494680358E-2</v>
+      </c>
+      <c r="Q11">
+        <v>-0.10017361495997434</v>
+      </c>
+    </row>
+    <row r="12" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L12" s="1">
+        <v>44486</v>
+      </c>
+      <c r="M12" t="s">
+        <v>24</v>
+      </c>
+      <c r="N12">
+        <v>0.33</v>
+      </c>
+      <c r="P12">
+        <v>-0.18147916285595911</v>
+      </c>
+      <c r="Q12">
+        <v>-0.18173190954366125</v>
+      </c>
+    </row>
+    <row r="15" spans="12:17" x14ac:dyDescent="0.25">
+      <c r="L15" t="s">
+        <v>42</v>
+      </c>
+      <c r="M15" t="s">
+        <v>0</v>
+      </c>
+      <c r="N15" t="s">
+        <v>35</v>
+      </c>
+      <c r="O15" t="s">
+        <v>36</v>
+      </c>
+      <c r="P15" t="s">
+        <v>39</v>
+      </c>
+      <c r="Q15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B2424A2F-A1CE-497F-AA92-8E7EC6DEE16F}">
   <dimension ref="A1:Y37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D26" sqref="D26"/>
+      <selection activeCell="L36" sqref="L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -8133,208 +12031,98 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D005505A-8BB5-4591-9B76-4928C9DF9A4D}">
-  <dimension ref="B3:I31"/>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B0BD8854-E32E-4BF8-977B-23DAFC48806E}">
+  <dimension ref="A1:E15"/>
   <sheetViews>
-    <sheetView topLeftCell="A7" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="T21" sqref="T21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="H13" sqref="H13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B3" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B6" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" t="s">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B8" t="s">
-        <v>53</v>
-      </c>
-      <c r="I8" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B9" t="s">
-        <v>54</v>
-      </c>
-    </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B12" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B13" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B14" t="s">
-        <v>55</v>
-      </c>
-    </row>
-    <row r="31" spans="9:9" x14ac:dyDescent="0.25">
-      <c r="I31" t="s">
-        <v>45</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <drawing r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A02CF27A-4FD7-4A86-8D8E-5E36547C57CD}">
-  <dimension ref="A1:Y21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B37" sqref="B37"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <cols>
-    <col min="3" max="3" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="12" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="10.7109375" bestFit="1" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>12</v>
-      </c>
-      <c r="B1">
-        <v>1.6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>29</v>
+      </c>
+      <c r="D1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E1" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C3" t="s">
-        <v>15</v>
-      </c>
-      <c r="D3" t="s">
-        <v>16</v>
-      </c>
-      <c r="E3" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G3" t="s">
-        <v>9</v>
-      </c>
-      <c r="H3" t="s">
-        <v>10</v>
-      </c>
-      <c r="I3" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4">
-        <v>5.5965999999999996</v>
-      </c>
-      <c r="B4">
-        <v>6.2557</v>
-      </c>
-      <c r="C4">
-        <v>6.3556999999999997</v>
-      </c>
-      <c r="D4">
-        <v>5.3640999999999996</v>
-      </c>
-      <c r="E4">
-        <f>(A4-B4)</f>
-        <v>-0.65910000000000046</v>
-      </c>
-      <c r="F4">
-        <f>C4-D4</f>
-        <v>0.99160000000000004</v>
-      </c>
-    </row>
-    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="E6">
-        <v>0.65910000000000002</v>
-      </c>
-      <c r="F6">
-        <v>0.99180000000000001</v>
-      </c>
-      <c r="G6">
-        <v>0.32907399999999998</v>
-      </c>
-      <c r="H6">
-        <f>E6/G6</f>
-        <v>2.0028929663236843</v>
-      </c>
-      <c r="I6">
-        <f>$B$1*E6</f>
-        <v>1.0545600000000002</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="D8" t="s">
-        <v>17</v>
-      </c>
-      <c r="E8">
-        <f>F6-E6</f>
-        <v>0.3327</v>
-      </c>
-      <c r="I8">
-        <f>1.5*E4</f>
-        <v>-0.98865000000000069</v>
-      </c>
-    </row>
-    <row r="9" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="I9">
-        <f>E4/F4</f>
-        <v>-0.66468334005647478</v>
-      </c>
-    </row>
-    <row r="10" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="F10">
-        <f>E8/E6</f>
-        <v>0.50477924442421485</v>
-      </c>
-    </row>
-    <row r="18" spans="15:25" x14ac:dyDescent="0.25">
-      <c r="O18" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="21" spans="15:25" x14ac:dyDescent="0.25">
-      <c r="Y21" t="s">
-        <v>56</v>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>64</v>
       </c>
     </row>
   </sheetData>

--- a/data_book.xlsx
+++ b/data_book.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="c:\users\давид\pycharmprojects\binance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{025D1F53-D13E-4D69-BDF1-F42075BA43C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CDC25F3-5133-47F6-80CD-1D54E8824536}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30612" yWindow="-108" windowWidth="30936" windowHeight="16896" tabRatio="825" activeTab="9" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
+    <workbookView minimized="1" xWindow="33312" yWindow="6156" windowWidth="28800" windowHeight="15432" tabRatio="825" activeTab="9" xr2:uid="{ADB45353-3942-4F2C-BD93-386F557F18D2}"/>
   </bookViews>
   <sheets>
     <sheet name="2021-09-18" sheetId="185" r:id="rId1"/>
@@ -22,7 +22,7 @@
     <sheet name="2021-10-18" sheetId="196" r:id="rId7"/>
     <sheet name="Портфель" sheetId="94" r:id="rId8"/>
     <sheet name="Портфель2" sheetId="195" r:id="rId9"/>
-    <sheet name="Отклонение" sheetId="199" r:id="rId10"/>
+    <sheet name="Отклонение" sheetId="201" r:id="rId10"/>
     <sheet name="Отклонение обычн" sheetId="198" r:id="rId11"/>
     <sheet name="Лист2" sheetId="197" r:id="rId12"/>
     <sheet name="Лист6" sheetId="135" r:id="rId13"/>
@@ -50,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="133">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="915" uniqueCount="136">
   <si>
     <t>asset</t>
   </si>
@@ -449,6 +449,15 @@
   </si>
   <si>
     <t>Разность</t>
+  </si>
+  <si>
+    <t>Динамика</t>
+  </si>
+  <si>
+    <t>None</t>
+  </si>
+  <si>
+    <t>27 числа</t>
   </si>
 </sst>
 </file>
@@ -529,7 +538,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="8">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -538,6 +547,12 @@
     <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -970,23 +985,6 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EBACE1F-155E-4FDC-AA75-1DEE3F179EB9}" name="Таблица1" displayName="Таблица1" ref="L1:Q40" totalsRowCount="1">
-  <autoFilter ref="L1:Q39" xr:uid="{1EBACE1F-155E-4FDC-AA75-1DEE3F179EB9}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{A96FCBF6-B472-4878-8108-C0D8CE670FDF}" name="Open time" dataDxfId="1" totalsRowDxfId="0"/>
-    <tableColumn id="2" xr3:uid="{3A1DDEC8-CB41-4074-84F2-75F4A282B02C}" name="asset"/>
-    <tableColumn id="3" xr3:uid="{E446DFA7-079E-479F-BAE2-FC3983373293}" name="signal" totalsRowFunction="custom">
-      <totalsRowFormula>SUM(N2:N39)</totalsRowFormula>
-    </tableColumn>
-    <tableColumn id="4" xr3:uid="{FA208905-B282-48B3-B4C0-1C10C41E0A1C}" name="Удар"/>
-    <tableColumn id="5" xr3:uid="{D17E9123-0CAF-499D-A170-65055655CCB1}" name="sharp"/>
-    <tableColumn id="6" xr3:uid="{E785010F-A351-4C98-8DF3-4E60A32F2B5B}" name="sortino"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
 <file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{04EFE844-7938-408E-BBDE-6C03B50DFCDA}" name="Таблица13" displayName="Таблица13" ref="L1:R40" totalsRowCount="1">
   <autoFilter ref="L1:R39" xr:uid="{04EFE844-7938-408E-BBDE-6C03B50DFCDA}"/>
@@ -1047,21 +1045,6 @@
 </file>
 
 <file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{C1CAF52F-74C0-4C71-B134-C1F417D45397}" name="Таблица6" displayName="Таблица6" ref="A1:C39" totalsRowShown="0">
-  <autoFilter ref="A1:C39" xr:uid="{C1CAF52F-74C0-4C71-B134-C1F417D45397}"/>
-  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:C39">
-    <sortCondition descending="1" ref="B1:B39"/>
-  </sortState>
-  <tableColumns count="3">
-    <tableColumn id="1" xr3:uid="{FE1903F7-CCEB-4519-97B3-BC1E09A1033D}" name="Asset"/>
-    <tableColumn id="2" xr3:uid="{53429715-C5EA-48F6-B979-47338931AE97}" name="MAPE %"/>
-    <tableColumn id="3" xr3:uid="{32B886D9-449F-4F38-A8F0-663F5DCC0C50}" name="MAE"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{4CEC1135-BFA1-47D2-8AB3-2EDBB28B2999}" name="Таблица3" displayName="Таблица3" ref="A2:C40" totalsRowShown="0">
   <autoFilter ref="A2:C40" xr:uid="{4CEC1135-BFA1-47D2-8AB3-2EDBB28B2999}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A3:C40">
@@ -1076,7 +1059,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{668FAAC4-73A5-4641-BA06-6F2DB15CCEF4}" name="Таблица46" displayName="Таблица46" ref="E2:G40" totalsRowShown="0">
   <autoFilter ref="E2:G40" xr:uid="{668FAAC4-73A5-4641-BA06-6F2DB15CCEF4}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="E3:G40">
@@ -1091,7 +1074,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="14" xr:uid="{A36867DA-A284-426F-BBDF-C2CFE49D83A5}" name="Таблица14" displayName="Таблица14" ref="L1:Q39" totalsRowShown="0">
   <autoFilter ref="L1:Q39" xr:uid="{A36867DA-A284-426F-BBDF-C2CFE49D83A5}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q39">
@@ -1109,7 +1092,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{5ECF9284-F6D1-458A-92E6-1C2DD8D272B2}" name="Таблица2" displayName="Таблица2" ref="L1:Q40" totalsRowCount="1">
   <autoFilter ref="L1:Q39" xr:uid="{5ECF9284-F6D1-458A-92E6-1C2DD8D272B2}"/>
   <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="L2:Q39">
@@ -1124,6 +1107,23 @@
     <tableColumn id="4" xr3:uid="{E51E46F4-1516-4714-9571-124F133D5D70}" name="Удар"/>
     <tableColumn id="5" xr3:uid="{F3C6797C-B5B0-42D5-B43E-D1B7D66FB374}" name="sharp"/>
     <tableColumn id="6" xr3:uid="{8731B325-85C7-4D10-B411-694D5964C60A}" name="sortino"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{1EBACE1F-155E-4FDC-AA75-1DEE3F179EB9}" name="Таблица1" displayName="Таблица1" ref="L1:Q40" totalsRowCount="1">
+  <autoFilter ref="L1:Q39" xr:uid="{1EBACE1F-155E-4FDC-AA75-1DEE3F179EB9}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{A96FCBF6-B472-4878-8108-C0D8CE670FDF}" name="Open time" dataDxfId="1" totalsRowDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{3A1DDEC8-CB41-4074-84F2-75F4A282B02C}" name="asset"/>
+    <tableColumn id="3" xr3:uid="{E446DFA7-079E-479F-BAE2-FC3983373293}" name="signal" totalsRowFunction="custom">
+      <totalsRowFormula>SUM(N2:N39)</totalsRowFormula>
+    </tableColumn>
+    <tableColumn id="4" xr3:uid="{FA208905-B282-48B3-B4C0-1C10C41E0A1C}" name="Удар"/>
+    <tableColumn id="5" xr3:uid="{D17E9123-0CAF-499D-A170-65055655CCB1}" name="sharp"/>
+    <tableColumn id="6" xr3:uid="{E785010F-A351-4C98-8DF3-4E60A32F2B5B}" name="sortino"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -2693,453 +2693,417 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4BB7ABAF-8094-4FF4-B59B-278CC92E9CF0}">
-  <dimension ref="A1:C39"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{879D7939-27AE-46CD-AB86-6C00A5CB6DFE}">
+  <dimension ref="A1:H39"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C39" sqref="A1:C39"/>
+      <selection activeCell="D7" sqref="D7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="10.28515625" customWidth="1"/>
+    <col min="4" max="4" width="13" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A1" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="8" t="s">
         <v>128</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B1" s="8" t="s">
         <v>126</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C1" s="8" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" t="s">
+      <c r="D1" s="8" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" s="8" t="s">
+        <v>43</v>
+      </c>
+      <c r="B2" s="8"/>
+      <c r="C2" s="8"/>
+      <c r="D2" s="8">
+        <v>11.055769969872099</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" s="8" t="s">
+        <v>65</v>
+      </c>
+      <c r="B3" s="8"/>
+      <c r="C3" s="8"/>
+      <c r="D3" s="8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" s="8" t="s">
+        <v>75</v>
+      </c>
+      <c r="B4" s="8"/>
+      <c r="C4" s="8"/>
+      <c r="D4" s="8">
+        <v>-2.9625173162046714</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" s="8" t="s">
+        <v>66</v>
+      </c>
+      <c r="B5" s="8"/>
+      <c r="C5" s="8"/>
+      <c r="D5" s="8">
+        <v>-1.7091754279842331</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" s="8" t="s">
+        <v>67</v>
+      </c>
+      <c r="B6" s="8"/>
+      <c r="C6" s="8"/>
+      <c r="D6" s="8">
+        <v>5.0279050356366266</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="B7" s="8"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" s="8" t="s">
+        <v>1</v>
+      </c>
+      <c r="B8" s="8"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8">
+        <v>-1.6398393796066113</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="B9" s="9"/>
+      <c r="C9" s="9"/>
+      <c r="D9" s="9">
+        <v>23.034734412822555</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" s="8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="8"/>
+      <c r="C10" s="8"/>
+      <c r="D10" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" s="8" t="s">
+        <v>6</v>
+      </c>
+      <c r="B11" s="8"/>
+      <c r="C11" s="8"/>
+      <c r="D11" s="8">
+        <v>5.9227540167455572</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" s="8" t="s">
+        <v>24</v>
+      </c>
+      <c r="B12" s="8"/>
+      <c r="C12" s="8"/>
+      <c r="D12" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="B13" s="9"/>
+      <c r="C13" s="9"/>
+      <c r="D13" s="9">
+        <v>15.552044817525445</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" s="8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B14" s="8"/>
+      <c r="C14" s="8"/>
+      <c r="D14" s="8">
+        <v>-3.6522196294842324</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" s="8" t="s">
+        <v>27</v>
+      </c>
+      <c r="B15" s="8"/>
+      <c r="C15" s="8"/>
+      <c r="D15" s="8">
+        <v>0.67560295091869671</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" s="8" t="s">
+        <v>30</v>
+      </c>
+      <c r="B16" s="8"/>
+      <c r="C16" s="8"/>
+      <c r="D16" s="8">
+        <v>1.8200655191949799</v>
+      </c>
+    </row>
+    <row r="17" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A17" s="8" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="8"/>
+      <c r="C17" s="8"/>
+      <c r="D17" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="18" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A18" s="8" t="s">
+        <v>26</v>
+      </c>
+      <c r="B18" s="8"/>
+      <c r="C18" s="8"/>
+      <c r="D18" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="19" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A19" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="B19" s="8"/>
+      <c r="C19" s="8"/>
+      <c r="D19" s="8">
+        <v>-13.604830949027003</v>
+      </c>
+      <c r="H19" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="20" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A20" s="8" t="s">
+        <v>22</v>
+      </c>
+      <c r="B20" s="8"/>
+      <c r="C20" s="8"/>
+      <c r="D20" s="8">
+        <v>-14.107320851947547</v>
+      </c>
+    </row>
+    <row r="21" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A21" s="8" t="s">
+        <v>45</v>
+      </c>
+      <c r="B21" s="8"/>
+      <c r="C21" s="8"/>
+      <c r="D21" s="8">
+        <v>31.909960296308192</v>
+      </c>
+    </row>
+    <row r="22" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A22" s="8" t="s">
+        <v>46</v>
+      </c>
+      <c r="B22" s="8"/>
+      <c r="C22" s="8"/>
+      <c r="D22" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="23" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A23" s="8" t="s">
+        <v>47</v>
+      </c>
+      <c r="B23" s="8"/>
+      <c r="C23" s="8"/>
+      <c r="D23" s="8">
+        <v>-6.7759251357919714</v>
+      </c>
+    </row>
+    <row r="24" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A24" s="9" t="s">
+        <v>59</v>
+      </c>
+      <c r="B24" s="9"/>
+      <c r="C24" s="9"/>
+      <c r="D24" s="9">
+        <v>53.418571729419483</v>
+      </c>
+    </row>
+    <row r="25" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A25" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="B25" s="8"/>
+      <c r="C25" s="8"/>
+      <c r="D25" s="8">
+        <v>3.610211166494437</v>
+      </c>
+    </row>
+    <row r="26" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A26" s="8" t="s">
+        <v>5</v>
+      </c>
+      <c r="B26" s="8"/>
+      <c r="C26" s="8"/>
+      <c r="D26" s="8">
+        <v>-4.8691947642254707</v>
+      </c>
+    </row>
+    <row r="27" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A27" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="B27" s="8"/>
+      <c r="C27" s="8"/>
+      <c r="D27" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A28" s="8" t="s">
+        <v>64</v>
+      </c>
+      <c r="B28" s="8"/>
+      <c r="C28" s="8"/>
+      <c r="D28" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="29" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A29" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="B29" s="8"/>
+      <c r="C29" s="8"/>
+      <c r="D29" s="8">
+        <v>-3.7990813274430435</v>
+      </c>
+    </row>
+    <row r="30" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A30" s="8" t="s">
+        <v>60</v>
+      </c>
+      <c r="B30" s="8"/>
+      <c r="C30" s="8"/>
+      <c r="D30" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="31" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A31" s="8" t="s">
         <v>41</v>
       </c>
-      <c r="B2">
-        <v>35.42242068270555</v>
-      </c>
-      <c r="C2">
-        <v>5.233616723570087</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>62</v>
-      </c>
-      <c r="B3">
-        <v>30.133212007585644</v>
-      </c>
-      <c r="C3">
-        <v>0.39911529524431094</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>43</v>
-      </c>
-      <c r="B4">
-        <v>19.626559985543675</v>
-      </c>
-      <c r="C4">
-        <v>1665.901866963778</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
-        <v>47</v>
-      </c>
-      <c r="B5">
-        <v>14.118012310229787</v>
-      </c>
-      <c r="C5">
-        <v>1.2893346310434108</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A6" t="s">
-        <v>75</v>
-      </c>
-      <c r="B6">
-        <v>13.738451981403419</v>
-      </c>
-      <c r="C6">
-        <v>11.171457487602527</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A7" t="s">
-        <v>27</v>
-      </c>
-      <c r="B7">
-        <v>11.809126664748701</v>
-      </c>
-      <c r="C7">
-        <v>1.5331668753453289</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A8" t="s">
+      <c r="B31" s="8"/>
+      <c r="C31" s="8"/>
+      <c r="D31" s="8">
+        <v>-3.414061689479686</v>
+      </c>
+    </row>
+    <row r="32" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A32" s="8" t="s">
+        <v>69</v>
+      </c>
+      <c r="B32" s="8"/>
+      <c r="C32" s="8"/>
+      <c r="D32" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" s="8" t="s">
+        <v>68</v>
+      </c>
+      <c r="B33" s="8"/>
+      <c r="C33" s="8"/>
+      <c r="D33" s="8">
+        <v>-1.1823691178596052</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" s="8" t="s">
+        <v>72</v>
+      </c>
+      <c r="B34" s="8"/>
+      <c r="C34" s="8"/>
+      <c r="D34" s="8">
+        <v>38.596913114749313</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" s="8" t="s">
+        <v>73</v>
+      </c>
+      <c r="B35" s="8"/>
+      <c r="C35" s="8"/>
+      <c r="D35" s="8" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" s="8" t="s">
         <v>74</v>
       </c>
-      <c r="B8">
-        <v>11.432228273247796</v>
-      </c>
-      <c r="C8">
-        <v>4.9554316043453719</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
+      <c r="B36" s="8"/>
+      <c r="C36" s="8"/>
+      <c r="D36" s="8">
+        <v>-3.8904992376586067</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" s="8" t="s">
+        <v>70</v>
+      </c>
+      <c r="B37" s="8"/>
+      <c r="C37" s="8"/>
+      <c r="D37" s="8">
+        <v>-8.659843657085343</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" s="9" t="s">
+        <v>76</v>
+      </c>
+      <c r="B38" s="9"/>
+      <c r="C38" s="9"/>
+      <c r="D38" s="9">
+        <v>35.801405904906311</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" s="8" t="s">
         <v>71</v>
       </c>
-      <c r="B9">
-        <v>10.808666283923651</v>
-      </c>
-      <c r="C9">
-        <v>2.163033770055304</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>66</v>
-      </c>
-      <c r="B10">
-        <v>10.635412217091066</v>
-      </c>
-      <c r="C10">
-        <v>0.84986223058989818</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>70</v>
-      </c>
-      <c r="B11">
-        <v>9.7564658011684529</v>
-      </c>
-      <c r="C11">
-        <v>0.28481006048032281</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>5</v>
-      </c>
-      <c r="B12">
-        <v>9.1059635705037536</v>
-      </c>
-      <c r="C12">
-        <v>8.6613059919180859</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A13" t="s">
-        <v>59</v>
-      </c>
-      <c r="B13">
-        <v>8.9841417189678268</v>
-      </c>
-      <c r="C13">
-        <v>0.70246455824544218</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A14" t="s">
-        <v>65</v>
-      </c>
-      <c r="B14">
-        <v>7.601759880616008</v>
-      </c>
-      <c r="C14">
-        <v>0.20449545390455037</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A15" t="s">
-        <v>2</v>
-      </c>
-      <c r="B15">
-        <v>7.2690711747891035</v>
-      </c>
-      <c r="C15">
-        <v>11.023315450172012</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A16" t="s">
-        <v>22</v>
-      </c>
-      <c r="B16">
-        <v>6.4888178296204186</v>
-      </c>
-      <c r="C16">
-        <v>0.41658254894762797</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A17" t="s">
-        <v>64</v>
-      </c>
-      <c r="B17">
-        <v>5.5196759488292528</v>
-      </c>
-      <c r="C17">
-        <v>8.373596999629844E-2</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A18" t="s">
-        <v>63</v>
-      </c>
-      <c r="B18">
-        <v>4.9823281779247646</v>
-      </c>
-      <c r="C18">
-        <v>8.7350366296254423E-2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A19" t="s">
-        <v>67</v>
-      </c>
-      <c r="B19">
-        <v>4.4434040102659118</v>
-      </c>
-      <c r="C19">
-        <v>0.29080475635221981</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>4.0394307852003495</v>
-      </c>
-      <c r="C20">
-        <v>6.6756086242990495E-2</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21" t="s">
-        <v>72</v>
-      </c>
-      <c r="B21">
-        <v>3.2590172232648058</v>
-      </c>
-      <c r="C21">
-        <v>4.1766635338850944E-2</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A22" t="s">
-        <v>21</v>
-      </c>
-      <c r="B22">
-        <v>2.4295420780330108</v>
-      </c>
-      <c r="C22">
-        <v>2.9246103375328996E-2</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
-        <v>25</v>
-      </c>
-      <c r="B23">
-        <v>2.3620806699839583</v>
-      </c>
-      <c r="C23">
-        <v>3.3787085496028345E-2</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
-        <v>24</v>
-      </c>
-      <c r="B24">
-        <v>2.2883109513654807</v>
-      </c>
-      <c r="C24">
-        <v>3.1826172690732367E-2</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
-        <v>26</v>
-      </c>
-      <c r="B25">
-        <v>2.1581908681325763</v>
-      </c>
-      <c r="C25">
-        <v>0.16105302716172729</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
-        <v>45</v>
-      </c>
-      <c r="B26">
-        <v>1.7335425931135864</v>
-      </c>
-      <c r="C26">
-        <v>0.70841774578716021</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
-        <v>68</v>
-      </c>
-      <c r="B27">
-        <v>1.4238572041564368</v>
-      </c>
-      <c r="C27">
-        <v>8.9245150372614976E-2</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A28" t="s">
-        <v>46</v>
-      </c>
-      <c r="B28">
-        <v>1.2701134723341256</v>
-      </c>
-      <c r="C28">
-        <v>1.7500371605891869E-2</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" t="s">
-        <v>1</v>
-      </c>
-      <c r="B29">
-        <v>0.9885310229352352</v>
-      </c>
-      <c r="C29">
-        <v>1.0889943640375247E-2</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" t="s">
-        <v>69</v>
-      </c>
-      <c r="B30">
-        <v>0.95955872560659305</v>
-      </c>
-      <c r="C30">
-        <v>1.1988174618960512E-2</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A31" t="s">
-        <v>3</v>
-      </c>
-      <c r="B31">
-        <v>0.93037190025947858</v>
-      </c>
-      <c r="C31">
-        <v>1.0642771811183893E-2</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" t="s">
-        <v>73</v>
-      </c>
-      <c r="B32">
-        <v>0.87966303975174787</v>
-      </c>
-      <c r="C32">
-        <v>1.1083401585976094E-2</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" t="s">
-        <v>60</v>
-      </c>
-      <c r="B33">
-        <v>0.80325255601832035</v>
-      </c>
-      <c r="C33">
-        <v>9.1689297874186036E-3</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>6</v>
-      </c>
-      <c r="B34">
-        <v>0.70867903408268085</v>
-      </c>
-      <c r="C34">
-        <v>8.1512035952767316E-3</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>76</v>
-      </c>
-      <c r="B35">
-        <v>0.51286050994537014</v>
-      </c>
-      <c r="C35">
-        <v>5.4407055965754276E-3</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>20</v>
-      </c>
-      <c r="B36">
-        <v>0.4598316565030765</v>
-      </c>
-      <c r="C36">
-        <v>4.8417571157766499E-3</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>30</v>
-      </c>
-      <c r="B37">
-        <v>0.352924652874399</v>
-      </c>
-      <c r="C37">
-        <v>3.6817363746613299E-3</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A38" t="s">
-        <v>61</v>
-      </c>
-      <c r="B38">
-        <v>0.23915481665689961</v>
-      </c>
-      <c r="C38">
-        <v>2.5575377780403898E-3</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A39" t="s">
-        <v>28</v>
-      </c>
-      <c r="B39">
-        <v>0.12489746051574724</v>
-      </c>
-      <c r="C39">
-        <v>1.3116273990002592E-3</v>
+      <c r="B39" s="8"/>
+      <c r="C39" s="8"/>
+      <c r="D39" s="8">
+        <v>-10.036447997810804</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
 </worksheet>
 </file>
 
@@ -3148,7 +3112,7 @@
   <dimension ref="A1:O40"/>
   <sheetViews>
     <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+      <selection activeCell="N46" sqref="N46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
